--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>1秘籍id</t>
   </si>
@@ -98,6 +98,9 @@
     <t>粗布缠手</t>
   </si>
   <si>
+    <t>500</t>
+  </si>
+  <si>
     <t>Cloth</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
     <t>0.2</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -434,6 +440,12 @@
     <t>淑女剑</t>
   </si>
   <si>
+    <t>102107</t>
+  </si>
+  <si>
+    <t>越女剑</t>
+  </si>
+  <si>
     <t>102201</t>
   </si>
   <si>
@@ -687,6 +699,264 @@
   </si>
   <si>
     <t>竹筹</t>
+  </si>
+  <si>
+    <t>200001</t>
+  </si>
+  <si>
+    <t>官刀</t>
+  </si>
+  <si>
+    <t>200002</t>
+  </si>
+  <si>
+    <t>燕子缠手</t>
+  </si>
+  <si>
+    <t>200003</t>
+  </si>
+  <si>
+    <t>三叉戟</t>
+  </si>
+  <si>
+    <t>200004</t>
+  </si>
+  <si>
+    <t>黄河饮血刀</t>
+  </si>
+  <si>
+    <t>200005</t>
+  </si>
+  <si>
+    <t>密宗金刚圈</t>
+  </si>
+  <si>
+    <t>200006</t>
+  </si>
+  <si>
+    <t>天煞无形剑(江灏远)</t>
+  </si>
+  <si>
+    <t>200007</t>
+  </si>
+  <si>
+    <t>燕子坞剑(韩家宁)</t>
+  </si>
+  <si>
+    <t>200008</t>
+  </si>
+  <si>
+    <t>丐帮长老棍(彭长老)</t>
+  </si>
+  <si>
+    <t>200009</t>
+  </si>
+  <si>
+    <t>盘丝鹰爪缠手(薛大人)</t>
+  </si>
+  <si>
+    <t>200010</t>
+  </si>
+  <si>
+    <t>魔刀(马骎)</t>
+  </si>
+  <si>
+    <t>200011</t>
+  </si>
+  <si>
+    <t>五色遺招剑(杨益樵)</t>
+  </si>
+  <si>
+    <t>200012</t>
+  </si>
+  <si>
+    <t>天心剑</t>
+  </si>
+  <si>
+    <t>200013</t>
+  </si>
+  <si>
+    <t>全真入门剑(赵志敬)</t>
+  </si>
+  <si>
+    <t>200014</t>
+  </si>
+  <si>
+    <t>心剑(太仓道长)</t>
+  </si>
+  <si>
+    <t>200015</t>
+  </si>
+  <si>
+    <t>冰锋剑(何足道)</t>
+  </si>
+  <si>
+    <t>200016</t>
+  </si>
+  <si>
+    <t>降魔铲(火工头陀)</t>
+  </si>
+  <si>
+    <t>200017</t>
+  </si>
+  <si>
+    <t>逍遥缠手(秋水仙子)</t>
+  </si>
+  <si>
+    <t>200018</t>
+  </si>
+  <si>
+    <t>龙泉宝剑(郭芙)</t>
+  </si>
+  <si>
+    <t>200019</t>
+  </si>
+  <si>
+    <t>铁鱼竿(点沧渔隐)</t>
+  </si>
+  <si>
+    <t>200020</t>
+  </si>
+  <si>
+    <t>隐空刀(樵夫)</t>
+  </si>
+  <si>
+    <t>200021</t>
+  </si>
+  <si>
+    <t>金刚剑(武三通)</t>
+  </si>
+  <si>
+    <t>200022</t>
+  </si>
+  <si>
+    <t>折冲铁笔(朱子柳)</t>
+  </si>
+  <si>
+    <t>200023</t>
+  </si>
+  <si>
+    <t>轮回上五绝缠手(应锦繁)</t>
+  </si>
+  <si>
+    <t>200024</t>
+  </si>
+  <si>
+    <t>轮回下五绝缠手(骆一川)</t>
+  </si>
+  <si>
+    <t>200025</t>
+  </si>
+  <si>
+    <t>神音四象铁链(崔敏虬)</t>
+  </si>
+  <si>
+    <t>200026</t>
+  </si>
+  <si>
+    <t>慕容缠手(李天道)</t>
+  </si>
+  <si>
+    <t>200027</t>
+  </si>
+  <si>
+    <t>铁尸缠手(梅超风)</t>
+  </si>
+  <si>
+    <t>200028</t>
+  </si>
+  <si>
+    <t>铜尸缠手(陈玄风)</t>
+  </si>
+  <si>
+    <t>200029</t>
+  </si>
+  <si>
+    <t>万毒拐杖(西毒)</t>
+  </si>
+  <si>
+    <t>200030</t>
+  </si>
+  <si>
+    <t>金刚毒扇(欧阳克)</t>
+  </si>
+  <si>
+    <t>200031</t>
+  </si>
+  <si>
+    <t>寒玉缠手(周伯通)</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>通用刀1</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>通用剑1</t>
+  </si>
+  <si>
+    <t>203001</t>
+  </si>
+  <si>
+    <t>通用棍1</t>
+  </si>
+  <si>
+    <t>204001</t>
+  </si>
+  <si>
+    <t>通用枪1</t>
+  </si>
+  <si>
+    <t>205001</t>
+  </si>
+  <si>
+    <t>通用缠手1</t>
+  </si>
+  <si>
+    <t>206001</t>
+  </si>
+  <si>
+    <t>通用笛子1</t>
+  </si>
+  <si>
+    <t>207001</t>
+  </si>
+  <si>
+    <t>通用扇子1</t>
+  </si>
+  <si>
+    <t>208001</t>
+  </si>
+  <si>
+    <t>通用琴1</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>通用笔1</t>
+  </si>
+  <si>
+    <t>210001</t>
+  </si>
+  <si>
+    <t>通用暗器1</t>
+  </si>
+  <si>
+    <t>211001</t>
+  </si>
+  <si>
+    <t>通用鞭1</t>
+  </si>
+  <si>
+    <t>212001</t>
+  </si>
+  <si>
+    <t>通用特殊兵器1</t>
   </si>
 </sst>
 </file>
@@ -732,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -882,7 +1152,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>23</v>
@@ -894,13 +1164,13 @@
         <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" s="0" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>20</v>
@@ -926,13 +1196,13 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>23</v>
@@ -953,19 +1223,19 @@
         <v>23</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>25</v>
@@ -988,13 +1258,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>23</v>
@@ -1018,28 +1288,28 @@
         <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S5" s="0" t="s">
         <v>25</v>
@@ -1050,13 +1320,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>22</v>
@@ -1080,48 +1350,48 @@
         <v>23</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="S6" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>23</v>
@@ -1142,48 +1412,48 @@
         <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>23</v>
@@ -1236,19 +1506,19 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>24</v>
@@ -1298,16 +1568,16 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>22</v>
@@ -1360,19 +1630,19 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>24</v>
@@ -1422,19 +1692,19 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>24</v>
@@ -1484,16 +1754,16 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>23</v>
@@ -1546,16 +1816,16 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>23</v>
@@ -1608,16 +1878,16 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>22</v>
@@ -1670,19 +1940,19 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>24</v>
@@ -1732,19 +2002,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>24</v>
@@ -1794,10 +2064,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>23</v>
@@ -1856,10 +2126,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>23</v>
@@ -1918,10 +2188,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>23</v>
@@ -1980,10 +2250,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>23</v>
@@ -2042,10 +2312,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>23</v>
@@ -2104,10 +2374,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>23</v>
@@ -2166,13 +2436,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>23</v>
@@ -2181,7 +2451,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>23</v>
@@ -2196,13 +2466,13 @@
         <v>23</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L24" s="0" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>20</v>
@@ -2228,23 +2498,23 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>94</v>
-      </c>
       <c r="G25" s="0" t="s">
         <v>23</v>
       </c>
@@ -2258,13 +2528,13 @@
         <v>23</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L25" s="0" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>20</v>
@@ -2290,13 +2560,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>23</v>
@@ -2305,7 +2575,7 @@
         <v>23</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>23</v>
@@ -2320,28 +2590,28 @@
         <v>23</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>25</v>
@@ -2352,13 +2622,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>23</v>
@@ -2367,7 +2637,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>23</v>
@@ -2414,13 +2684,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>23</v>
@@ -2429,7 +2699,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>23</v>
@@ -2476,13 +2746,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>23</v>
@@ -2491,7 +2761,7 @@
         <v>23</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>23</v>
@@ -2538,13 +2808,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>23</v>
@@ -2553,7 +2823,7 @@
         <v>23</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>23</v>
@@ -2600,13 +2870,13 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>23</v>
@@ -2615,7 +2885,7 @@
         <v>23</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>23</v>
@@ -2662,13 +2932,13 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>23</v>
@@ -2677,7 +2947,7 @@
         <v>23</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>23</v>
@@ -2724,13 +2994,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>23</v>
@@ -2739,7 +3009,7 @@
         <v>23</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>23</v>
@@ -2786,10 +3056,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>23</v>
@@ -2801,7 +3071,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>23</v>
@@ -2848,13 +3118,13 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>22</v>
@@ -2863,7 +3133,7 @@
         <v>23</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>23</v>
@@ -2878,13 +3148,13 @@
         <v>23</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L35" s="0" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>20</v>
@@ -2910,22 +3180,22 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>118</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>23</v>
@@ -2972,22 +3242,22 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>23</v>
@@ -3034,22 +3304,22 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>23</v>
@@ -3096,22 +3366,22 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>23</v>
@@ -3126,25 +3396,25 @@
         <v>23</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>20</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="R39" s="0" t="s">
         <v>20</v>
@@ -3158,10 +3428,10 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>23</v>
@@ -3220,10 +3490,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>23</v>
@@ -3235,7 +3505,7 @@
         <v>23</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>23</v>
@@ -3282,10 +3552,10 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>23</v>
@@ -3297,7 +3567,7 @@
         <v>23</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>23</v>
@@ -3344,10 +3614,10 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>23</v>
@@ -3359,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>23</v>
@@ -3406,10 +3676,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>23</v>
@@ -3421,7 +3691,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>23</v>
@@ -3468,10 +3738,10 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>23</v>
@@ -3483,7 +3753,7 @@
         <v>23</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>23</v>
@@ -3530,10 +3800,10 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>23</v>
@@ -3545,7 +3815,7 @@
         <v>23</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>23</v>
@@ -3592,10 +3862,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>23</v>
@@ -3607,7 +3877,7 @@
         <v>23</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>23</v>
@@ -3654,10 +3924,10 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>23</v>
@@ -3669,7 +3939,7 @@
         <v>23</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>23</v>
@@ -3716,10 +3986,10 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>23</v>
@@ -3731,7 +4001,7 @@
         <v>23</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>23</v>
@@ -3778,22 +4048,22 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>23</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>23</v>
@@ -3808,16 +4078,16 @@
         <v>23</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>25</v>
@@ -3840,19 +4110,19 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>24</v>
@@ -3870,16 +4140,16 @@
         <v>23</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>25</v>
@@ -3902,19 +4172,19 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>24</v>
@@ -3964,19 +4234,19 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>24</v>
@@ -4026,19 +4296,19 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>24</v>
@@ -4056,16 +4326,16 @@
         <v>23</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O54" s="0" t="s">
         <v>25</v>
@@ -4088,19 +4358,19 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>24</v>
@@ -4118,16 +4388,16 @@
         <v>23</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>25</v>
@@ -4150,19 +4420,19 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F56" s="0" t="s">
         <v>24</v>
@@ -4212,19 +4482,19 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>24</v>
@@ -4274,19 +4544,19 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F58" s="0" t="s">
         <v>24</v>
@@ -4336,10 +4606,10 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>23</v>
@@ -4398,10 +4668,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>23</v>
@@ -4460,10 +4730,10 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>23</v>
@@ -4522,10 +4792,10 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>23</v>
@@ -4584,10 +4854,10 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>23</v>
@@ -4646,10 +4916,10 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>23</v>
@@ -4708,10 +4978,10 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>23</v>
@@ -4770,10 +5040,10 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>23</v>
@@ -4832,10 +5102,10 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>23</v>
@@ -4894,10 +5164,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>23</v>
@@ -4956,10 +5226,10 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>23</v>
@@ -4971,7 +5241,7 @@
         <v>23</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>23</v>
@@ -5018,10 +5288,10 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>23</v>
@@ -5033,7 +5303,7 @@
         <v>23</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>23</v>
@@ -5080,10 +5350,10 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>23</v>
@@ -5095,7 +5365,7 @@
         <v>23</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>23</v>
@@ -5142,22 +5412,22 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>23</v>
@@ -5204,10 +5474,10 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>23</v>
@@ -5219,7 +5489,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>23</v>
@@ -5266,10 +5536,10 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>23</v>
@@ -5281,7 +5551,7 @@
         <v>23</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>23</v>
@@ -5328,10 +5598,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>23</v>
@@ -5343,7 +5613,7 @@
         <v>23</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>23</v>
@@ -5390,10 +5660,10 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>23</v>
@@ -5405,7 +5675,7 @@
         <v>23</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>23</v>
@@ -5452,10 +5722,10 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>23</v>
@@ -5467,7 +5737,7 @@
         <v>23</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>23</v>
@@ -5514,10 +5784,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>23</v>
@@ -5529,7 +5799,7 @@
         <v>23</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="G78" s="0" t="s">
         <v>23</v>
@@ -5576,10 +5846,10 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>23</v>
@@ -5591,7 +5861,7 @@
         <v>23</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>23</v>
@@ -5638,10 +5908,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>23</v>
@@ -5653,7 +5923,7 @@
         <v>23</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>23</v>
@@ -5700,10 +5970,10 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>23</v>
@@ -5715,7 +5985,7 @@
         <v>23</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>23</v>
@@ -5762,10 +6032,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>23</v>
@@ -5777,7 +6047,7 @@
         <v>23</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>23</v>
@@ -5824,10 +6094,10 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>23</v>
@@ -5839,48 +6109,2776 @@
         <v>23</v>
       </c>
       <c r="F83" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T83" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F84" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G83" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H83" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="L83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="M83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="O83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="P83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="R83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="S83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="T83" s="0" t="s">
+      <c r="G84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T84" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F85" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T85" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F86" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T86" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S87" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T87" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F88" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S88" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T88" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T89" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S90" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T90" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S91" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T91" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T92" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T93" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T94" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T95" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T96" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S97" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T97" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S98" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T98" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S99" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T99" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S100" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T100" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S101" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T101" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S102" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T102" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S103" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T103" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K104" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L104" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M104" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N104" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O104" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P104" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q104" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R104" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S104" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T104" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S105" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T105" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H106" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S106" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T106" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G107" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K107" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M107" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N107" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O107" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P107" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q107" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R107" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S107" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T107" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S108" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T108" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H109" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S109" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T109" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S110" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T110" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G111" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H111" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S111" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T111" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H112" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S112" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T112" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G113" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H113" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S113" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T113" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G114" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H114" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K114" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L114" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M114" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N114" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O114" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P114" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q114" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R114" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S114" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T114" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G115" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H115" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S115" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T115" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G116" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H116" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K116" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L116" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M116" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N116" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O116" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P116" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q116" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R116" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S116" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T116" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G117" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H117" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T117" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G118" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H118" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T118" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T119" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F120" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G120" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T120" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G121" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H121" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T121" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H122" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T122" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G123" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H123" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S123" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T123" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S124" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T124" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F125" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G125" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H125" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S125" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T125" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H126" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K126" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L126" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N126" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O126" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P126" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q126" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R126" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S126" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T126" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G127" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H127" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="L127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="M127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="N127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="P127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="R127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="S127" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T127" s="0" t="s">
         <v>25</v>
       </c>
     </row>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="3160" windowWidth="25040" windowHeight="14420"/>
+    <workbookView xWindow="1160" yWindow="1640" windowWidth="26940" windowHeight="19280"/>
   </bookViews>
   <sheets>
     <sheet name="兵器数值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="312">
   <si>
     <t>1兵器id</t>
   </si>
@@ -378,9 +378,6 @@
     <t>铁剑</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>102002</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
   </si>
   <si>
     <t>全真七子剑</t>
-  </si>
-  <si>
-    <t>130</t>
   </si>
   <si>
     <t>102105</t>
@@ -967,13 +961,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -994,13 +1000,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1332,13 +1350,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3456,20 +3475,20 @@
       <c r="B35" t="s">
         <v>118</v>
       </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
+      <c r="C35">
+        <v>0.3</v>
+      </c>
+      <c r="D35">
+        <v>0.2</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
       </c>
-      <c r="F35" t="s">
-        <v>119</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
+      <c r="F35">
+        <v>70</v>
+      </c>
+      <c r="G35">
+        <v>200</v>
       </c>
       <c r="H35" t="s">
         <v>23</v>
@@ -3513,25 +3532,25 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
         <v>120</v>
       </c>
-      <c r="B36" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>67</v>
+      <c r="C36">
+        <v>0.35</v>
+      </c>
+      <c r="D36">
+        <v>0.25</v>
       </c>
       <c r="E36" t="s">
         <v>23</v>
       </c>
-      <c r="F36" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" t="s">
-        <v>23</v>
+      <c r="F36">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>300</v>
       </c>
       <c r="H36" t="s">
         <v>23</v>
@@ -3575,25 +3594,25 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" t="s">
         <v>122</v>
       </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" t="s">
-        <v>119</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
+      <c r="C37">
+        <v>0.4</v>
+      </c>
+      <c r="D37">
+        <v>0.3</v>
+      </c>
+      <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="F37">
+        <v>70</v>
+      </c>
+      <c r="G37">
+        <v>400</v>
       </c>
       <c r="H37" t="s">
         <v>23</v>
@@ -3637,25 +3656,25 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
         <v>124</v>
       </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" t="s">
-        <v>23</v>
+      <c r="C38">
+        <v>0.45</v>
+      </c>
+      <c r="D38">
+        <v>0.35</v>
+      </c>
+      <c r="E38">
+        <v>0.15</v>
+      </c>
+      <c r="F38">
+        <v>70</v>
+      </c>
+      <c r="G38">
+        <v>500</v>
       </c>
       <c r="H38" t="s">
         <v>23</v>
@@ -3699,22 +3718,22 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
         <v>126</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <v>0.4</v>
+      </c>
+      <c r="E39">
+        <v>0.2</v>
+      </c>
+      <c r="F39" t="s">
         <v>127</v>
-      </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" t="s">
-        <v>128</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
@@ -3761,22 +3780,22 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" t="s">
         <v>129</v>
       </c>
-      <c r="B40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" t="s">
-        <v>24</v>
+      <c r="C40">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D40">
+        <v>0.45</v>
+      </c>
+      <c r="E40">
+        <v>0.25</v>
+      </c>
+      <c r="F40">
+        <v>200</v>
       </c>
       <c r="G40" t="s">
         <v>23</v>
@@ -3823,11 +3842,11 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" t="s">
         <v>131</v>
       </c>
-      <c r="B41" t="s">
-        <v>132</v>
-      </c>
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -3837,8 +3856,8 @@
       <c r="E41" t="s">
         <v>23</v>
       </c>
-      <c r="F41" t="s">
-        <v>95</v>
+      <c r="F41">
+        <v>200</v>
       </c>
       <c r="G41" t="s">
         <v>23</v>
@@ -3885,11 +3904,11 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
         <v>133</v>
       </c>
-      <c r="B42" t="s">
-        <v>134</v>
-      </c>
       <c r="C42" t="s">
         <v>23</v>
       </c>
@@ -3899,8 +3918,8 @@
       <c r="E42" t="s">
         <v>23</v>
       </c>
-      <c r="F42" t="s">
-        <v>135</v>
+      <c r="F42">
+        <v>250</v>
       </c>
       <c r="G42" t="s">
         <v>23</v>
@@ -3947,10 +3966,10 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
@@ -3961,8 +3980,8 @@
       <c r="E43" t="s">
         <v>23</v>
       </c>
-      <c r="F43" t="s">
-        <v>138</v>
+      <c r="F43">
+        <v>300</v>
       </c>
       <c r="G43" t="s">
         <v>23</v>
@@ -4009,10 +4028,10 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
@@ -4023,8 +4042,8 @@
       <c r="E44" t="s">
         <v>23</v>
       </c>
-      <c r="F44" t="s">
-        <v>119</v>
+      <c r="F44">
+        <v>300</v>
       </c>
       <c r="G44" t="s">
         <v>23</v>
@@ -4071,10 +4090,10 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
         <v>23</v>
@@ -4085,8 +4104,8 @@
       <c r="E45" t="s">
         <v>23</v>
       </c>
-      <c r="F45" t="s">
-        <v>24</v>
+      <c r="F45">
+        <v>260</v>
       </c>
       <c r="G45" t="s">
         <v>23</v>
@@ -4133,25 +4152,25 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" t="s">
-        <v>119</v>
-      </c>
-      <c r="G46" t="s">
-        <v>23</v>
+        <v>142</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+      <c r="D46">
+        <v>0.4</v>
+      </c>
+      <c r="E46">
+        <v>0.2</v>
+      </c>
+      <c r="F46">
+        <v>70</v>
+      </c>
+      <c r="G46">
+        <v>600</v>
       </c>
       <c r="H46" t="s">
         <v>23</v>
@@ -4195,25 +4214,25 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" t="s">
-        <v>23</v>
+        <v>144</v>
+      </c>
+      <c r="C47">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D47">
+        <v>0.45</v>
+      </c>
+      <c r="E47">
+        <v>0.25</v>
+      </c>
+      <c r="F47">
+        <v>70</v>
+      </c>
+      <c r="G47">
+        <v>800</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
@@ -4257,25 +4276,25 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" t="s">
-        <v>119</v>
-      </c>
-      <c r="G48" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="C48">
+        <v>0.6</v>
+      </c>
+      <c r="D48">
+        <v>0.5</v>
+      </c>
+      <c r="E48">
+        <v>0.3</v>
+      </c>
+      <c r="F48">
+        <v>70</v>
+      </c>
+      <c r="G48">
+        <v>1000</v>
       </c>
       <c r="H48" t="s">
         <v>23</v>
@@ -4319,25 +4338,25 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" t="s">
-        <v>119</v>
-      </c>
-      <c r="G49" t="s">
-        <v>23</v>
+        <v>148</v>
+      </c>
+      <c r="C49">
+        <v>0.65</v>
+      </c>
+      <c r="D49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E49">
+        <v>0.35</v>
+      </c>
+      <c r="F49">
+        <v>70</v>
+      </c>
+      <c r="G49">
+        <v>1200</v>
       </c>
       <c r="H49" t="s">
         <v>23</v>
@@ -4381,25 +4400,25 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" t="s">
-        <v>119</v>
-      </c>
-      <c r="G50" t="s">
-        <v>23</v>
+        <v>150</v>
+      </c>
+      <c r="C50">
+        <v>0.7</v>
+      </c>
+      <c r="D50">
+        <v>0.6</v>
+      </c>
+      <c r="E50">
+        <v>0.4</v>
+      </c>
+      <c r="F50">
+        <v>70</v>
+      </c>
+      <c r="G50">
+        <v>1400</v>
       </c>
       <c r="H50" t="s">
         <v>23</v>
@@ -4443,10 +4462,10 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
         <v>31</v>
@@ -4457,11 +4476,11 @@
       <c r="E51" t="s">
         <v>23</v>
       </c>
-      <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>23</v>
+      <c r="F51">
+        <v>90</v>
+      </c>
+      <c r="G51">
+        <v>85</v>
       </c>
       <c r="H51" t="s">
         <v>23</v>
@@ -4505,10 +4524,10 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C52" t="s">
         <v>36</v>
@@ -4519,11 +4538,11 @@
       <c r="E52" t="s">
         <v>59</v>
       </c>
-      <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>23</v>
+      <c r="F52">
+        <v>90</v>
+      </c>
+      <c r="G52">
+        <v>170</v>
       </c>
       <c r="H52" t="s">
         <v>23</v>
@@ -4567,10 +4586,10 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C53" t="s">
         <v>41</v>
@@ -4581,11 +4600,11 @@
       <c r="E53" t="s">
         <v>22</v>
       </c>
-      <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
+      <c r="F53">
+        <v>90</v>
+      </c>
+      <c r="G53">
+        <v>255</v>
       </c>
       <c r="H53" t="s">
         <v>23</v>
@@ -4629,10 +4648,10 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
@@ -4643,11 +4662,11 @@
       <c r="E54" t="s">
         <v>31</v>
       </c>
-      <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>23</v>
+      <c r="F54">
+        <v>90</v>
+      </c>
+      <c r="G54">
+        <v>340</v>
       </c>
       <c r="H54" t="s">
         <v>23</v>
@@ -4691,10 +4710,10 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
         <v>41</v>
@@ -4705,11 +4724,11 @@
       <c r="E55" t="s">
         <v>22</v>
       </c>
-      <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
+      <c r="F55">
+        <v>110</v>
+      </c>
+      <c r="G55">
+        <v>50</v>
       </c>
       <c r="H55" t="s">
         <v>23</v>
@@ -4753,10 +4772,10 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -4767,11 +4786,11 @@
       <c r="E56" t="s">
         <v>67</v>
       </c>
-      <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>23</v>
+      <c r="F56">
+        <v>110</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
@@ -4815,10 +4834,10 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
         <v>47</v>
@@ -4829,11 +4848,11 @@
       <c r="E57" t="s">
         <v>31</v>
       </c>
-      <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
+      <c r="F57">
+        <v>110</v>
+      </c>
+      <c r="G57">
+        <v>150</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
@@ -4877,10 +4896,10 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C58" t="s">
         <v>58</v>
@@ -4891,11 +4910,11 @@
       <c r="E58" t="s">
         <v>41</v>
       </c>
-      <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>23</v>
+      <c r="F58">
+        <v>110</v>
+      </c>
+      <c r="G58">
+        <v>200</v>
       </c>
       <c r="H58" t="s">
         <v>23</v>
@@ -4939,25 +4958,25 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
+        <v>168</v>
+      </c>
+      <c r="C59">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D59">
+        <v>0.45</v>
+      </c>
+      <c r="E59">
+        <v>0.35</v>
+      </c>
+      <c r="F59">
+        <v>110</v>
+      </c>
+      <c r="G59">
+        <v>300</v>
       </c>
       <c r="H59" t="s">
         <v>23</v>
@@ -5001,25 +5020,25 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
-      </c>
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>23</v>
+        <v>170</v>
+      </c>
+      <c r="C60">
+        <v>0.6</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+      <c r="E60">
+        <v>0.4</v>
+      </c>
+      <c r="F60">
+        <v>110</v>
+      </c>
+      <c r="G60">
+        <v>400</v>
       </c>
       <c r="H60" t="s">
         <v>23</v>
@@ -5063,25 +5082,25 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" t="s">
-        <v>23</v>
+        <v>172</v>
+      </c>
+      <c r="C61">
+        <v>0.65</v>
+      </c>
+      <c r="D61">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E61">
+        <v>0.45</v>
+      </c>
+      <c r="F61">
+        <v>110</v>
+      </c>
+      <c r="G61">
+        <v>500</v>
       </c>
       <c r="H61" t="s">
         <v>23</v>
@@ -5125,25 +5144,25 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
-      </c>
-      <c r="C62" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>23</v>
+        <v>174</v>
+      </c>
+      <c r="C62">
+        <v>0.7</v>
+      </c>
+      <c r="D62">
+        <v>0.6</v>
+      </c>
+      <c r="E62">
+        <v>0.5</v>
+      </c>
+      <c r="F62">
+        <v>110</v>
+      </c>
+      <c r="G62">
+        <v>600</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
@@ -5187,25 +5206,25 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
-      </c>
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" t="s">
-        <v>23</v>
+        <v>176</v>
+      </c>
+      <c r="C63">
+        <v>0.75</v>
+      </c>
+      <c r="D63">
+        <v>0.65</v>
+      </c>
+      <c r="E63">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F63">
+        <v>110</v>
+      </c>
+      <c r="G63">
+        <v>700</v>
       </c>
       <c r="H63" t="s">
         <v>23</v>
@@ -5249,10 +5268,10 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C64" t="s">
         <v>23</v>
@@ -5311,10 +5330,10 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C65" t="s">
         <v>23</v>
@@ -5373,10 +5392,10 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
@@ -5435,10 +5454,10 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -5497,10 +5516,10 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C68" t="s">
         <v>23</v>
@@ -5559,10 +5578,10 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
         <v>23</v>
@@ -5621,22 +5640,22 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" t="s">
+        <v>190</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" t="s">
         <v>191</v>
-      </c>
-      <c r="B70" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" t="s">
-        <v>193</v>
       </c>
       <c r="G70" t="s">
         <v>23</v>
@@ -5683,25 +5702,25 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71">
+        <v>0.1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
         <v>194</v>
       </c>
-      <c r="B71" t="s">
-        <v>195</v>
-      </c>
-      <c r="C71" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" t="s">
-        <v>196</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
+      <c r="G71">
+        <v>300</v>
       </c>
       <c r="H71" t="s">
         <v>23</v>
@@ -5745,13 +5764,13 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" t="s">
-        <v>23</v>
+        <v>196</v>
+      </c>
+      <c r="C72">
+        <v>0.15</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -5760,10 +5779,10 @@
         <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>196</v>
-      </c>
-      <c r="G72" t="s">
-        <v>23</v>
+        <v>194</v>
+      </c>
+      <c r="G72">
+        <v>400</v>
       </c>
       <c r="H72" t="s">
         <v>23</v>
@@ -5807,13 +5826,13 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" t="s">
-        <v>23</v>
+        <v>198</v>
+      </c>
+      <c r="C73">
+        <v>0.2</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -5822,10 +5841,10 @@
         <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>196</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
+        <v>194</v>
+      </c>
+      <c r="G73">
+        <v>500</v>
       </c>
       <c r="H73" t="s">
         <v>23</v>
@@ -5869,25 +5888,25 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" t="s">
-        <v>23</v>
+        <v>200</v>
+      </c>
+      <c r="C74">
+        <v>0.25</v>
+      </c>
+      <c r="D74">
+        <v>0.1</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>196</v>
-      </c>
-      <c r="G74" t="s">
-        <v>23</v>
+        <v>194</v>
+      </c>
+      <c r="G74">
+        <v>600</v>
       </c>
       <c r="H74" t="s">
         <v>23</v>
@@ -5931,25 +5950,25 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" t="s">
-        <v>23</v>
+        <v>202</v>
+      </c>
+      <c r="C75">
+        <v>0.4</v>
+      </c>
+      <c r="D75">
+        <v>0.2</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>196</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
+        <v>194</v>
+      </c>
+      <c r="G75">
+        <v>700</v>
       </c>
       <c r="H75" t="s">
         <v>23</v>
@@ -5993,22 +6012,22 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" t="s">
+        <v>204</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" t="s">
         <v>205</v>
-      </c>
-      <c r="B76" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" t="s">
-        <v>23</v>
-      </c>
-      <c r="E76" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" t="s">
-        <v>207</v>
       </c>
       <c r="G76" t="s">
         <v>23</v>
@@ -6055,10 +6074,10 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
         <v>23</v>
@@ -6070,7 +6089,7 @@
         <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G77" t="s">
         <v>23</v>
@@ -6117,10 +6136,10 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B78" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s">
         <v>23</v>
@@ -6179,22 +6198,22 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" t="s">
         <v>212</v>
-      </c>
-      <c r="B79" t="s">
-        <v>213</v>
-      </c>
-      <c r="C79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" t="s">
-        <v>214</v>
       </c>
       <c r="G79" t="s">
         <v>23</v>
@@ -6241,22 +6260,22 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="s">
         <v>215</v>
-      </c>
-      <c r="B80" t="s">
-        <v>216</v>
-      </c>
-      <c r="C80" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" t="s">
-        <v>23</v>
-      </c>
-      <c r="F80" t="s">
-        <v>217</v>
       </c>
       <c r="G80" t="s">
         <v>23</v>
@@ -6303,10 +6322,10 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C81" t="s">
         <v>23</v>
@@ -6365,22 +6384,22 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
+        <v>218</v>
+      </c>
+      <c r="B82" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82" t="s">
         <v>220</v>
-      </c>
-      <c r="B82" t="s">
-        <v>221</v>
-      </c>
-      <c r="C82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" t="s">
-        <v>222</v>
       </c>
       <c r="G82" t="s">
         <v>23</v>
@@ -6427,22 +6446,22 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" t="s">
+        <v>222</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F83" t="s">
         <v>223</v>
-      </c>
-      <c r="B83" t="s">
-        <v>224</v>
-      </c>
-      <c r="C83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" t="s">
-        <v>225</v>
       </c>
       <c r="G83" t="s">
         <v>23</v>
@@ -6489,10 +6508,10 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B84" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
@@ -6551,10 +6570,10 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C85" t="s">
         <v>22</v>
@@ -6566,7 +6585,7 @@
         <v>23</v>
       </c>
       <c r="F85" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G85" t="s">
         <v>23</v>
@@ -6613,10 +6632,10 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C86" t="s">
         <v>23</v>
@@ -6675,10 +6694,10 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B87" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -6737,10 +6756,10 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
@@ -6799,10 +6818,10 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
@@ -6861,10 +6880,10 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C90" t="s">
         <v>23</v>
@@ -6923,10 +6942,10 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
@@ -6985,10 +7004,10 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B92" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
@@ -7047,10 +7066,10 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
@@ -7109,10 +7128,10 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C94" t="s">
         <v>23</v>
@@ -7171,10 +7190,10 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B95" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
@@ -7233,10 +7252,10 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
@@ -7295,10 +7314,10 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
@@ -7357,10 +7376,10 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B98" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
@@ -7419,10 +7438,10 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B99" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
@@ -7481,10 +7500,10 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C100" t="s">
         <v>23</v>
@@ -7543,10 +7562,10 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B101" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s">
         <v>23</v>
@@ -7605,10 +7624,10 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B102" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C102" t="s">
         <v>23</v>
@@ -7667,10 +7686,10 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B103" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -7729,10 +7748,10 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B104" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
@@ -7791,10 +7810,10 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B105" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
@@ -7853,10 +7872,10 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B106" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
@@ -7915,10 +7934,10 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B107" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
@@ -7977,10 +7996,10 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
@@ -8039,10 +8058,10 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B109" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C109" t="s">
         <v>23</v>
@@ -8101,10 +8120,10 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B110" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C110" t="s">
         <v>23</v>
@@ -8163,10 +8182,10 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B111" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C111" t="s">
         <v>23</v>
@@ -8225,10 +8244,10 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B112" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C112" t="s">
         <v>23</v>
@@ -8287,10 +8306,10 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B113" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C113" t="s">
         <v>23</v>
@@ -8349,10 +8368,10 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B114" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C114" t="s">
         <v>23</v>
@@ -8411,10 +8430,10 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C115" t="s">
         <v>23</v>
@@ -8473,10 +8492,10 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B116" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C116" t="s">
         <v>23</v>
@@ -8535,10 +8554,10 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B117" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C117" t="s">
         <v>23</v>
@@ -8597,10 +8616,10 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B118" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C118" t="s">
         <v>23</v>
@@ -8659,10 +8678,10 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B119" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C119" t="s">
         <v>23</v>
@@ -8721,10 +8740,10 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B120" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C120" t="s">
         <v>23</v>
@@ -8783,10 +8802,10 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B121" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C121" t="s">
         <v>23</v>
@@ -8845,10 +8864,10 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B122" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C122" t="s">
         <v>23</v>
@@ -8907,10 +8926,10 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C123" t="s">
         <v>23</v>
@@ -8969,10 +8988,10 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B124" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C124" t="s">
         <v>23</v>
@@ -9031,10 +9050,10 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B125" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C125" t="s">
         <v>23</v>
@@ -9093,10 +9112,10 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B126" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C126" t="s">
         <v>23</v>
@@ -9155,10 +9174,10 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B127" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
@@ -9218,6 +9237,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1640" windowWidth="26940" windowHeight="19280"/>
+    <workbookView xWindow="360" yWindow="6600" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="兵器数值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="333">
   <si>
     <t>1兵器id</t>
   </si>
@@ -105,6 +105,9 @@
     <t>粗布缠手</t>
   </si>
   <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>Cloth</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
     <t>0.2</t>
   </si>
   <si>
+    <t>200</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
@@ -132,6 +138,12 @@
     <t>0.25</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -147,6 +159,9 @@
     <t>0.3</t>
   </si>
   <si>
+    <t>400</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -165,6 +180,12 @@
     <t>0.4</t>
   </si>
   <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -189,6 +210,12 @@
     <t>0.45</t>
   </si>
   <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
     <t>100102</t>
   </si>
   <si>
@@ -201,6 +228,12 @@
     <t>0.05</t>
   </si>
   <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
     <t>100103</t>
   </si>
   <si>
@@ -213,6 +246,12 @@
     <t>0.35</t>
   </si>
   <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
     <t>100104</t>
   </si>
   <si>
@@ -225,6 +264,9 @@
     <t>0.15</t>
   </si>
   <si>
+    <t>1200</t>
+  </si>
+  <si>
     <t>100105</t>
   </si>
   <si>
@@ -234,6 +276,12 @@
     <t>0.65</t>
   </si>
   <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
     <t>100201</t>
   </si>
   <si>
@@ -246,6 +294,9 @@
     <t>魔障缠手</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>100203</t>
   </si>
   <si>
@@ -258,12 +309,21 @@
     <t>白虎</t>
   </si>
   <si>
+    <t>1100</t>
+  </si>
+  <si>
     <t>100205</t>
   </si>
   <si>
     <t>天机</t>
   </si>
   <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>100301</t>
   </si>
   <si>
@@ -276,6 +336,9 @@
     <t>铁尸缠手</t>
   </si>
   <si>
+    <t>0.7</t>
+  </si>
+  <si>
     <t>100303</t>
   </si>
   <si>
@@ -306,78 +369,87 @@
     <t>狼牙枪</t>
   </si>
   <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>铁头枪</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>101003</t>
+  </si>
+  <si>
+    <t>红缨钢枪</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>101004</t>
+  </si>
+  <si>
+    <t>英雄枪</t>
+  </si>
+  <si>
+    <t>101005</t>
+  </si>
+  <si>
+    <t>千钧搠枪</t>
+  </si>
+  <si>
+    <t>101101</t>
+  </si>
+  <si>
+    <t>六棱枪</t>
+  </si>
+  <si>
+    <t>101102</t>
+  </si>
+  <si>
+    <t>钩镰枪</t>
+  </si>
+  <si>
+    <t>101103</t>
+  </si>
+  <si>
+    <t>追魂枪</t>
+  </si>
+  <si>
+    <t>101104</t>
+  </si>
+  <si>
+    <t>透骨枪</t>
+  </si>
+  <si>
+    <t>101105</t>
+  </si>
+  <si>
+    <t>赤月枪</t>
+  </si>
+  <si>
+    <t>101201</t>
+  </si>
+  <si>
+    <t>大杆秤</t>
+  </si>
+  <si>
     <t>120</t>
   </si>
   <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>铁头枪</t>
-  </si>
-  <si>
-    <t>101003</t>
-  </si>
-  <si>
-    <t>红缨钢枪</t>
-  </si>
-  <si>
-    <t>101004</t>
-  </si>
-  <si>
-    <t>英雄枪</t>
-  </si>
-  <si>
-    <t>101005</t>
-  </si>
-  <si>
-    <t>千钧搠枪</t>
-  </si>
-  <si>
-    <t>101101</t>
-  </si>
-  <si>
-    <t>六棱枪</t>
-  </si>
-  <si>
-    <t>101102</t>
-  </si>
-  <si>
-    <t>钩镰枪</t>
-  </si>
-  <si>
-    <t>101103</t>
-  </si>
-  <si>
-    <t>追魂枪</t>
-  </si>
-  <si>
-    <t>101104</t>
-  </si>
-  <si>
-    <t>透骨枪</t>
-  </si>
-  <si>
-    <t>101105</t>
-  </si>
-  <si>
-    <t>赤月枪</t>
-  </si>
-  <si>
-    <t>101201</t>
-  </si>
-  <si>
-    <t>大杆秤</t>
-  </si>
-  <si>
     <t>102001</t>
   </si>
   <si>
     <t>铁剑</t>
   </si>
   <si>
+    <t>70</t>
+  </si>
+  <si>
     <t>102002</t>
   </si>
   <si>
@@ -429,9 +501,6 @@
     <t>玄铁重剑</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>102106</t>
   </si>
   <si>
@@ -480,6 +549,9 @@
     <t>马刀</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>103002</t>
   </si>
   <si>
@@ -504,6 +576,9 @@
     <t>桃木棍</t>
   </si>
   <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>104002</t>
   </si>
   <si>
@@ -552,416 +627,405 @@
     <t>紧那罗棒</t>
   </si>
   <si>
+    <t>0.75</t>
+  </si>
+  <si>
     <t>104201</t>
   </si>
   <si>
+    <t>104202</t>
+  </si>
+  <si>
+    <t>慈恩禅杖</t>
+  </si>
+  <si>
+    <t>104203</t>
+  </si>
+  <si>
+    <t>伏魔金刚铲</t>
+  </si>
+  <si>
+    <t>104204</t>
+  </si>
+  <si>
+    <t>骷髅拐杖</t>
+  </si>
+  <si>
+    <t>104205</t>
+  </si>
+  <si>
+    <t>打狗棒</t>
+  </si>
+  <si>
+    <t>104206</t>
+  </si>
+  <si>
+    <t>红玉仗</t>
+  </si>
+  <si>
+    <t>104207</t>
+  </si>
+  <si>
+    <t>万毒拐杖</t>
+  </si>
+  <si>
+    <t>105101</t>
+  </si>
+  <si>
+    <t>短笛</t>
+  </si>
+  <si>
+    <t>105102</t>
+  </si>
+  <si>
+    <t>木笛</t>
+  </si>
+  <si>
+    <t>105103</t>
+  </si>
+  <si>
+    <t>漆笛</t>
+  </si>
+  <si>
+    <t>105104</t>
+  </si>
+  <si>
+    <t>赤灵</t>
+  </si>
+  <si>
+    <t>105105</t>
+  </si>
+  <si>
+    <t>银炎</t>
+  </si>
+  <si>
+    <t>105201</t>
+  </si>
+  <si>
+    <t>碧海潮声笛</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>106001</t>
+  </si>
+  <si>
+    <t>金刚毒扇</t>
+  </si>
+  <si>
+    <t>106002</t>
+  </si>
+  <si>
+    <t>金刚佛珠</t>
+  </si>
+  <si>
+    <t>106003</t>
+  </si>
+  <si>
+    <t>金刚五轮</t>
+  </si>
+  <si>
+    <t>106004</t>
+  </si>
+  <si>
+    <t>金龙软鞭</t>
+  </si>
+  <si>
+    <t>106005</t>
+  </si>
+  <si>
+    <t>金丝拂尘</t>
+  </si>
+  <si>
+    <t>106006</t>
+  </si>
+  <si>
+    <t>铁骨扇</t>
+  </si>
+  <si>
+    <t>106007</t>
+  </si>
+  <si>
+    <t>折冲铁笔</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>106008</t>
+  </si>
+  <si>
+    <t>竹筹</t>
+  </si>
+  <si>
+    <t>200001</t>
+  </si>
+  <si>
+    <t>官刀</t>
+  </si>
+  <si>
+    <t>200002</t>
+  </si>
+  <si>
+    <t>燕子缠手</t>
+  </si>
+  <si>
+    <t>200003</t>
+  </si>
+  <si>
+    <t>三叉戟</t>
+  </si>
+  <si>
+    <t>200004</t>
+  </si>
+  <si>
+    <t>黄河饮血刀</t>
+  </si>
+  <si>
+    <t>200005</t>
+  </si>
+  <si>
+    <t>密宗金刚圈</t>
+  </si>
+  <si>
+    <t>200006</t>
+  </si>
+  <si>
+    <t>天煞无形剑(江灏远)</t>
+  </si>
+  <si>
+    <t>200007</t>
+  </si>
+  <si>
+    <t>燕子坞剑(韩家宁)</t>
+  </si>
+  <si>
+    <t>200008</t>
+  </si>
+  <si>
+    <t>丐帮长老棍(彭长老)</t>
+  </si>
+  <si>
+    <t>200009</t>
+  </si>
+  <si>
+    <t>盘丝鹰爪缠手(薛大人)</t>
+  </si>
+  <si>
+    <t>200010</t>
+  </si>
+  <si>
+    <t>魔刀(马骎)</t>
+  </si>
+  <si>
+    <t>200011</t>
+  </si>
+  <si>
+    <t>五色遺招剑(杨益樵)</t>
+  </si>
+  <si>
+    <t>200012</t>
+  </si>
+  <si>
+    <t>天心剑</t>
+  </si>
+  <si>
+    <t>200013</t>
+  </si>
+  <si>
+    <t>全真入门剑(赵志敬)</t>
+  </si>
+  <si>
+    <t>200014</t>
+  </si>
+  <si>
+    <t>心剑(太仓道长)</t>
+  </si>
+  <si>
+    <t>200015</t>
+  </si>
+  <si>
+    <t>冰锋剑(何足道)</t>
+  </si>
+  <si>
+    <t>200016</t>
+  </si>
+  <si>
+    <t>降魔铲(火工头陀)</t>
+  </si>
+  <si>
+    <t>200017</t>
+  </si>
+  <si>
+    <t>逍遥缠手(秋水仙子)</t>
+  </si>
+  <si>
+    <t>200018</t>
+  </si>
+  <si>
+    <t>龙泉宝剑(郭芙)</t>
+  </si>
+  <si>
+    <t>200019</t>
+  </si>
+  <si>
+    <t>铁鱼竿(点沧渔隐)</t>
+  </si>
+  <si>
+    <t>200020</t>
+  </si>
+  <si>
+    <t>隐空刀(樵夫)</t>
+  </si>
+  <si>
+    <t>200021</t>
+  </si>
+  <si>
+    <t>金刚剑(武三通)</t>
+  </si>
+  <si>
+    <t>200022</t>
+  </si>
+  <si>
+    <t>折冲铁笔(朱子柳)</t>
+  </si>
+  <si>
+    <t>200023</t>
+  </si>
+  <si>
+    <t>轮回上五绝缠手(应锦繁)</t>
+  </si>
+  <si>
+    <t>200024</t>
+  </si>
+  <si>
+    <t>轮回下五绝缠手(骆一川)</t>
+  </si>
+  <si>
+    <t>200025</t>
+  </si>
+  <si>
+    <t>神音四象铁链(崔敏虬)</t>
+  </si>
+  <si>
+    <t>200026</t>
+  </si>
+  <si>
+    <t>慕容缠手(李天道)</t>
+  </si>
+  <si>
+    <t>200027</t>
+  </si>
+  <si>
+    <t>铁尸缠手(梅超风)</t>
+  </si>
+  <si>
+    <t>200028</t>
+  </si>
+  <si>
+    <t>铜尸缠手(陈玄风)</t>
+  </si>
+  <si>
+    <t>200029</t>
+  </si>
+  <si>
+    <t>万毒拐杖(西毒)</t>
+  </si>
+  <si>
+    <t>200030</t>
+  </si>
+  <si>
+    <t>金刚毒扇(欧阳克)</t>
+  </si>
+  <si>
+    <t>200031</t>
+  </si>
+  <si>
+    <t>寒玉缠手(周伯通)</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>通用刀1</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>通用剑1</t>
+  </si>
+  <si>
+    <t>203001</t>
+  </si>
+  <si>
+    <t>通用棍1</t>
+  </si>
+  <si>
+    <t>204001</t>
+  </si>
+  <si>
+    <t>通用枪1</t>
+  </si>
+  <si>
+    <t>205001</t>
+  </si>
+  <si>
+    <t>通用缠手1</t>
+  </si>
+  <si>
+    <t>206001</t>
+  </si>
+  <si>
+    <t>通用笛子1</t>
+  </si>
+  <si>
+    <t>207001</t>
+  </si>
+  <si>
+    <t>通用扇子1</t>
+  </si>
+  <si>
+    <t>208001</t>
+  </si>
+  <si>
+    <t>通用琴1</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>通用笔1</t>
+  </si>
+  <si>
+    <t>210001</t>
+  </si>
+  <si>
+    <t>通用暗器1</t>
+  </si>
+  <si>
+    <t>211001</t>
+  </si>
+  <si>
+    <t>通用鞭1</t>
+  </si>
+  <si>
+    <t>212001</t>
+  </si>
+  <si>
+    <t>通用特殊兵器1</t>
+  </si>
+  <si>
     <t>纯钢扁担</t>
-  </si>
-  <si>
-    <t>104202</t>
-  </si>
-  <si>
-    <t>慈恩禅杖</t>
-  </si>
-  <si>
-    <t>104203</t>
-  </si>
-  <si>
-    <t>伏魔金刚铲</t>
-  </si>
-  <si>
-    <t>104204</t>
-  </si>
-  <si>
-    <t>骷髅拐杖</t>
-  </si>
-  <si>
-    <t>104205</t>
-  </si>
-  <si>
-    <t>打狗棒</t>
-  </si>
-  <si>
-    <t>104206</t>
-  </si>
-  <si>
-    <t>红玉仗</t>
-  </si>
-  <si>
-    <t>104207</t>
-  </si>
-  <si>
-    <t>万毒拐杖</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>105101</t>
-  </si>
-  <si>
-    <t>短笛</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>105102</t>
-  </si>
-  <si>
-    <t>木笛</t>
-  </si>
-  <si>
-    <t>105103</t>
-  </si>
-  <si>
-    <t>漆笛</t>
-  </si>
-  <si>
-    <t>105104</t>
-  </si>
-  <si>
-    <t>赤灵</t>
-  </si>
-  <si>
-    <t>105105</t>
-  </si>
-  <si>
-    <t>银炎</t>
-  </si>
-  <si>
-    <t>105201</t>
-  </si>
-  <si>
-    <t>碧海潮声笛</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>106001</t>
-  </si>
-  <si>
-    <t>金刚毒扇</t>
-  </si>
-  <si>
-    <t>106002</t>
-  </si>
-  <si>
-    <t>金刚佛珠</t>
-  </si>
-  <si>
-    <t>106003</t>
-  </si>
-  <si>
-    <t>金刚五轮</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>106004</t>
-  </si>
-  <si>
-    <t>金龙软鞭</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>106005</t>
-  </si>
-  <si>
-    <t>金丝拂尘</t>
-  </si>
-  <si>
-    <t>106006</t>
-  </si>
-  <si>
-    <t>铁骨扇</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>106007</t>
-  </si>
-  <si>
-    <t>折冲铁笔</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>106008</t>
-  </si>
-  <si>
-    <t>竹筹</t>
-  </si>
-  <si>
-    <t>200001</t>
-  </si>
-  <si>
-    <t>官刀</t>
-  </si>
-  <si>
-    <t>200002</t>
-  </si>
-  <si>
-    <t>燕子缠手</t>
-  </si>
-  <si>
-    <t>200003</t>
-  </si>
-  <si>
-    <t>三叉戟</t>
-  </si>
-  <si>
-    <t>200004</t>
-  </si>
-  <si>
-    <t>黄河饮血刀</t>
-  </si>
-  <si>
-    <t>200005</t>
-  </si>
-  <si>
-    <t>密宗金刚圈</t>
-  </si>
-  <si>
-    <t>200006</t>
-  </si>
-  <si>
-    <t>天煞无形剑(江灏远)</t>
-  </si>
-  <si>
-    <t>200007</t>
-  </si>
-  <si>
-    <t>燕子坞剑(韩家宁)</t>
-  </si>
-  <si>
-    <t>200008</t>
-  </si>
-  <si>
-    <t>丐帮长老棍(彭长老)</t>
-  </si>
-  <si>
-    <t>200009</t>
-  </si>
-  <si>
-    <t>盘丝鹰爪缠手(薛大人)</t>
-  </si>
-  <si>
-    <t>200010</t>
-  </si>
-  <si>
-    <t>魔刀(马骎)</t>
-  </si>
-  <si>
-    <t>200011</t>
-  </si>
-  <si>
-    <t>五色遺招剑(杨益樵)</t>
-  </si>
-  <si>
-    <t>200012</t>
-  </si>
-  <si>
-    <t>天心剑</t>
-  </si>
-  <si>
-    <t>200013</t>
-  </si>
-  <si>
-    <t>全真入门剑(赵志敬)</t>
-  </si>
-  <si>
-    <t>200014</t>
-  </si>
-  <si>
-    <t>心剑(太仓道长)</t>
-  </si>
-  <si>
-    <t>200015</t>
-  </si>
-  <si>
-    <t>冰锋剑(何足道)</t>
-  </si>
-  <si>
-    <t>200016</t>
-  </si>
-  <si>
-    <t>降魔铲(火工头陀)</t>
-  </si>
-  <si>
-    <t>200017</t>
-  </si>
-  <si>
-    <t>逍遥缠手(秋水仙子)</t>
-  </si>
-  <si>
-    <t>200018</t>
-  </si>
-  <si>
-    <t>龙泉宝剑(郭芙)</t>
-  </si>
-  <si>
-    <t>200019</t>
-  </si>
-  <si>
-    <t>铁鱼竿(点沧渔隐)</t>
-  </si>
-  <si>
-    <t>200020</t>
-  </si>
-  <si>
-    <t>隐空刀(樵夫)</t>
-  </si>
-  <si>
-    <t>200021</t>
-  </si>
-  <si>
-    <t>金刚剑(武三通)</t>
-  </si>
-  <si>
-    <t>200022</t>
-  </si>
-  <si>
-    <t>折冲铁笔(朱子柳)</t>
-  </si>
-  <si>
-    <t>200023</t>
-  </si>
-  <si>
-    <t>轮回上五绝缠手(应锦繁)</t>
-  </si>
-  <si>
-    <t>200024</t>
-  </si>
-  <si>
-    <t>轮回下五绝缠手(骆一川)</t>
-  </si>
-  <si>
-    <t>200025</t>
-  </si>
-  <si>
-    <t>神音四象铁链(崔敏虬)</t>
-  </si>
-  <si>
-    <t>200026</t>
-  </si>
-  <si>
-    <t>慕容缠手(李天道)</t>
-  </si>
-  <si>
-    <t>200027</t>
-  </si>
-  <si>
-    <t>铁尸缠手(梅超风)</t>
-  </si>
-  <si>
-    <t>200028</t>
-  </si>
-  <si>
-    <t>铜尸缠手(陈玄风)</t>
-  </si>
-  <si>
-    <t>200029</t>
-  </si>
-  <si>
-    <t>万毒拐杖(西毒)</t>
-  </si>
-  <si>
-    <t>200030</t>
-  </si>
-  <si>
-    <t>金刚毒扇(欧阳克)</t>
-  </si>
-  <si>
-    <t>200031</t>
-  </si>
-  <si>
-    <t>寒玉缠手(周伯通)</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>通用刀1</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>通用剑1</t>
-  </si>
-  <si>
-    <t>203001</t>
-  </si>
-  <si>
-    <t>通用棍1</t>
-  </si>
-  <si>
-    <t>204001</t>
-  </si>
-  <si>
-    <t>通用枪1</t>
-  </si>
-  <si>
-    <t>205001</t>
-  </si>
-  <si>
-    <t>通用缠手1</t>
-  </si>
-  <si>
-    <t>206001</t>
-  </si>
-  <si>
-    <t>通用笛子1</t>
-  </si>
-  <si>
-    <t>207001</t>
-  </si>
-  <si>
-    <t>通用扇子1</t>
-  </si>
-  <si>
-    <t>208001</t>
-  </si>
-  <si>
-    <t>通用琴1</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>通用笔1</t>
-  </si>
-  <si>
-    <t>210001</t>
-  </si>
-  <si>
-    <t>通用暗器1</t>
-  </si>
-  <si>
-    <t>211001</t>
-  </si>
-  <si>
-    <t>通用鞭1</t>
-  </si>
-  <si>
-    <t>212001</t>
-  </si>
-  <si>
-    <t>通用特殊兵器1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -982,6 +1046,11 @@
       <color theme="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1000,7 +1069,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1008,17 +1077,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="31">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1350,14 +1468,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -1503,11 +1621,11 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3">
-        <v>100</v>
+      <c r="G3" t="s">
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
@@ -1516,7 +1634,7 @@
         <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
         <v>20</v>
@@ -1548,13 +1666,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -1565,29 +1683,29 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4">
-        <v>200</v>
+      <c r="G4" t="s">
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
@@ -1610,13 +1728,13 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -1627,11 +1745,11 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5">
-        <v>300</v>
+      <c r="G5" t="s">
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
@@ -1640,28 +1758,28 @@
         <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S5" t="s">
         <v>25</v>
@@ -1672,13 +1790,13 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -1689,11 +1807,11 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6">
-        <v>400</v>
+      <c r="G6" t="s">
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
@@ -1702,48 +1820,48 @@
         <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" t="s">
         <v>42</v>
       </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S6" t="s">
         <v>42</v>
       </c>
-      <c r="S6" t="s">
-        <v>38</v>
-      </c>
       <c r="T6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -1751,11 +1869,11 @@
       <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="G7">
-        <v>500</v>
+      <c r="G7" t="s">
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
@@ -1764,48 +1882,48 @@
         <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
         <v>48</v>
       </c>
-      <c r="M7" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" t="s">
-        <v>43</v>
-      </c>
       <c r="Q7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="R7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
@@ -1813,14 +1931,14 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8">
-        <v>600</v>
+      <c r="G8" t="s">
+        <v>63</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -1858,31 +1976,31 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="G9">
-        <v>800</v>
+      <c r="G9" t="s">
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="J9" t="s">
         <v>23</v>
@@ -1920,16 +2038,16 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -1937,14 +2055,14 @@
       <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="G10">
-        <v>1000</v>
+      <c r="G10" t="s">
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
         <v>23</v>
@@ -1982,31 +2100,31 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="G11">
-        <v>1200</v>
+      <c r="G11" t="s">
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -2044,31 +2162,31 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G12">
-        <v>1400</v>
+      <c r="G12" t="s">
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -2106,34 +2224,34 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13">
-        <v>0.1</v>
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G13">
-        <v>500</v>
+      <c r="G13" t="s">
+        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
@@ -2168,34 +2286,34 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14">
-        <v>0.15</v>
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="G14">
-        <v>700</v>
+      <c r="G14" t="s">
+        <v>75</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s">
         <v>25</v>
@@ -2230,34 +2348,34 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15">
-        <v>0.2</v>
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15">
-        <v>900</v>
+      <c r="G15" t="s">
+        <v>86</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="K15" t="s">
         <v>25</v>
@@ -2292,34 +2410,34 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16">
-        <v>0.25</v>
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
       </c>
       <c r="F16" t="s">
         <v>24</v>
       </c>
-      <c r="G16">
-        <v>1100</v>
+      <c r="G16" t="s">
+        <v>96</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="K16" t="s">
         <v>25</v>
@@ -2354,34 +2472,34 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17">
-        <v>0.3</v>
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="G17">
-        <v>1300</v>
+      <c r="G17" t="s">
+        <v>99</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="K17" t="s">
         <v>25</v>
@@ -2416,34 +2534,34 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18">
-        <v>0.6</v>
-      </c>
-      <c r="D18">
-        <v>0.5</v>
-      </c>
-      <c r="E18">
-        <v>0.4</v>
-      </c>
-      <c r="F18">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18">
         <v>300</v>
       </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
       <c r="H18" t="s">
         <v>23</v>
       </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
+      <c r="I18">
+        <v>0.03</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
       </c>
       <c r="K18" t="s">
         <v>25</v>
@@ -2478,31 +2596,31 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19">
-        <v>0.7</v>
-      </c>
-      <c r="D19">
-        <v>0.6</v>
-      </c>
-      <c r="E19">
-        <v>0.3</v>
-      </c>
-      <c r="F19">
-        <v>300</v>
-      </c>
-      <c r="G19" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="C19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19">
+        <v>350</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
       </c>
-      <c r="I19" t="s">
-        <v>23</v>
+      <c r="I19">
+        <v>0.05</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -2540,10 +2658,10 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
@@ -2554,11 +2672,11 @@
       <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
+      <c r="F20">
+        <v>120</v>
+      </c>
+      <c r="G20">
+        <v>1500</v>
       </c>
       <c r="H20" t="s">
         <v>23</v>
@@ -2566,8 +2684,8 @@
       <c r="I20" t="s">
         <v>23</v>
       </c>
-      <c r="J20" t="s">
-        <v>23</v>
+      <c r="J20">
+        <v>15</v>
       </c>
       <c r="K20" t="s">
         <v>25</v>
@@ -2602,31 +2720,31 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>0.8</v>
+      </c>
+      <c r="D21">
+        <v>0.4</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
       </c>
       <c r="F21" t="s">
         <v>24</v>
       </c>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" t="s">
-        <v>23</v>
+      <c r="G21">
+        <v>1200</v>
+      </c>
+      <c r="H21">
+        <v>850</v>
+      </c>
+      <c r="I21">
+        <v>0.1</v>
       </c>
       <c r="J21" t="s">
         <v>23</v>
@@ -2664,16 +2782,16 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>23</v>
+        <v>111</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>0.3</v>
       </c>
       <c r="E22" t="s">
         <v>23</v>
@@ -2681,11 +2799,11 @@
       <c r="F22" t="s">
         <v>24</v>
       </c>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
+      <c r="G22">
+        <v>550</v>
+      </c>
+      <c r="H22">
+        <v>200</v>
       </c>
       <c r="I22" t="s">
         <v>23</v>
@@ -2726,16 +2844,16 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
+        <v>113</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0.3</v>
       </c>
       <c r="E23" t="s">
         <v>23</v>
@@ -2743,11 +2861,11 @@
       <c r="F23" t="s">
         <v>24</v>
       </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s">
-        <v>23</v>
+      <c r="G23">
+        <v>230</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>23</v>
@@ -2788,13 +2906,13 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -2802,11 +2920,11 @@
       <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="F24">
-        <v>200</v>
-      </c>
-      <c r="G24">
-        <v>200</v>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
@@ -2818,13 +2936,13 @@
         <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="L24" t="s">
         <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="N24" t="s">
         <v>20</v>
@@ -2850,43 +2968,43 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25">
-        <v>0.2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="F25">
-        <v>180</v>
+      <c r="F25" t="s">
+        <v>119</v>
       </c>
       <c r="G25">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="H25" t="s">
         <v>23</v>
       </c>
-      <c r="I25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
+      <c r="I25">
+        <v>0.02</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L25" t="s">
         <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N25" t="s">
         <v>20</v>
@@ -2912,58 +3030,58 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
-      </c>
-      <c r="C26">
-        <v>0.25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
       </c>
       <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="F26">
-        <v>180</v>
+      <c r="F26" t="s">
+        <v>119</v>
       </c>
       <c r="G26">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="H26" t="s">
         <v>23</v>
       </c>
-      <c r="I26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" t="s">
-        <v>23</v>
+      <c r="I26">
+        <v>0.04</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q26" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S26" t="s">
         <v>25</v>
@@ -2974,34 +3092,34 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27">
-        <v>0.3</v>
-      </c>
-      <c r="D27">
-        <v>0.1</v>
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
       </c>
-      <c r="F27">
-        <v>180</v>
+      <c r="F27" t="s">
+        <v>119</v>
       </c>
       <c r="G27">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="H27" t="s">
         <v>23</v>
       </c>
-      <c r="I27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
+      <c r="I27">
+        <v>0.06</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27" t="s">
         <v>25</v>
@@ -3036,34 +3154,34 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28">
-        <v>0.4</v>
-      </c>
-      <c r="D28">
-        <v>0.2</v>
+        <v>126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
       </c>
       <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="F28">
-        <v>180</v>
+      <c r="F28" t="s">
+        <v>119</v>
       </c>
       <c r="G28">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
       </c>
-      <c r="I28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" t="s">
-        <v>23</v>
+      <c r="I28">
+        <v>0.08</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
       </c>
       <c r="K28" t="s">
         <v>25</v>
@@ -3098,34 +3216,34 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29">
-        <v>0.45</v>
-      </c>
-      <c r="D29">
-        <v>0.25</v>
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
       </c>
       <c r="E29" t="s">
         <v>23</v>
       </c>
-      <c r="F29">
-        <v>180</v>
+      <c r="F29" t="s">
+        <v>119</v>
       </c>
       <c r="G29">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="H29" t="s">
         <v>23</v>
       </c>
-      <c r="I29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" t="s">
-        <v>23</v>
+      <c r="I29">
+        <v>0.1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>25</v>
@@ -3160,34 +3278,34 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30">
-        <v>0.3</v>
-      </c>
-      <c r="E30">
-        <v>0.05</v>
-      </c>
-      <c r="F30">
-        <v>180</v>
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
       </c>
       <c r="G30">
-        <v>560</v>
+        <v>860</v>
       </c>
       <c r="H30" t="s">
         <v>23</v>
       </c>
-      <c r="I30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" t="s">
-        <v>23</v>
+      <c r="I30">
+        <v>0.15</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>25</v>
@@ -3222,34 +3340,34 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31">
-        <v>0.35</v>
-      </c>
-      <c r="E31">
-        <v>0.1</v>
-      </c>
-      <c r="F31">
-        <v>180</v>
+        <v>73</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
       </c>
       <c r="G31">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="H31" t="s">
         <v>23</v>
       </c>
-      <c r="I31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" t="s">
-        <v>23</v>
+      <c r="I31">
+        <v>0.17</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>25</v>
@@ -3284,34 +3402,34 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32">
-        <v>0.45</v>
-      </c>
-      <c r="E32">
-        <v>0.15</v>
-      </c>
-      <c r="F32">
-        <v>180</v>
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
       </c>
       <c r="G32">
-        <v>880</v>
+        <v>1080</v>
       </c>
       <c r="H32" t="s">
         <v>23</v>
       </c>
-      <c r="I32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" t="s">
-        <v>23</v>
+      <c r="I32">
+        <v>0.19</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
       </c>
       <c r="K32" t="s">
         <v>25</v>
@@ -3346,34 +3464,34 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33">
-        <v>0.5</v>
-      </c>
-      <c r="E33">
-        <v>0.25</v>
-      </c>
-      <c r="F33">
-        <v>180</v>
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
       </c>
       <c r="G33">
-        <v>1040</v>
+        <v>1240</v>
       </c>
       <c r="H33" t="s">
         <v>23</v>
       </c>
-      <c r="I33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" t="s">
-        <v>23</v>
+      <c r="I33">
+        <v>0.2</v>
+      </c>
+      <c r="J33">
+        <v>5</v>
       </c>
       <c r="K33" t="s">
         <v>25</v>
@@ -3408,10 +3526,10 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -3419,23 +3537,23 @@
       <c r="D34" t="s">
         <v>23</v>
       </c>
-      <c r="E34" t="s">
-        <v>23</v>
+      <c r="E34">
+        <v>0.1</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s">
-        <v>23</v>
+        <v>139</v>
+      </c>
+      <c r="G34">
+        <v>200</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
       </c>
       <c r="I34" t="s">
         <v>23</v>
       </c>
-      <c r="J34" t="s">
-        <v>23</v>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>25</v>
@@ -3470,25 +3588,25 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35">
-        <v>0.3</v>
-      </c>
-      <c r="D35">
-        <v>0.2</v>
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
       </c>
       <c r="E35" t="s">
         <v>23</v>
       </c>
-      <c r="F35">
-        <v>70</v>
-      </c>
-      <c r="G35">
-        <v>200</v>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
       </c>
       <c r="H35" t="s">
         <v>23</v>
@@ -3500,13 +3618,13 @@
         <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L35" t="s">
         <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N35" t="s">
         <v>20</v>
@@ -3532,25 +3650,25 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36">
-        <v>0.35</v>
-      </c>
-      <c r="D36">
-        <v>0.25</v>
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
       </c>
       <c r="E36" t="s">
         <v>23</v>
       </c>
-      <c r="F36">
-        <v>70</v>
-      </c>
-      <c r="G36">
-        <v>300</v>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" t="s">
+        <v>39</v>
       </c>
       <c r="H36" t="s">
         <v>23</v>
@@ -3594,25 +3712,25 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
-      </c>
-      <c r="C37">
-        <v>0.4</v>
-      </c>
-      <c r="D37">
-        <v>0.3</v>
-      </c>
-      <c r="E37">
-        <v>0.1</v>
-      </c>
-      <c r="F37">
-        <v>70</v>
-      </c>
-      <c r="G37">
-        <v>400</v>
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
       </c>
       <c r="H37" t="s">
         <v>23</v>
@@ -3656,25 +3774,25 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38">
-        <v>0.45</v>
-      </c>
-      <c r="D38">
-        <v>0.35</v>
-      </c>
-      <c r="E38">
-        <v>0.15</v>
-      </c>
-      <c r="F38">
-        <v>70</v>
-      </c>
-      <c r="G38">
-        <v>500</v>
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
       </c>
       <c r="H38" t="s">
         <v>23</v>
@@ -3718,22 +3836,22 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39">
-        <v>0.5</v>
-      </c>
-      <c r="D39">
-        <v>0.4</v>
-      </c>
-      <c r="E39">
-        <v>0.2</v>
+        <v>150</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="G39" t="s">
         <v>23</v>
@@ -3748,25 +3866,25 @@
         <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M39" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="N39" t="s">
         <v>20</v>
       </c>
       <c r="O39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q39" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="R39" t="s">
         <v>20</v>
@@ -3780,22 +3898,22 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D40">
-        <v>0.45</v>
-      </c>
-      <c r="E40">
-        <v>0.25</v>
-      </c>
-      <c r="F40">
-        <v>200</v>
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
       </c>
       <c r="G40" t="s">
         <v>23</v>
@@ -3842,10 +3960,10 @@
     </row>
     <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -3856,8 +3974,8 @@
       <c r="E41" t="s">
         <v>23</v>
       </c>
-      <c r="F41">
-        <v>200</v>
+      <c r="F41" t="s">
+        <v>33</v>
       </c>
       <c r="G41" t="s">
         <v>23</v>
@@ -3904,10 +4022,10 @@
     </row>
     <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -3918,8 +4036,8 @@
       <c r="E42" t="s">
         <v>23</v>
       </c>
-      <c r="F42">
-        <v>250</v>
+      <c r="F42" t="s">
+        <v>54</v>
       </c>
       <c r="G42" t="s">
         <v>23</v>
@@ -3966,10 +4084,10 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B43" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
         <v>23</v>
@@ -3977,23 +4095,23 @@
       <c r="D43" t="s">
         <v>23</v>
       </c>
-      <c r="E43" t="s">
-        <v>23</v>
+      <c r="E43">
+        <v>0.1</v>
       </c>
       <c r="F43">
-        <v>300</v>
-      </c>
-      <c r="G43" t="s">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="G43">
+        <v>900</v>
       </c>
       <c r="H43" t="s">
         <v>23</v>
       </c>
-      <c r="I43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" t="s">
-        <v>23</v>
+      <c r="I43">
+        <v>0.12</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43" t="s">
         <v>25</v>
@@ -4028,34 +4146,34 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
         <v>23</v>
       </c>
-      <c r="D44" t="s">
-        <v>23</v>
+      <c r="D44">
+        <v>0.2</v>
       </c>
       <c r="E44" t="s">
         <v>23</v>
       </c>
       <c r="F44">
-        <v>300</v>
-      </c>
-      <c r="G44" t="s">
-        <v>23</v>
+        <v>80</v>
+      </c>
+      <c r="G44">
+        <v>550</v>
       </c>
       <c r="H44" t="s">
         <v>23</v>
       </c>
-      <c r="I44" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" t="s">
-        <v>23</v>
+      <c r="I44">
+        <v>0.05</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
       </c>
       <c r="K44" t="s">
         <v>25</v>
@@ -4090,13 +4208,13 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" t="s">
-        <v>23</v>
+        <v>163</v>
+      </c>
+      <c r="C45">
+        <v>0.5</v>
       </c>
       <c r="D45" t="s">
         <v>23</v>
@@ -4105,10 +4223,10 @@
         <v>23</v>
       </c>
       <c r="F45">
-        <v>260</v>
-      </c>
-      <c r="G45" t="s">
-        <v>23</v>
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>150</v>
       </c>
       <c r="H45" t="s">
         <v>23</v>
@@ -4152,31 +4270,31 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
         <v>142</v>
       </c>
-      <c r="C46">
-        <v>0.5</v>
-      </c>
-      <c r="D46">
-        <v>0.4</v>
-      </c>
-      <c r="E46">
-        <v>0.2</v>
-      </c>
-      <c r="F46">
-        <v>70</v>
-      </c>
-      <c r="G46">
-        <v>600</v>
+      <c r="G46" t="s">
+        <v>63</v>
       </c>
       <c r="H46" t="s">
         <v>23</v>
       </c>
-      <c r="I46" t="s">
-        <v>23</v>
+      <c r="I46">
+        <v>0.02</v>
       </c>
       <c r="J46" t="s">
         <v>23</v>
@@ -4214,31 +4332,31 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D47">
-        <v>0.45</v>
-      </c>
-      <c r="E47">
-        <v>0.25</v>
-      </c>
-      <c r="F47">
-        <v>70</v>
-      </c>
-      <c r="G47">
-        <v>800</v>
+        <v>167</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" t="s">
+        <v>69</v>
       </c>
       <c r="H47" t="s">
         <v>23</v>
       </c>
-      <c r="I47" t="s">
-        <v>23</v>
+      <c r="I47">
+        <v>0.04</v>
       </c>
       <c r="J47" t="s">
         <v>23</v>
@@ -4276,31 +4394,31 @@
     </row>
     <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48">
-        <v>0.6</v>
-      </c>
-      <c r="D48">
-        <v>0.5</v>
-      </c>
-      <c r="E48">
-        <v>0.3</v>
-      </c>
-      <c r="F48">
-        <v>70</v>
-      </c>
-      <c r="G48">
-        <v>1000</v>
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" t="s">
+        <v>59</v>
       </c>
       <c r="H48" t="s">
         <v>23</v>
       </c>
-      <c r="I48" t="s">
-        <v>23</v>
+      <c r="I48">
+        <v>0.06</v>
       </c>
       <c r="J48" t="s">
         <v>23</v>
@@ -4338,31 +4456,31 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49">
-        <v>0.65</v>
-      </c>
-      <c r="D49">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E49">
-        <v>0.35</v>
-      </c>
-      <c r="F49">
-        <v>70</v>
-      </c>
-      <c r="G49">
-        <v>1200</v>
+        <v>171</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+      <c r="G49" t="s">
+        <v>81</v>
       </c>
       <c r="H49" t="s">
         <v>23</v>
       </c>
-      <c r="I49" t="s">
-        <v>23</v>
+      <c r="I49">
+        <v>0.08</v>
       </c>
       <c r="J49" t="s">
         <v>23</v>
@@ -4400,31 +4518,31 @@
     </row>
     <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50">
-        <v>0.7</v>
-      </c>
-      <c r="D50">
-        <v>0.6</v>
-      </c>
-      <c r="E50">
-        <v>0.4</v>
-      </c>
-      <c r="F50">
-        <v>70</v>
-      </c>
-      <c r="G50">
-        <v>1400</v>
+        <v>173</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" t="s">
+        <v>85</v>
       </c>
       <c r="H50" t="s">
         <v>23</v>
       </c>
-      <c r="I50" t="s">
-        <v>23</v>
+      <c r="I50">
+        <v>0.1</v>
       </c>
       <c r="J50" t="s">
         <v>23</v>
@@ -4462,13 +4580,13 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -4480,25 +4598,25 @@
         <v>90</v>
       </c>
       <c r="G51">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="H51" t="s">
         <v>23</v>
       </c>
-      <c r="I51" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" t="s">
-        <v>23</v>
+      <c r="I51">
+        <v>0.05</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
       </c>
       <c r="K51" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="L51" t="s">
         <v>20</v>
       </c>
       <c r="M51" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N51" t="s">
         <v>20</v>
@@ -4524,34 +4642,34 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="F52" t="s">
+        <v>176</v>
       </c>
       <c r="G52">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="H52" t="s">
         <v>23</v>
       </c>
-      <c r="I52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J52" t="s">
-        <v>23</v>
+      <c r="I52">
+        <v>0.1</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
       </c>
       <c r="K52" t="s">
         <v>25</v>
@@ -4586,34 +4704,34 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="B53" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E53" t="s">
         <v>22</v>
       </c>
-      <c r="F53">
-        <v>90</v>
+      <c r="F53" t="s">
+        <v>176</v>
       </c>
       <c r="G53">
-        <v>255</v>
+        <v>460</v>
       </c>
       <c r="H53" t="s">
         <v>23</v>
       </c>
-      <c r="I53" t="s">
-        <v>23</v>
-      </c>
-      <c r="J53" t="s">
-        <v>23</v>
+      <c r="I53">
+        <v>0.15</v>
+      </c>
+      <c r="J53">
+        <v>7</v>
       </c>
       <c r="K53" t="s">
         <v>25</v>
@@ -4648,34 +4766,34 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54">
-        <v>90</v>
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>176</v>
       </c>
       <c r="G54">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="H54" t="s">
         <v>23</v>
       </c>
-      <c r="I54" t="s">
-        <v>23</v>
-      </c>
-      <c r="J54" t="s">
-        <v>23</v>
+      <c r="I54">
+        <v>0.2</v>
+      </c>
+      <c r="J54">
+        <v>8</v>
       </c>
       <c r="K54" t="s">
         <v>25</v>
@@ -4710,25 +4828,25 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E55" t="s">
         <v>22</v>
       </c>
-      <c r="F55">
-        <v>110</v>
+      <c r="F55" t="s">
+        <v>185</v>
       </c>
       <c r="G55">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H55" t="s">
         <v>23</v>
@@ -4740,13 +4858,13 @@
         <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="L55" t="s">
         <v>20</v>
       </c>
       <c r="M55" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="N55" t="s">
         <v>20</v>
@@ -4772,25 +4890,25 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="B56" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="F56" t="s">
+        <v>185</v>
       </c>
       <c r="G56">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
@@ -4834,25 +4952,25 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57">
-        <v>110</v>
+        <v>32</v>
+      </c>
+      <c r="F57" t="s">
+        <v>185</v>
       </c>
       <c r="G57">
-        <v>150</v>
+        <v>450</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
@@ -4896,25 +5014,25 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B58" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
-      </c>
-      <c r="F58">
-        <v>110</v>
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>185</v>
       </c>
       <c r="G58">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="H58" t="s">
         <v>23</v>
@@ -4958,25 +5076,25 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="B59" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="D59">
-        <v>0.45</v>
-      </c>
-      <c r="E59">
-        <v>0.35</v>
-      </c>
-      <c r="F59">
-        <v>110</v>
+        <v>193</v>
+      </c>
+      <c r="C59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" t="s">
+        <v>185</v>
       </c>
       <c r="G59">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H59" t="s">
         <v>23</v>
@@ -5020,25 +5138,25 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
-        <v>170</v>
-      </c>
-      <c r="C60">
-        <v>0.6</v>
-      </c>
-      <c r="D60">
-        <v>0.5</v>
-      </c>
-      <c r="E60">
-        <v>0.4</v>
-      </c>
-      <c r="F60">
-        <v>110</v>
+        <v>195</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" t="s">
+        <v>185</v>
       </c>
       <c r="G60">
-        <v>400</v>
+        <v>1200</v>
       </c>
       <c r="H60" t="s">
         <v>23</v>
@@ -5082,25 +5200,25 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
-      </c>
-      <c r="C61">
-        <v>0.65</v>
-      </c>
-      <c r="D61">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E61">
-        <v>0.45</v>
-      </c>
-      <c r="F61">
-        <v>110</v>
+        <v>197</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" t="s">
+        <v>185</v>
       </c>
       <c r="G61">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="H61" t="s">
         <v>23</v>
@@ -5144,25 +5262,25 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62">
-        <v>0.7</v>
-      </c>
-      <c r="D62">
-        <v>0.6</v>
-      </c>
-      <c r="E62">
-        <v>0.5</v>
-      </c>
-      <c r="F62">
-        <v>110</v>
+        <v>199</v>
+      </c>
+      <c r="C62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>185</v>
       </c>
       <c r="G62">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="H62" t="s">
         <v>23</v>
@@ -5206,25 +5324,25 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63">
-        <v>0.75</v>
-      </c>
-      <c r="D63">
-        <v>0.65</v>
-      </c>
-      <c r="E63">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F63">
-        <v>110</v>
+        <v>201</v>
+      </c>
+      <c r="C63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" t="s">
+        <v>185</v>
       </c>
       <c r="G63">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="H63" t="s">
         <v>23</v>
@@ -5268,25 +5386,25 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" t="s">
-        <v>177</v>
-      </c>
-      <c r="B64" t="s">
-        <v>178</v>
+        <v>203</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="C64" t="s">
         <v>23</v>
       </c>
-      <c r="D64" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>23</v>
+      <c r="D64">
+        <v>0.2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>80</v>
+      </c>
+      <c r="G64">
+        <v>200</v>
       </c>
       <c r="H64" t="s">
         <v>23</v>
@@ -5330,25 +5448,25 @@
     </row>
     <row r="65" spans="1:20">
       <c r="A65" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
+        <v>205</v>
+      </c>
+      <c r="C65">
+        <v>0.3</v>
       </c>
       <c r="D65" t="s">
         <v>23</v>
       </c>
-      <c r="E65" t="s">
-        <v>23</v>
+      <c r="E65">
+        <v>0.1</v>
       </c>
       <c r="F65" t="s">
         <v>24</v>
       </c>
-      <c r="G65" t="s">
-        <v>23</v>
+      <c r="G65">
+        <v>990</v>
       </c>
       <c r="H65" t="s">
         <v>23</v>
@@ -5392,25 +5510,25 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="C66" t="s">
         <v>23</v>
       </c>
-      <c r="D66" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>23</v>
+      <c r="D66">
+        <v>0.4</v>
+      </c>
+      <c r="E66">
+        <v>0.2</v>
+      </c>
+      <c r="F66">
+        <v>80</v>
+      </c>
+      <c r="G66">
+        <v>1000</v>
       </c>
       <c r="H66" t="s">
         <v>23</v>
@@ -5454,10 +5572,10 @@
     </row>
     <row r="67" spans="1:20">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C67" t="s">
         <v>23</v>
@@ -5471,8 +5589,8 @@
       <c r="F67" t="s">
         <v>24</v>
       </c>
-      <c r="G67" t="s">
-        <v>23</v>
+      <c r="G67">
+        <v>350</v>
       </c>
       <c r="H67" t="s">
         <v>23</v>
@@ -5516,34 +5634,34 @@
     </row>
     <row r="68" spans="1:20">
       <c r="A68" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
-      </c>
-      <c r="C68" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>23</v>
+        <v>211</v>
+      </c>
+      <c r="C68">
+        <v>0.6</v>
+      </c>
+      <c r="D68">
+        <v>0.3</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>90</v>
+      </c>
+      <c r="G68">
+        <v>1000</v>
       </c>
       <c r="H68" t="s">
         <v>23</v>
       </c>
-      <c r="I68" t="s">
-        <v>23</v>
-      </c>
-      <c r="J68" t="s">
-        <v>23</v>
+      <c r="I68">
+        <v>0.1</v>
+      </c>
+      <c r="J68">
+        <v>5</v>
       </c>
       <c r="K68" t="s">
         <v>25</v>
@@ -5578,25 +5696,25 @@
     </row>
     <row r="69" spans="1:20">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
         <v>23</v>
       </c>
-      <c r="D69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" t="s">
-        <v>23</v>
+      <c r="D69">
+        <v>0.4</v>
+      </c>
+      <c r="E69">
+        <v>0.1</v>
       </c>
       <c r="F69" t="s">
         <v>24</v>
       </c>
-      <c r="G69" t="s">
-        <v>23</v>
+      <c r="G69">
+        <v>1200</v>
       </c>
       <c r="H69" t="s">
         <v>23</v>
@@ -5640,10 +5758,10 @@
     </row>
     <row r="70" spans="1:20">
       <c r="A70" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
         <v>23</v>
@@ -5655,7 +5773,7 @@
         <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>191</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
         <v>23</v>
@@ -5702,13 +5820,13 @@
     </row>
     <row r="71" spans="1:20">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
-      </c>
-      <c r="C71">
-        <v>0.1</v>
+        <v>217</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
       </c>
       <c r="D71" t="s">
         <v>23</v>
@@ -5717,10 +5835,10 @@
         <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>194</v>
-      </c>
-      <c r="G71">
-        <v>300</v>
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>39</v>
       </c>
       <c r="H71" t="s">
         <v>23</v>
@@ -5728,8 +5846,8 @@
       <c r="I71" t="s">
         <v>23</v>
       </c>
-      <c r="J71" t="s">
-        <v>23</v>
+      <c r="J71">
+        <v>3</v>
       </c>
       <c r="K71" t="s">
         <v>25</v>
@@ -5764,13 +5882,13 @@
     </row>
     <row r="72" spans="1:20">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72">
-        <v>0.15</v>
+        <v>219</v>
+      </c>
+      <c r="C72" t="s">
+        <v>80</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
@@ -5779,10 +5897,10 @@
         <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>194</v>
-      </c>
-      <c r="G72">
-        <v>400</v>
+        <v>28</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
       </c>
       <c r="H72" t="s">
         <v>23</v>
@@ -5790,8 +5908,8 @@
       <c r="I72" t="s">
         <v>23</v>
       </c>
-      <c r="J72" t="s">
-        <v>23</v>
+      <c r="J72">
+        <v>7</v>
       </c>
       <c r="K72" t="s">
         <v>25</v>
@@ -5826,13 +5944,13 @@
     </row>
     <row r="73" spans="1:20">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73">
-        <v>0.2</v>
+        <v>221</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
@@ -5841,10 +5959,10 @@
         <v>23</v>
       </c>
       <c r="F73" t="s">
-        <v>194</v>
-      </c>
-      <c r="G73">
-        <v>500</v>
+        <v>28</v>
+      </c>
+      <c r="G73" t="s">
+        <v>53</v>
       </c>
       <c r="H73" t="s">
         <v>23</v>
@@ -5852,8 +5970,8 @@
       <c r="I73" t="s">
         <v>23</v>
       </c>
-      <c r="J73" t="s">
-        <v>23</v>
+      <c r="J73">
+        <v>11</v>
       </c>
       <c r="K73" t="s">
         <v>25</v>
@@ -5888,25 +6006,25 @@
     </row>
     <row r="74" spans="1:20">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74">
-        <v>0.25</v>
-      </c>
-      <c r="D74">
-        <v>0.1</v>
+        <v>223</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>194</v>
-      </c>
-      <c r="G74">
-        <v>600</v>
+        <v>28</v>
+      </c>
+      <c r="G74" t="s">
+        <v>63</v>
       </c>
       <c r="H74" t="s">
         <v>23</v>
@@ -5914,8 +6032,8 @@
       <c r="I74" t="s">
         <v>23</v>
       </c>
-      <c r="J74" t="s">
-        <v>23</v>
+      <c r="J74">
+        <v>15</v>
       </c>
       <c r="K74" t="s">
         <v>25</v>
@@ -5950,25 +6068,25 @@
     </row>
     <row r="75" spans="1:20">
       <c r="A75" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75">
-        <v>0.4</v>
-      </c>
-      <c r="D75">
-        <v>0.2</v>
+        <v>225</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" t="s">
+        <v>32</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
       </c>
       <c r="F75" t="s">
-        <v>194</v>
-      </c>
-      <c r="G75">
-        <v>700</v>
+        <v>28</v>
+      </c>
+      <c r="G75" t="s">
+        <v>75</v>
       </c>
       <c r="H75" t="s">
         <v>23</v>
@@ -5976,8 +6094,8 @@
       <c r="I75" t="s">
         <v>23</v>
       </c>
-      <c r="J75" t="s">
-        <v>23</v>
+      <c r="J75">
+        <v>20</v>
       </c>
       <c r="K75" t="s">
         <v>25</v>
@@ -6012,10 +6130,10 @@
     </row>
     <row r="76" spans="1:20">
       <c r="A76" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C76" t="s">
         <v>23</v>
@@ -6027,19 +6145,19 @@
         <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>205</v>
-      </c>
-      <c r="G76" t="s">
-        <v>23</v>
+        <v>228</v>
+      </c>
+      <c r="G76">
+        <v>500</v>
       </c>
       <c r="H76" t="s">
         <v>23</v>
       </c>
-      <c r="I76" t="s">
-        <v>23</v>
-      </c>
-      <c r="J76" t="s">
-        <v>23</v>
+      <c r="I76">
+        <v>0.1</v>
+      </c>
+      <c r="J76">
+        <v>15</v>
       </c>
       <c r="K76" t="s">
         <v>25</v>
@@ -6074,10 +6192,10 @@
     </row>
     <row r="77" spans="1:20">
       <c r="A77" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="B77" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
         <v>23</v>
@@ -6089,10 +6207,10 @@
         <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>191</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
+        <v>40</v>
+      </c>
+      <c r="G77">
+        <v>600</v>
       </c>
       <c r="H77" t="s">
         <v>23</v>
@@ -6136,34 +6254,34 @@
     </row>
     <row r="78" spans="1:20">
       <c r="A78" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
-      </c>
-      <c r="C78" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" t="s">
-        <v>23</v>
-      </c>
-      <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" t="s">
-        <v>23</v>
-      </c>
-      <c r="I78" t="s">
-        <v>23</v>
-      </c>
-      <c r="J78" t="s">
-        <v>23</v>
+        <v>232</v>
+      </c>
+      <c r="C78">
+        <v>0.6</v>
+      </c>
+      <c r="D78">
+        <v>0.4</v>
+      </c>
+      <c r="E78">
+        <v>0.2</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+      <c r="G78">
+        <v>500</v>
+      </c>
+      <c r="H78">
+        <v>500</v>
+      </c>
+      <c r="I78">
+        <v>0.05</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
       </c>
       <c r="K78" t="s">
         <v>25</v>
@@ -6198,10 +6316,10 @@
     </row>
     <row r="79" spans="1:20">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="B79" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="C79" t="s">
         <v>23</v>
@@ -6209,14 +6327,14 @@
       <c r="D79" t="s">
         <v>23</v>
       </c>
-      <c r="E79" t="s">
-        <v>23</v>
+      <c r="E79">
+        <v>0.5</v>
       </c>
       <c r="F79" t="s">
-        <v>212</v>
-      </c>
-      <c r="G79" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="G79">
+        <v>1500</v>
       </c>
       <c r="H79" t="s">
         <v>23</v>
@@ -6260,10 +6378,10 @@
     </row>
     <row r="80" spans="1:20">
       <c r="A80" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
         <v>23</v>
@@ -6271,14 +6389,14 @@
       <c r="D80" t="s">
         <v>23</v>
       </c>
-      <c r="E80" t="s">
-        <v>23</v>
+      <c r="E80">
+        <v>0.1</v>
       </c>
       <c r="F80" t="s">
-        <v>215</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
+        <v>122</v>
+      </c>
+      <c r="G80">
+        <v>120</v>
       </c>
       <c r="H80" t="s">
         <v>23</v>
@@ -6286,8 +6404,8 @@
       <c r="I80" t="s">
         <v>23</v>
       </c>
-      <c r="J80" t="s">
-        <v>23</v>
+      <c r="J80">
+        <v>4</v>
       </c>
       <c r="K80" t="s">
         <v>25</v>
@@ -6322,16 +6440,16 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
         <v>23</v>
       </c>
-      <c r="D81" t="s">
-        <v>23</v>
+      <c r="D81">
+        <v>0.2</v>
       </c>
       <c r="E81" t="s">
         <v>23</v>
@@ -6339,14 +6457,14 @@
       <c r="F81" t="s">
         <v>24</v>
       </c>
-      <c r="G81" t="s">
-        <v>23</v>
+      <c r="G81">
+        <v>650</v>
       </c>
       <c r="H81" t="s">
         <v>23</v>
       </c>
-      <c r="I81" t="s">
-        <v>23</v>
+      <c r="I81">
+        <v>0.1</v>
       </c>
       <c r="J81" t="s">
         <v>23</v>
@@ -6384,10 +6502,10 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="C82" t="s">
         <v>23</v>
@@ -6399,10 +6517,10 @@
         <v>23</v>
       </c>
       <c r="F82" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82">
         <v>220</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
       </c>
       <c r="H82" t="s">
         <v>23</v>
@@ -6446,13 +6564,13 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
-      </c>
-      <c r="C83" t="s">
-        <v>23</v>
+        <v>242</v>
+      </c>
+      <c r="C83">
+        <v>0.3</v>
       </c>
       <c r="D83" t="s">
         <v>23</v>
@@ -6461,10 +6579,10 @@
         <v>23</v>
       </c>
       <c r="F83" t="s">
-        <v>223</v>
-      </c>
-      <c r="G83" t="s">
-        <v>23</v>
+        <v>243</v>
+      </c>
+      <c r="G83">
+        <v>550</v>
       </c>
       <c r="H83" t="s">
         <v>23</v>
@@ -6508,10 +6626,10 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="B84" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="C84" t="s">
         <v>23</v>
@@ -6525,8 +6643,8 @@
       <c r="F84" t="s">
         <v>24</v>
       </c>
-      <c r="G84" t="s">
-        <v>23</v>
+      <c r="G84">
+        <v>500</v>
       </c>
       <c r="H84" t="s">
         <v>23</v>
@@ -6534,8 +6652,8 @@
       <c r="I84" t="s">
         <v>23</v>
       </c>
-      <c r="J84" t="s">
-        <v>23</v>
+      <c r="J84">
+        <v>5</v>
       </c>
       <c r="K84" t="s">
         <v>25</v>
@@ -6570,13 +6688,13 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
-      </c>
-      <c r="C85" t="s">
-        <v>22</v>
+        <v>247</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
       </c>
       <c r="D85" t="s">
         <v>23</v>
@@ -6584,8 +6702,8 @@
       <c r="E85" t="s">
         <v>23</v>
       </c>
-      <c r="F85" t="s">
-        <v>136</v>
+      <c r="F85">
+        <v>300</v>
       </c>
       <c r="G85" t="s">
         <v>23</v>
@@ -6632,25 +6750,25 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
-      </c>
-      <c r="C86" t="s">
-        <v>23</v>
+        <v>249</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
       </c>
       <c r="D86" t="s">
         <v>23</v>
       </c>
-      <c r="E86" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>300</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
       </c>
       <c r="H86" t="s">
         <v>23</v>
@@ -6694,10 +6812,10 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="C87" t="s">
         <v>23</v>
@@ -6708,11 +6826,11 @@
       <c r="E87" t="s">
         <v>23</v>
       </c>
-      <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
+      <c r="F87">
+        <v>300</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
       </c>
       <c r="H87" t="s">
         <v>23</v>
@@ -6756,10 +6874,10 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B88" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C88" t="s">
         <v>23</v>
@@ -6770,11 +6888,11 @@
       <c r="E88" t="s">
         <v>23</v>
       </c>
-      <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
+      <c r="F88">
+        <v>300</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
       </c>
       <c r="H88" t="s">
         <v>23</v>
@@ -6818,10 +6936,10 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B89" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C89" t="s">
         <v>23</v>
@@ -6832,11 +6950,11 @@
       <c r="E89" t="s">
         <v>23</v>
       </c>
-      <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
+      <c r="F89">
+        <v>300</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
       </c>
       <c r="H89" t="s">
         <v>23</v>
@@ -6880,10 +6998,10 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C90" t="s">
         <v>23</v>
@@ -6894,8 +7012,8 @@
       <c r="E90" t="s">
         <v>23</v>
       </c>
-      <c r="F90" t="s">
-        <v>24</v>
+      <c r="F90">
+        <v>300</v>
       </c>
       <c r="G90" t="s">
         <v>23</v>
@@ -6942,10 +7060,10 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C91" t="s">
         <v>23</v>
@@ -6956,8 +7074,8 @@
       <c r="E91" t="s">
         <v>23</v>
       </c>
-      <c r="F91" t="s">
-        <v>24</v>
+      <c r="F91">
+        <v>300</v>
       </c>
       <c r="G91" t="s">
         <v>23</v>
@@ -7004,10 +7122,10 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="C92" t="s">
         <v>23</v>
@@ -7018,8 +7136,8 @@
       <c r="E92" t="s">
         <v>23</v>
       </c>
-      <c r="F92" t="s">
-        <v>24</v>
+      <c r="F92">
+        <v>300</v>
       </c>
       <c r="G92" t="s">
         <v>23</v>
@@ -7066,10 +7184,10 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C93" t="s">
         <v>23</v>
@@ -7080,8 +7198,8 @@
       <c r="E93" t="s">
         <v>23</v>
       </c>
-      <c r="F93" t="s">
-        <v>24</v>
+      <c r="F93">
+        <v>300</v>
       </c>
       <c r="G93" t="s">
         <v>23</v>
@@ -7128,10 +7246,10 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B94" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C94" t="s">
         <v>23</v>
@@ -7142,8 +7260,8 @@
       <c r="E94" t="s">
         <v>23</v>
       </c>
-      <c r="F94" t="s">
-        <v>24</v>
+      <c r="F94">
+        <v>300</v>
       </c>
       <c r="G94" t="s">
         <v>23</v>
@@ -7190,10 +7308,10 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B95" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="C95" t="s">
         <v>23</v>
@@ -7204,8 +7322,8 @@
       <c r="E95" t="s">
         <v>23</v>
       </c>
-      <c r="F95" t="s">
-        <v>24</v>
+      <c r="F95">
+        <v>300</v>
       </c>
       <c r="G95" t="s">
         <v>23</v>
@@ -7252,10 +7370,10 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B96" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="C96" t="s">
         <v>23</v>
@@ -7266,8 +7384,8 @@
       <c r="E96" t="s">
         <v>23</v>
       </c>
-      <c r="F96" t="s">
-        <v>24</v>
+      <c r="F96">
+        <v>300</v>
       </c>
       <c r="G96" t="s">
         <v>23</v>
@@ -7314,10 +7432,10 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B97" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C97" t="s">
         <v>23</v>
@@ -7328,8 +7446,8 @@
       <c r="E97" t="s">
         <v>23</v>
       </c>
-      <c r="F97" t="s">
-        <v>24</v>
+      <c r="F97">
+        <v>300</v>
       </c>
       <c r="G97" t="s">
         <v>23</v>
@@ -7376,10 +7494,10 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
@@ -7390,8 +7508,8 @@
       <c r="E98" t="s">
         <v>23</v>
       </c>
-      <c r="F98" t="s">
-        <v>24</v>
+      <c r="F98">
+        <v>300</v>
       </c>
       <c r="G98" t="s">
         <v>23</v>
@@ -7438,10 +7556,10 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B99" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
@@ -7452,8 +7570,8 @@
       <c r="E99" t="s">
         <v>23</v>
       </c>
-      <c r="F99" t="s">
-        <v>24</v>
+      <c r="F99">
+        <v>300</v>
       </c>
       <c r="G99" t="s">
         <v>23</v>
@@ -7500,10 +7618,10 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="C100" t="s">
         <v>23</v>
@@ -7514,8 +7632,8 @@
       <c r="E100" t="s">
         <v>23</v>
       </c>
-      <c r="F100" t="s">
-        <v>24</v>
+      <c r="F100">
+        <v>300</v>
       </c>
       <c r="G100" t="s">
         <v>23</v>
@@ -7562,10 +7680,10 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B101" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C101" t="s">
         <v>23</v>
@@ -7576,8 +7694,8 @@
       <c r="E101" t="s">
         <v>23</v>
       </c>
-      <c r="F101" t="s">
-        <v>24</v>
+      <c r="F101">
+        <v>300</v>
       </c>
       <c r="G101" t="s">
         <v>23</v>
@@ -7624,10 +7742,10 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B102" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="C102" t="s">
         <v>23</v>
@@ -7638,8 +7756,8 @@
       <c r="E102" t="s">
         <v>23</v>
       </c>
-      <c r="F102" t="s">
-        <v>24</v>
+      <c r="F102">
+        <v>300</v>
       </c>
       <c r="G102" t="s">
         <v>23</v>
@@ -7686,10 +7804,10 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B103" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -7700,8 +7818,8 @@
       <c r="E103" t="s">
         <v>23</v>
       </c>
-      <c r="F103" t="s">
-        <v>24</v>
+      <c r="F103">
+        <v>300</v>
       </c>
       <c r="G103" t="s">
         <v>23</v>
@@ -7748,10 +7866,10 @@
     </row>
     <row r="104" spans="1:20">
       <c r="A104" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B104" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="C104" t="s">
         <v>23</v>
@@ -7762,8 +7880,8 @@
       <c r="E104" t="s">
         <v>23</v>
       </c>
-      <c r="F104" t="s">
-        <v>24</v>
+      <c r="F104">
+        <v>300</v>
       </c>
       <c r="G104" t="s">
         <v>23</v>
@@ -7810,10 +7928,10 @@
     </row>
     <row r="105" spans="1:20">
       <c r="A105" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C105" t="s">
         <v>23</v>
@@ -7824,8 +7942,8 @@
       <c r="E105" t="s">
         <v>23</v>
       </c>
-      <c r="F105" t="s">
-        <v>24</v>
+      <c r="F105">
+        <v>300</v>
       </c>
       <c r="G105" t="s">
         <v>23</v>
@@ -7872,10 +7990,10 @@
     </row>
     <row r="106" spans="1:20">
       <c r="A106" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B106" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C106" t="s">
         <v>23</v>
@@ -7886,8 +8004,8 @@
       <c r="E106" t="s">
         <v>23</v>
       </c>
-      <c r="F106" t="s">
-        <v>24</v>
+      <c r="F106">
+        <v>300</v>
       </c>
       <c r="G106" t="s">
         <v>23</v>
@@ -7934,10 +8052,10 @@
     </row>
     <row r="107" spans="1:20">
       <c r="A107" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B107" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="C107" t="s">
         <v>23</v>
@@ -7948,8 +8066,8 @@
       <c r="E107" t="s">
         <v>23</v>
       </c>
-      <c r="F107" t="s">
-        <v>24</v>
+      <c r="F107">
+        <v>300</v>
       </c>
       <c r="G107" t="s">
         <v>23</v>
@@ -7996,10 +8114,10 @@
     </row>
     <row r="108" spans="1:20">
       <c r="A108" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B108" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="C108" t="s">
         <v>23</v>
@@ -8010,8 +8128,8 @@
       <c r="E108" t="s">
         <v>23</v>
       </c>
-      <c r="F108" t="s">
-        <v>24</v>
+      <c r="F108">
+        <v>300</v>
       </c>
       <c r="G108" t="s">
         <v>23</v>
@@ -8058,10 +8176,10 @@
     </row>
     <row r="109" spans="1:20">
       <c r="A109" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B109" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C109" t="s">
         <v>23</v>
@@ -8072,8 +8190,8 @@
       <c r="E109" t="s">
         <v>23</v>
       </c>
-      <c r="F109" t="s">
-        <v>24</v>
+      <c r="F109">
+        <v>300</v>
       </c>
       <c r="G109" t="s">
         <v>23</v>
@@ -8120,10 +8238,10 @@
     </row>
     <row r="110" spans="1:20">
       <c r="A110" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B110" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C110" t="s">
         <v>23</v>
@@ -8134,8 +8252,8 @@
       <c r="E110" t="s">
         <v>23</v>
       </c>
-      <c r="F110" t="s">
-        <v>24</v>
+      <c r="F110">
+        <v>300</v>
       </c>
       <c r="G110" t="s">
         <v>23</v>
@@ -8182,10 +8300,10 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C111" t="s">
         <v>23</v>
@@ -8196,8 +8314,8 @@
       <c r="E111" t="s">
         <v>23</v>
       </c>
-      <c r="F111" t="s">
-        <v>24</v>
+      <c r="F111">
+        <v>300</v>
       </c>
       <c r="G111" t="s">
         <v>23</v>
@@ -8244,10 +8362,10 @@
     </row>
     <row r="112" spans="1:20">
       <c r="A112" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B112" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C112" t="s">
         <v>23</v>
@@ -8258,8 +8376,8 @@
       <c r="E112" t="s">
         <v>23</v>
       </c>
-      <c r="F112" t="s">
-        <v>24</v>
+      <c r="F112">
+        <v>300</v>
       </c>
       <c r="G112" t="s">
         <v>23</v>
@@ -8306,10 +8424,10 @@
     </row>
     <row r="113" spans="1:20">
       <c r="A113" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B113" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C113" t="s">
         <v>23</v>
@@ -8320,8 +8438,8 @@
       <c r="E113" t="s">
         <v>23</v>
       </c>
-      <c r="F113" t="s">
-        <v>24</v>
+      <c r="F113">
+        <v>300</v>
       </c>
       <c r="G113" t="s">
         <v>23</v>
@@ -8368,10 +8486,10 @@
     </row>
     <row r="114" spans="1:20">
       <c r="A114" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B114" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="C114" t="s">
         <v>23</v>
@@ -8382,8 +8500,8 @@
       <c r="E114" t="s">
         <v>23</v>
       </c>
-      <c r="F114" t="s">
-        <v>24</v>
+      <c r="F114">
+        <v>300</v>
       </c>
       <c r="G114" t="s">
         <v>23</v>
@@ -8430,10 +8548,10 @@
     </row>
     <row r="115" spans="1:20">
       <c r="A115" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B115" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C115" t="s">
         <v>23</v>
@@ -8444,8 +8562,8 @@
       <c r="E115" t="s">
         <v>23</v>
       </c>
-      <c r="F115" t="s">
-        <v>24</v>
+      <c r="F115">
+        <v>300</v>
       </c>
       <c r="G115" t="s">
         <v>23</v>
@@ -8492,10 +8610,10 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B116" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C116" t="s">
         <v>23</v>
@@ -8506,8 +8624,8 @@
       <c r="E116" t="s">
         <v>23</v>
       </c>
-      <c r="F116" t="s">
-        <v>24</v>
+      <c r="F116">
+        <v>300</v>
       </c>
       <c r="G116" t="s">
         <v>23</v>
@@ -8554,10 +8672,10 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B117" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="C117" t="s">
         <v>23</v>
@@ -8568,8 +8686,8 @@
       <c r="E117" t="s">
         <v>23</v>
       </c>
-      <c r="F117" t="s">
-        <v>24</v>
+      <c r="F117">
+        <v>300</v>
       </c>
       <c r="G117" t="s">
         <v>23</v>
@@ -8616,10 +8734,10 @@
     </row>
     <row r="118" spans="1:20">
       <c r="A118" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="B118" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="C118" t="s">
         <v>23</v>
@@ -8630,8 +8748,8 @@
       <c r="E118" t="s">
         <v>23</v>
       </c>
-      <c r="F118" t="s">
-        <v>24</v>
+      <c r="F118">
+        <v>300</v>
       </c>
       <c r="G118" t="s">
         <v>23</v>
@@ -8678,10 +8796,10 @@
     </row>
     <row r="119" spans="1:20">
       <c r="A119" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B119" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C119" t="s">
         <v>23</v>
@@ -8692,8 +8810,8 @@
       <c r="E119" t="s">
         <v>23</v>
       </c>
-      <c r="F119" t="s">
-        <v>24</v>
+      <c r="F119">
+        <v>300</v>
       </c>
       <c r="G119" t="s">
         <v>23</v>
@@ -8740,10 +8858,10 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B120" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C120" t="s">
         <v>23</v>
@@ -8754,8 +8872,8 @@
       <c r="E120" t="s">
         <v>23</v>
       </c>
-      <c r="F120" t="s">
-        <v>24</v>
+      <c r="F120">
+        <v>300</v>
       </c>
       <c r="G120" t="s">
         <v>23</v>
@@ -8802,10 +8920,10 @@
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B121" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C121" t="s">
         <v>23</v>
@@ -8816,8 +8934,8 @@
       <c r="E121" t="s">
         <v>23</v>
       </c>
-      <c r="F121" t="s">
-        <v>24</v>
+      <c r="F121">
+        <v>300</v>
       </c>
       <c r="G121" t="s">
         <v>23</v>
@@ -8864,22 +8982,22 @@
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
+        <v>320</v>
+      </c>
+      <c r="B122" t="s">
+        <v>321</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122">
         <v>300</v>
-      </c>
-      <c r="B122" t="s">
-        <v>301</v>
-      </c>
-      <c r="C122" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" t="s">
-        <v>23</v>
-      </c>
-      <c r="E122" t="s">
-        <v>23</v>
-      </c>
-      <c r="F122" t="s">
-        <v>24</v>
       </c>
       <c r="G122" t="s">
         <v>23</v>
@@ -8926,10 +9044,10 @@
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="B123" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="C123" t="s">
         <v>23</v>
@@ -8940,8 +9058,8 @@
       <c r="E123" t="s">
         <v>23</v>
       </c>
-      <c r="F123" t="s">
-        <v>24</v>
+      <c r="F123">
+        <v>300</v>
       </c>
       <c r="G123" t="s">
         <v>23</v>
@@ -8988,10 +9106,10 @@
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="B124" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C124" t="s">
         <v>23</v>
@@ -9002,8 +9120,8 @@
       <c r="E124" t="s">
         <v>23</v>
       </c>
-      <c r="F124" t="s">
-        <v>24</v>
+      <c r="F124">
+        <v>300</v>
       </c>
       <c r="G124" t="s">
         <v>23</v>
@@ -9050,10 +9168,10 @@
     </row>
     <row r="125" spans="1:20">
       <c r="A125" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="B125" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="C125" t="s">
         <v>23</v>
@@ -9064,8 +9182,8 @@
       <c r="E125" t="s">
         <v>23</v>
       </c>
-      <c r="F125" t="s">
-        <v>24</v>
+      <c r="F125">
+        <v>300</v>
       </c>
       <c r="G125" t="s">
         <v>23</v>
@@ -9112,10 +9230,10 @@
     </row>
     <row r="126" spans="1:20">
       <c r="A126" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="B126" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="C126" t="s">
         <v>23</v>
@@ -9126,8 +9244,8 @@
       <c r="E126" t="s">
         <v>23</v>
       </c>
-      <c r="F126" t="s">
-        <v>24</v>
+      <c r="F126">
+        <v>300</v>
       </c>
       <c r="G126" t="s">
         <v>23</v>
@@ -9174,10 +9292,10 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B127" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
@@ -9188,8 +9306,8 @@
       <c r="E127" t="s">
         <v>23</v>
       </c>
-      <c r="F127" t="s">
-        <v>24</v>
+      <c r="F127">
+        <v>300</v>
       </c>
       <c r="G127" t="s">
         <v>23</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="6600" windowWidth="25600" windowHeight="15620"/>
+    <workbookView xWindow="13040" yWindow="7320" windowWidth="25600" windowHeight="15700"/>
   </bookViews>
   <sheets>
     <sheet name="兵器数值" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="333">
   <si>
     <t>1兵器id</t>
   </si>
@@ -1469,8 +1469,8 @@
   <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1621,11 +1621,11 @@
       <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
+      <c r="G3">
+        <v>180</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
@@ -1683,17 +1683,17 @@
       <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
+      <c r="G4">
+        <v>350</v>
+      </c>
+      <c r="H4">
+        <v>300</v>
       </c>
       <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>34</v>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>29</v>
@@ -1745,11 +1745,11 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
+      <c r="G5">
+        <v>470</v>
+      </c>
+      <c r="H5">
+        <v>430</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
@@ -1807,11 +1807,11 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
+      <c r="G6">
+        <v>590</v>
+      </c>
+      <c r="H6">
+        <v>560</v>
       </c>
       <c r="I6" t="s">
         <v>23</v>
@@ -1869,11 +1869,11 @@
       <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
+      <c r="G7">
+        <v>710</v>
+      </c>
+      <c r="H7">
+        <v>690</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
@@ -1934,8 +1934,8 @@
       <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
-        <v>53</v>
+      <c r="H8">
+        <v>570</v>
       </c>
       <c r="I8" t="s">
         <v>64</v>
@@ -1996,8 +1996,8 @@
       <c r="G9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="s">
-        <v>63</v>
+      <c r="H9">
+        <v>670</v>
       </c>
       <c r="I9" t="s">
         <v>70</v>
@@ -2058,8 +2058,8 @@
       <c r="G10" t="s">
         <v>59</v>
       </c>
-      <c r="H10" t="s">
-        <v>75</v>
+      <c r="H10">
+        <v>770</v>
       </c>
       <c r="I10" t="s">
         <v>76</v>
@@ -2120,8 +2120,8 @@
       <c r="G11" t="s">
         <v>81</v>
       </c>
-      <c r="H11" t="s">
-        <v>69</v>
+      <c r="H11">
+        <v>870</v>
       </c>
       <c r="I11" t="s">
         <v>22</v>
@@ -2182,8 +2182,8 @@
       <c r="G12" t="s">
         <v>85</v>
       </c>
-      <c r="H12" t="s">
-        <v>86</v>
+      <c r="H12">
+        <v>970</v>
       </c>
       <c r="I12" t="s">
         <v>80</v>
@@ -2986,7 +2986,7 @@
         <v>119</v>
       </c>
       <c r="G25">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="H25" t="s">
         <v>23</v>
@@ -3048,7 +3048,7 @@
         <v>119</v>
       </c>
       <c r="G26">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="H26" t="s">
         <v>23</v>
@@ -3110,7 +3110,7 @@
         <v>119</v>
       </c>
       <c r="G27">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="H27" t="s">
         <v>23</v>
@@ -3172,7 +3172,7 @@
         <v>119</v>
       </c>
       <c r="G28">
-        <v>460</v>
+        <v>580</v>
       </c>
       <c r="H28" t="s">
         <v>23</v>
@@ -4598,16 +4598,16 @@
         <v>90</v>
       </c>
       <c r="G51">
-        <v>220</v>
-      </c>
-      <c r="H51" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>650</v>
       </c>
       <c r="I51">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="K51" t="s">
         <v>42</v>
@@ -4660,16 +4660,16 @@
         <v>176</v>
       </c>
       <c r="G52">
-        <v>340</v>
-      </c>
-      <c r="H52" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>760</v>
       </c>
       <c r="I52">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="K52" t="s">
         <v>25</v>
@@ -4722,16 +4722,16 @@
         <v>176</v>
       </c>
       <c r="G53">
-        <v>460</v>
-      </c>
-      <c r="H53" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>870</v>
       </c>
       <c r="I53">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>7</v>
+        <v>-6</v>
       </c>
       <c r="K53" t="s">
         <v>25</v>
@@ -4784,16 +4784,16 @@
         <v>176</v>
       </c>
       <c r="G54">
-        <v>580</v>
-      </c>
-      <c r="H54" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>980</v>
       </c>
       <c r="I54">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>8</v>
+        <v>-4</v>
       </c>
       <c r="K54" t="s">
         <v>25</v>
@@ -4846,7 +4846,7 @@
         <v>185</v>
       </c>
       <c r="G55">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="H55" t="s">
         <v>23</v>
@@ -4908,7 +4908,7 @@
         <v>185</v>
       </c>
       <c r="G56">
-        <v>300</v>
+        <v>590</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
@@ -4970,7 +4970,7 @@
         <v>185</v>
       </c>
       <c r="G57">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
@@ -5032,7 +5032,7 @@
         <v>185</v>
       </c>
       <c r="G58">
-        <v>600</v>
+        <v>810</v>
       </c>
       <c r="H58" t="s">
         <v>23</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AMAMA/Documents/suker/git/MyWuXia/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="7320" windowWidth="25600" windowHeight="15700"/>
+    <workbookView xWindow="8000" yWindow="4180" windowWidth="25600" windowHeight="15700"/>
   </bookViews>
   <sheets>
     <sheet name="兵器数值" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="333">
   <si>
     <t>1兵器id</t>
   </si>
@@ -1107,6 +1112,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="31">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1122,25 +1128,29 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1469,16 +1479,17 @@
   <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1540,7 +1551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1602,7 +1613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1664,7 +1675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1726,7 +1737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -1788,7 +1799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1850,7 +1861,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -1912,7 +1923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1974,7 +1985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -2036,7 +2047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2098,7 +2109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -2160,7 +2171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -2222,7 +2233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -2284,7 +2295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -2346,7 +2357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -2408,7 +2419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -2470,7 +2481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -2532,7 +2543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -2594,7 +2605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -2656,7 +2667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -2718,7 +2729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -2780,7 +2791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -2842,7 +2853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>112</v>
       </c>
@@ -2904,7 +2915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -2923,8 +2934,8 @@
       <c r="F24" t="s">
         <v>33</v>
       </c>
-      <c r="G24" t="s">
-        <v>33</v>
+      <c r="G24">
+        <v>50</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
@@ -2966,7 +2977,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>117</v>
       </c>
@@ -3028,7 +3039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>120</v>
       </c>
@@ -3090,7 +3101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -3152,7 +3163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>125</v>
       </c>
@@ -3214,7 +3225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -3276,7 +3287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>129</v>
       </c>
@@ -3338,7 +3349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -3400,7 +3411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>133</v>
       </c>
@@ -3462,7 +3473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -3524,7 +3535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>137</v>
       </c>
@@ -3586,7 +3597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -3648,7 +3659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -3710,7 +3721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -3772,7 +3783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3834,7 +3845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -3896,7 +3907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -3958,7 +3969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -4020,7 +4031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -4082,7 +4093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>158</v>
       </c>
@@ -4144,7 +4155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>160</v>
       </c>
@@ -4206,7 +4217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>162</v>
       </c>
@@ -4268,7 +4279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -4330,7 +4341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -4392,7 +4403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>168</v>
       </c>
@@ -4454,7 +4465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>170</v>
       </c>
@@ -4516,7 +4527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>172</v>
       </c>
@@ -4578,7 +4589,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>174</v>
       </c>
@@ -4640,7 +4651,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>177</v>
       </c>
@@ -4702,7 +4713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>179</v>
       </c>
@@ -4764,7 +4775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -4826,7 +4837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -4888,7 +4899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>186</v>
       </c>
@@ -4950,7 +4961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>188</v>
       </c>
@@ -5012,7 +5023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>190</v>
       </c>
@@ -5074,7 +5085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>192</v>
       </c>
@@ -5136,7 +5147,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>194</v>
       </c>
@@ -5198,7 +5209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>196</v>
       </c>
@@ -5260,7 +5271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -5322,7 +5333,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -5384,7 +5395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>203</v>
       </c>
@@ -5446,7 +5457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -5508,7 +5519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>206</v>
       </c>
@@ -5570,7 +5581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>208</v>
       </c>
@@ -5632,7 +5643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>210</v>
       </c>
@@ -5694,7 +5705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>212</v>
       </c>
@@ -5756,7 +5767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -5818,7 +5829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>216</v>
       </c>
@@ -5880,7 +5891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>218</v>
       </c>
@@ -5942,7 +5953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>220</v>
       </c>
@@ -6004,7 +6015,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -6066,7 +6077,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>224</v>
       </c>
@@ -6128,7 +6139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>226</v>
       </c>
@@ -6190,7 +6201,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>229</v>
       </c>
@@ -6252,7 +6263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>231</v>
       </c>
@@ -6314,7 +6325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>233</v>
       </c>
@@ -6376,7 +6387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>235</v>
       </c>
@@ -6438,7 +6449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>237</v>
       </c>
@@ -6500,7 +6511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>239</v>
       </c>
@@ -6562,7 +6573,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>241</v>
       </c>
@@ -6624,7 +6635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>244</v>
       </c>
@@ -6686,7 +6697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -6748,7 +6759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>248</v>
       </c>
@@ -6810,7 +6821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>250</v>
       </c>
@@ -6872,7 +6883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>252</v>
       </c>
@@ -6934,7 +6945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -6996,7 +7007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>256</v>
       </c>
@@ -7058,7 +7069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>258</v>
       </c>
@@ -7120,7 +7131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>260</v>
       </c>
@@ -7182,7 +7193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>262</v>
       </c>
@@ -7244,7 +7255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>264</v>
       </c>
@@ -7306,7 +7317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>266</v>
       </c>
@@ -7368,7 +7379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>268</v>
       </c>
@@ -7430,7 +7441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>270</v>
       </c>
@@ -7492,7 +7503,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>272</v>
       </c>
@@ -7554,7 +7565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>274</v>
       </c>
@@ -7616,7 +7627,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>276</v>
       </c>
@@ -7678,7 +7689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>278</v>
       </c>
@@ -7740,7 +7751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>280</v>
       </c>
@@ -7802,7 +7813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>282</v>
       </c>
@@ -7864,7 +7875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>284</v>
       </c>
@@ -7926,7 +7937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>286</v>
       </c>
@@ -7988,7 +7999,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>288</v>
       </c>
@@ -8050,7 +8061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>290</v>
       </c>
@@ -8112,7 +8123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>292</v>
       </c>
@@ -8174,7 +8185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>294</v>
       </c>
@@ -8236,7 +8247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>296</v>
       </c>
@@ -8298,7 +8309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>298</v>
       </c>
@@ -8360,7 +8371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>300</v>
       </c>
@@ -8422,7 +8433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>302</v>
       </c>
@@ -8484,7 +8495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>304</v>
       </c>
@@ -8546,7 +8557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>306</v>
       </c>
@@ -8608,7 +8619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>308</v>
       </c>
@@ -8670,7 +8681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>310</v>
       </c>
@@ -8732,7 +8743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>312</v>
       </c>
@@ -8794,7 +8805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>314</v>
       </c>
@@ -8856,7 +8867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>316</v>
       </c>
@@ -8918,7 +8929,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>318</v>
       </c>
@@ -8980,7 +8991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>320</v>
       </c>
@@ -9042,7 +9053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>322</v>
       </c>
@@ -9104,7 +9115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>324</v>
       </c>
@@ -9166,7 +9177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>326</v>
       </c>
@@ -9228,7 +9239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>328</v>
       </c>
@@ -9290,7 +9301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>330</v>
       </c>
@@ -9356,10 +9367,5 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -350,6 +350,9 @@
     <t>铜尸缠手</t>
   </si>
   <si>
+    <t>0.03</t>
+  </si>
+  <si>
     <t>100302</t>
   </si>
   <si>
@@ -402,9 +405,6 @@
   </si>
   <si>
     <t>450</t>
-  </si>
-  <si>
-    <t>0.14</t>
   </si>
   <si>
     <t>101001</t>
@@ -2286,7 +2286,7 @@
         <v>23</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>50</v>
@@ -2324,13 +2324,13 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>83</v>
@@ -2342,13 +2342,13 @@
         <v>35</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>23</v>
@@ -2386,10 +2386,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>23</v>
@@ -2401,10 +2401,10 @@
         <v>23</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>23</v>
@@ -2448,13 +2448,13 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>54</v>
@@ -2469,7 +2469,7 @@
         <v>85</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>22</v>
@@ -2510,10 +2510,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>70</v>
@@ -2528,10 +2528,10 @@
         <v>24</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>23</v>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>70</v>
@@ -2590,13 +2590,13 @@
         <v>24</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>24</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>23</v>
@@ -2649,7 +2649,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>133</v>
@@ -3269,10 +3269,10 @@
         <v>22</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>133</v>
@@ -3334,7 +3334,7 @@
         <v>169</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>23</v>
@@ -3641,7 +3641,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>23</v>
@@ -3703,7 +3703,7 @@
         <v>23</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>23</v>
@@ -3892,7 +3892,7 @@
         <v>193</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>23</v>
@@ -4252,7 +4252,7 @@
         <v>206</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>83</v>
@@ -4946,7 +4946,7 @@
         <v>225</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>23</v>
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>83</v>
@@ -5132,7 +5132,7 @@
         <v>193</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>23</v>
@@ -6059,10 +6059,10 @@
         <v>70</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>23</v>
@@ -6124,7 +6124,7 @@
         <v>285</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>23</v>
@@ -6310,7 +6310,7 @@
         <v>292</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>23</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
   <si>
     <t>1兵器id</t>
   </si>
@@ -491,9 +491,6 @@
     <t>920</t>
   </si>
   <si>
-    <t>0.17</t>
-  </si>
-  <si>
     <t>101104</t>
   </si>
   <si>
@@ -503,9 +500,6 @@
     <t>1080</t>
   </si>
   <si>
-    <t>0.19</t>
-  </si>
-  <si>
     <t>101105</t>
   </si>
   <si>
@@ -743,7 +737,7 @@
     <t>紫金梁</t>
   </si>
   <si>
-    <t>1800</t>
+    <t>2000</t>
   </si>
   <si>
     <t>104105</t>
@@ -755,7 +749,7 @@
     <t>0.75</t>
   </si>
   <si>
-    <t>2100</t>
+    <t>2800</t>
   </si>
   <si>
     <t>104201</t>
@@ -1920,7 +1914,7 @@
         <v>91</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>23</v>
@@ -3098,7 +3092,7 @@
         <v>23</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>23</v>
@@ -3136,10 +3130,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>161</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>83</v>
@@ -3154,13 +3148,13 @@
         <v>28</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>163</v>
+        <v>39</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>36</v>
@@ -3198,10 +3192,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>89</v>
@@ -3216,13 +3210,13 @@
         <v>28</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>50</v>
@@ -3260,10 +3254,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>23</v>
@@ -3322,10 +3316,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>46</v>
@@ -3337,7 +3331,7 @@
         <v>23</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>129</v>
@@ -3384,10 +3378,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>78</v>
@@ -3399,7 +3393,7 @@
         <v>23</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>35</v>
@@ -3446,10 +3440,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>54</v>
@@ -3461,10 +3455,10 @@
         <v>22</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>23</v>
@@ -3508,10 +3502,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>64</v>
@@ -3523,7 +3517,7 @@
         <v>84</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>94</v>
@@ -3570,10 +3564,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>70</v>
@@ -3585,7 +3579,7 @@
         <v>33</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>23</v>
@@ -3632,10 +3626,10 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>77</v>
@@ -3694,10 +3688,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>23</v>
@@ -3756,22 +3750,22 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>188</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>23</v>
@@ -3818,10 +3812,10 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>23</v>
@@ -3833,7 +3827,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>101</v>
@@ -3880,10 +3874,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>23</v>
@@ -3895,7 +3889,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>118</v>
@@ -3942,10 +3936,10 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>70</v>
@@ -3960,7 +3954,7 @@
         <v>24</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>23</v>
@@ -4004,10 +3998,10 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>70</v>
@@ -4019,7 +4013,7 @@
         <v>33</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>23</v>
@@ -4066,10 +4060,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>77</v>
@@ -4081,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>23</v>
@@ -4128,10 +4122,10 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>83</v>
@@ -4143,7 +4137,7 @@
         <v>46</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>23</v>
@@ -4190,10 +4184,10 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>89</v>
@@ -4205,7 +4199,7 @@
         <v>78</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>23</v>
@@ -4252,10 +4246,10 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>117</v>
@@ -4267,7 +4261,7 @@
         <v>54</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>23</v>
@@ -4276,7 +4270,7 @@
         <v>23</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>23</v>
@@ -4314,10 +4308,10 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>33</v>
@@ -4329,19 +4323,19 @@
         <v>23</v>
       </c>
       <c r="F51" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="H51" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>212</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>43</v>
@@ -4376,10 +4370,10 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>39</v>
@@ -4391,19 +4385,19 @@
         <v>71</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>25</v>
@@ -4438,10 +4432,10 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>46</v>
@@ -4453,7 +4447,7 @@
         <v>22</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>23</v>
@@ -4465,7 +4459,7 @@
         <v>23</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>25</v>
@@ -4500,10 +4494,10 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>54</v>
@@ -4515,19 +4509,19 @@
         <v>33</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>25</v>
@@ -4562,10 +4556,10 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>46</v>
@@ -4577,10 +4571,10 @@
         <v>22</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>23</v>
@@ -4624,10 +4618,10 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>78</v>
@@ -4639,7 +4633,7 @@
         <v>84</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>47</v>
@@ -4686,10 +4680,10 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>54</v>
@@ -4701,7 +4695,7 @@
         <v>33</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>97</v>
@@ -4748,10 +4742,10 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>70</v>
@@ -4763,10 +4757,10 @@
         <v>46</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>23</v>
@@ -4810,10 +4804,10 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>77</v>
@@ -4825,7 +4819,7 @@
         <v>78</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>101</v>
@@ -4872,10 +4866,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>83</v>
@@ -4887,7 +4881,7 @@
         <v>54</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>85</v>
@@ -4934,10 +4928,10 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>89</v>
@@ -4949,7 +4943,7 @@
         <v>64</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>122</v>
@@ -4996,10 +4990,10 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>117</v>
@@ -5011,10 +5005,10 @@
         <v>70</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>23</v>
@@ -5058,13 +5052,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>246</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>89</v>
@@ -5073,10 +5067,10 @@
         <v>77</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>23</v>
@@ -5120,10 +5114,10 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>23</v>
@@ -5135,7 +5129,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>129</v>
@@ -5182,10 +5176,10 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>46</v>
@@ -5200,7 +5194,7 @@
         <v>24</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>23</v>
@@ -5244,10 +5238,10 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>23</v>
@@ -5259,7 +5253,7 @@
         <v>33</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>61</v>
@@ -5306,10 +5300,10 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>23</v>
@@ -5368,10 +5362,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>83</v>
@@ -5383,10 +5377,10 @@
         <v>23</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>23</v>
@@ -5430,10 +5424,10 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>23</v>
@@ -5492,10 +5486,10 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>23</v>
@@ -5507,7 +5501,7 @@
         <v>23</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>23</v>
@@ -5554,10 +5548,10 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>22</v>
@@ -5616,10 +5610,10 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>84</v>
@@ -5637,13 +5631,13 @@
         <v>23</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>25</v>
@@ -5678,10 +5672,10 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>33</v>
@@ -5705,7 +5699,7 @@
         <v>23</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>25</v>
@@ -5740,10 +5734,10 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>39</v>
@@ -5761,7 +5755,7 @@
         <v>23</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>23</v>
@@ -5802,10 +5796,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>54</v>
@@ -5823,13 +5817,13 @@
         <v>23</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>23</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K75" s="0" t="s">
         <v>25</v>
@@ -5864,10 +5858,10 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>23</v>
@@ -5879,7 +5873,7 @@
         <v>23</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>23</v>
@@ -5926,10 +5920,10 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>23</v>
@@ -5941,7 +5935,7 @@
         <v>23</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>65</v>
@@ -5988,10 +5982,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>83</v>
@@ -6050,10 +6044,10 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>23</v>
@@ -6112,10 +6106,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>23</v>
@@ -6127,7 +6121,7 @@
         <v>22</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>121</v>
@@ -6174,10 +6168,10 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>23</v>
@@ -6192,7 +6186,7 @@
         <v>24</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>23</v>
@@ -6236,10 +6230,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>23</v>
@@ -6298,10 +6292,10 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>46</v>
@@ -6313,7 +6307,7 @@
         <v>23</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>118</v>
@@ -6360,10 +6354,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>23</v>
@@ -6422,10 +6416,10 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>23</v>
@@ -6484,10 +6478,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>23</v>
@@ -6546,10 +6540,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>23</v>
@@ -6608,10 +6602,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>23</v>
@@ -6670,10 +6664,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>23</v>
@@ -6732,10 +6726,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>23</v>
@@ -6794,10 +6788,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>23</v>
@@ -6856,10 +6850,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>23</v>
@@ -6918,10 +6912,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>23</v>
@@ -6980,10 +6974,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>23</v>
@@ -7042,10 +7036,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>23</v>
@@ -7104,10 +7098,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>23</v>
@@ -7166,10 +7160,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>23</v>
@@ -7228,10 +7222,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>23</v>
@@ -7290,10 +7284,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>23</v>
@@ -7352,10 +7346,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>23</v>
@@ -7414,10 +7408,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>23</v>
@@ -7476,10 +7470,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>23</v>
@@ -7538,10 +7532,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>23</v>
@@ -7600,10 +7594,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>23</v>
@@ -7662,10 +7656,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>23</v>
@@ -7724,10 +7718,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>23</v>
@@ -7786,10 +7780,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>23</v>
@@ -7848,10 +7842,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>23</v>
@@ -7910,10 +7904,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>23</v>
@@ -7972,10 +7966,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>23</v>
@@ -8034,10 +8028,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>23</v>
@@ -8096,10 +8090,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>23</v>
@@ -8158,10 +8152,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>23</v>
@@ -8220,10 +8214,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>23</v>
@@ -8282,10 +8276,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>23</v>
@@ -8344,10 +8338,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>23</v>
@@ -8406,10 +8400,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>23</v>
@@ -8468,10 +8462,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>23</v>
@@ -8530,10 +8524,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>23</v>
@@ -8592,10 +8586,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>23</v>
@@ -8654,10 +8648,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>23</v>
@@ -8716,10 +8710,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>23</v>
@@ -8778,10 +8772,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>23</v>
@@ -8840,10 +8834,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>23</v>
@@ -8902,10 +8896,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>23</v>
@@ -8964,10 +8958,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>23</v>
@@ -9026,10 +9020,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>23</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t>1兵器id</t>
   </si>
@@ -332,460 +332,463 @@
     <t>白虎</t>
   </si>
   <si>
-    <t>1100</t>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>100205</t>
+  </si>
+  <si>
+    <t>天机</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>100301</t>
+  </si>
+  <si>
+    <t>铜尸缠手</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>100302</t>
+  </si>
+  <si>
+    <t>铁尸缠手</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>100303</t>
+  </si>
+  <si>
+    <t>寒玉缠手</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>100304</t>
+  </si>
+  <si>
+    <t>降龙缠手</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>100305</t>
+  </si>
+  <si>
+    <t>霹雳缠手</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>100306</t>
+  </si>
+  <si>
+    <t>竹叶缠手</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>狼牙枪</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>铁头枪</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>101003</t>
+  </si>
+  <si>
+    <t>红缨钢枪</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>101004</t>
+  </si>
+  <si>
+    <t>英雄枪</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>101005</t>
+  </si>
+  <si>
+    <t>千钧搠枪</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>101101</t>
+  </si>
+  <si>
+    <t>六棱枪</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>101102</t>
+  </si>
+  <si>
+    <t>钩镰枪</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>101103</t>
+  </si>
+  <si>
+    <t>追魂枪</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>101104</t>
+  </si>
+  <si>
+    <t>透骨枪</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>101105</t>
+  </si>
+  <si>
+    <t>赤月枪</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>101201</t>
+  </si>
+  <si>
+    <t>大杆秤</t>
+  </si>
+  <si>
+    <t>102001</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>文士剑</t>
+  </si>
+  <si>
+    <t>102003</t>
+  </si>
+  <si>
+    <t>安定剑</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>102004</t>
+  </si>
+  <si>
+    <t>火精剑</t>
+  </si>
+  <si>
+    <t>102101</t>
+  </si>
+  <si>
+    <t>青钢剑</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>102102</t>
+  </si>
+  <si>
+    <t>金刚剑</t>
+  </si>
+  <si>
+    <t>102103</t>
+  </si>
+  <si>
+    <t>龙泉宝剑</t>
+  </si>
+  <si>
+    <t>102104</t>
+  </si>
+  <si>
+    <t>全真七子剑</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>102105</t>
+  </si>
+  <si>
+    <t>玄铁重剑</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>102106</t>
+  </si>
+  <si>
+    <t>淑女剑</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>102107</t>
+  </si>
+  <si>
+    <t>越女剑</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>102201</t>
+  </si>
+  <si>
+    <t>侠少剑</t>
+  </si>
+  <si>
+    <t>102202</t>
+  </si>
+  <si>
+    <t>含光剑</t>
+  </si>
+  <si>
+    <t>102203</t>
+  </si>
+  <si>
+    <t>茂陵剑</t>
+  </si>
+  <si>
+    <t>102204</t>
+  </si>
+  <si>
+    <t>玄电剑</t>
+  </si>
+  <si>
+    <t>102205</t>
+  </si>
+  <si>
+    <t>青冥剑</t>
+  </si>
+  <si>
+    <t>103001</t>
+  </si>
+  <si>
+    <t>马刀</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>103002</t>
+  </si>
+  <si>
+    <t>鬼头刀</t>
+  </si>
+  <si>
+    <t>760</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>103003</t>
+  </si>
+  <si>
+    <t>大横刀</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>103004</t>
+  </si>
+  <si>
+    <t>警恶刀</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>104001</t>
+  </si>
+  <si>
+    <t>桃木棍</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>104002</t>
+  </si>
+  <si>
+    <t>楠木棍</t>
+  </si>
+  <si>
+    <t>104003</t>
+  </si>
+  <si>
+    <t>熟铜棍</t>
+  </si>
+  <si>
+    <t>104004</t>
+  </si>
+  <si>
+    <t>精钢棍</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>104101</t>
+  </si>
+  <si>
+    <t>齐眉棍</t>
+  </si>
+  <si>
+    <t>104102</t>
+  </si>
+  <si>
+    <t>普渡棍</t>
+  </si>
+  <si>
+    <t>104103</t>
+  </si>
+  <si>
+    <t>鹤舞棍</t>
+  </si>
+  <si>
+    <t>104104</t>
+  </si>
+  <si>
+    <t>紫金梁</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>104105</t>
+  </si>
+  <si>
+    <t>紧那罗棒</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>104201</t>
+  </si>
+  <si>
+    <t>纯钢扁担</t>
+  </si>
+  <si>
+    <t>104202</t>
+  </si>
+  <si>
+    <t>慈恩禅杖</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>104203</t>
+  </si>
+  <si>
+    <t>伏魔金刚铲</t>
+  </si>
+  <si>
+    <t>104204</t>
+  </si>
+  <si>
+    <t>骷髅拐杖</t>
+  </si>
+  <si>
+    <t>104205</t>
+  </si>
+  <si>
+    <t>打狗棒</t>
+  </si>
+  <si>
+    <t>1067</t>
   </si>
   <si>
     <t>0.18</t>
-  </si>
-  <si>
-    <t>100205</t>
-  </si>
-  <si>
-    <t>天机</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>100301</t>
-  </si>
-  <si>
-    <t>铜尸缠手</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>100302</t>
-  </si>
-  <si>
-    <t>铁尸缠手</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>100303</t>
-  </si>
-  <si>
-    <t>寒玉缠手</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>100304</t>
-  </si>
-  <si>
-    <t>降龙缠手</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>100305</t>
-  </si>
-  <si>
-    <t>霹雳缠手</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>100306</t>
-  </si>
-  <si>
-    <t>竹叶缠手</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>狼牙枪</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>铁头枪</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>101003</t>
-  </si>
-  <si>
-    <t>红缨钢枪</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>101004</t>
-  </si>
-  <si>
-    <t>英雄枪</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>101005</t>
-  </si>
-  <si>
-    <t>千钧搠枪</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>101101</t>
-  </si>
-  <si>
-    <t>六棱枪</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>101102</t>
-  </si>
-  <si>
-    <t>钩镰枪</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>101103</t>
-  </si>
-  <si>
-    <t>追魂枪</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>101104</t>
-  </si>
-  <si>
-    <t>透骨枪</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>101105</t>
-  </si>
-  <si>
-    <t>赤月枪</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>101201</t>
-  </si>
-  <si>
-    <t>大杆秤</t>
-  </si>
-  <si>
-    <t>102001</t>
-  </si>
-  <si>
-    <t>铁剑</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>102002</t>
-  </si>
-  <si>
-    <t>文士剑</t>
-  </si>
-  <si>
-    <t>102003</t>
-  </si>
-  <si>
-    <t>安定剑</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>102004</t>
-  </si>
-  <si>
-    <t>火精剑</t>
-  </si>
-  <si>
-    <t>102101</t>
-  </si>
-  <si>
-    <t>青钢剑</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>102102</t>
-  </si>
-  <si>
-    <t>金刚剑</t>
-  </si>
-  <si>
-    <t>102103</t>
-  </si>
-  <si>
-    <t>龙泉宝剑</t>
-  </si>
-  <si>
-    <t>102104</t>
-  </si>
-  <si>
-    <t>全真七子剑</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>102105</t>
-  </si>
-  <si>
-    <t>玄铁重剑</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>102106</t>
-  </si>
-  <si>
-    <t>淑女剑</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>102107</t>
-  </si>
-  <si>
-    <t>越女剑</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>102201</t>
-  </si>
-  <si>
-    <t>侠少剑</t>
-  </si>
-  <si>
-    <t>102202</t>
-  </si>
-  <si>
-    <t>含光剑</t>
-  </si>
-  <si>
-    <t>102203</t>
-  </si>
-  <si>
-    <t>茂陵剑</t>
-  </si>
-  <si>
-    <t>102204</t>
-  </si>
-  <si>
-    <t>玄电剑</t>
-  </si>
-  <si>
-    <t>102205</t>
-  </si>
-  <si>
-    <t>青冥剑</t>
-  </si>
-  <si>
-    <t>103001</t>
-  </si>
-  <si>
-    <t>马刀</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>103002</t>
-  </si>
-  <si>
-    <t>鬼头刀</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>103003</t>
-  </si>
-  <si>
-    <t>大横刀</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>103004</t>
-  </si>
-  <si>
-    <t>警恶刀</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>104001</t>
-  </si>
-  <si>
-    <t>桃木棍</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>104002</t>
-  </si>
-  <si>
-    <t>楠木棍</t>
-  </si>
-  <si>
-    <t>104003</t>
-  </si>
-  <si>
-    <t>熟铜棍</t>
-  </si>
-  <si>
-    <t>104004</t>
-  </si>
-  <si>
-    <t>精钢棍</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>104101</t>
-  </si>
-  <si>
-    <t>齐眉棍</t>
-  </si>
-  <si>
-    <t>104102</t>
-  </si>
-  <si>
-    <t>普渡棍</t>
-  </si>
-  <si>
-    <t>104103</t>
-  </si>
-  <si>
-    <t>鹤舞棍</t>
-  </si>
-  <si>
-    <t>104104</t>
-  </si>
-  <si>
-    <t>紫金梁</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>104105</t>
-  </si>
-  <si>
-    <t>紧那罗棒</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>104201</t>
-  </si>
-  <si>
-    <t>纯钢扁担</t>
-  </si>
-  <si>
-    <t>104202</t>
-  </si>
-  <si>
-    <t>慈恩禅杖</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>104203</t>
-  </si>
-  <si>
-    <t>伏魔金刚铲</t>
-  </si>
-  <si>
-    <t>104204</t>
-  </si>
-  <si>
-    <t>骷髅拐杖</t>
-  </si>
-  <si>
-    <t>104205</t>
-  </si>
-  <si>
-    <t>打狗棒</t>
-  </si>
-  <si>
-    <t>1067</t>
   </si>
   <si>
     <t>104206</t>
@@ -1852,7 +1855,7 @@
         <v>86</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>23</v>
@@ -1914,7 +1917,7 @@
         <v>91</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>23</v>
@@ -2224,7 +2227,7 @@
         <v>23</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>111</v>
@@ -3154,7 +3157,7 @@
         <v>23</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>36</v>
@@ -3216,7 +3219,7 @@
         <v>23</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J33" s="0" t="s">
         <v>50</v>
@@ -5386,7 +5389,7 @@
         <v>23</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>107</v>
+        <v>258</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>50</v>
@@ -5424,10 +5427,10 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>23</v>
@@ -5486,10 +5489,10 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>23</v>
@@ -5548,10 +5551,10 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>22</v>
@@ -5610,10 +5613,10 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>84</v>
@@ -5637,7 +5640,7 @@
         <v>23</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>25</v>
@@ -5672,10 +5675,10 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>33</v>
@@ -5699,7 +5702,7 @@
         <v>23</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>25</v>
@@ -5734,10 +5737,10 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>39</v>
@@ -5796,10 +5799,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>54</v>
@@ -5823,7 +5826,7 @@
         <v>23</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K75" s="0" t="s">
         <v>25</v>
@@ -5858,10 +5861,10 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>23</v>
@@ -5920,10 +5923,10 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>23</v>
@@ -5982,10 +5985,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>83</v>
@@ -6044,10 +6047,10 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>23</v>
@@ -6106,10 +6109,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>23</v>
@@ -6121,7 +6124,7 @@
         <v>22</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>121</v>
@@ -6168,10 +6171,10 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>23</v>
@@ -6230,10 +6233,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>23</v>
@@ -6292,10 +6295,10 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>46</v>
@@ -6307,7 +6310,7 @@
         <v>23</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>118</v>
@@ -6354,10 +6357,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>23</v>
@@ -6416,10 +6419,10 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>23</v>
@@ -6478,10 +6481,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>23</v>
@@ -6540,10 +6543,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>23</v>
@@ -6602,10 +6605,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>23</v>
@@ -6664,10 +6667,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>23</v>
@@ -6726,10 +6729,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>23</v>
@@ -6788,10 +6791,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>23</v>
@@ -6850,10 +6853,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>23</v>
@@ -6912,10 +6915,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>23</v>
@@ -6974,10 +6977,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>23</v>
@@ -7036,10 +7039,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>23</v>
@@ -7098,10 +7101,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>23</v>
@@ -7160,10 +7163,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>23</v>
@@ -7222,10 +7225,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>23</v>
@@ -7284,10 +7287,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>23</v>
@@ -7346,10 +7349,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>23</v>
@@ -7408,10 +7411,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>23</v>
@@ -7470,10 +7473,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>23</v>
@@ -7532,10 +7535,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>23</v>
@@ -7594,10 +7597,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>23</v>
@@ -7656,10 +7659,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>23</v>
@@ -7718,10 +7721,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>23</v>
@@ -7780,10 +7783,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>23</v>
@@ -7842,10 +7845,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>23</v>
@@ -7904,10 +7907,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>23</v>
@@ -7966,10 +7969,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>23</v>
@@ -8028,10 +8031,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>23</v>
@@ -8090,10 +8093,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>23</v>
@@ -8152,10 +8155,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>23</v>
@@ -8214,10 +8217,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>23</v>
@@ -8276,10 +8279,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>23</v>
@@ -8338,10 +8341,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>23</v>
@@ -8400,10 +8403,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>23</v>
@@ -8462,10 +8465,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>23</v>
@@ -8524,10 +8527,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>23</v>
@@ -8586,10 +8589,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>23</v>
@@ -8648,10 +8651,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>23</v>
@@ -8710,10 +8713,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>23</v>
@@ -8772,10 +8775,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>23</v>
@@ -8834,10 +8837,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>23</v>
@@ -8896,10 +8899,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>23</v>
@@ -8958,10 +8961,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>23</v>
@@ -9020,10 +9023,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>23</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -815,10 +815,10 @@
     <t>0002001</t>
   </si>
   <si>
-    <t>00:28:40</t>
-  </si>
-  <si>
-    <t>1720</t>
+    <t>00:54:20</t>
+  </si>
+  <si>
+    <t>3260</t>
   </si>
   <si>
     <t>102102</t>
@@ -4566,25 +4566,25 @@
         <v>59</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="O39" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S39" s="0" t="s">
         <v>29</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="460" windowWidth="28560" windowHeight="16560"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="兵器数值" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="550">
   <si>
     <t>1兵器id</t>
   </si>
@@ -197,9 +197,6 @@
     <t>470</t>
   </si>
   <si>
-    <t>430</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>590</t>
   </si>
   <si>
-    <t>560</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -261,9 +255,6 @@
   </si>
   <si>
     <t>710</t>
-  </si>
-  <si>
-    <t>690</t>
   </si>
   <si>
     <t>Jade</t>
@@ -2003,7 +1994,7 @@
   <dimension ref="A1:X127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2249,11 +2240,11 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
+      <c r="G4">
+        <v>260</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
       </c>
       <c r="I4" t="s">
         <v>27</v>
@@ -2326,8 +2317,8 @@
       <c r="G5" t="s">
         <v>56</v>
       </c>
-      <c r="H5" t="s">
-        <v>57</v>
+      <c r="H5">
+        <v>120</v>
       </c>
       <c r="I5" t="s">
         <v>27</v>
@@ -2339,10 +2330,10 @@
         <v>48</v>
       </c>
       <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
         <v>58</v>
-      </c>
-      <c r="M5" t="s">
-        <v>59</v>
       </c>
       <c r="N5" t="s">
         <v>47</v>
@@ -2366,27 +2357,27 @@
         <v>29</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V5" t="s">
         <v>31</v>
       </c>
       <c r="W5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" t="s">
         <v>61</v>
-      </c>
-      <c r="X5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
         <v>63</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -2398,31 +2389,31 @@
         <v>28</v>
       </c>
       <c r="G6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6">
+        <v>240</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" t="s">
         <v>66</v>
       </c>
-      <c r="H6" t="s">
+      <c r="M6" t="s">
         <v>67</v>
       </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>68</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>69</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" t="s">
-        <v>71</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -2440,27 +2431,27 @@
         <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V6" t="s">
         <v>31</v>
       </c>
       <c r="W6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>44</v>
@@ -2472,10 +2463,10 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="H7">
+        <v>400</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
@@ -2484,22 +2475,22 @@
         <v>27</v>
       </c>
       <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" t="s">
         <v>69</v>
-      </c>
-      <c r="L7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" t="s">
-        <v>71</v>
       </c>
       <c r="N7" t="s">
         <v>47</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q7" t="s">
         <v>29</v>
@@ -2514,27 +2505,27 @@
         <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s">
         <v>31</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
@@ -2546,31 +2537,31 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
         <v>87</v>
       </c>
-      <c r="H8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" t="s">
-        <v>90</v>
-      </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N8" t="s">
         <v>47</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
         <v>38</v>
@@ -2588,63 +2579,63 @@
         <v>29</v>
       </c>
       <c r="U8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V8" t="s">
         <v>31</v>
       </c>
       <c r="W8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
         <v>95</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" t="s">
         <v>99</v>
       </c>
-      <c r="H9" t="s">
+      <c r="O9" t="s">
         <v>100</v>
-      </c>
-      <c r="I9" t="s">
-        <v>101</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" t="s">
-        <v>103</v>
       </c>
       <c r="P9" t="s">
         <v>49</v>
@@ -2662,30 +2653,30 @@
         <v>29</v>
       </c>
       <c r="U9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V9" t="s">
         <v>31</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
         <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -2694,31 +2685,31 @@
         <v>28</v>
       </c>
       <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
         <v>111</v>
-      </c>
-      <c r="H10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" t="s">
-        <v>114</v>
       </c>
       <c r="P10" t="s">
         <v>24</v>
@@ -2736,63 +2727,63 @@
         <v>29</v>
       </c>
       <c r="U10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V10" t="s">
         <v>31</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
         <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" t="s">
-        <v>121</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
         <v>121</v>
       </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" t="s">
-        <v>124</v>
-      </c>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N11" t="s">
         <v>49</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P11" t="s">
         <v>38</v>
@@ -2810,30 +2801,30 @@
         <v>29</v>
       </c>
       <c r="U11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="V11" t="s">
         <v>31</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
         <v>55</v>
@@ -2842,10 +2833,10 @@
         <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
         <v>55</v>
@@ -2854,25 +2845,25 @@
         <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R12" t="s">
         <v>24</v>
@@ -2884,27 +2875,27 @@
         <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="V12" t="s">
         <v>31</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
@@ -2916,31 +2907,31 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H13" t="s">
         <v>27</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J13" t="s">
         <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N13" t="s">
         <v>47</v>
       </c>
       <c r="O13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
         <v>38</v>
@@ -2958,63 +2949,63 @@
         <v>29</v>
       </c>
       <c r="U13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V13" t="s">
         <v>31</v>
       </c>
       <c r="W13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
         <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" t="s">
         <v>49</v>
@@ -3032,30 +3023,30 @@
         <v>29</v>
       </c>
       <c r="U14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V14" t="s">
         <v>31</v>
       </c>
       <c r="W14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -3064,31 +3055,31 @@
         <v>28</v>
       </c>
       <c r="G15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H15" t="s">
         <v>27</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
         <v>47</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P15" t="s">
         <v>24</v>
@@ -3106,30 +3097,30 @@
         <v>29</v>
       </c>
       <c r="U15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V15" t="s">
         <v>31</v>
       </c>
       <c r="W15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
         <v>55</v>
@@ -3138,31 +3129,31 @@
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
         <v>27</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N16" t="s">
         <v>49</v>
       </c>
       <c r="O16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P16" t="s">
         <v>38</v>
@@ -3180,69 +3171,69 @@
         <v>29</v>
       </c>
       <c r="U16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V16" t="s">
         <v>31</v>
       </c>
       <c r="W16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" t="s">
         <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H17" t="s">
         <v>27</v>
       </c>
       <c r="I17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" t="s">
         <v>68</v>
       </c>
-      <c r="K17" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" t="s">
-        <v>134</v>
-      </c>
-      <c r="M17" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" t="s">
-        <v>135</v>
-      </c>
-      <c r="O17" t="s">
-        <v>125</v>
-      </c>
-      <c r="P17" t="s">
-        <v>70</v>
-      </c>
       <c r="Q17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R17" t="s">
         <v>24</v>
@@ -3254,63 +3245,63 @@
         <v>29</v>
       </c>
       <c r="U17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V17" t="s">
         <v>31</v>
       </c>
       <c r="W17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H18" t="s">
         <v>27</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" t="s">
         <v>69</v>
-      </c>
-      <c r="N18" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" t="s">
-        <v>71</v>
       </c>
       <c r="P18" t="s">
         <v>47</v>
@@ -3334,60 +3325,60 @@
         <v>31</v>
       </c>
       <c r="W18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="X18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" t="s">
         <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H19" t="s">
         <v>27</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J19" t="s">
         <v>27</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M19" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
         <v>69</v>
       </c>
-      <c r="N19" t="s">
-        <v>169</v>
-      </c>
-      <c r="O19" t="s">
-        <v>71</v>
-      </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q19" t="s">
         <v>29</v>
@@ -3408,69 +3399,69 @@
         <v>31</v>
       </c>
       <c r="W19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="X19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
         <v>172</v>
       </c>
-      <c r="B20" t="s">
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
         <v>173</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" t="s">
-        <v>175</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
-        <v>176</v>
-      </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L20" t="s">
         <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T20" t="s">
         <v>38</v>
@@ -3482,24 +3473,24 @@
         <v>31</v>
       </c>
       <c r="W20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="X20" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
         <v>44</v>
@@ -3508,10 +3499,10 @@
         <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H21" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I21" t="s">
         <v>26</v>
@@ -3520,25 +3511,25 @@
         <v>27</v>
       </c>
       <c r="K21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P21" t="s">
         <v>47</v>
       </c>
       <c r="Q21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R21" t="s">
         <v>47</v>
@@ -3556,24 +3547,24 @@
         <v>31</v>
       </c>
       <c r="W21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X21" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
         <v>27</v>
@@ -3582,10 +3573,10 @@
         <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I22" t="s">
         <v>27</v>
@@ -3638,16 +3629,16 @@
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
         <v>27</v>
@@ -3656,34 +3647,34 @@
         <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H23" t="s">
         <v>28</v>
       </c>
       <c r="I23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" t="s">
+        <v>190</v>
+      </c>
+      <c r="O23" t="s">
         <v>69</v>
       </c>
-      <c r="N23" t="s">
-        <v>193</v>
-      </c>
-      <c r="O23" t="s">
-        <v>71</v>
-      </c>
       <c r="P23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q23" t="s">
         <v>29</v>
@@ -3704,18 +3695,18 @@
         <v>31</v>
       </c>
       <c r="W23" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="X23" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -3727,10 +3718,10 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H24" t="s">
         <v>27</v>
@@ -3748,7 +3739,7 @@
         <v>49</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N24" t="s">
         <v>38</v>
@@ -3775,21 +3766,21 @@
         <v>39</v>
       </c>
       <c r="V24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="W24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="X24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C25" t="s">
         <v>44</v>
@@ -3804,13 +3795,13 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H25" t="s">
         <v>27</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
@@ -3822,10 +3813,10 @@
         <v>47</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O25" t="s">
         <v>29</v>
@@ -3852,18 +3843,18 @@
         <v>31</v>
       </c>
       <c r="W25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="X25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
@@ -3878,69 +3869,69 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H26" t="s">
         <v>27</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
       <c r="K26" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M26" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" t="s">
+        <v>66</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" t="s">
         <v>59</v>
-      </c>
-      <c r="L26" t="s">
-        <v>210</v>
-      </c>
-      <c r="M26" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" t="s">
-        <v>29</v>
-      </c>
-      <c r="T26" t="s">
-        <v>29</v>
-      </c>
-      <c r="U26" t="s">
-        <v>60</v>
       </c>
       <c r="V26" t="s">
         <v>31</v>
       </c>
       <c r="W26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="X26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -3952,34 +3943,34 @@
         <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H27" t="s">
         <v>27</v>
       </c>
       <c r="I27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J27" t="s">
         <v>27</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" t="s">
+        <v>173</v>
+      </c>
+      <c r="O27" t="s">
         <v>69</v>
       </c>
-      <c r="N27" t="s">
-        <v>176</v>
-      </c>
-      <c r="O27" t="s">
-        <v>71</v>
-      </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q27" t="s">
         <v>29</v>
@@ -3994,27 +3985,27 @@
         <v>29</v>
       </c>
       <c r="U27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V27" t="s">
         <v>31</v>
       </c>
       <c r="W27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="X27" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
@@ -4026,31 +4017,31 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H28" t="s">
         <v>27</v>
       </c>
       <c r="I28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
         <v>27</v>
       </c>
       <c r="K28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" t="s">
+        <v>173</v>
+      </c>
+      <c r="M28" t="s">
         <v>69</v>
       </c>
-      <c r="L28" t="s">
-        <v>176</v>
-      </c>
-      <c r="M28" t="s">
-        <v>71</v>
-      </c>
       <c r="N28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P28" t="s">
         <v>49</v>
@@ -4068,27 +4059,27 @@
         <v>29</v>
       </c>
       <c r="U28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s">
         <v>31</v>
       </c>
       <c r="W28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="X28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
@@ -4112,19 +4103,19 @@
         <v>27</v>
       </c>
       <c r="K29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N29" t="s">
         <v>47</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P29" t="s">
         <v>38</v>
@@ -4142,63 +4133,63 @@
         <v>29</v>
       </c>
       <c r="U29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V29" t="s">
         <v>31</v>
       </c>
       <c r="W29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X29" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F30" t="s">
         <v>35</v>
       </c>
       <c r="G30" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H30" t="s">
         <v>27</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J30" t="s">
         <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M30" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P30" t="s">
         <v>49</v>
@@ -4216,30 +4207,30 @@
         <v>29</v>
       </c>
       <c r="U30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V30" t="s">
         <v>31</v>
       </c>
       <c r="W30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -4248,7 +4239,7 @@
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H31" t="s">
         <v>27</v>
@@ -4260,19 +4251,19 @@
         <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P31" t="s">
         <v>24</v>
@@ -4290,63 +4281,63 @@
         <v>29</v>
       </c>
       <c r="U31" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V31" t="s">
         <v>31</v>
       </c>
       <c r="W31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F32" t="s">
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H32" t="s">
         <v>27</v>
       </c>
       <c r="I32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" t="s">
         <v>38</v>
       </c>
       <c r="K32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N32" t="s">
         <v>49</v>
       </c>
       <c r="O32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P32" t="s">
         <v>38</v>
@@ -4364,30 +4355,30 @@
         <v>29</v>
       </c>
       <c r="U32" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="V32" t="s">
         <v>31</v>
       </c>
       <c r="W32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
         <v>55</v>
@@ -4396,37 +4387,37 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H33" t="s">
         <v>27</v>
       </c>
       <c r="I33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R33" t="s">
         <v>24</v>
@@ -4438,24 +4429,24 @@
         <v>29</v>
       </c>
       <c r="U33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="V33" t="s">
         <v>31</v>
       </c>
       <c r="W33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -4467,13 +4458,13 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H34" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I34" t="s">
         <v>27</v>
@@ -4485,16 +4476,16 @@
         <v>48</v>
       </c>
       <c r="L34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N34" t="s">
         <v>36</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P34" t="s">
         <v>47</v>
@@ -4518,21 +4509,21 @@
         <v>31</v>
       </c>
       <c r="W34" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="X34" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B35" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
         <v>44</v>
@@ -4541,10 +4532,10 @@
         <v>27</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H35" t="s">
         <v>27</v>
@@ -4556,13 +4547,13 @@
         <v>27</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L35" t="s">
         <v>47</v>
       </c>
       <c r="M35" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N35" t="s">
         <v>49</v>
@@ -4586,27 +4577,27 @@
         <v>29</v>
       </c>
       <c r="U35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s">
         <v>31</v>
       </c>
       <c r="W35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X35" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
         <v>55</v>
@@ -4615,7 +4606,7 @@
         <v>27</v>
       </c>
       <c r="F36" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4630,13 +4621,13 @@
         <v>27</v>
       </c>
       <c r="K36" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N36" t="s">
         <v>47</v>
@@ -4666,33 +4657,33 @@
         <v>31</v>
       </c>
       <c r="W36" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X36" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
         <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H37" t="s">
         <v>27</v>
@@ -4704,19 +4695,19 @@
         <v>27</v>
       </c>
       <c r="K37" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M37" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" t="s">
+        <v>57</v>
+      </c>
+      <c r="O37" t="s">
         <v>69</v>
-      </c>
-      <c r="N37" t="s">
-        <v>58</v>
-      </c>
-      <c r="O37" t="s">
-        <v>71</v>
       </c>
       <c r="P37" t="s">
         <v>49</v>
@@ -4740,33 +4731,33 @@
         <v>31</v>
       </c>
       <c r="W37" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="X37" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H38" t="s">
         <v>27</v>
@@ -4778,22 +4769,22 @@
         <v>27</v>
       </c>
       <c r="K38" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" t="s">
+        <v>173</v>
+      </c>
+      <c r="M38" t="s">
         <v>69</v>
       </c>
-      <c r="L38" t="s">
-        <v>176</v>
-      </c>
-      <c r="M38" t="s">
-        <v>71</v>
-      </c>
       <c r="N38" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q38" t="s">
         <v>29</v>
@@ -4814,30 +4805,30 @@
         <v>31</v>
       </c>
       <c r="W38" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="X38" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
@@ -4852,13 +4843,13 @@
         <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M39" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N39" t="s">
         <v>49</v>
@@ -4885,33 +4876,33 @@
         <v>30</v>
       </c>
       <c r="V39" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="W39" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="X39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
         <v>55</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G40" t="s">
         <v>27</v>
@@ -4970,10 +4961,10 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B41" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -4985,7 +4976,7 @@
         <v>27</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G41" t="s">
         <v>27</v>
@@ -5044,10 +5035,10 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -5059,7 +5050,7 @@
         <v>27</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G42" t="s">
         <v>27</v>
@@ -5118,10 +5109,10 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -5133,46 +5124,46 @@
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H43" t="s">
         <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J43" t="s">
         <v>27</v>
       </c>
       <c r="K43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T43" t="s">
         <v>38</v>
@@ -5184,18 +5175,18 @@
         <v>31</v>
       </c>
       <c r="W43" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="X43" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -5207,46 +5198,46 @@
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H44" t="s">
         <v>27</v>
       </c>
       <c r="I44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L44" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M44" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N44" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="O44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R44" t="s">
         <v>47</v>
       </c>
       <c r="S44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T44" t="s">
         <v>38</v>
@@ -5258,21 +5249,21 @@
         <v>31</v>
       </c>
       <c r="W44" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="X44" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
         <v>27</v>
@@ -5284,7 +5275,7 @@
         <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H45" t="s">
         <v>27</v>
@@ -5299,19 +5290,19 @@
         <v>48</v>
       </c>
       <c r="L45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q45" t="s">
         <v>29</v>
@@ -5329,33 +5320,33 @@
         <v>30</v>
       </c>
       <c r="V45" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="W45" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="X45" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B46" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
@@ -5370,19 +5361,19 @@
         <v>27</v>
       </c>
       <c r="K46" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N46" t="s">
         <v>47</v>
       </c>
       <c r="O46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P46" t="s">
         <v>38</v>
@@ -5400,36 +5391,36 @@
         <v>29</v>
       </c>
       <c r="U46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V46" t="s">
         <v>31</v>
       </c>
       <c r="W46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B47" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
         <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G47" t="s">
         <v>27</v>
@@ -5438,25 +5429,25 @@
         <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J47" t="s">
         <v>27</v>
       </c>
       <c r="K47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O47" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P47" t="s">
         <v>49</v>
@@ -5474,36 +5465,36 @@
         <v>29</v>
       </c>
       <c r="U47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V47" t="s">
         <v>31</v>
       </c>
       <c r="W47" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B48" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G48" t="s">
         <v>27</v>
@@ -5518,19 +5509,19 @@
         <v>27</v>
       </c>
       <c r="K48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P48" t="s">
         <v>24</v>
@@ -5548,36 +5539,36 @@
         <v>29</v>
       </c>
       <c r="U48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V48" t="s">
         <v>31</v>
       </c>
       <c r="W48" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B49" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F49" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
@@ -5592,19 +5583,19 @@
         <v>27</v>
       </c>
       <c r="K49" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N49" t="s">
         <v>49</v>
       </c>
       <c r="O49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P49" t="s">
         <v>38</v>
@@ -5622,36 +5613,36 @@
         <v>29</v>
       </c>
       <c r="U49" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="V49" t="s">
         <v>31</v>
       </c>
       <c r="W49" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
@@ -5660,31 +5651,31 @@
         <v>27</v>
       </c>
       <c r="I50" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J50" t="s">
         <v>27</v>
       </c>
       <c r="K50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R50" t="s">
         <v>24</v>
@@ -5696,24 +5687,24 @@
         <v>29</v>
       </c>
       <c r="U50" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="V50" t="s">
         <v>31</v>
       </c>
       <c r="W50" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B51" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C51" t="s">
         <v>44</v>
@@ -5725,7 +5716,7 @@
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
@@ -5737,19 +5728,19 @@
         <v>27</v>
       </c>
       <c r="J51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K51" t="s">
         <v>48</v>
       </c>
       <c r="L51" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O51" t="s">
         <v>29</v>
@@ -5776,30 +5767,30 @@
         <v>31</v>
       </c>
       <c r="W51" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="X51" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G52" t="s">
         <v>27</v>
@@ -5811,19 +5802,19 @@
         <v>27</v>
       </c>
       <c r="J52" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O52" t="s">
         <v>29</v>
@@ -5850,21 +5841,21 @@
         <v>31</v>
       </c>
       <c r="W52" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="X52" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B53" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
@@ -5873,7 +5864,7 @@
         <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G53" t="s">
         <v>27</v>
@@ -5885,25 +5876,25 @@
         <v>27</v>
       </c>
       <c r="J53" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L53" t="s">
         <v>36</v>
       </c>
       <c r="M53" t="s">
+        <v>67</v>
+      </c>
+      <c r="N53" t="s">
+        <v>57</v>
+      </c>
+      <c r="O53" t="s">
         <v>69</v>
       </c>
-      <c r="N53" t="s">
-        <v>58</v>
-      </c>
-      <c r="O53" t="s">
-        <v>71</v>
-      </c>
       <c r="P53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q53" t="s">
         <v>29</v>
@@ -5918,63 +5909,63 @@
         <v>29</v>
       </c>
       <c r="U53" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s">
         <v>31</v>
       </c>
       <c r="W53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="X53" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B54" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" t="s">
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G54" t="s">
         <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="I54" t="s">
         <v>27</v>
       </c>
       <c r="J54" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K54" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" t="s">
+        <v>166</v>
+      </c>
+      <c r="M54" t="s">
         <v>69</v>
       </c>
-      <c r="L54" t="s">
-        <v>169</v>
-      </c>
-      <c r="M54" t="s">
-        <v>71</v>
-      </c>
       <c r="N54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O54" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P54" t="s">
         <v>49</v>
@@ -5992,27 +5983,27 @@
         <v>29</v>
       </c>
       <c r="U54" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="V54" t="s">
         <v>31</v>
       </c>
       <c r="W54" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="X54" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B55" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
         <v>44</v>
@@ -6021,10 +6012,10 @@
         <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G55" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H55" t="s">
         <v>27</v>
@@ -6039,7 +6030,7 @@
         <v>48</v>
       </c>
       <c r="L55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M55" t="s">
         <v>29</v>
@@ -6066,39 +6057,39 @@
         <v>29</v>
       </c>
       <c r="U55" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="V55" t="s">
         <v>31</v>
       </c>
       <c r="W55" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="X55" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B56" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D56" t="s">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F56" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H56" t="s">
         <v>27</v>
@@ -6113,16 +6104,16 @@
         <v>48</v>
       </c>
       <c r="L56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N56" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P56" t="s">
         <v>38</v>
@@ -6140,39 +6131,39 @@
         <v>29</v>
       </c>
       <c r="U56" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="V56" t="s">
         <v>31</v>
       </c>
       <c r="W56" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="X56" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B57" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G57" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H57" t="s">
         <v>27</v>
@@ -6184,19 +6175,19 @@
         <v>27</v>
       </c>
       <c r="K57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N57" t="s">
         <v>47</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P57" t="s">
         <v>47</v>
@@ -6214,63 +6205,63 @@
         <v>29</v>
       </c>
       <c r="U57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V57" t="s">
         <v>31</v>
       </c>
       <c r="W57" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="X57" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B58" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>330</v>
+      </c>
+      <c r="G58" t="s">
+        <v>344</v>
+      </c>
+      <c r="H58" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" t="s">
+        <v>27</v>
+      </c>
+      <c r="K58" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58" t="s">
+        <v>69</v>
+      </c>
+      <c r="N58" t="s">
+        <v>66</v>
+      </c>
+      <c r="O58" t="s">
         <v>77</v>
-      </c>
-      <c r="E58" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" t="s">
-        <v>333</v>
-      </c>
-      <c r="G58" t="s">
-        <v>347</v>
-      </c>
-      <c r="H58" t="s">
-        <v>27</v>
-      </c>
-      <c r="I58" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" t="s">
-        <v>27</v>
-      </c>
-      <c r="K58" t="s">
-        <v>69</v>
-      </c>
-      <c r="L58" t="s">
-        <v>58</v>
-      </c>
-      <c r="M58" t="s">
-        <v>71</v>
-      </c>
-      <c r="N58" t="s">
-        <v>68</v>
-      </c>
-      <c r="O58" t="s">
-        <v>80</v>
       </c>
       <c r="P58" t="s">
         <v>38</v>
@@ -6288,39 +6279,39 @@
         <v>29</v>
       </c>
       <c r="U58" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V58" t="s">
         <v>31</v>
       </c>
       <c r="W58" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="X58" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B59" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H59" t="s">
         <v>27</v>
@@ -6332,19 +6323,19 @@
         <v>27</v>
       </c>
       <c r="K59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L59" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M59" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N59" t="s">
         <v>47</v>
       </c>
       <c r="O59" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P59" t="s">
         <v>38</v>
@@ -6362,63 +6353,63 @@
         <v>29</v>
       </c>
       <c r="U59" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V59" t="s">
         <v>31</v>
       </c>
       <c r="W59" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X59" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B60" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E60" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" t="s">
+        <v>330</v>
+      </c>
+      <c r="G60" t="s">
+        <v>119</v>
+      </c>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" t="s">
+        <v>27</v>
+      </c>
+      <c r="K60" t="s">
         <v>77</v>
       </c>
-      <c r="F60" t="s">
-        <v>333</v>
-      </c>
-      <c r="G60" t="s">
-        <v>122</v>
-      </c>
-      <c r="H60" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" t="s">
-        <v>27</v>
-      </c>
-      <c r="J60" t="s">
-        <v>27</v>
-      </c>
-      <c r="K60" t="s">
-        <v>80</v>
-      </c>
       <c r="L60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M60" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O60" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P60" t="s">
         <v>49</v>
@@ -6436,39 +6427,39 @@
         <v>29</v>
       </c>
       <c r="U60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V60" t="s">
         <v>31</v>
       </c>
       <c r="W60" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X60" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B61" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G61" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H61" t="s">
         <v>27</v>
@@ -6480,19 +6471,19 @@
         <v>27</v>
       </c>
       <c r="K61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M61" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P61" t="s">
         <v>24</v>
@@ -6510,39 +6501,39 @@
         <v>29</v>
       </c>
       <c r="U61" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V61" t="s">
         <v>31</v>
       </c>
       <c r="W61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X61" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B62" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C62" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F62" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G62" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H62" t="s">
         <v>27</v>
@@ -6554,19 +6545,19 @@
         <v>27</v>
       </c>
       <c r="K62" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L62" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N62" t="s">
         <v>49</v>
       </c>
       <c r="O62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P62" t="s">
         <v>38</v>
@@ -6584,69 +6575,69 @@
         <v>29</v>
       </c>
       <c r="U62" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="V62" t="s">
         <v>31</v>
       </c>
       <c r="W62" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X62" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>357</v>
+      </c>
+      <c r="B63" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" t="s">
+        <v>359</v>
+      </c>
+      <c r="D63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" t="s">
+        <v>330</v>
+      </c>
+      <c r="G63" t="s">
         <v>360</v>
       </c>
-      <c r="B63" t="s">
-        <v>361</v>
-      </c>
-      <c r="C63" t="s">
-        <v>362</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="H63" t="s">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" t="s">
+        <v>100</v>
+      </c>
+      <c r="L63" t="s">
         <v>131</v>
       </c>
-      <c r="E63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" t="s">
-        <v>333</v>
-      </c>
-      <c r="G63" t="s">
-        <v>363</v>
-      </c>
-      <c r="H63" t="s">
-        <v>27</v>
-      </c>
-      <c r="I63" t="s">
-        <v>27</v>
-      </c>
-      <c r="J63" t="s">
-        <v>27</v>
-      </c>
-      <c r="K63" t="s">
-        <v>103</v>
-      </c>
-      <c r="L63" t="s">
-        <v>134</v>
-      </c>
       <c r="M63" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N63" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="O63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q63" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R63" t="s">
         <v>24</v>
@@ -6658,24 +6649,24 @@
         <v>29</v>
       </c>
       <c r="U63" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="V63" t="s">
         <v>31</v>
       </c>
       <c r="W63" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X63" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B64" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -6687,10 +6678,10 @@
         <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G64" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H64" t="s">
         <v>27</v>
@@ -6702,10 +6693,10 @@
         <v>27</v>
       </c>
       <c r="K64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M64" t="s">
         <v>29</v>
@@ -6738,21 +6729,21 @@
         <v>31</v>
       </c>
       <c r="W64" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="X64" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B65" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
@@ -6764,7 +6755,7 @@
         <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H65" t="s">
         <v>27</v>
@@ -6820,52 +6811,52 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B66" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G66" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L66" t="s">
+        <v>276</v>
+      </c>
+      <c r="M66" t="s">
+        <v>100</v>
+      </c>
+      <c r="N66" t="s">
+        <v>371</v>
+      </c>
+      <c r="O66" t="s">
         <v>111</v>
       </c>
-      <c r="H66" t="s">
-        <v>27</v>
-      </c>
-      <c r="I66" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" t="s">
-        <v>27</v>
-      </c>
-      <c r="K66" t="s">
-        <v>91</v>
-      </c>
-      <c r="L66" t="s">
-        <v>279</v>
-      </c>
-      <c r="M66" t="s">
-        <v>103</v>
-      </c>
-      <c r="N66" t="s">
-        <v>374</v>
-      </c>
-      <c r="O66" t="s">
-        <v>114</v>
-      </c>
       <c r="P66" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q66" t="s">
         <v>29</v>
@@ -6886,18 +6877,18 @@
         <v>31</v>
       </c>
       <c r="W66" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="X66" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6930,16 +6921,16 @@
         <v>36</v>
       </c>
       <c r="M67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N67" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P67" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q67" t="s">
         <v>29</v>
@@ -6960,66 +6951,66 @@
         <v>31</v>
       </c>
       <c r="W67" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="X67" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>378</v>
+      </c>
+      <c r="B68" t="s">
+        <v>379</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+      <c r="F68" t="s">
+        <v>307</v>
+      </c>
+      <c r="G68" t="s">
+        <v>380</v>
+      </c>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" t="s">
         <v>381</v>
       </c>
-      <c r="B68" t="s">
+      <c r="J68" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68" t="s">
+        <v>69</v>
+      </c>
+      <c r="L68" t="s">
         <v>382</v>
       </c>
-      <c r="C68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" t="s">
-        <v>65</v>
-      </c>
-      <c r="E68" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" t="s">
-        <v>310</v>
-      </c>
-      <c r="G68" t="s">
-        <v>383</v>
-      </c>
-      <c r="H68" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" t="s">
-        <v>384</v>
-      </c>
-      <c r="J68" t="s">
-        <v>135</v>
-      </c>
-      <c r="K68" t="s">
-        <v>71</v>
-      </c>
-      <c r="L68" t="s">
-        <v>385</v>
-      </c>
       <c r="M68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O68" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P68" t="s">
         <v>47</v>
       </c>
       <c r="Q68" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S68" t="s">
         <v>29</v>
@@ -7034,24 +7025,24 @@
         <v>31</v>
       </c>
       <c r="W68" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="X68" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B69" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E69" t="s">
         <v>26</v>
@@ -7060,7 +7051,7 @@
         <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H69" t="s">
         <v>27</v>
@@ -7072,34 +7063,34 @@
         <v>27</v>
       </c>
       <c r="K69" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L69" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M69" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N69" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O69" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R69" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S69" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T69" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U69" t="s">
         <v>30</v>
@@ -7108,18 +7099,18 @@
         <v>31</v>
       </c>
       <c r="W69" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="X69" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B70" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -7131,7 +7122,7 @@
         <v>27</v>
       </c>
       <c r="F70" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G70" t="s">
         <v>27</v>
@@ -7146,34 +7137,34 @@
         <v>27</v>
       </c>
       <c r="K70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L70" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M70" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N70" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q70" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R70" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U70" t="s">
         <v>30</v>
@@ -7182,18 +7173,18 @@
         <v>31</v>
       </c>
       <c r="W70" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="X70" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B71" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
@@ -7205,7 +7196,7 @@
         <v>27</v>
       </c>
       <c r="F71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G71" t="s">
         <v>27</v>
@@ -7220,19 +7211,19 @@
         <v>49</v>
       </c>
       <c r="K71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L71" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M71" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N71" t="s">
         <v>47</v>
       </c>
       <c r="O71" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P71" t="s">
         <v>38</v>
@@ -7250,27 +7241,27 @@
         <v>29</v>
       </c>
       <c r="U71" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="V71" t="s">
         <v>31</v>
       </c>
       <c r="W71" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X71" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B72" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
@@ -7279,34 +7270,34 @@
         <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G72" t="s">
         <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I72" t="s">
         <v>27</v>
       </c>
       <c r="J72" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K72" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M72" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N72" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O72" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P72" t="s">
         <v>49</v>
@@ -7324,24 +7315,24 @@
         <v>29</v>
       </c>
       <c r="U72" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V72" t="s">
         <v>31</v>
       </c>
       <c r="W72" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X72" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B73" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C73" t="s">
         <v>44</v>
@@ -7353,34 +7344,34 @@
         <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G73" t="s">
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I73" t="s">
         <v>27</v>
       </c>
       <c r="J73" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K73" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M73" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N73" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O73" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P73" t="s">
         <v>24</v>
@@ -7398,24 +7389,24 @@
         <v>29</v>
       </c>
       <c r="U73" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="V73" t="s">
         <v>31</v>
       </c>
       <c r="W73" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X73" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C74" t="s">
         <v>55</v>
@@ -7427,34 +7418,34 @@
         <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G74" t="s">
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I74" t="s">
         <v>27</v>
       </c>
       <c r="J74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K74" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L74" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M74" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N74" t="s">
         <v>49</v>
       </c>
       <c r="O74" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P74" t="s">
         <v>38</v>
@@ -7472,27 +7463,27 @@
         <v>29</v>
       </c>
       <c r="U74" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="V74" t="s">
         <v>31</v>
       </c>
       <c r="W74" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="X74" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B75" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D75" t="s">
         <v>44</v>
@@ -7501,40 +7492,40 @@
         <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G75" t="s">
         <v>27</v>
       </c>
       <c r="H75" t="s">
+        <v>119</v>
+      </c>
+      <c r="I75" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" t="s">
+        <v>166</v>
+      </c>
+      <c r="K75" t="s">
+        <v>100</v>
+      </c>
+      <c r="L75" t="s">
+        <v>131</v>
+      </c>
+      <c r="M75" t="s">
+        <v>111</v>
+      </c>
+      <c r="N75" t="s">
+        <v>132</v>
+      </c>
+      <c r="O75" t="s">
         <v>122</v>
       </c>
-      <c r="I75" t="s">
-        <v>27</v>
-      </c>
-      <c r="J75" t="s">
-        <v>169</v>
-      </c>
-      <c r="K75" t="s">
-        <v>103</v>
-      </c>
-      <c r="L75" t="s">
-        <v>134</v>
-      </c>
-      <c r="M75" t="s">
-        <v>114</v>
-      </c>
-      <c r="N75" t="s">
-        <v>135</v>
-      </c>
-      <c r="O75" t="s">
-        <v>125</v>
-      </c>
       <c r="P75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q75" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="R75" t="s">
         <v>24</v>
@@ -7546,24 +7537,24 @@
         <v>29</v>
       </c>
       <c r="U75" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="V75" t="s">
         <v>31</v>
       </c>
       <c r="W75" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="X75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B76" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -7575,46 +7566,46 @@
         <v>27</v>
       </c>
       <c r="F76" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G76" t="s">
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I76" t="s">
         <v>44</v>
       </c>
       <c r="J76" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L76" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M76" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="N76" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O76" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q76" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R76" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T76" t="s">
         <v>38</v>
@@ -7626,18 +7617,18 @@
         <v>31</v>
       </c>
       <c r="W76" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="X76" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B77" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7649,10 +7640,10 @@
         <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G77" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s">
         <v>27</v>
@@ -7708,61 +7699,61 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B78" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E78" t="s">
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H78" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I78" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J78" t="s">
         <v>27</v>
       </c>
       <c r="K78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L78" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M78" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
       </c>
       <c r="O78" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P78" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q78" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="R78" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S78" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T78" t="s">
         <v>49</v>
@@ -7774,18 +7765,18 @@
         <v>31</v>
       </c>
       <c r="W78" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="X78" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B79" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7794,13 +7785,13 @@
         <v>27</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H79" t="s">
         <v>27</v>
@@ -7856,10 +7847,10 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B80" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7874,7 +7865,7 @@
         <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H80" t="s">
         <v>27</v>
@@ -7883,7 +7874,7 @@
         <v>27</v>
       </c>
       <c r="J80" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K80" t="s">
         <v>37</v>
@@ -7895,16 +7886,16 @@
         <v>48</v>
       </c>
       <c r="N80" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O80" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="P80" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="R80" t="s">
         <v>49</v>
@@ -7922,18 +7913,18 @@
         <v>31</v>
       </c>
       <c r="W80" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="X80" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B81" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7948,7 +7939,7 @@
         <v>28</v>
       </c>
       <c r="G81" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H81" t="s">
         <v>27</v>
@@ -8004,10 +7995,10 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B82" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -8022,7 +8013,7 @@
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H82" t="s">
         <v>27</v>
@@ -8034,16 +8025,16 @@
         <v>27</v>
       </c>
       <c r="K82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M82" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N82" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O82" t="s">
         <v>29</v>
@@ -8070,21 +8061,21 @@
         <v>31</v>
       </c>
       <c r="W82" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="X82" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B83" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
@@ -8093,10 +8084,10 @@
         <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G83" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H83" t="s">
         <v>27</v>
@@ -8152,10 +8143,10 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B84" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -8170,7 +8161,7 @@
         <v>28</v>
       </c>
       <c r="G84" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H84" t="s">
         <v>27</v>
@@ -8179,25 +8170,25 @@
         <v>27</v>
       </c>
       <c r="J84" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K84" t="s">
+        <v>67</v>
+      </c>
+      <c r="L84" t="s">
+        <v>276</v>
+      </c>
+      <c r="M84" t="s">
         <v>69</v>
       </c>
-      <c r="L84" t="s">
-        <v>279</v>
-      </c>
-      <c r="M84" t="s">
-        <v>71</v>
-      </c>
       <c r="N84" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O84" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q84" t="s">
         <v>29</v>
@@ -8218,18 +8209,18 @@
         <v>31</v>
       </c>
       <c r="W84" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="X84" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B85" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -8300,10 +8291,10 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B86" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8363,7 +8354,7 @@
         <v>30</v>
       </c>
       <c r="V86" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="W86" t="s">
         <v>32</v>
@@ -8374,10 +8365,10 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B87" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -8437,7 +8428,7 @@
         <v>30</v>
       </c>
       <c r="V87" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="W87" t="s">
         <v>32</v>
@@ -8448,10 +8439,10 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B88" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8511,7 +8502,7 @@
         <v>30</v>
       </c>
       <c r="V88" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="W88" t="s">
         <v>32</v>
@@ -8522,10 +8513,10 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B89" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8585,7 +8576,7 @@
         <v>30</v>
       </c>
       <c r="V89" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="W89" t="s">
         <v>32</v>
@@ -8596,10 +8587,10 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B90" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8659,7 +8650,7 @@
         <v>30</v>
       </c>
       <c r="V90" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="W90" t="s">
         <v>32</v>
@@ -8670,10 +8661,10 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B91" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8733,7 +8724,7 @@
         <v>30</v>
       </c>
       <c r="V91" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="W91" t="s">
         <v>32</v>
@@ -8744,10 +8735,10 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B92" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8807,7 +8798,7 @@
         <v>30</v>
       </c>
       <c r="V92" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="W92" t="s">
         <v>32</v>
@@ -8818,10 +8809,10 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B93" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8881,7 +8872,7 @@
         <v>30</v>
       </c>
       <c r="V93" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="W93" t="s">
         <v>32</v>
@@ -8892,10 +8883,10 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B94" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8955,7 +8946,7 @@
         <v>30</v>
       </c>
       <c r="V94" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="W94" t="s">
         <v>32</v>
@@ -8966,10 +8957,10 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B95" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -9029,7 +9020,7 @@
         <v>30</v>
       </c>
       <c r="V95" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="W95" t="s">
         <v>32</v>
@@ -9040,10 +9031,10 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B96" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -9103,7 +9094,7 @@
         <v>30</v>
       </c>
       <c r="V96" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="W96" t="s">
         <v>32</v>
@@ -9114,10 +9105,10 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B97" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -9177,7 +9168,7 @@
         <v>30</v>
       </c>
       <c r="V97" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="W97" t="s">
         <v>32</v>
@@ -9188,10 +9179,10 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B98" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -9251,7 +9242,7 @@
         <v>30</v>
       </c>
       <c r="V98" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="W98" t="s">
         <v>32</v>
@@ -9262,10 +9253,10 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B99" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -9325,7 +9316,7 @@
         <v>30</v>
       </c>
       <c r="V99" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="W99" t="s">
         <v>32</v>
@@ -9336,10 +9327,10 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B100" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9399,7 +9390,7 @@
         <v>30</v>
       </c>
       <c r="V100" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="W100" t="s">
         <v>32</v>
@@ -9410,10 +9401,10 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B101" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9473,7 +9464,7 @@
         <v>30</v>
       </c>
       <c r="V101" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="W101" t="s">
         <v>32</v>
@@ -9484,10 +9475,10 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B102" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9547,7 +9538,7 @@
         <v>30</v>
       </c>
       <c r="V102" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W102" t="s">
         <v>32</v>
@@ -9558,10 +9549,10 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B103" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9621,7 +9612,7 @@
         <v>30</v>
       </c>
       <c r="V103" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="W103" t="s">
         <v>32</v>
@@ -9632,10 +9623,10 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B104" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9695,7 +9686,7 @@
         <v>30</v>
       </c>
       <c r="V104" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="W104" t="s">
         <v>32</v>
@@ -9706,10 +9697,10 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B105" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9769,7 +9760,7 @@
         <v>30</v>
       </c>
       <c r="V105" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="W105" t="s">
         <v>32</v>
@@ -9780,10 +9771,10 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B106" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9843,7 +9834,7 @@
         <v>30</v>
       </c>
       <c r="V106" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="W106" t="s">
         <v>32</v>
@@ -9854,10 +9845,10 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B107" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9917,7 +9908,7 @@
         <v>30</v>
       </c>
       <c r="V107" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="W107" t="s">
         <v>32</v>
@@ -9928,10 +9919,10 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B108" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9991,7 +9982,7 @@
         <v>30</v>
       </c>
       <c r="V108" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="W108" t="s">
         <v>32</v>
@@ -10002,10 +9993,10 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B109" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -10065,7 +10056,7 @@
         <v>30</v>
       </c>
       <c r="V109" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="W109" t="s">
         <v>32</v>
@@ -10076,10 +10067,10 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B110" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -10139,7 +10130,7 @@
         <v>30</v>
       </c>
       <c r="V110" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="W110" t="s">
         <v>32</v>
@@ -10150,10 +10141,10 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B111" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -10224,10 +10215,10 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B112" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10298,10 +10289,10 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B113" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10372,10 +10363,10 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B114" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10446,10 +10437,10 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B115" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10520,10 +10511,10 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B116" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10594,10 +10585,10 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B117" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10668,10 +10659,10 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B118" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10742,10 +10733,10 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B119" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10816,10 +10807,10 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B120" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10890,10 +10881,10 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B121" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -10964,10 +10955,10 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B122" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -11038,10 +11029,10 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B123" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11112,10 +11103,10 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B124" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11186,10 +11177,10 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B125" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11260,10 +11251,10 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B126" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11334,10 +11325,10 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B127" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="553">
   <si>
     <t>1兵器id</t>
   </si>
@@ -777,9 +777,6 @@
   </si>
   <si>
     <t>文士剑</t>
-  </si>
-  <si>
-    <t>5001</t>
   </si>
   <si>
     <t>02:31:00</t>
@@ -3489,7 +3486,7 @@
         <v>29</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="V24" s="0" t="s">
         <v>200</v>
@@ -4303,7 +4300,7 @@
         <v>29</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="V35" s="0" t="s">
         <v>31</v>
@@ -4377,24 +4374,24 @@
         <v>29</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="V36" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W36" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="X36" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="X36" s="0" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>258</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>259</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>77</v>
@@ -4457,18 +4454,18 @@
         <v>31</v>
       </c>
       <c r="W37" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="X37" s="0" t="s">
         <v>260</v>
-      </c>
-      <c r="X37" s="0" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>262</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>263</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>86</v>
@@ -4525,24 +4522,24 @@
         <v>29</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="V38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W38" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="X38" s="0" t="s">
         <v>264</v>
-      </c>
-      <c r="X38" s="0" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>267</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>97</v>
@@ -4554,7 +4551,7 @@
         <v>44</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>27</v>
@@ -4602,21 +4599,21 @@
         <v>30</v>
       </c>
       <c r="V39" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="W39" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="W39" s="0" t="s">
+      <c r="X39" s="0" t="s">
         <v>270</v>
-      </c>
-      <c r="X39" s="0" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>272</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>273</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>109</v>
@@ -4687,10 +4684,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>274</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>275</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>27</v>
@@ -4761,22 +4758,22 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" s="0" t="s">
         <v>277</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>278</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>27</v>
@@ -4835,10 +4832,10 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>280</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>27</v>
@@ -4868,13 +4865,13 @@
         <v>71</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M43" s="0" t="s">
         <v>103</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>114</v>
@@ -4901,18 +4898,18 @@
         <v>31</v>
       </c>
       <c r="W43" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="X43" s="0" t="s">
         <v>283</v>
-      </c>
-      <c r="X43" s="0" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>285</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>286</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>27</v>
@@ -4924,7 +4921,7 @@
         <v>27</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>170</v>
@@ -4942,13 +4939,13 @@
         <v>80</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M44" s="0" t="s">
         <v>103</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>114</v>
@@ -4975,18 +4972,18 @@
         <v>31</v>
       </c>
       <c r="W44" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="X44" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="X44" s="0" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>293</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>97</v>
@@ -5001,7 +4998,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>27</v>
@@ -5046,21 +5043,21 @@
         <v>30</v>
       </c>
       <c r="V45" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="W45" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="W45" s="0" t="s">
+      <c r="X45" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="X45" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>298</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>299</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>97</v>
@@ -5131,10 +5128,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>301</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>109</v>
@@ -5205,10 +5202,10 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>302</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>303</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>120</v>
@@ -5279,10 +5276,10 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>304</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>305</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>131</v>
@@ -5339,7 +5336,7 @@
         <v>29</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V49" s="0" t="s">
         <v>31</v>
@@ -5353,10 +5350,10 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>307</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>308</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>169</v>
@@ -5413,7 +5410,7 @@
         <v>29</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V50" s="0" t="s">
         <v>31</v>
@@ -5427,10 +5424,10 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>311</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>44</v>
@@ -5442,7 +5439,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>27</v>
@@ -5454,7 +5451,7 @@
         <v>27</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>48</v>
@@ -5493,18 +5490,18 @@
         <v>31</v>
       </c>
       <c r="W51" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="X51" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="X51" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>55</v>
@@ -5516,19 +5513,19 @@
         <v>98</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H52" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>319</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>59</v>
@@ -5567,18 +5564,18 @@
         <v>31</v>
       </c>
       <c r="W52" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="X52" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="X52" s="0" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>323</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>65</v>
@@ -5590,7 +5587,7 @@
         <v>26</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>27</v>
@@ -5602,7 +5599,7 @@
         <v>27</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>59</v>
@@ -5641,18 +5638,18 @@
         <v>31</v>
       </c>
       <c r="W53" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="X53" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="X53" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>327</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>328</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>77</v>
@@ -5664,19 +5661,19 @@
         <v>44</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H54" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>330</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>69</v>
@@ -5715,18 +5712,18 @@
         <v>31</v>
       </c>
       <c r="W54" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="X54" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="X54" s="0" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="B55" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="B55" s="0" t="s">
-        <v>334</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>65</v>
@@ -5738,10 +5735,10 @@
         <v>26</v>
       </c>
       <c r="F55" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="G55" s="0" t="s">
         <v>335</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>336</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>27</v>
@@ -5789,18 +5786,18 @@
         <v>31</v>
       </c>
       <c r="W55" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="X55" s="0" t="s">
         <v>337</v>
-      </c>
-      <c r="X55" s="0" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>339</v>
-      </c>
-      <c r="B56" s="0" t="s">
-        <v>340</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>110</v>
@@ -5812,7 +5809,7 @@
         <v>121</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>66</v>
@@ -5863,18 +5860,18 @@
         <v>31</v>
       </c>
       <c r="W56" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="X56" s="0" t="s">
         <v>341</v>
-      </c>
-      <c r="X56" s="0" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>343</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>344</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>77</v>
@@ -5886,7 +5883,7 @@
         <v>44</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>145</v>
@@ -5937,18 +5934,18 @@
         <v>31</v>
       </c>
       <c r="W57" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="X57" s="0" t="s">
         <v>345</v>
-      </c>
-      <c r="X57" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>347</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>348</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>97</v>
@@ -5960,10 +5957,10 @@
         <v>65</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>27</v>
@@ -6011,18 +6008,18 @@
         <v>31</v>
       </c>
       <c r="W58" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="X58" s="0" t="s">
         <v>350</v>
-      </c>
-      <c r="X58" s="0" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>352</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>353</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>109</v>
@@ -6034,7 +6031,7 @@
         <v>110</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>148</v>
@@ -6093,10 +6090,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>354</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>355</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>120</v>
@@ -6108,7 +6105,7 @@
         <v>77</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>122</v>
@@ -6167,10 +6164,10 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>356</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>357</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>131</v>
@@ -6182,7 +6179,7 @@
         <v>86</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>177</v>
@@ -6241,10 +6238,10 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>358</v>
-      </c>
-      <c r="B62" s="0" t="s">
-        <v>359</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>169</v>
@@ -6256,10 +6253,10 @@
         <v>97</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>27</v>
@@ -6301,7 +6298,7 @@
         <v>29</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V62" s="0" t="s">
         <v>31</v>
@@ -6315,13 +6312,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>363</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>364</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>131</v>
@@ -6330,10 +6327,10 @@
         <v>109</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>27</v>
@@ -6375,7 +6372,7 @@
         <v>29</v>
       </c>
       <c r="U63" s="0" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="V63" s="0" t="s">
         <v>31</v>
@@ -6389,10 +6386,10 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="B64" s="0" t="s">
         <v>367</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>368</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>27</v>
@@ -6404,7 +6401,7 @@
         <v>27</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>190</v>
@@ -6455,18 +6452,18 @@
         <v>31</v>
       </c>
       <c r="W64" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="X64" s="0" t="s">
         <v>369</v>
-      </c>
-      <c r="X64" s="0" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="B65" s="0" t="s">
         <v>371</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>372</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>65</v>
@@ -6481,7 +6478,7 @@
         <v>28</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>27</v>
@@ -6537,10 +6534,10 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="B66" s="0" t="s">
         <v>374</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>375</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>27</v>
@@ -6552,7 +6549,7 @@
         <v>44</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>111</v>
@@ -6570,13 +6567,13 @@
         <v>91</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M66" s="0" t="s">
         <v>103</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="O66" s="0" t="s">
         <v>114</v>
@@ -6603,18 +6600,18 @@
         <v>31</v>
       </c>
       <c r="W66" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="X66" s="0" t="s">
         <v>377</v>
-      </c>
-      <c r="X66" s="0" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>380</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>27</v>
@@ -6629,7 +6626,7 @@
         <v>28</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>27</v>
@@ -6677,18 +6674,18 @@
         <v>31</v>
       </c>
       <c r="W67" s="0" t="s">
+        <v>381</v>
+      </c>
+      <c r="X67" s="0" t="s">
         <v>382</v>
-      </c>
-      <c r="X67" s="0" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="B68" s="0" t="s">
         <v>384</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>385</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>120</v>
@@ -6700,16 +6697,16 @@
         <v>27</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G68" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="H68" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" s="0" t="s">
         <v>386</v>
-      </c>
-      <c r="H68" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" s="0" t="s">
-        <v>387</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>135</v>
@@ -6751,18 +6748,18 @@
         <v>31</v>
       </c>
       <c r="W68" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="X68" s="0" t="s">
         <v>388</v>
-      </c>
-      <c r="X68" s="0" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B69" s="0" t="s">
         <v>390</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>391</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>27</v>
@@ -6792,13 +6789,13 @@
         <v>80</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>91</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="O69" s="0" t="s">
         <v>103</v>
@@ -6825,19 +6822,19 @@
         <v>31</v>
       </c>
       <c r="W69" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="X69" s="0" t="s">
         <v>394</v>
-      </c>
-      <c r="X69" s="0" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>397</v>
-      </c>
       <c r="C70" s="0" t="s">
         <v>27</v>
       </c>
@@ -6848,7 +6845,7 @@
         <v>27</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>27</v>
@@ -6872,7 +6869,7 @@
         <v>80</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O70" s="0" t="s">
         <v>103</v>
@@ -6899,18 +6896,18 @@
         <v>31</v>
       </c>
       <c r="W70" s="0" t="s">
+        <v>397</v>
+      </c>
+      <c r="X70" s="0" t="s">
         <v>398</v>
-      </c>
-      <c r="X70" s="0" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B71" s="0" t="s">
         <v>400</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>401</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>26</v>
@@ -6981,10 +6978,10 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>402</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>403</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>121</v>
@@ -7055,10 +7052,10 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>404</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>405</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>44</v>
@@ -7082,7 +7079,7 @@
         <v>27</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>91</v>
@@ -7129,10 +7126,10 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>407</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>408</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>55</v>
@@ -7189,7 +7186,7 @@
         <v>29</v>
       </c>
       <c r="U74" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="V74" s="0" t="s">
         <v>31</v>
@@ -7203,10 +7200,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>410</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>411</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>77</v>
@@ -7263,7 +7260,7 @@
         <v>29</v>
       </c>
       <c r="U75" s="0" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="V75" s="0" t="s">
         <v>31</v>
@@ -7277,10 +7274,10 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>413</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>414</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>27</v>
@@ -7310,7 +7307,7 @@
         <v>71</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M76" s="0" t="s">
         <v>80</v>
@@ -7343,19 +7340,19 @@
         <v>31</v>
       </c>
       <c r="W76" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="X76" s="0" t="s">
         <v>415</v>
-      </c>
-      <c r="X76" s="0" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>418</v>
-      </c>
       <c r="C77" s="0" t="s">
         <v>27</v>
       </c>
@@ -7366,7 +7363,7 @@
         <v>27</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>87</v>
@@ -7425,10 +7422,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>419</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>420</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>120</v>
@@ -7491,18 +7488,18 @@
         <v>31</v>
       </c>
       <c r="W78" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="X78" s="0" t="s">
         <v>421</v>
-      </c>
-      <c r="X78" s="0" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>424</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>27</v>
@@ -7573,10 +7570,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>425</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>426</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>27</v>
@@ -7639,18 +7636,18 @@
         <v>31</v>
       </c>
       <c r="W80" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="X80" s="0" t="s">
         <v>427</v>
-      </c>
-      <c r="X80" s="0" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
+        <v>428</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>429</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>430</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>27</v>
@@ -7665,7 +7662,7 @@
         <v>28</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>27</v>
@@ -7721,10 +7718,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>432</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>433</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>27</v>
@@ -7787,18 +7784,18 @@
         <v>31</v>
       </c>
       <c r="W82" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="X82" s="0" t="s">
         <v>434</v>
-      </c>
-      <c r="X82" s="0" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>436</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>437</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>65</v>
@@ -7810,7 +7807,7 @@
         <v>27</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>170</v>
@@ -7869,10 +7866,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>439</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>440</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>27</v>
@@ -7902,7 +7899,7 @@
         <v>69</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>71</v>
@@ -7935,18 +7932,18 @@
         <v>31</v>
       </c>
       <c r="W84" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="X84" s="0" t="s">
         <v>441</v>
-      </c>
-      <c r="X84" s="0" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>443</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>444</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>27</v>
@@ -8017,10 +8014,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>445</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>446</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>27</v>
@@ -8080,7 +8077,7 @@
         <v>30</v>
       </c>
       <c r="V86" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W86" s="0" t="s">
         <v>32</v>
@@ -8091,10 +8088,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>448</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>449</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>27</v>
@@ -8154,7 +8151,7 @@
         <v>30</v>
       </c>
       <c r="V87" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W87" s="0" t="s">
         <v>32</v>
@@ -8165,10 +8162,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>451</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>452</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>27</v>
@@ -8228,7 +8225,7 @@
         <v>30</v>
       </c>
       <c r="V88" s="0" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W88" s="0" t="s">
         <v>32</v>
@@ -8239,10 +8236,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>454</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>455</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>27</v>
@@ -8302,7 +8299,7 @@
         <v>30</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W89" s="0" t="s">
         <v>32</v>
@@ -8313,10 +8310,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>457</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>458</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>27</v>
@@ -8376,7 +8373,7 @@
         <v>30</v>
       </c>
       <c r="V90" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W90" s="0" t="s">
         <v>32</v>
@@ -8387,10 +8384,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>460</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>461</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>27</v>
@@ -8450,7 +8447,7 @@
         <v>30</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W91" s="0" t="s">
         <v>32</v>
@@ -8461,10 +8458,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>463</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>464</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>27</v>
@@ -8524,7 +8521,7 @@
         <v>30</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W92" s="0" t="s">
         <v>32</v>
@@ -8535,10 +8532,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>466</v>
-      </c>
-      <c r="B93" s="0" t="s">
-        <v>467</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>27</v>
@@ -8598,7 +8595,7 @@
         <v>30</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>32</v>
@@ -8609,10 +8606,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
+        <v>468</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>469</v>
-      </c>
-      <c r="B94" s="0" t="s">
-        <v>470</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>27</v>
@@ -8672,7 +8669,7 @@
         <v>30</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W94" s="0" t="s">
         <v>32</v>
@@ -8683,10 +8680,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>472</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>473</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>27</v>
@@ -8746,7 +8743,7 @@
         <v>30</v>
       </c>
       <c r="V95" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="W95" s="0" t="s">
         <v>32</v>
@@ -8757,10 +8754,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>475</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>476</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>27</v>
@@ -8820,7 +8817,7 @@
         <v>30</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>32</v>
@@ -8831,10 +8828,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
+        <v>477</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>478</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>479</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>27</v>
@@ -8894,7 +8891,7 @@
         <v>30</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>32</v>
@@ -8905,10 +8902,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>482</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>27</v>
@@ -8968,7 +8965,7 @@
         <v>30</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>32</v>
@@ -8979,10 +8976,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
+        <v>483</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>484</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>485</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>27</v>
@@ -9042,7 +9039,7 @@
         <v>30</v>
       </c>
       <c r="V99" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>32</v>
@@ -9053,10 +9050,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
+        <v>486</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>487</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>488</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>27</v>
@@ -9116,7 +9113,7 @@
         <v>30</v>
       </c>
       <c r="V100" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>32</v>
@@ -9127,10 +9124,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>490</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>491</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>27</v>
@@ -9190,7 +9187,7 @@
         <v>30</v>
       </c>
       <c r="V101" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W101" s="0" t="s">
         <v>32</v>
@@ -9201,10 +9198,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
+        <v>492</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>493</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>494</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>27</v>
@@ -9264,7 +9261,7 @@
         <v>30</v>
       </c>
       <c r="V102" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W102" s="0" t="s">
         <v>32</v>
@@ -9275,10 +9272,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>496</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>497</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>27</v>
@@ -9338,7 +9335,7 @@
         <v>30</v>
       </c>
       <c r="V103" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W103" s="0" t="s">
         <v>32</v>
@@ -9349,10 +9346,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>499</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>500</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>27</v>
@@ -9412,7 +9409,7 @@
         <v>30</v>
       </c>
       <c r="V104" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W104" s="0" t="s">
         <v>32</v>
@@ -9423,10 +9420,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>503</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>27</v>
@@ -9486,7 +9483,7 @@
         <v>30</v>
       </c>
       <c r="V105" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>32</v>
@@ -9497,10 +9494,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>506</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>27</v>
@@ -9560,7 +9557,7 @@
         <v>30</v>
       </c>
       <c r="V106" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W106" s="0" t="s">
         <v>32</v>
@@ -9571,10 +9568,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>508</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>509</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>27</v>
@@ -9634,7 +9631,7 @@
         <v>30</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>32</v>
@@ -9645,10 +9642,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B108" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>512</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>27</v>
@@ -9708,7 +9705,7 @@
         <v>30</v>
       </c>
       <c r="V108" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W108" s="0" t="s">
         <v>32</v>
@@ -9719,10 +9716,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>514</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>515</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>27</v>
@@ -9782,7 +9779,7 @@
         <v>30</v>
       </c>
       <c r="V109" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="W109" s="0" t="s">
         <v>32</v>
@@ -9793,10 +9790,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>517</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>518</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>27</v>
@@ -9856,7 +9853,7 @@
         <v>30</v>
       </c>
       <c r="V110" s="0" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="W110" s="0" t="s">
         <v>32</v>
@@ -9867,10 +9864,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
+        <v>519</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>520</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>521</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>27</v>
@@ -9941,10 +9938,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>522</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>523</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>27</v>
@@ -10015,10 +10012,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>524</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>525</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>27</v>
@@ -10089,10 +10086,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>526</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>527</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>27</v>
@@ -10163,10 +10160,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
+        <v>527</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>528</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>529</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>27</v>
@@ -10237,10 +10234,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>530</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>531</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>27</v>
@@ -10311,10 +10308,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>27</v>
@@ -10385,10 +10382,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>27</v>
@@ -10459,10 +10456,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>536</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>537</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>27</v>
@@ -10533,10 +10530,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B120" s="0" t="s">
         <v>538</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>539</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>27</v>
@@ -10607,10 +10604,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>540</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>541</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>27</v>
@@ -10681,10 +10678,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>542</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>543</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>27</v>
@@ -10755,10 +10752,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
+        <v>543</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>544</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>545</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>27</v>
@@ -10829,10 +10826,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>27</v>
@@ -10903,10 +10900,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>548</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>549</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>27</v>
@@ -10977,10 +10974,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
+        <v>549</v>
+      </c>
+      <c r="B126" s="0" t="s">
         <v>550</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>551</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>27</v>
@@ -11051,10 +11048,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
+        <v>551</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>552</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>553</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>27</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="549">
   <si>
     <t>1兵器id</t>
   </si>
@@ -128,1101 +128,1092 @@
     <t>Cloth</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>00:13:20</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>锦缠手</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>勇武缠手</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>02:30:00</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>杨威缠手</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Tungsten</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>12:20:00</t>
+  </si>
+  <si>
+    <t>44400</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>无畏缠手</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>2天01:03:20</t>
+  </si>
+  <si>
+    <t>176600</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>飞鱼缠手</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>RefinedSteel</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>2天23:40:00</t>
+  </si>
+  <si>
+    <t>258000</t>
+  </si>
+  <si>
+    <t>100102</t>
+  </si>
+  <si>
+    <t>惊龙</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>RedSteel</t>
+  </si>
+  <si>
+    <t>6002</t>
+  </si>
+  <si>
+    <t>5天14:03:20</t>
+  </si>
+  <si>
+    <t>482600</t>
+  </si>
+  <si>
+    <t>100103</t>
+  </si>
+  <si>
+    <t>怒龙</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>DarksteelIngot</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8001</t>
+  </si>
+  <si>
+    <t>18天17:00:00</t>
+  </si>
+  <si>
+    <t>1616400</t>
+  </si>
+  <si>
+    <t>100104</t>
+  </si>
+  <si>
+    <t>瑶光</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>TungstenSteel</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>70天16:18:20</t>
+  </si>
+  <si>
+    <t>6106700</t>
+  </si>
+  <si>
+    <t>100105</t>
+  </si>
+  <si>
+    <t>天神</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Zingana</t>
+  </si>
+  <si>
+    <t>11002</t>
+  </si>
+  <si>
+    <t>144天10:16:40</t>
+  </si>
+  <si>
+    <t>12478600</t>
+  </si>
+  <si>
+    <t>100201</t>
+  </si>
+  <si>
+    <t>錾银缠手</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00:02:40</t>
+    <t>100202</t>
+  </si>
+  <si>
+    <t>魔障缠手</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>100203</t>
+  </si>
+  <si>
+    <t>舞凤</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>100204</t>
+  </si>
+  <si>
+    <t>白虎</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>25002</t>
+  </si>
+  <si>
+    <t>100205</t>
+  </si>
+  <si>
+    <t>天机</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>26002</t>
+  </si>
+  <si>
+    <t>100301</t>
+  </si>
+  <si>
+    <t>铜尸缠手</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>3天00:03:20</t>
+  </si>
+  <si>
+    <t>259400</t>
+  </si>
+  <si>
+    <t>100302</t>
+  </si>
+  <si>
+    <t>铁尸缠手</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2天23:56:40</t>
+  </si>
+  <si>
+    <t>259000</t>
+  </si>
+  <si>
+    <t>100303</t>
+  </si>
+  <si>
+    <t>寒玉缠手</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>185天20:53:20</t>
+  </si>
+  <si>
+    <t>16059200</t>
+  </si>
+  <si>
+    <t>100304</t>
+  </si>
+  <si>
+    <t>降龙缠手</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>173天13:20:00</t>
+  </si>
+  <si>
+    <t>14995200</t>
+  </si>
+  <si>
+    <t>100305</t>
+  </si>
+  <si>
+    <t>霹雳缠手</t>
+  </si>
+  <si>
+    <t>100306</t>
+  </si>
+  <si>
+    <t>竹叶缠手</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>220</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>锦缠手</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Wood</t>
+    <t>2天15:00:00</t>
+  </si>
+  <si>
+    <t>226800</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>狼牙枪</t>
+  </si>
+  <si>
+    <t>00001002</t>
+  </si>
+  <si>
+    <t>00:43:20</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>铁头枪</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>01:38:20</t>
+  </si>
+  <si>
+    <t>5900</t>
+  </si>
+  <si>
+    <t>101003</t>
+  </si>
+  <si>
+    <t>红缨钢枪</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>09:48:20</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>101004</t>
+  </si>
+  <si>
+    <t>英雄枪</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>1天08:20:00</t>
+  </si>
+  <si>
+    <t>116400</t>
+  </si>
+  <si>
+    <t>101005</t>
+  </si>
+  <si>
+    <t>千钧搠枪</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>2天13:20:00</t>
+  </si>
+  <si>
+    <t>220800</t>
+  </si>
+  <si>
+    <t>101101</t>
+  </si>
+  <si>
+    <t>六棱枪</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>101102</t>
+  </si>
+  <si>
+    <t>钩镰枪</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>101103</t>
+  </si>
+  <si>
+    <t>追魂枪</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>101104</t>
+  </si>
+  <si>
+    <t>透骨枪</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>13002</t>
+  </si>
+  <si>
+    <t>101105</t>
+  </si>
+  <si>
+    <t>赤月枪</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>14002</t>
+  </si>
+  <si>
+    <t>101201</t>
+  </si>
+  <si>
+    <t>大杆秤</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>13:26:40</t>
+  </si>
+  <si>
+    <t>48400</t>
+  </si>
+  <si>
+    <t>102001</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>SilverOre</t>
+  </si>
+  <si>
+    <t>03:45:00</t>
+  </si>
+  <si>
+    <t>13500</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>文士剑</t>
+  </si>
+  <si>
+    <t>12:35:00</t>
+  </si>
+  <si>
+    <t>45300</t>
+  </si>
+  <si>
+    <t>102003</t>
+  </si>
+  <si>
+    <t>安定剑</t>
+  </si>
+  <si>
+    <t>1天06:45:00</t>
+  </si>
+  <si>
+    <t>110700</t>
+  </si>
+  <si>
+    <t>102004</t>
+  </si>
+  <si>
+    <t>火精剑</t>
+  </si>
+  <si>
+    <t>2天10:38:20</t>
+  </si>
+  <si>
+    <t>211100</t>
+  </si>
+  <si>
+    <t>102101</t>
+  </si>
+  <si>
+    <t>青钢剑</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>0002001</t>
+  </si>
+  <si>
+    <t>04:31:40</t>
+  </si>
+  <si>
+    <t>16300</t>
+  </si>
+  <si>
+    <t>102102</t>
+  </si>
+  <si>
+    <t>金刚剑</t>
+  </si>
+  <si>
+    <t>102103</t>
+  </si>
+  <si>
+    <t>龙泉宝剑</t>
+  </si>
+  <si>
+    <t>102104</t>
+  </si>
+  <si>
+    <t>全真七子剑</t>
+  </si>
+  <si>
+    <t>102105</t>
+  </si>
+  <si>
+    <t>玄铁重剑</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>185天23:03:20</t>
+  </si>
+  <si>
+    <t>16067000</t>
+  </si>
+  <si>
+    <t>102106</t>
+  </si>
+  <si>
+    <t>淑女剑</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>189天14:38:20</t>
+  </si>
+  <si>
+    <t>16382300</t>
+  </si>
+  <si>
+    <t>102107</t>
+  </si>
+  <si>
+    <t>越女剑</t>
+  </si>
+  <si>
+    <t>01001006</t>
+  </si>
+  <si>
+    <t>12:10:00</t>
+  </si>
+  <si>
+    <t>43800</t>
+  </si>
+  <si>
+    <t>102201</t>
+  </si>
+  <si>
+    <t>侠少剑</t>
+  </si>
+  <si>
+    <t>102202</t>
+  </si>
+  <si>
+    <t>含光剑</t>
+  </si>
+  <si>
+    <t>102203</t>
+  </si>
+  <si>
+    <t>茂陵剑</t>
+  </si>
+  <si>
+    <t>102204</t>
+  </si>
+  <si>
+    <t>玄电剑</t>
+  </si>
+  <si>
+    <t>18002</t>
+  </si>
+  <si>
+    <t>102205</t>
+  </si>
+  <si>
+    <t>青冥剑</t>
+  </si>
+  <si>
+    <t>19002</t>
+  </si>
+  <si>
+    <t>103001</t>
+  </si>
+  <si>
+    <t>马刀</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>02:26:40</t>
+  </si>
+  <si>
+    <t>8800</t>
+  </si>
+  <si>
+    <t>103002</t>
+  </si>
+  <si>
+    <t>鬼头刀</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>08:46:40</t>
+  </si>
+  <si>
+    <t>31600</t>
+  </si>
+  <si>
+    <t>103003</t>
+  </si>
+  <si>
+    <t>大横刀</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>1天09:25:00</t>
+  </si>
+  <si>
+    <t>120300</t>
+  </si>
+  <si>
+    <t>103004</t>
+  </si>
+  <si>
+    <t>警恶刀</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>2天06:36:40</t>
+  </si>
+  <si>
+    <t>196600</t>
+  </si>
+  <si>
+    <t>104001</t>
+  </si>
+  <si>
+    <t>桃木棍</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>02:13:20</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>104002</t>
+  </si>
+  <si>
+    <t>楠木棍</t>
+  </si>
+  <si>
+    <t>07:01:40</t>
+  </si>
+  <si>
+    <t>25300</t>
+  </si>
+  <si>
+    <t>104003</t>
+  </si>
+  <si>
+    <t>熟铜棍</t>
+  </si>
+  <si>
+    <t>1天05:15:00</t>
+  </si>
+  <si>
+    <t>105300</t>
+  </si>
+  <si>
+    <t>104004</t>
+  </si>
+  <si>
+    <t>精钢棍</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>2天06:26:40</t>
+  </si>
+  <si>
+    <t>196000</t>
+  </si>
+  <si>
+    <t>104101</t>
+  </si>
+  <si>
+    <t>齐眉棍</t>
+  </si>
+  <si>
+    <t>104102</t>
+  </si>
+  <si>
+    <t>普渡棍</t>
+  </si>
+  <si>
+    <t>104103</t>
+  </si>
+  <si>
+    <t>鹤舞棍</t>
+  </si>
+  <si>
+    <t>104104</t>
+  </si>
+  <si>
+    <t>紫金梁</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>104105</t>
+  </si>
+  <si>
+    <t>紧那罗棒</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>21002</t>
+  </si>
+  <si>
+    <t>104201</t>
+  </si>
+  <si>
+    <t>纯钢扁担</t>
+  </si>
+  <si>
+    <t>16:06:40</t>
+  </si>
+  <si>
+    <t>58000</t>
+  </si>
+  <si>
+    <t>104202</t>
+  </si>
+  <si>
+    <t>慈恩禅杖</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>104203</t>
+  </si>
+  <si>
+    <t>伏魔金刚铲</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>185天06:45:00</t>
+  </si>
+  <si>
+    <t>16008300</t>
+  </si>
+  <si>
+    <t>104204</t>
+  </si>
+  <si>
+    <t>骷髅拐杖</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>12:41:40</t>
+  </si>
+  <si>
+    <t>45700</t>
+  </si>
+  <si>
+    <t>104205</t>
+  </si>
+  <si>
+    <t>打狗棒</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>152天08:58:20</t>
+  </si>
+  <si>
+    <t>13165100</t>
+  </si>
+  <si>
+    <t>104206</t>
+  </si>
+  <si>
+    <t>红玉仗</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>187天05:48:20</t>
+  </si>
+  <si>
+    <t>16177700</t>
+  </si>
+  <si>
+    <t>104207</t>
+  </si>
+  <si>
+    <t>万毒拐杖</t>
+  </si>
+  <si>
+    <t>186天19:21:40</t>
+  </si>
+  <si>
+    <t>16140100</t>
+  </si>
+  <si>
+    <t>105101</t>
+  </si>
+  <si>
+    <t>短笛</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>00:12:00</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>勇武缠手</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>00:30:00</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>杨威缠手</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Tungsten</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>02:28:00</t>
-  </si>
-  <si>
-    <t>8880</t>
-  </si>
-  <si>
-    <t>100005</t>
-  </si>
-  <si>
-    <t>无畏缠手</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>Jade</t>
-  </si>
-  <si>
-    <t>4002</t>
-  </si>
-  <si>
-    <t>09:48:40</t>
-  </si>
-  <si>
-    <t>35320</t>
-  </si>
-  <si>
-    <t>100101</t>
-  </si>
-  <si>
-    <t>飞鱼缠手</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>RefinedSteel</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>14:20:00</t>
-  </si>
-  <si>
-    <t>51600</t>
-  </si>
-  <si>
-    <t>100102</t>
-  </si>
-  <si>
-    <t>惊龙</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>0.04</t>
+    <t>105102</t>
+  </si>
+  <si>
+    <t>木笛</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>RedSteel</t>
-  </si>
-  <si>
-    <t>6002</t>
-  </si>
-  <si>
-    <t>1天02:48:40</t>
-  </si>
-  <si>
-    <t>96520</t>
-  </si>
-  <si>
-    <t>100103</t>
-  </si>
-  <si>
-    <t>怒龙</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>DarksteelIngot</t>
-  </si>
-  <si>
-    <t>8001</t>
-  </si>
-  <si>
-    <t>3天17:48:00</t>
-  </si>
-  <si>
-    <t>323280</t>
-  </si>
-  <si>
-    <t>100104</t>
-  </si>
-  <si>
-    <t>瑶光</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>TungstenSteel</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>14天03:15:40</t>
-  </si>
-  <si>
-    <t>1221340</t>
-  </si>
-  <si>
-    <t>100105</t>
-  </si>
-  <si>
-    <t>天神</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Zingana</t>
-  </si>
-  <si>
-    <t>11002</t>
-  </si>
-  <si>
-    <t>28天21:15:20</t>
-  </si>
-  <si>
-    <t>2495720</t>
-  </si>
-  <si>
-    <t>100201</t>
-  </si>
-  <si>
-    <t>錾银缠手</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>100202</t>
-  </si>
-  <si>
-    <t>魔障缠手</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>100203</t>
-  </si>
-  <si>
-    <t>舞凤</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>100204</t>
-  </si>
-  <si>
-    <t>白虎</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>25002</t>
-  </si>
-  <si>
-    <t>100205</t>
-  </si>
-  <si>
-    <t>天机</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>26002</t>
-  </si>
-  <si>
-    <t>100301</t>
-  </si>
-  <si>
-    <t>铜尸缠手</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>14:24:40</t>
-  </si>
-  <si>
-    <t>51880</t>
-  </si>
-  <si>
-    <t>100302</t>
-  </si>
-  <si>
-    <t>铁尸缠手</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>14:23:20</t>
-  </si>
-  <si>
-    <t>51800</t>
-  </si>
-  <si>
-    <t>100303</t>
-  </si>
-  <si>
-    <t>寒玉缠手</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>37天04:10:40</t>
-  </si>
-  <si>
-    <t>3211840</t>
-  </si>
-  <si>
-    <t>100304</t>
-  </si>
-  <si>
-    <t>降龙缠手</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>34天17:04:00</t>
-  </si>
-  <si>
-    <t>2999040</t>
-  </si>
-  <si>
-    <t>100305</t>
-  </si>
-  <si>
-    <t>霹雳缠手</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>100306</t>
-  </si>
-  <si>
-    <t>竹叶缠手</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>12:36:00</t>
-  </si>
-  <si>
-    <t>45360</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>狼牙枪</t>
-  </si>
-  <si>
-    <t>00001002</t>
-  </si>
-  <si>
-    <t>00:08:40</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>铁头枪</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>00:19:40</t>
-  </si>
-  <si>
-    <t>1180</t>
-  </si>
-  <si>
-    <t>101003</t>
-  </si>
-  <si>
-    <t>红缨钢枪</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>01:57:40</t>
-  </si>
-  <si>
-    <t>7060</t>
-  </si>
-  <si>
-    <t>101004</t>
-  </si>
-  <si>
-    <t>英雄枪</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>06:28:00</t>
-  </si>
-  <si>
-    <t>23280</t>
-  </si>
-  <si>
-    <t>101005</t>
-  </si>
-  <si>
-    <t>千钧搠枪</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>12:16:00</t>
-  </si>
-  <si>
-    <t>44160</t>
-  </si>
-  <si>
-    <t>101101</t>
-  </si>
-  <si>
-    <t>六棱枪</t>
-  </si>
-  <si>
-    <t>101102</t>
-  </si>
-  <si>
-    <t>钩镰枪</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>101103</t>
-  </si>
-  <si>
-    <t>追魂枪</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>101104</t>
-  </si>
-  <si>
-    <t>透骨枪</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>13002</t>
-  </si>
-  <si>
-    <t>101105</t>
-  </si>
-  <si>
-    <t>赤月枪</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>14002</t>
-  </si>
-  <si>
-    <t>101201</t>
-  </si>
-  <si>
-    <t>大杆秤</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>02:41:20</t>
-  </si>
-  <si>
-    <t>9680</t>
-  </si>
-  <si>
-    <t>102001</t>
-  </si>
-  <si>
-    <t>铁剑</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>SilverOre</t>
-  </si>
-  <si>
-    <t>00:45:00</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>102002</t>
-  </si>
-  <si>
-    <t>文士剑</t>
-  </si>
-  <si>
-    <t>02:31:00</t>
-  </si>
-  <si>
-    <t>9060</t>
-  </si>
-  <si>
-    <t>102003</t>
-  </si>
-  <si>
-    <t>安定剑</t>
-  </si>
-  <si>
-    <t>06:09:00</t>
-  </si>
-  <si>
-    <t>22140</t>
-  </si>
-  <si>
-    <t>102004</t>
-  </si>
-  <si>
-    <t>火精剑</t>
-  </si>
-  <si>
-    <t>11:43:40</t>
-  </si>
-  <si>
-    <t>42220</t>
-  </si>
-  <si>
-    <t>102101</t>
-  </si>
-  <si>
-    <t>青钢剑</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>0002001</t>
-  </si>
-  <si>
-    <t>00:54:20</t>
-  </si>
-  <si>
-    <t>3260</t>
-  </si>
-  <si>
-    <t>102102</t>
-  </si>
-  <si>
-    <t>金刚剑</t>
-  </si>
-  <si>
-    <t>102103</t>
-  </si>
-  <si>
-    <t>龙泉宝剑</t>
-  </si>
-  <si>
-    <t>102104</t>
-  </si>
-  <si>
-    <t>全真七子剑</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>102105</t>
-  </si>
-  <si>
-    <t>玄铁重剑</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>37天04:36:40</t>
-  </si>
-  <si>
-    <t>3213400</t>
-  </si>
-  <si>
-    <t>102106</t>
-  </si>
-  <si>
-    <t>淑女剑</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>37天22:07:40</t>
-  </si>
-  <si>
-    <t>3276460</t>
-  </si>
-  <si>
-    <t>102107</t>
-  </si>
-  <si>
-    <t>越女剑</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>01001006</t>
-  </si>
-  <si>
-    <t>02:26:00</t>
-  </si>
-  <si>
-    <t>8760</t>
-  </si>
-  <si>
-    <t>102201</t>
-  </si>
-  <si>
-    <t>侠少剑</t>
-  </si>
-  <si>
-    <t>102202</t>
-  </si>
-  <si>
-    <t>含光剑</t>
-  </si>
-  <si>
-    <t>102203</t>
-  </si>
-  <si>
-    <t>茂陵剑</t>
-  </si>
-  <si>
-    <t>102204</t>
-  </si>
-  <si>
-    <t>玄电剑</t>
-  </si>
-  <si>
-    <t>18002</t>
-  </si>
-  <si>
-    <t>102205</t>
-  </si>
-  <si>
-    <t>青冥剑</t>
-  </si>
-  <si>
-    <t>19002</t>
-  </si>
-  <si>
-    <t>103001</t>
-  </si>
-  <si>
-    <t>马刀</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>00:29:20</t>
-  </si>
-  <si>
-    <t>1760</t>
-  </si>
-  <si>
-    <t>103002</t>
-  </si>
-  <si>
-    <t>鬼头刀</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>01:45:20</t>
-  </si>
-  <si>
-    <t>6320</t>
-  </si>
-  <si>
-    <t>103003</t>
-  </si>
-  <si>
-    <t>大横刀</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>06:41:00</t>
-  </si>
-  <si>
-    <t>24060</t>
-  </si>
-  <si>
-    <t>103004</t>
-  </si>
-  <si>
-    <t>警恶刀</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>10:55:20</t>
-  </si>
-  <si>
-    <t>39320</t>
-  </si>
-  <si>
-    <t>104001</t>
-  </si>
-  <si>
-    <t>桃木棍</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>00:26:40</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>104002</t>
-  </si>
-  <si>
-    <t>楠木棍</t>
-  </si>
-  <si>
-    <t>01:24:20</t>
-  </si>
-  <si>
-    <t>5060</t>
-  </si>
-  <si>
-    <t>104003</t>
-  </si>
-  <si>
-    <t>熟铜棍</t>
-  </si>
-  <si>
-    <t>05:51:00</t>
-  </si>
-  <si>
-    <t>21060</t>
-  </si>
-  <si>
-    <t>104004</t>
-  </si>
-  <si>
-    <t>精钢棍</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>10:53:20</t>
-  </si>
-  <si>
-    <t>39200</t>
-  </si>
-  <si>
-    <t>104101</t>
-  </si>
-  <si>
-    <t>齐眉棍</t>
-  </si>
-  <si>
-    <t>104102</t>
-  </si>
-  <si>
-    <t>普渡棍</t>
-  </si>
-  <si>
-    <t>104103</t>
-  </si>
-  <si>
-    <t>鹤舞棍</t>
-  </si>
-  <si>
-    <t>104104</t>
-  </si>
-  <si>
-    <t>紫金梁</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>104105</t>
-  </si>
-  <si>
-    <t>紧那罗棒</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>21002</t>
-  </si>
-  <si>
-    <t>104201</t>
-  </si>
-  <si>
-    <t>纯钢扁担</t>
-  </si>
-  <si>
-    <t>03:13:20</t>
-  </si>
-  <si>
-    <t>11600</t>
-  </si>
-  <si>
-    <t>104202</t>
-  </si>
-  <si>
-    <t>慈恩禅杖</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>104203</t>
-  </si>
-  <si>
-    <t>伏魔金刚铲</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>37天01:21:00</t>
-  </si>
-  <si>
-    <t>3201660</t>
-  </si>
-  <si>
-    <t>104204</t>
-  </si>
-  <si>
-    <t>骷髅拐杖</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>02:32:20</t>
-  </si>
-  <si>
-    <t>9140</t>
-  </si>
-  <si>
-    <t>104205</t>
-  </si>
-  <si>
-    <t>打狗棒</t>
-  </si>
-  <si>
-    <t>1067</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>30天11:23:40</t>
-  </si>
-  <si>
-    <t>2633020</t>
-  </si>
-  <si>
-    <t>104206</t>
-  </si>
-  <si>
-    <t>红玉仗</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>37天10:45:40</t>
-  </si>
-  <si>
-    <t>3235540</t>
-  </si>
-  <si>
-    <t>104207</t>
-  </si>
-  <si>
-    <t>万毒拐杖</t>
-  </si>
-  <si>
-    <t>37天08:40:20</t>
-  </si>
-  <si>
-    <t>3228020</t>
-  </si>
-  <si>
-    <t>105101</t>
-  </si>
-  <si>
-    <t>短笛</t>
-  </si>
-  <si>
-    <t>105102</t>
-  </si>
-  <si>
-    <t>木笛</t>
-  </si>
-  <si>
     <t>105103</t>
   </si>
   <si>
@@ -1256,10 +1247,10 @@
     <t>碧海潮声笛</t>
   </si>
   <si>
-    <t>8天23:44:40</t>
-  </si>
-  <si>
-    <t>776680</t>
+    <t>44天22:43:20</t>
+  </si>
+  <si>
+    <t>3883400</t>
   </si>
   <si>
     <t>106001</t>
@@ -1274,10 +1265,10 @@
     <t>金刚佛珠</t>
   </si>
   <si>
-    <t>37天21:16:40</t>
-  </si>
-  <si>
-    <t>3273400</t>
+    <t>189天10:23:20</t>
+  </si>
+  <si>
+    <t>16367000</t>
   </si>
   <si>
     <t>106003</t>
@@ -1292,10 +1283,10 @@
     <t>金龙软鞭</t>
   </si>
   <si>
-    <t>02:58:20</t>
-  </si>
-  <si>
-    <t>10700</t>
+    <t>14:51:40</t>
+  </si>
+  <si>
+    <t>53500</t>
   </si>
   <si>
     <t>106005</t>
@@ -1313,10 +1304,10 @@
     <t>铁骨扇</t>
   </si>
   <si>
-    <t>02:15:40</t>
-  </si>
-  <si>
-    <t>8140</t>
+    <t>11:18:20</t>
+  </si>
+  <si>
+    <t>40700</t>
   </si>
   <si>
     <t>106007</t>
@@ -1325,19 +1316,16 @@
     <t>折冲铁笔</t>
   </si>
   <si>
-    <t>140</t>
-  </si>
-  <si>
     <t>106008</t>
   </si>
   <si>
     <t>竹筹</t>
   </si>
   <si>
-    <t>1天02:35:20</t>
-  </si>
-  <si>
-    <t>95720</t>
+    <t>5天12:56:40</t>
+  </si>
+  <si>
+    <t>478600</t>
   </si>
   <si>
     <t>200001</t>
@@ -1979,54 +1967,54 @@
         <v>37</v>
       </c>
       <c r="L4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="O4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="V4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>27</v>
@@ -2038,69 +2026,69 @@
         <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="I5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="0" t="s">
+      <c r="N5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="V5" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>65</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>26</v>
@@ -2112,31 +2100,31 @@
         <v>28</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="O6" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>38</v>
@@ -2154,27 +2142,27 @@
         <v>29</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>77</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -2186,72 +2174,72 @@
         <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="P7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U7" s="0" t="s">
-        <v>81</v>
       </c>
       <c r="V7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>86</v>
-      </c>
       <c r="D8" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>27</v>
@@ -2260,31 +2248,31 @@
         <v>28</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="J8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="M8" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>38</v>
@@ -2302,104 +2290,104 @@
         <v>29</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="D9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>96</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="O9" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="P9" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="V9" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>26</v>
@@ -2408,105 +2396,105 @@
         <v>28</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="P10" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="Q10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="0" t="s">
         <v>113</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U10" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="D11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>121</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="M11" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>125</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>38</v>
@@ -2524,104 +2512,104 @@
         <v>29</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>131</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="M12" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="0" t="s">
+      <c r="O12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="M12" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N12" s="0" t="s">
+      <c r="R12" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="0" t="s">
         <v>135</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>137</v>
       </c>
       <c r="V12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>26</v>
@@ -2630,31 +2618,31 @@
         <v>28</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>38</v>
@@ -2672,66 +2660,66 @@
         <v>29</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>144</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>70</v>
-      </c>
       <c r="K14" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>29</v>
@@ -2746,16 +2734,16 @@
         <v>29</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15">
@@ -2766,10 +2754,10 @@
         <v>147</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>44</v>
@@ -2787,25 +2775,25 @@
         <v>149</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>29</v>
@@ -2820,63 +2808,63 @@
         <v>29</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>38</v>
@@ -2894,72 +2882,72 @@
         <v>29</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="V16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="L17" s="0" t="s">
+      <c r="Q17" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="M17" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="R17" s="0" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>29</v>
@@ -2968,66 +2956,66 @@
         <v>29</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="O18" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N18" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="P18" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>29</v>
@@ -3048,60 +3036,60 @@
         <v>31</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>172</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q19" s="0" t="s">
         <v>29</v>
@@ -3145,7 +3133,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>177</v>
@@ -3157,34 +3145,34 @@
         <v>27</v>
       </c>
       <c r="J20" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="K20" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="M20" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>179</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T20" s="0" t="s">
         <v>38</v>
@@ -3213,7 +3201,7 @@
         <v>184</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>44</v>
@@ -3222,7 +3210,7 @@
         <v>28</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>185</v>
@@ -3234,28 +3222,28 @@
         <v>27</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L21" s="0" t="s">
         <v>172</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>29</v>
@@ -3284,10 +3272,10 @@
         <v>189</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>27</v>
@@ -3296,10 +3284,10 @@
         <v>28</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>27</v>
@@ -3352,16 +3340,16 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="C23" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>27</v>
@@ -3370,34 +3358,34 @@
         <v>28</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L23" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="O23" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="P23" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q23" s="0" t="s">
         <v>29</v>
@@ -3418,18 +3406,18 @@
         <v>31</v>
       </c>
       <c r="W23" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="X23" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>198</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>199</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>44</v>
@@ -3441,10 +3429,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>27</v>
@@ -3456,13 +3444,13 @@
         <v>27</v>
       </c>
       <c r="K24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="M24" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>38</v>
@@ -3489,21 +3477,21 @@
         <v>30</v>
       </c>
       <c r="V24" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="W24" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="W24" s="0" t="s">
+      <c r="X24" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="X24" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>204</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>44</v>
@@ -3518,28 +3506,28 @@
         <v>35</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>29</v>
@@ -3560,27 +3548,27 @@
         <v>29</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V25" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>26</v>
@@ -3592,28 +3580,28 @@
         <v>35</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>29</v>
@@ -3634,27 +3622,27 @@
         <v>29</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V26" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>26</v>
@@ -3666,34 +3654,34 @@
         <v>35</v>
       </c>
       <c r="G27" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="0" t="s">
+      <c r="O27" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="P27" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>29</v>
@@ -3708,27 +3696,27 @@
         <v>29</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W27" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="X27" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="X27" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>222</v>
-      </c>
       <c r="C28" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>44</v>
@@ -3740,34 +3728,34 @@
         <v>35</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K28" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="N28" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>29</v>
@@ -3782,30 +3770,30 @@
         <v>29</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V28" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W28" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="X28" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="X28" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>227</v>
-      </c>
       <c r="C29" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>27</v>
@@ -3814,7 +3802,7 @@
         <v>35</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>27</v>
@@ -3826,19 +3814,19 @@
         <v>27</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P29" s="0" t="s">
         <v>38</v>
@@ -3856,16 +3844,16 @@
         <v>29</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30">
@@ -3876,13 +3864,13 @@
         <v>229</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>35</v>
@@ -3894,28 +3882,28 @@
         <v>27</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>29</v>
@@ -3930,16 +3918,16 @@
         <v>29</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31">
@@ -3950,10 +3938,10 @@
         <v>232</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>26</v>
@@ -3974,22 +3962,22 @@
         <v>27</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>29</v>
@@ -4004,16 +3992,16 @@
         <v>29</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -4024,13 +4012,13 @@
         <v>235</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>35</v>
@@ -4042,25 +4030,25 @@
         <v>27</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P32" s="0" t="s">
         <v>38</v>
@@ -4084,10 +4072,10 @@
         <v>31</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -4098,13 +4086,13 @@
         <v>239</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>35</v>
@@ -4116,34 +4104,34 @@
         <v>27</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L33" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q33" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="M33" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N33" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="P33" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q33" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="R33" s="0" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>29</v>
@@ -4158,10 +4146,10 @@
         <v>31</v>
       </c>
       <c r="W33" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34">
@@ -4181,13 +4169,13 @@
         <v>26</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>27</v>
@@ -4196,22 +4184,22 @@
         <v>27</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L34" s="0" t="s">
         <v>244</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N34" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="O34" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" s="0" t="s">
         <v>36</v>
-      </c>
-      <c r="O34" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" s="0" t="s">
-        <v>47</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>29</v>
@@ -4246,7 +4234,7 @@
         <v>248</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>44</v>
@@ -4255,31 +4243,31 @@
         <v>27</v>
       </c>
       <c r="F35" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>250</v>
-      </c>
       <c r="N35" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>29</v>
@@ -4306,54 +4294,54 @@
         <v>31</v>
       </c>
       <c r="W35" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="X35" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="X35" s="0" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>254</v>
-      </c>
       <c r="C36" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F36" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>250</v>
-      </c>
       <c r="L36" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>29</v>
@@ -4380,60 +4368,60 @@
         <v>31</v>
       </c>
       <c r="W36" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="X36" s="0" t="s">
         <v>255</v>
-      </c>
-      <c r="X36" s="0" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>258</v>
-      </c>
       <c r="C37" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I37" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>250</v>
-      </c>
       <c r="L37" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M37" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O37" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="P37" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>29</v>
@@ -4454,33 +4442,33 @@
         <v>31</v>
       </c>
       <c r="W37" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="X37" s="0" t="s">
         <v>259</v>
-      </c>
-      <c r="X37" s="0" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>262</v>
-      </c>
       <c r="C38" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>27</v>
@@ -4492,22 +4480,22 @@
         <v>27</v>
       </c>
       <c r="K38" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="M38" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="L38" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="N38" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>29</v>
@@ -4522,36 +4510,36 @@
         <v>29</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W38" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="X38" s="0" t="s">
         <v>263</v>
-      </c>
-      <c r="X38" s="0" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>266</v>
-      </c>
       <c r="C39" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>27</v>
@@ -4566,16 +4554,16 @@
         <v>27</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>29</v>
@@ -4599,33 +4587,33 @@
         <v>30</v>
       </c>
       <c r="V39" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="W39" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="W39" s="0" t="s">
+      <c r="X39" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="X39" s="0" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>272</v>
-      </c>
       <c r="C40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>27</v>
@@ -4684,11 +4672,11 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>274</v>
-      </c>
       <c r="C41" s="0" t="s">
         <v>27</v>
       </c>
@@ -4699,7 +4687,7 @@
         <v>27</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>27</v>
@@ -4758,11 +4746,11 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>276</v>
-      </c>
       <c r="C42" s="0" t="s">
         <v>27</v>
       </c>
@@ -4773,7 +4761,7 @@
         <v>27</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>27</v>
@@ -4832,10 +4820,10 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>27</v>
@@ -4862,31 +4850,31 @@
         <v>27</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T43" s="0" t="s">
         <v>38</v>
@@ -4898,18 +4886,18 @@
         <v>31</v>
       </c>
       <c r="W43" s="0" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="X43" s="0" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>27</v>
@@ -4921,46 +4909,46 @@
         <v>27</v>
       </c>
       <c r="F44" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N44" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="G44" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="L44" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="M44" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="N44" s="0" t="s">
-        <v>288</v>
-      </c>
       <c r="O44" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T44" s="0" t="s">
         <v>38</v>
@@ -4972,21 +4960,21 @@
         <v>31</v>
       </c>
       <c r="W44" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="X44" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>27</v>
@@ -4998,7 +4986,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>27</v>
@@ -5010,22 +4998,22 @@
         <v>27</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>29</v>
@@ -5043,33 +5031,33 @@
         <v>30</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="X45" s="0" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>27</v>
@@ -5084,19 +5072,19 @@
         <v>27</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P46" s="0" t="s">
         <v>38</v>
@@ -5114,36 +5102,36 @@
         <v>29</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V46" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W46" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X46" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>27</v>
@@ -5152,28 +5140,28 @@
         <v>27</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>29</v>
@@ -5188,36 +5176,36 @@
         <v>29</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V47" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W47" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X47" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>27</v>
@@ -5232,22 +5220,22 @@
         <v>27</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>29</v>
@@ -5262,36 +5250,36 @@
         <v>29</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V48" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X48" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>27</v>
@@ -5300,25 +5288,25 @@
         <v>27</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P49" s="0" t="s">
         <v>38</v>
@@ -5336,36 +5324,36 @@
         <v>29</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V49" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W49" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X49" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>27</v>
@@ -5374,34 +5362,34 @@
         <v>27</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L50" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="O50" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="P50" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q50" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="M50" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="P50" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q50" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="R50" s="0" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="S50" s="0" t="s">
         <v>29</v>
@@ -5410,24 +5398,24 @@
         <v>29</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="V50" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W50" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X50" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>44</v>
@@ -5439,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>27</v>
@@ -5451,19 +5439,19 @@
         <v>27</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>29</v>
@@ -5484,60 +5472,60 @@
         <v>29</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V51" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W51" s="0" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>29</v>
@@ -5558,27 +5546,27 @@
         <v>29</v>
       </c>
       <c r="U52" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V52" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W52" s="0" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="X52" s="0" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>44</v>
@@ -5587,37 +5575,37 @@
         <v>26</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="M53" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O53" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N53" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="P53" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q53" s="0" t="s">
         <v>29</v>
@@ -5632,66 +5620,66 @@
         <v>29</v>
       </c>
       <c r="U53" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V53" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W53" s="0" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="X53" s="0" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K54" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="L54" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="M54" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="N54" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q54" s="0" t="s">
         <v>29</v>
@@ -5712,21 +5700,21 @@
         <v>31</v>
       </c>
       <c r="W54" s="0" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="X54" s="0" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>44</v>
@@ -5735,10 +5723,10 @@
         <v>26</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>27</v>
@@ -5750,10 +5738,10 @@
         <v>27</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="M55" s="0" t="s">
         <v>29</v>
@@ -5786,33 +5774,33 @@
         <v>31</v>
       </c>
       <c r="W55" s="0" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="X55" s="0" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>27</v>
@@ -5824,19 +5812,19 @@
         <v>27</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L56" s="0" t="s">
         <v>172</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P56" s="0" t="s">
         <v>38</v>
@@ -5860,33 +5848,33 @@
         <v>31</v>
       </c>
       <c r="W56" s="0" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="X56" s="0" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>27</v>
@@ -5898,22 +5886,22 @@
         <v>27</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="M57" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="N57" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="O57" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N57" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O57" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="P57" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q57" s="0" t="s">
         <v>29</v>
@@ -5928,39 +5916,39 @@
         <v>29</v>
       </c>
       <c r="U57" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V57" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W57" s="0" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="X57" s="0" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>27</v>
@@ -5972,19 +5960,19 @@
         <v>27</v>
       </c>
       <c r="K58" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M58" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="L58" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M58" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="N58" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P58" s="0" t="s">
         <v>38</v>
@@ -6002,36 +5990,36 @@
         <v>29</v>
       </c>
       <c r="U58" s="0" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V58" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W58" s="0" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="X58" s="0" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>148</v>
@@ -6046,19 +6034,19 @@
         <v>27</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P59" s="0" t="s">
         <v>38</v>
@@ -6076,40 +6064,40 @@
         <v>29</v>
       </c>
       <c r="U59" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V59" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W59" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X59" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C60" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="G60" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="H60" s="0" t="s">
         <v>27</v>
       </c>
@@ -6120,22 +6108,22 @@
         <v>27</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q60" s="0" t="s">
         <v>29</v>
@@ -6150,36 +6138,36 @@
         <v>29</v>
       </c>
       <c r="U60" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V60" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W60" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X60" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>177</v>
@@ -6194,22 +6182,22 @@
         <v>27</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>29</v>
@@ -6224,39 +6212,39 @@
         <v>29</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V61" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W61" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X61" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>27</v>
@@ -6268,19 +6256,19 @@
         <v>27</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P62" s="0" t="s">
         <v>38</v>
@@ -6298,39 +6286,39 @@
         <v>29</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="V62" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W62" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X62" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>27</v>
@@ -6342,28 +6330,28 @@
         <v>27</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L63" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N63" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="O63" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="P63" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q63" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="M63" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N63" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="O63" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="P63" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q63" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="R63" s="0" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="S63" s="0" t="s">
         <v>29</v>
@@ -6372,24 +6360,24 @@
         <v>29</v>
       </c>
       <c r="U63" s="0" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="V63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W63" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X63" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>27</v>
@@ -6401,10 +6389,10 @@
         <v>27</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>27</v>
@@ -6416,10 +6404,10 @@
         <v>27</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>29</v>
@@ -6452,21 +6440,21 @@
         <v>31</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="X64" s="0" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>27</v>
@@ -6478,7 +6466,7 @@
         <v>28</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>27</v>
@@ -6534,52 +6522,52 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G66" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="O66" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="N66" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>114</v>
-      </c>
       <c r="P66" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>29</v>
@@ -6600,18 +6588,18 @@
         <v>31</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="X66" s="0" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>27</v>
@@ -6626,7 +6614,7 @@
         <v>28</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>27</v>
@@ -6638,22 +6626,22 @@
         <v>27</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q67" s="0" t="s">
         <v>29</v>
@@ -6674,66 +6662,66 @@
         <v>31</v>
       </c>
       <c r="W67" s="0" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="X67" s="0" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>311</v>
+        <v>132</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S68" s="0" t="s">
         <v>29</v>
@@ -6748,24 +6736,24 @@
         <v>31</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="X68" s="0" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>26</v>
@@ -6774,7 +6762,7 @@
         <v>28</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>27</v>
@@ -6786,34 +6774,34 @@
         <v>27</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U69" s="0" t="s">
         <v>30</v>
@@ -6822,18 +6810,18 @@
         <v>31</v>
       </c>
       <c r="W69" s="0" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="X69" s="0" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>27</v>
@@ -6845,7 +6833,7 @@
         <v>27</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>27</v>
@@ -6860,34 +6848,34 @@
         <v>27</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P70" s="0" t="s">
         <v>179</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="U70" s="0" t="s">
         <v>30</v>
@@ -6896,18 +6884,18 @@
         <v>31</v>
       </c>
       <c r="W70" s="0" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>26</v>
@@ -6919,34 +6907,34 @@
         <v>27</v>
       </c>
       <c r="F71" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="G71" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>161</v>
-      </c>
       <c r="I71" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>49</v>
+        <v>396</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P71" s="0" t="s">
         <v>38</v>
@@ -6964,27 +6952,27 @@
         <v>29</v>
       </c>
       <c r="U71" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V71" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W71" s="0" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X71" s="0" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>27</v>
@@ -6993,37 +6981,37 @@
         <v>27</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>102</v>
+        <v>399</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q72" s="0" t="s">
         <v>29</v>
@@ -7038,24 +7026,24 @@
         <v>29</v>
       </c>
       <c r="U72" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="V72" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W72" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="X72" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>44</v>
@@ -7067,37 +7055,37 @@
         <v>27</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="Q73" s="0" t="s">
         <v>29</v>
@@ -7112,27 +7100,27 @@
         <v>29</v>
       </c>
       <c r="U73" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V73" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W73" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="X73" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>26</v>
@@ -7141,34 +7129,34 @@
         <v>27</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P74" s="0" t="s">
         <v>38</v>
@@ -7186,27 +7174,27 @@
         <v>29</v>
       </c>
       <c r="U74" s="0" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="V74" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W74" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="X74" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>44</v>
@@ -7215,43 +7203,43 @@
         <v>27</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L75" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="O75" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="P75" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q75" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="M75" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="N75" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="O75" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="P75" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q75" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="R75" s="0" t="s">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="S75" s="0" t="s">
         <v>29</v>
@@ -7260,24 +7248,24 @@
         <v>29</v>
       </c>
       <c r="U75" s="0" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="V75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>27</v>
@@ -7295,40 +7283,40 @@
         <v>27</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>44</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N76" s="0" t="s">
         <v>172</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="S76" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T76" s="0" t="s">
         <v>38</v>
@@ -7340,18 +7328,18 @@
         <v>31</v>
       </c>
       <c r="W76" s="0" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="X76" s="0" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>27</v>
@@ -7363,10 +7351,10 @@
         <v>27</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>27</v>
@@ -7422,64 +7410,64 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P78" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q78" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="R78" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="S78" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="Q78" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="R78" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="S78" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="T78" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U78" s="0" t="s">
         <v>30</v>
@@ -7488,18 +7476,18 @@
         <v>31</v>
       </c>
       <c r="W78" s="0" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="X78" s="0" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>27</v>
@@ -7508,10 +7496,10 @@
         <v>27</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G79" s="0" t="s">
         <v>177</v>
@@ -7570,10 +7558,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>27</v>
@@ -7585,10 +7573,10 @@
         <v>26</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>27</v>
@@ -7597,31 +7585,31 @@
         <v>27</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>37</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="M80" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="N80" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q80" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R80" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="N80" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="O80" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="P80" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q80" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="R80" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="S80" s="0" t="s">
         <v>29</v>
@@ -7636,18 +7624,18 @@
         <v>31</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="X80" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>27</v>
@@ -7662,7 +7650,7 @@
         <v>28</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>27</v>
@@ -7718,10 +7706,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>27</v>
@@ -7736,7 +7724,7 @@
         <v>35</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>27</v>
@@ -7748,16 +7736,16 @@
         <v>27</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L82" s="0" t="s">
         <v>244</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O82" s="0" t="s">
         <v>29</v>
@@ -7784,21 +7772,21 @@
         <v>31</v>
       </c>
       <c r="W82" s="0" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="X82" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>27</v>
@@ -7807,10 +7795,10 @@
         <v>27</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>437</v>
+        <v>370</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>27</v>
@@ -7866,10 +7854,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>27</v>
@@ -7884,7 +7872,7 @@
         <v>28</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>27</v>
@@ -7893,25 +7881,25 @@
         <v>27</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="K84" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="M84" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="L84" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="M84" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="N84" s="0" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Q84" s="0" t="s">
         <v>29</v>
@@ -7932,18 +7920,18 @@
         <v>31</v>
       </c>
       <c r="W84" s="0" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X84" s="0" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>27</v>
@@ -7955,7 +7943,7 @@
         <v>27</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>27</v>
@@ -8014,10 +8002,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>27</v>
@@ -8029,7 +8017,7 @@
         <v>27</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>27</v>
@@ -8077,7 +8065,7 @@
         <v>30</v>
       </c>
       <c r="V86" s="0" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="W86" s="0" t="s">
         <v>32</v>
@@ -8088,10 +8076,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>27</v>
@@ -8103,7 +8091,7 @@
         <v>27</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>27</v>
@@ -8151,7 +8139,7 @@
         <v>30</v>
       </c>
       <c r="V87" s="0" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="W87" s="0" t="s">
         <v>32</v>
@@ -8162,10 +8150,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>27</v>
@@ -8177,7 +8165,7 @@
         <v>27</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>27</v>
@@ -8225,7 +8213,7 @@
         <v>30</v>
       </c>
       <c r="V88" s="0" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="W88" s="0" t="s">
         <v>32</v>
@@ -8236,10 +8224,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>27</v>
@@ -8251,7 +8239,7 @@
         <v>27</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>27</v>
@@ -8299,7 +8287,7 @@
         <v>30</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="W89" s="0" t="s">
         <v>32</v>
@@ -8310,10 +8298,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>27</v>
@@ -8325,7 +8313,7 @@
         <v>27</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>27</v>
@@ -8373,7 +8361,7 @@
         <v>30</v>
       </c>
       <c r="V90" s="0" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="W90" s="0" t="s">
         <v>32</v>
@@ -8384,10 +8372,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>27</v>
@@ -8399,7 +8387,7 @@
         <v>27</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>27</v>
@@ -8447,7 +8435,7 @@
         <v>30</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="W91" s="0" t="s">
         <v>32</v>
@@ -8458,10 +8446,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>27</v>
@@ -8473,7 +8461,7 @@
         <v>27</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>27</v>
@@ -8521,7 +8509,7 @@
         <v>30</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="W92" s="0" t="s">
         <v>32</v>
@@ -8532,10 +8520,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>27</v>
@@ -8547,7 +8535,7 @@
         <v>27</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>27</v>
@@ -8595,7 +8583,7 @@
         <v>30</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>32</v>
@@ -8606,10 +8594,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>27</v>
@@ -8621,7 +8609,7 @@
         <v>27</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>27</v>
@@ -8669,7 +8657,7 @@
         <v>30</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="W94" s="0" t="s">
         <v>32</v>
@@ -8680,10 +8668,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>27</v>
@@ -8695,7 +8683,7 @@
         <v>27</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>27</v>
@@ -8743,7 +8731,7 @@
         <v>30</v>
       </c>
       <c r="V95" s="0" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="W95" s="0" t="s">
         <v>32</v>
@@ -8754,10 +8742,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>27</v>
@@ -8769,7 +8757,7 @@
         <v>27</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>27</v>
@@ -8817,7 +8805,7 @@
         <v>30</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>32</v>
@@ -8828,10 +8816,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>27</v>
@@ -8843,7 +8831,7 @@
         <v>27</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>27</v>
@@ -8891,7 +8879,7 @@
         <v>30</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>32</v>
@@ -8902,10 +8890,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>27</v>
@@ -8917,7 +8905,7 @@
         <v>27</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>27</v>
@@ -8965,7 +8953,7 @@
         <v>30</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>32</v>
@@ -8976,10 +8964,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>27</v>
@@ -8991,7 +8979,7 @@
         <v>27</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>27</v>
@@ -9039,7 +9027,7 @@
         <v>30</v>
       </c>
       <c r="V99" s="0" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>32</v>
@@ -9050,10 +9038,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>27</v>
@@ -9065,7 +9053,7 @@
         <v>27</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>27</v>
@@ -9113,7 +9101,7 @@
         <v>30</v>
       </c>
       <c r="V100" s="0" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>32</v>
@@ -9124,10 +9112,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>27</v>
@@ -9139,7 +9127,7 @@
         <v>27</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>27</v>
@@ -9187,7 +9175,7 @@
         <v>30</v>
       </c>
       <c r="V101" s="0" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="W101" s="0" t="s">
         <v>32</v>
@@ -9198,10 +9186,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>27</v>
@@ -9213,7 +9201,7 @@
         <v>27</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>27</v>
@@ -9261,7 +9249,7 @@
         <v>30</v>
       </c>
       <c r="V102" s="0" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="W102" s="0" t="s">
         <v>32</v>
@@ -9272,10 +9260,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>27</v>
@@ -9287,7 +9275,7 @@
         <v>27</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>27</v>
@@ -9335,7 +9323,7 @@
         <v>30</v>
       </c>
       <c r="V103" s="0" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="W103" s="0" t="s">
         <v>32</v>
@@ -9346,10 +9334,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>27</v>
@@ -9361,7 +9349,7 @@
         <v>27</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>27</v>
@@ -9409,7 +9397,7 @@
         <v>30</v>
       </c>
       <c r="V104" s="0" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="W104" s="0" t="s">
         <v>32</v>
@@ -9420,10 +9408,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>27</v>
@@ -9435,7 +9423,7 @@
         <v>27</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>27</v>
@@ -9483,7 +9471,7 @@
         <v>30</v>
       </c>
       <c r="V105" s="0" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>32</v>
@@ -9494,10 +9482,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>27</v>
@@ -9509,7 +9497,7 @@
         <v>27</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>27</v>
@@ -9557,7 +9545,7 @@
         <v>30</v>
       </c>
       <c r="V106" s="0" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="W106" s="0" t="s">
         <v>32</v>
@@ -9568,10 +9556,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>27</v>
@@ -9583,7 +9571,7 @@
         <v>27</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>27</v>
@@ -9631,7 +9619,7 @@
         <v>30</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>32</v>
@@ -9642,10 +9630,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>27</v>
@@ -9657,7 +9645,7 @@
         <v>27</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>27</v>
@@ -9705,7 +9693,7 @@
         <v>30</v>
       </c>
       <c r="V108" s="0" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="W108" s="0" t="s">
         <v>32</v>
@@ -9716,10 +9704,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>27</v>
@@ -9731,7 +9719,7 @@
         <v>27</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>27</v>
@@ -9779,7 +9767,7 @@
         <v>30</v>
       </c>
       <c r="V109" s="0" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="W109" s="0" t="s">
         <v>32</v>
@@ -9790,10 +9778,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>27</v>
@@ -9805,7 +9793,7 @@
         <v>27</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>27</v>
@@ -9853,7 +9841,7 @@
         <v>30</v>
       </c>
       <c r="V110" s="0" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="W110" s="0" t="s">
         <v>32</v>
@@ -9864,10 +9852,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>27</v>
@@ -9879,7 +9867,7 @@
         <v>27</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>27</v>
@@ -9938,10 +9926,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>27</v>
@@ -9953,7 +9941,7 @@
         <v>27</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>27</v>
@@ -10012,10 +10000,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>27</v>
@@ -10027,7 +10015,7 @@
         <v>27</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>27</v>
@@ -10086,10 +10074,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>27</v>
@@ -10101,7 +10089,7 @@
         <v>27</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>27</v>
@@ -10160,10 +10148,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>27</v>
@@ -10175,7 +10163,7 @@
         <v>27</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>27</v>
@@ -10234,10 +10222,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>27</v>
@@ -10249,7 +10237,7 @@
         <v>27</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>27</v>
@@ -10308,10 +10296,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>27</v>
@@ -10323,7 +10311,7 @@
         <v>27</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>27</v>
@@ -10382,10 +10370,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>27</v>
@@ -10397,7 +10385,7 @@
         <v>27</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>27</v>
@@ -10456,10 +10444,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>27</v>
@@ -10471,7 +10459,7 @@
         <v>27</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>27</v>
@@ -10530,10 +10518,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>27</v>
@@ -10545,7 +10533,7 @@
         <v>27</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>27</v>
@@ -10604,10 +10592,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>27</v>
@@ -10619,7 +10607,7 @@
         <v>27</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>27</v>
@@ -10678,10 +10666,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>27</v>
@@ -10693,7 +10681,7 @@
         <v>27</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>27</v>
@@ -10752,10 +10740,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>27</v>
@@ -10767,7 +10755,7 @@
         <v>27</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>27</v>
@@ -10826,10 +10814,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>27</v>
@@ -10841,7 +10829,7 @@
         <v>27</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>27</v>
@@ -10900,10 +10888,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>27</v>
@@ -10915,7 +10903,7 @@
         <v>27</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>27</v>
@@ -10974,10 +10962,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>27</v>
@@ -10989,7 +10977,7 @@
         <v>27</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>27</v>
@@ -11048,10 +11036,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>27</v>
@@ -11063,7 +11051,7 @@
         <v>27</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>27</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="548">
   <si>
     <t>1兵器id</t>
   </si>
@@ -128,183 +128,189 @@
     <t>Cloth</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>00:02:40</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>100002</t>
+  </si>
+  <si>
+    <t>锦缠手</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>勇武缠手</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>02:30:00</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>杨威缠手</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Tungsten</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>00001</t>
-  </si>
-  <si>
-    <t>00:13:20</t>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>12:20:00</t>
+  </si>
+  <si>
+    <t>44400</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>无畏缠手</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>2天01:03:20</t>
+  </si>
+  <si>
+    <t>176600</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>飞鱼缠手</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>RefinedSteel</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>2天23:40:00</t>
+  </si>
+  <si>
+    <t>258000</t>
+  </si>
+  <si>
+    <t>100102</t>
+  </si>
+  <si>
+    <t>惊龙</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
   <si>
     <t>800</t>
   </si>
   <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>锦缠手</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>01:00:00</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>勇武缠手</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>02:30:00</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>杨威缠手</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Tungsten</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>12:20:00</t>
-  </si>
-  <si>
-    <t>44400</t>
-  </si>
-  <si>
-    <t>100005</t>
-  </si>
-  <si>
-    <t>无畏缠手</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>Jade</t>
-  </si>
-  <si>
-    <t>4002</t>
-  </si>
-  <si>
-    <t>2天01:03:20</t>
-  </si>
-  <si>
-    <t>176600</t>
-  </si>
-  <si>
-    <t>100101</t>
-  </si>
-  <si>
-    <t>飞鱼缠手</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>RefinedSteel</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>2天23:40:00</t>
-  </si>
-  <si>
-    <t>258000</t>
-  </si>
-  <si>
-    <t>100102</t>
-  </si>
-  <si>
-    <t>惊龙</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
     <t>670</t>
   </si>
   <si>
@@ -437,9 +443,6 @@
     <t>500</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>100202</t>
   </si>
   <si>
@@ -596,9 +599,6 @@
     <t>220</t>
   </si>
   <si>
-    <t>160</t>
-  </si>
-  <si>
     <t>2天15:00:00</t>
   </si>
   <si>
@@ -611,13 +611,13 @@
     <t>狼牙枪</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>00001002</t>
   </si>
   <si>
-    <t>00:43:20</t>
-  </si>
-  <si>
-    <t>2600</t>
+    <t>00:15:00</t>
   </si>
   <si>
     <t>101002</t>
@@ -1200,9 +1200,6 @@
   </si>
   <si>
     <t>短笛</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>105102</t>
@@ -2127,7 +2124,7 @@
         <v>69</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>29</v>
@@ -2142,27 +2139,27 @@
         <v>29</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -2174,10 +2171,10 @@
         <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>27</v>
@@ -2198,7 +2195,7 @@
         <v>36</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>68</v>
@@ -2216,27 +2213,27 @@
         <v>29</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>54</v>
@@ -2248,13 +2245,13 @@
         <v>28</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>27</v>
@@ -2263,19 +2260,19 @@
         <v>69</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>36</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>29</v>
@@ -2290,63 +2287,63 @@
         <v>29</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>48</v>
@@ -2364,30 +2361,30 @@
         <v>29</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V9" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>26</v>
@@ -2396,34 +2393,34 @@
         <v>28</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L10" s="0" t="s">
         <v>46</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>29</v>
@@ -2438,66 +2435,66 @@
         <v>29</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H11" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>119</v>
-      </c>
       <c r="J11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>48</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>29</v>
@@ -2512,30 +2509,30 @@
         <v>29</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="V11" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X11" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>54</v>
@@ -2544,10 +2541,10 @@
         <v>28</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>54</v>
@@ -2556,28 +2553,28 @@
         <v>27</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>68</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S12" s="0" t="s">
         <v>29</v>
@@ -2586,27 +2583,27 @@
         <v>29</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X12" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>54</v>
@@ -2618,34 +2615,34 @@
         <v>28</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>69</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>36</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>29</v>
@@ -2660,63 +2657,63 @@
         <v>29</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P14" s="0" t="s">
         <v>48</v>
@@ -2734,30 +2731,30 @@
         <v>29</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>44</v>
@@ -2766,34 +2763,34 @@
         <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L15" s="0" t="s">
         <v>46</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>29</v>
@@ -2808,30 +2805,30 @@
         <v>29</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>54</v>
@@ -2840,34 +2837,34 @@
         <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>48</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>29</v>
@@ -2882,30 +2879,30 @@
         <v>29</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>63</v>
@@ -2914,7 +2911,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>27</v>
@@ -2923,31 +2920,31 @@
         <v>63</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="0" t="s">
         <v>68</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>29</v>
@@ -2956,54 +2953,54 @@
         <v>29</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>57</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>67</v>
@@ -3036,39 +3033,39 @@
         <v>31</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>27</v>
@@ -3083,7 +3080,7 @@
         <v>67</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>69</v>
@@ -3110,18 +3107,18 @@
         <v>31</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>27</v>
@@ -3136,7 +3133,7 @@
         <v>56</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>27</v>
@@ -3148,34 +3145,34 @@
         <v>48</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U20" s="0" t="s">
         <v>30</v>
@@ -3184,24 +3181,24 @@
         <v>31</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>44</v>
@@ -3210,10 +3207,10 @@
         <v>28</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>26</v>
@@ -3225,22 +3222,22 @@
         <v>69</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>28</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P21" s="0" t="s">
         <v>36</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R21" s="0" t="s">
         <v>36</v>
@@ -3258,21 +3255,21 @@
         <v>31</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>63</v>
@@ -3284,10 +3281,10 @@
         <v>28</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>27</v>
@@ -3340,13 +3337,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>63</v>
@@ -3358,13 +3355,13 @@
         <v>28</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>27</v>
@@ -3373,19 +3370,19 @@
         <v>57</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>67</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>69</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="0" t="s">
         <v>29</v>
@@ -3429,7 +3426,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>66</v>
@@ -3447,13 +3444,13 @@
         <v>47</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>29</v>
@@ -3477,13 +3474,13 @@
         <v>30</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25">
@@ -3506,13 +3503,13 @@
         <v>35</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>27</v>
@@ -3527,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>29</v>
@@ -3586,7 +3583,7 @@
         <v>27</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>27</v>
@@ -3681,7 +3678,7 @@
         <v>69</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>29</v>
@@ -3696,7 +3693,7 @@
         <v>29</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V27" s="0" t="s">
         <v>31</v>
@@ -3716,7 +3713,7 @@
         <v>221</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>44</v>
@@ -3734,7 +3731,7 @@
         <v>27</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>27</v>
@@ -3752,7 +3749,7 @@
         <v>66</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P28" s="0" t="s">
         <v>48</v>
@@ -3770,7 +3767,7 @@
         <v>29</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V28" s="0" t="s">
         <v>31</v>
@@ -3790,7 +3787,7 @@
         <v>226</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>54</v>
@@ -3817,19 +3814,19 @@
         <v>69</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>36</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>29</v>
@@ -3844,16 +3841,16 @@
         <v>29</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -3864,13 +3861,13 @@
         <v>229</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>35</v>
@@ -3882,25 +3879,25 @@
         <v>27</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L30" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P30" s="0" t="s">
         <v>48</v>
@@ -3918,16 +3915,16 @@
         <v>29</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
@@ -3938,10 +3935,10 @@
         <v>232</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>26</v>
@@ -3962,22 +3959,22 @@
         <v>27</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>46</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>29</v>
@@ -3992,16 +3989,16 @@
         <v>29</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -4012,13 +4009,13 @@
         <v>235</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>35</v>
@@ -4033,25 +4030,25 @@
         <v>63</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>48</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>29</v>
@@ -4072,10 +4069,10 @@
         <v>31</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33">
@@ -4086,10 +4083,10 @@
         <v>239</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>54</v>
@@ -4104,34 +4101,34 @@
         <v>27</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P33" s="0" t="s">
         <v>68</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>29</v>
@@ -4146,10 +4143,10 @@
         <v>31</v>
       </c>
       <c r="W33" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34">
@@ -4172,7 +4169,7 @@
         <v>56</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>66</v>
@@ -4193,7 +4190,7 @@
         <v>57</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O34" s="0" t="s">
         <v>67</v>
@@ -4243,10 +4240,10 @@
         <v>27</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>27</v>
@@ -4308,7 +4305,7 @@
         <v>253</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>54</v>
@@ -4317,10 +4314,10 @@
         <v>27</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>27</v>
@@ -4382,7 +4379,7 @@
         <v>257</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>63</v>
@@ -4391,10 +4388,10 @@
         <v>26</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>27</v>
@@ -4456,19 +4453,19 @@
         <v>261</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>27</v>
@@ -4489,10 +4486,10 @@
         <v>69</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P38" s="0" t="s">
         <v>68</v>
@@ -4510,7 +4507,7 @@
         <v>29</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V38" s="0" t="s">
         <v>31</v>
@@ -4530,10 +4527,10 @@
         <v>265</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>44</v>
@@ -4604,16 +4601,16 @@
         <v>271</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>54</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>27</v>
@@ -4687,7 +4684,7 @@
         <v>27</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>27</v>
@@ -4761,7 +4758,7 @@
         <v>27</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>27</v>
@@ -4838,13 +4835,13 @@
         <v>46</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>27</v>
@@ -4856,28 +4853,28 @@
         <v>278</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>279</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U43" s="0" t="s">
         <v>30</v>
@@ -4912,46 +4909,46 @@
         <v>284</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L44" s="0" t="s">
         <v>285</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>286</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P44" s="0" t="s">
         <v>68</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R44" s="0" t="s">
         <v>36</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U44" s="0" t="s">
         <v>30</v>
@@ -4974,7 +4971,7 @@
         <v>290</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>27</v>
@@ -4986,7 +4983,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>27</v>
@@ -5001,7 +4998,7 @@
         <v>47</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M45" s="0" t="s">
         <v>57</v>
@@ -5048,16 +5045,16 @@
         <v>295</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>27</v>
@@ -5075,19 +5072,19 @@
         <v>69</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>36</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>29</v>
@@ -5102,16 +5099,16 @@
         <v>29</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V46" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W46" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X46" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47">
@@ -5122,16 +5119,16 @@
         <v>297</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E47" s="0" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>27</v>
@@ -5140,25 +5137,25 @@
         <v>27</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L47" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P47" s="0" t="s">
         <v>48</v>
@@ -5176,16 +5173,16 @@
         <v>29</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V47" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W47" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X47" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
@@ -5196,16 +5193,16 @@
         <v>299</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E48" s="0" t="s">
         <v>63</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>27</v>
@@ -5220,22 +5217,22 @@
         <v>27</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L48" s="0" t="s">
         <v>46</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>29</v>
@@ -5250,16 +5247,16 @@
         <v>29</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V48" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -5270,16 +5267,16 @@
         <v>301</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>27</v>
@@ -5294,22 +5291,22 @@
         <v>27</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N49" s="0" t="s">
         <v>48</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q49" s="0" t="s">
         <v>29</v>
@@ -5330,10 +5327,10 @@
         <v>31</v>
       </c>
       <c r="W49" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X49" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -5344,16 +5341,16 @@
         <v>304</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>27</v>
@@ -5362,34 +5359,34 @@
         <v>27</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N50" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P50" s="0" t="s">
         <v>68</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S50" s="0" t="s">
         <v>29</v>
@@ -5404,10 +5401,10 @@
         <v>31</v>
       </c>
       <c r="W50" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X50" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51">
@@ -5427,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>27</v>
@@ -5495,13 +5492,13 @@
         <v>54</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>27</v>
@@ -5525,7 +5522,7 @@
         <v>67</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>29</v>
@@ -5546,7 +5543,7 @@
         <v>29</v>
       </c>
       <c r="U52" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V52" s="0" t="s">
         <v>31</v>
@@ -5575,13 +5572,13 @@
         <v>26</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>27</v>
@@ -5593,7 +5590,7 @@
         <v>57</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M53" s="0" t="s">
         <v>67</v>
@@ -5605,7 +5602,7 @@
         <v>69</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q53" s="0" t="s">
         <v>29</v>
@@ -5620,7 +5617,7 @@
         <v>29</v>
       </c>
       <c r="U53" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V53" s="0" t="s">
         <v>31</v>
@@ -5640,7 +5637,7 @@
         <v>323</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>63</v>
@@ -5649,7 +5646,7 @@
         <v>44</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>27</v>
@@ -5673,10 +5670,10 @@
         <v>69</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P54" s="0" t="s">
         <v>48</v>
@@ -5723,7 +5720,7 @@
         <v>26</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>330</v>
@@ -5788,16 +5785,16 @@
         <v>334</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>54</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>64</v>
@@ -5815,19 +5812,19 @@
         <v>47</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>57</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>67</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>29</v>
@@ -5862,7 +5859,7 @@
         <v>338</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>63</v>
@@ -5871,10 +5868,10 @@
         <v>44</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>27</v>
@@ -5916,7 +5913,7 @@
         <v>29</v>
       </c>
       <c r="U57" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V57" s="0" t="s">
         <v>31</v>
@@ -5936,16 +5933,16 @@
         <v>342</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E58" s="0" t="s">
         <v>63</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>343</v>
@@ -5972,10 +5969,10 @@
         <v>66</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>29</v>
@@ -5990,7 +5987,7 @@
         <v>29</v>
       </c>
       <c r="U58" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V58" s="0" t="s">
         <v>31</v>
@@ -6010,19 +6007,19 @@
         <v>347</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>27</v>
@@ -6037,19 +6034,19 @@
         <v>69</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N59" s="0" t="s">
         <v>36</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>29</v>
@@ -6064,16 +6061,16 @@
         <v>29</v>
       </c>
       <c r="U59" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V59" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W59" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X59" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
@@ -6084,19 +6081,19 @@
         <v>349</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>27</v>
@@ -6108,19 +6105,19 @@
         <v>27</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L60" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P60" s="0" t="s">
         <v>48</v>
@@ -6138,16 +6135,16 @@
         <v>29</v>
       </c>
       <c r="U60" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V60" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W60" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X60" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61">
@@ -6158,19 +6155,19 @@
         <v>351</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>27</v>
@@ -6182,22 +6179,22 @@
         <v>27</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L61" s="0" t="s">
         <v>46</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>29</v>
@@ -6212,16 +6209,16 @@
         <v>29</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V61" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W61" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X61" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
@@ -6232,16 +6229,16 @@
         <v>353</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>354</v>
@@ -6256,22 +6253,22 @@
         <v>27</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N62" s="0" t="s">
         <v>48</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q62" s="0" t="s">
         <v>29</v>
@@ -6292,10 +6289,10 @@
         <v>31</v>
       </c>
       <c r="W62" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X62" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -6309,13 +6306,13 @@
         <v>358</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>359</v>
@@ -6330,28 +6327,28 @@
         <v>27</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P63" s="0" t="s">
         <v>68</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S63" s="0" t="s">
         <v>29</v>
@@ -6366,10 +6363,10 @@
         <v>31</v>
       </c>
       <c r="W63" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X63" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -6392,7 +6389,7 @@
         <v>284</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>27</v>
@@ -6531,7 +6528,7 @@
         <v>27</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>44</v>
@@ -6540,7 +6537,7 @@
         <v>284</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>27</v>
@@ -6552,22 +6549,22 @@
         <v>27</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L66" s="0" t="s">
         <v>278</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N66" s="0" t="s">
         <v>370</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>29</v>
@@ -6629,7 +6626,7 @@
         <v>47</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M67" s="0" t="s">
         <v>57</v>
@@ -6641,7 +6638,7 @@
         <v>67</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q67" s="0" t="s">
         <v>29</v>
@@ -6676,7 +6673,7 @@
         <v>379</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>63</v>
@@ -6685,7 +6682,7 @@
         <v>27</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>380</v>
@@ -6697,31 +6694,31 @@
         <v>381</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K68" s="0" t="s">
         <v>69</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N68" s="0" t="s">
         <v>46</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P68" s="0" t="s">
         <v>36</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S68" s="0" t="s">
         <v>29</v>
@@ -6753,7 +6750,7 @@
         <v>27</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>26</v>
@@ -6762,7 +6759,7 @@
         <v>28</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>27</v>
@@ -6774,31 +6771,31 @@
         <v>27</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L69" s="0" t="s">
         <v>386</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N69" s="0" t="s">
         <v>387</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P69" s="0" t="s">
         <v>28</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T69" s="0" t="s">
         <v>68</v>
@@ -6833,7 +6830,7 @@
         <v>27</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>27</v>
@@ -6851,28 +6848,28 @@
         <v>67</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N70" s="0" t="s">
         <v>278</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T70" s="0" t="s">
         <v>68</v>
@@ -6913,31 +6910,31 @@
         <v>27</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>396</v>
+        <v>199</v>
       </c>
       <c r="K71" s="0" t="s">
         <v>69</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N71" s="0" t="s">
         <v>36</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>29</v>
@@ -6952,27 +6949,27 @@
         <v>29</v>
       </c>
       <c r="U71" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="V71" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W71" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X71" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="B72" s="0" t="s">
-        <v>398</v>
-      </c>
       <c r="C72" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>27</v>
@@ -6987,28 +6984,28 @@
         <v>27</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L72" s="0" t="s">
         <v>66</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P72" s="0" t="s">
         <v>48</v>
@@ -7026,24 +7023,24 @@
         <v>29</v>
       </c>
       <c r="U72" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="V72" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W72" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X72" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>400</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>401</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>44</v>
@@ -7061,31 +7058,31 @@
         <v>27</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L73" s="0" t="s">
         <v>46</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q73" s="0" t="s">
         <v>29</v>
@@ -7100,24 +7097,24 @@
         <v>29</v>
       </c>
       <c r="U73" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V73" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W73" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="X73" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B74" s="0" t="s">
         <v>403</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>404</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>54</v>
@@ -7135,7 +7132,7 @@
         <v>27</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>27</v>
@@ -7144,22 +7141,22 @@
         <v>48</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N74" s="0" t="s">
         <v>48</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="Q74" s="0" t="s">
         <v>29</v>
@@ -7174,27 +7171,27 @@
         <v>29</v>
       </c>
       <c r="U74" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="V74" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W74" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X74" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="B75" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>407</v>
-      </c>
       <c r="C75" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>44</v>
@@ -7209,7 +7206,7 @@
         <v>27</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>27</v>
@@ -7218,28 +7215,28 @@
         <v>68</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="O75" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P75" s="0" t="s">
         <v>68</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S75" s="0" t="s">
         <v>29</v>
@@ -7248,24 +7245,24 @@
         <v>29</v>
       </c>
       <c r="U75" s="0" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="V75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B76" s="0" t="s">
         <v>409</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>410</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>27</v>
@@ -7283,7 +7280,7 @@
         <v>27</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>44</v>
@@ -7298,28 +7295,28 @@
         <v>386</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P76" s="0" t="s">
         <v>46</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="S76" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T76" s="0" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="U76" s="0" t="s">
         <v>30</v>
@@ -7328,19 +7325,19 @@
         <v>31</v>
       </c>
       <c r="W76" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="X76" s="0" t="s">
         <v>411</v>
-      </c>
-      <c r="X76" s="0" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B77" s="0" t="s">
-        <v>414</v>
-      </c>
       <c r="C77" s="0" t="s">
         <v>27</v>
       </c>
@@ -7351,10 +7348,10 @@
         <v>27</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>27</v>
@@ -7410,16 +7407,16 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>416</v>
-      </c>
       <c r="C78" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>44</v>
@@ -7428,43 +7425,43 @@
         <v>66</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="S78" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="T78" s="0" t="s">
         <v>48</v>
@@ -7476,19 +7473,19 @@
         <v>31</v>
       </c>
       <c r="W78" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="X78" s="0" t="s">
         <v>417</v>
-      </c>
-      <c r="X78" s="0" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B79" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="B79" s="0" t="s">
-        <v>420</v>
-      </c>
       <c r="C79" s="0" t="s">
         <v>27</v>
       </c>
@@ -7496,13 +7493,13 @@
         <v>27</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>27</v>
@@ -7558,10 +7555,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B80" s="0" t="s">
         <v>421</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>422</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>27</v>
@@ -7573,7 +7570,7 @@
         <v>26</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>194</v>
+        <v>41</v>
       </c>
       <c r="G80" s="0" t="s">
         <v>56</v>
@@ -7585,13 +7582,13 @@
         <v>27</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>37</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M80" s="0" t="s">
         <v>47</v>
@@ -7603,7 +7600,7 @@
         <v>249</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q80" s="0" t="s">
         <v>67</v>
@@ -7624,18 +7621,18 @@
         <v>31</v>
       </c>
       <c r="W80" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="X80" s="0" t="s">
         <v>423</v>
-      </c>
-      <c r="X80" s="0" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
+        <v>424</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>425</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>426</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>27</v>
@@ -7650,7 +7647,7 @@
         <v>28</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>27</v>
@@ -7706,10 +7703,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>428</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>429</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>27</v>
@@ -7724,7 +7721,7 @@
         <v>35</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>27</v>
@@ -7745,7 +7742,7 @@
         <v>67</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O82" s="0" t="s">
         <v>29</v>
@@ -7772,18 +7769,18 @@
         <v>31</v>
       </c>
       <c r="W82" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="X82" s="0" t="s">
         <v>430</v>
-      </c>
-      <c r="X82" s="0" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>432</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>433</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>63</v>
@@ -7798,7 +7795,7 @@
         <v>370</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>27</v>
@@ -7854,10 +7851,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B84" s="0" t="s">
         <v>434</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>435</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>27</v>
@@ -7872,7 +7869,7 @@
         <v>28</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>27</v>
@@ -7881,7 +7878,7 @@
         <v>27</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K84" s="0" t="s">
         <v>67</v>
@@ -7893,10 +7890,10 @@
         <v>69</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P84" s="0" t="s">
         <v>210</v>
@@ -7920,19 +7917,19 @@
         <v>31</v>
       </c>
       <c r="W84" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="X84" s="0" t="s">
         <v>436</v>
-      </c>
-      <c r="X84" s="0" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>439</v>
-      </c>
       <c r="C85" s="0" t="s">
         <v>27</v>
       </c>
@@ -7943,7 +7940,7 @@
         <v>27</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>27</v>
@@ -8002,11 +7999,11 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>441</v>
-      </c>
       <c r="C86" s="0" t="s">
         <v>27</v>
       </c>
@@ -8017,7 +8014,7 @@
         <v>27</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>27</v>
@@ -8065,7 +8062,7 @@
         <v>30</v>
       </c>
       <c r="V86" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="W86" s="0" t="s">
         <v>32</v>
@@ -8076,11 +8073,11 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>444</v>
-      </c>
       <c r="C87" s="0" t="s">
         <v>27</v>
       </c>
@@ -8091,7 +8088,7 @@
         <v>27</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>27</v>
@@ -8139,7 +8136,7 @@
         <v>30</v>
       </c>
       <c r="V87" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="W87" s="0" t="s">
         <v>32</v>
@@ -8150,11 +8147,11 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="B88" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B88" s="0" t="s">
-        <v>447</v>
-      </c>
       <c r="C88" s="0" t="s">
         <v>27</v>
       </c>
@@ -8165,7 +8162,7 @@
         <v>27</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>27</v>
@@ -8213,7 +8210,7 @@
         <v>30</v>
       </c>
       <c r="V88" s="0" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="W88" s="0" t="s">
         <v>32</v>
@@ -8224,11 +8221,11 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B89" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B89" s="0" t="s">
-        <v>450</v>
-      </c>
       <c r="C89" s="0" t="s">
         <v>27</v>
       </c>
@@ -8239,7 +8236,7 @@
         <v>27</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>27</v>
@@ -8287,7 +8284,7 @@
         <v>30</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="W89" s="0" t="s">
         <v>32</v>
@@ -8298,11 +8295,11 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="B90" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B90" s="0" t="s">
-        <v>453</v>
-      </c>
       <c r="C90" s="0" t="s">
         <v>27</v>
       </c>
@@ -8313,7 +8310,7 @@
         <v>27</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>27</v>
@@ -8361,7 +8358,7 @@
         <v>30</v>
       </c>
       <c r="V90" s="0" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W90" s="0" t="s">
         <v>32</v>
@@ -8372,11 +8369,11 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>456</v>
-      </c>
       <c r="C91" s="0" t="s">
         <v>27</v>
       </c>
@@ -8387,7 +8384,7 @@
         <v>27</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>27</v>
@@ -8435,7 +8432,7 @@
         <v>30</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W91" s="0" t="s">
         <v>32</v>
@@ -8446,11 +8443,11 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B92" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>459</v>
-      </c>
       <c r="C92" s="0" t="s">
         <v>27</v>
       </c>
@@ -8461,7 +8458,7 @@
         <v>27</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>27</v>
@@ -8509,7 +8506,7 @@
         <v>30</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="W92" s="0" t="s">
         <v>32</v>
@@ -8520,11 +8517,11 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>462</v>
-      </c>
       <c r="C93" s="0" t="s">
         <v>27</v>
       </c>
@@ -8535,7 +8532,7 @@
         <v>27</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>27</v>
@@ -8583,7 +8580,7 @@
         <v>30</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>32</v>
@@ -8594,11 +8591,11 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="B94" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="B94" s="0" t="s">
-        <v>465</v>
-      </c>
       <c r="C94" s="0" t="s">
         <v>27</v>
       </c>
@@ -8609,7 +8606,7 @@
         <v>27</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>27</v>
@@ -8657,7 +8654,7 @@
         <v>30</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="W94" s="0" t="s">
         <v>32</v>
@@ -8668,11 +8665,11 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B95" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="B95" s="0" t="s">
-        <v>468</v>
-      </c>
       <c r="C95" s="0" t="s">
         <v>27</v>
       </c>
@@ -8683,7 +8680,7 @@
         <v>27</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>27</v>
@@ -8731,7 +8728,7 @@
         <v>30</v>
       </c>
       <c r="V95" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W95" s="0" t="s">
         <v>32</v>
@@ -8742,11 +8739,11 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="B96" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="B96" s="0" t="s">
-        <v>471</v>
-      </c>
       <c r="C96" s="0" t="s">
         <v>27</v>
       </c>
@@ -8757,7 +8754,7 @@
         <v>27</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>27</v>
@@ -8805,7 +8802,7 @@
         <v>30</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>32</v>
@@ -8816,11 +8813,11 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B97" s="0" t="s">
         <v>473</v>
       </c>
-      <c r="B97" s="0" t="s">
-        <v>474</v>
-      </c>
       <c r="C97" s="0" t="s">
         <v>27</v>
       </c>
@@ -8831,7 +8828,7 @@
         <v>27</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>27</v>
@@ -8879,7 +8876,7 @@
         <v>30</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>32</v>
@@ -8890,11 +8887,11 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="B98" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="B98" s="0" t="s">
-        <v>477</v>
-      </c>
       <c r="C98" s="0" t="s">
         <v>27</v>
       </c>
@@ -8905,7 +8902,7 @@
         <v>27</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>27</v>
@@ -8953,7 +8950,7 @@
         <v>30</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>32</v>
@@ -8964,11 +8961,11 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
+        <v>478</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>479</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>480</v>
-      </c>
       <c r="C99" s="0" t="s">
         <v>27</v>
       </c>
@@ -8979,7 +8976,7 @@
         <v>27</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>27</v>
@@ -9027,7 +9024,7 @@
         <v>30</v>
       </c>
       <c r="V99" s="0" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>32</v>
@@ -9038,11 +9035,11 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
+        <v>481</v>
+      </c>
+      <c r="B100" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="B100" s="0" t="s">
-        <v>483</v>
-      </c>
       <c r="C100" s="0" t="s">
         <v>27</v>
       </c>
@@ -9053,7 +9050,7 @@
         <v>27</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>27</v>
@@ -9101,7 +9098,7 @@
         <v>30</v>
       </c>
       <c r="V100" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>32</v>
@@ -9112,11 +9109,11 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="B101" s="0" t="s">
         <v>485</v>
       </c>
-      <c r="B101" s="0" t="s">
-        <v>486</v>
-      </c>
       <c r="C101" s="0" t="s">
         <v>27</v>
       </c>
@@ -9127,7 +9124,7 @@
         <v>27</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>27</v>
@@ -9175,7 +9172,7 @@
         <v>30</v>
       </c>
       <c r="V101" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W101" s="0" t="s">
         <v>32</v>
@@ -9186,11 +9183,11 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
+        <v>487</v>
+      </c>
+      <c r="B102" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>489</v>
-      </c>
       <c r="C102" s="0" t="s">
         <v>27</v>
       </c>
@@ -9201,7 +9198,7 @@
         <v>27</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>27</v>
@@ -9249,7 +9246,7 @@
         <v>30</v>
       </c>
       <c r="V102" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W102" s="0" t="s">
         <v>32</v>
@@ -9260,11 +9257,11 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
+        <v>490</v>
+      </c>
+      <c r="B103" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="B103" s="0" t="s">
-        <v>492</v>
-      </c>
       <c r="C103" s="0" t="s">
         <v>27</v>
       </c>
@@ -9275,7 +9272,7 @@
         <v>27</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>27</v>
@@ -9323,7 +9320,7 @@
         <v>30</v>
       </c>
       <c r="V103" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W103" s="0" t="s">
         <v>32</v>
@@ -9334,11 +9331,11 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="B104" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="B104" s="0" t="s">
-        <v>495</v>
-      </c>
       <c r="C104" s="0" t="s">
         <v>27</v>
       </c>
@@ -9349,7 +9346,7 @@
         <v>27</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>27</v>
@@ -9397,7 +9394,7 @@
         <v>30</v>
       </c>
       <c r="V104" s="0" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W104" s="0" t="s">
         <v>32</v>
@@ -9408,11 +9405,11 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B105" s="0" t="s">
         <v>497</v>
       </c>
-      <c r="B105" s="0" t="s">
-        <v>498</v>
-      </c>
       <c r="C105" s="0" t="s">
         <v>27</v>
       </c>
@@ -9423,7 +9420,7 @@
         <v>27</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>27</v>
@@ -9471,7 +9468,7 @@
         <v>30</v>
       </c>
       <c r="V105" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>32</v>
@@ -9482,11 +9479,11 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B106" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="B106" s="0" t="s">
-        <v>501</v>
-      </c>
       <c r="C106" s="0" t="s">
         <v>27</v>
       </c>
@@ -9497,7 +9494,7 @@
         <v>27</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>27</v>
@@ -9545,7 +9542,7 @@
         <v>30</v>
       </c>
       <c r="V106" s="0" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W106" s="0" t="s">
         <v>32</v>
@@ -9556,11 +9553,11 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="B107" s="0" t="s">
         <v>503</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>504</v>
-      </c>
       <c r="C107" s="0" t="s">
         <v>27</v>
       </c>
@@ -9571,7 +9568,7 @@
         <v>27</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>27</v>
@@ -9619,7 +9616,7 @@
         <v>30</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>32</v>
@@ -9630,11 +9627,11 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="B108" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>507</v>
-      </c>
       <c r="C108" s="0" t="s">
         <v>27</v>
       </c>
@@ -9645,7 +9642,7 @@
         <v>27</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>27</v>
@@ -9693,7 +9690,7 @@
         <v>30</v>
       </c>
       <c r="V108" s="0" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="W108" s="0" t="s">
         <v>32</v>
@@ -9704,11 +9701,11 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B109" s="0" t="s">
         <v>509</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>510</v>
-      </c>
       <c r="C109" s="0" t="s">
         <v>27</v>
       </c>
@@ -9719,7 +9716,7 @@
         <v>27</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>27</v>
@@ -9767,7 +9764,7 @@
         <v>30</v>
       </c>
       <c r="V109" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="W109" s="0" t="s">
         <v>32</v>
@@ -9778,11 +9775,11 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
+        <v>511</v>
+      </c>
+      <c r="B110" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>513</v>
-      </c>
       <c r="C110" s="0" t="s">
         <v>27</v>
       </c>
@@ -9793,7 +9790,7 @@
         <v>27</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>27</v>
@@ -9841,7 +9838,7 @@
         <v>30</v>
       </c>
       <c r="V110" s="0" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="W110" s="0" t="s">
         <v>32</v>
@@ -9852,11 +9849,11 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="B111" s="0" t="s">
         <v>515</v>
       </c>
-      <c r="B111" s="0" t="s">
-        <v>516</v>
-      </c>
       <c r="C111" s="0" t="s">
         <v>27</v>
       </c>
@@ -9867,7 +9864,7 @@
         <v>27</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>27</v>
@@ -9926,11 +9923,11 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
+        <v>516</v>
+      </c>
+      <c r="B112" s="0" t="s">
         <v>517</v>
       </c>
-      <c r="B112" s="0" t="s">
-        <v>518</v>
-      </c>
       <c r="C112" s="0" t="s">
         <v>27</v>
       </c>
@@ -9941,7 +9938,7 @@
         <v>27</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>27</v>
@@ -10000,11 +9997,11 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B113" s="0" t="s">
         <v>519</v>
       </c>
-      <c r="B113" s="0" t="s">
-        <v>520</v>
-      </c>
       <c r="C113" s="0" t="s">
         <v>27</v>
       </c>
@@ -10015,7 +10012,7 @@
         <v>27</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>27</v>
@@ -10074,11 +10071,11 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B114" s="0" t="s">
         <v>521</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>522</v>
-      </c>
       <c r="C114" s="0" t="s">
         <v>27</v>
       </c>
@@ -10089,7 +10086,7 @@
         <v>27</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>27</v>
@@ -10148,11 +10145,11 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="B115" s="0" t="s">
         <v>523</v>
       </c>
-      <c r="B115" s="0" t="s">
-        <v>524</v>
-      </c>
       <c r="C115" s="0" t="s">
         <v>27</v>
       </c>
@@ -10163,7 +10160,7 @@
         <v>27</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>27</v>
@@ -10222,11 +10219,11 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B116" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="C116" s="0" t="s">
         <v>27</v>
       </c>
@@ -10237,7 +10234,7 @@
         <v>27</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>27</v>
@@ -10296,11 +10293,11 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B117" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>528</v>
-      </c>
       <c r="C117" s="0" t="s">
         <v>27</v>
       </c>
@@ -10311,7 +10308,7 @@
         <v>27</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>27</v>
@@ -10370,11 +10367,11 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
+        <v>528</v>
+      </c>
+      <c r="B118" s="0" t="s">
         <v>529</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>530</v>
-      </c>
       <c r="C118" s="0" t="s">
         <v>27</v>
       </c>
@@ -10385,7 +10382,7 @@
         <v>27</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>27</v>
@@ -10444,11 +10441,11 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
+        <v>530</v>
+      </c>
+      <c r="B119" s="0" t="s">
         <v>531</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>532</v>
-      </c>
       <c r="C119" s="0" t="s">
         <v>27</v>
       </c>
@@ -10459,7 +10456,7 @@
         <v>27</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>27</v>
@@ -10518,11 +10515,11 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B120" s="0" t="s">
         <v>533</v>
       </c>
-      <c r="B120" s="0" t="s">
-        <v>534</v>
-      </c>
       <c r="C120" s="0" t="s">
         <v>27</v>
       </c>
@@ -10533,7 +10530,7 @@
         <v>27</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>27</v>
@@ -10592,11 +10589,11 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
+        <v>534</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>535</v>
       </c>
-      <c r="B121" s="0" t="s">
-        <v>536</v>
-      </c>
       <c r="C121" s="0" t="s">
         <v>27</v>
       </c>
@@ -10607,7 +10604,7 @@
         <v>27</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>27</v>
@@ -10666,11 +10663,11 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B122" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="B122" s="0" t="s">
-        <v>538</v>
-      </c>
       <c r="C122" s="0" t="s">
         <v>27</v>
       </c>
@@ -10681,7 +10678,7 @@
         <v>27</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>27</v>
@@ -10740,11 +10737,11 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>539</v>
       </c>
-      <c r="B123" s="0" t="s">
-        <v>540</v>
-      </c>
       <c r="C123" s="0" t="s">
         <v>27</v>
       </c>
@@ -10755,7 +10752,7 @@
         <v>27</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>27</v>
@@ -10814,11 +10811,11 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
+        <v>540</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>541</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>542</v>
-      </c>
       <c r="C124" s="0" t="s">
         <v>27</v>
       </c>
@@ -10829,7 +10826,7 @@
         <v>27</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>27</v>
@@ -10888,11 +10885,11 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B125" s="0" t="s">
         <v>543</v>
       </c>
-      <c r="B125" s="0" t="s">
-        <v>544</v>
-      </c>
       <c r="C125" s="0" t="s">
         <v>27</v>
       </c>
@@ -10903,7 +10900,7 @@
         <v>27</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>27</v>
@@ -10962,11 +10959,11 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B126" s="0" t="s">
         <v>545</v>
       </c>
-      <c r="B126" s="0" t="s">
-        <v>546</v>
-      </c>
       <c r="C126" s="0" t="s">
         <v>27</v>
       </c>
@@ -10977,7 +10974,7 @@
         <v>27</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>27</v>
@@ -11036,11 +11033,11 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="B127" s="0" t="s">
         <v>547</v>
       </c>
-      <c r="B127" s="0" t="s">
-        <v>548</v>
-      </c>
       <c r="C127" s="0" t="s">
         <v>27</v>
       </c>
@@ -11051,7 +11048,7 @@
         <v>27</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>27</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620"/>
   </bookViews>
   <sheets>
     <sheet name="兵器数值" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3046" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="547">
   <si>
     <t>1兵器id</t>
   </si>
@@ -758,13 +758,10 @@
     <t>大杆秤</t>
   </si>
   <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>13:26:40</t>
-  </si>
-  <si>
-    <t>48400</t>
+    <t>03:55:00</t>
+  </si>
+  <si>
+    <t>14100</t>
   </si>
   <si>
     <t>102001</t>
@@ -830,84 +827,84 @@
     <t>0002001</t>
   </si>
   <si>
+    <t>00:33:40</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>102102</t>
+  </si>
+  <si>
+    <t>金刚剑</t>
+  </si>
+  <si>
+    <t>102103</t>
+  </si>
+  <si>
+    <t>龙泉宝剑</t>
+  </si>
+  <si>
+    <t>102104</t>
+  </si>
+  <si>
+    <t>全真七子剑</t>
+  </si>
+  <si>
+    <t>102105</t>
+  </si>
+  <si>
+    <t>玄铁重剑</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>185天23:03:20</t>
+  </si>
+  <si>
+    <t>16067000</t>
+  </si>
+  <si>
+    <t>102106</t>
+  </si>
+  <si>
+    <t>淑女剑</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>189天14:38:20</t>
+  </si>
+  <si>
+    <t>16382300</t>
+  </si>
+  <si>
+    <t>102107</t>
+  </si>
+  <si>
+    <t>越女剑</t>
+  </si>
+  <si>
+    <t>01001006</t>
+  </si>
+  <si>
     <t>04:31:40</t>
   </si>
   <si>
     <t>16300</t>
   </si>
   <si>
-    <t>102102</t>
-  </si>
-  <si>
-    <t>金刚剑</t>
-  </si>
-  <si>
-    <t>102103</t>
-  </si>
-  <si>
-    <t>龙泉宝剑</t>
-  </si>
-  <si>
-    <t>102104</t>
-  </si>
-  <si>
-    <t>全真七子剑</t>
-  </si>
-  <si>
-    <t>102105</t>
-  </si>
-  <si>
-    <t>玄铁重剑</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>185天23:03:20</t>
-  </si>
-  <si>
-    <t>16067000</t>
-  </si>
-  <si>
-    <t>102106</t>
-  </si>
-  <si>
-    <t>淑女剑</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>189天14:38:20</t>
-  </si>
-  <si>
-    <t>16382300</t>
-  </si>
-  <si>
-    <t>102107</t>
-  </si>
-  <si>
-    <t>越女剑</t>
-  </si>
-  <si>
-    <t>01001006</t>
-  </si>
-  <si>
-    <t>12:10:00</t>
-  </si>
-  <si>
-    <t>43800</t>
-  </si>
-  <si>
     <t>102201</t>
   </si>
   <si>
@@ -1115,10 +1112,10 @@
     <t>纯钢扁担</t>
   </si>
   <si>
-    <t>16:06:40</t>
-  </si>
-  <si>
-    <t>58000</t>
+    <t>04:50:00</t>
+  </si>
+  <si>
+    <t>17400</t>
   </si>
   <si>
     <t>104202</t>
@@ -1154,10 +1151,10 @@
     <t>350</t>
   </si>
   <si>
-    <t>12:41:40</t>
-  </si>
-  <si>
-    <t>45700</t>
+    <t>05:15:00</t>
+  </si>
+  <si>
+    <t>18900</t>
   </si>
   <si>
     <t>104205</t>
@@ -1292,10 +1289,10 @@
     <t>金龙软鞭</t>
   </si>
   <si>
-    <t>14:51:40</t>
-  </si>
-  <si>
-    <t>53500</t>
+    <t>04:18:20</t>
+  </si>
+  <si>
+    <t>15500</t>
   </si>
   <si>
     <t>106005</t>
@@ -1313,10 +1310,10 @@
     <t>铁骨扇</t>
   </si>
   <si>
-    <t>11:18:20</t>
-  </si>
-  <si>
-    <t>40700</t>
+    <t>04:21:40</t>
+  </si>
+  <si>
+    <t>15700</t>
   </si>
   <si>
     <t>106007</t>
@@ -1985,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4468,19 +4465,19 @@
         <v>47</v>
       </c>
       <c r="L34" t="s">
-        <v>244</v>
+        <v>46</v>
       </c>
       <c r="M34" t="s">
         <v>57</v>
       </c>
       <c r="N34" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="O34" t="s">
         <v>67</v>
       </c>
       <c r="P34" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Q34" t="s">
         <v>29</v>
@@ -4501,18 +4498,18 @@
         <v>31</v>
       </c>
       <c r="W34" t="s">
+        <v>244</v>
+      </c>
+      <c r="X34" t="s">
         <v>245</v>
-      </c>
-      <c r="X34" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" t="s">
         <v>247</v>
-      </c>
-      <c r="B35" t="s">
-        <v>248</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -4545,7 +4542,7 @@
         <v>36</v>
       </c>
       <c r="M35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N35" t="s">
         <v>48</v>
@@ -4575,18 +4572,18 @@
         <v>31</v>
       </c>
       <c r="W35" t="s">
+        <v>249</v>
+      </c>
+      <c r="X35" t="s">
         <v>250</v>
-      </c>
-      <c r="X35" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" t="s">
         <v>252</v>
-      </c>
-      <c r="B36" t="s">
-        <v>253</v>
       </c>
       <c r="C36" t="s">
         <v>109</v>
@@ -4613,7 +4610,7 @@
         <v>27</v>
       </c>
       <c r="K36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L36" t="s">
         <v>210</v>
@@ -4649,18 +4646,18 @@
         <v>31</v>
       </c>
       <c r="W36" t="s">
+        <v>253</v>
+      </c>
+      <c r="X36" t="s">
         <v>254</v>
-      </c>
-      <c r="X36" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" t="s">
         <v>256</v>
-      </c>
-      <c r="B37" t="s">
-        <v>257</v>
       </c>
       <c r="C37" t="s">
         <v>76</v>
@@ -4687,7 +4684,7 @@
         <v>27</v>
       </c>
       <c r="K37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L37" t="s">
         <v>46</v>
@@ -4723,18 +4720,18 @@
         <v>31</v>
       </c>
       <c r="W37" t="s">
+        <v>257</v>
+      </c>
+      <c r="X37" t="s">
         <v>258</v>
-      </c>
-      <c r="X37" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" t="s">
         <v>260</v>
-      </c>
-      <c r="B38" t="s">
-        <v>261</v>
       </c>
       <c r="C38" t="s">
         <v>85</v>
@@ -4797,18 +4794,18 @@
         <v>31</v>
       </c>
       <c r="W38" t="s">
+        <v>261</v>
+      </c>
+      <c r="X38" t="s">
         <v>262</v>
-      </c>
-      <c r="X38" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>263</v>
+      </c>
+      <c r="B39" t="s">
         <v>264</v>
-      </c>
-      <c r="B39" t="s">
-        <v>265</v>
       </c>
       <c r="C39" t="s">
         <v>96</v>
@@ -4820,7 +4817,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G39" t="s">
         <v>27</v>
@@ -4837,14 +4834,14 @@
       <c r="K39" t="s">
         <v>57</v>
       </c>
-      <c r="L39">
-        <v>20</v>
+      <c r="L39" t="s">
+        <v>70</v>
       </c>
       <c r="M39" t="s">
-        <v>249</v>
-      </c>
-      <c r="N39">
-        <v>10</v>
+        <v>248</v>
+      </c>
+      <c r="N39" t="s">
+        <v>24</v>
       </c>
       <c r="O39" t="s">
         <v>29</v>
@@ -4868,21 +4865,21 @@
         <v>30</v>
       </c>
       <c r="V39" t="s">
+        <v>266</v>
+      </c>
+      <c r="W39" t="s">
         <v>267</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>268</v>
-      </c>
-      <c r="X39" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" t="s">
         <v>270</v>
-      </c>
-      <c r="B40" t="s">
-        <v>271</v>
       </c>
       <c r="C40" t="s">
         <v>108</v>
@@ -4953,10 +4950,10 @@
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>271</v>
+      </c>
+      <c r="B41" t="s">
         <v>272</v>
-      </c>
-      <c r="B41" t="s">
-        <v>273</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
@@ -5027,10 +5024,10 @@
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>273</v>
+      </c>
+      <c r="B42" t="s">
         <v>274</v>
-      </c>
-      <c r="B42" t="s">
-        <v>275</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -5101,10 +5098,10 @@
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" t="s">
         <v>276</v>
-      </c>
-      <c r="B43" t="s">
-        <v>277</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -5134,13 +5131,13 @@
         <v>69</v>
       </c>
       <c r="L43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M43" t="s">
         <v>102</v>
       </c>
       <c r="N43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O43" t="s">
         <v>113</v>
@@ -5167,18 +5164,18 @@
         <v>31</v>
       </c>
       <c r="W43" t="s">
+        <v>279</v>
+      </c>
+      <c r="X43" t="s">
         <v>280</v>
-      </c>
-      <c r="X43" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" t="s">
         <v>282</v>
-      </c>
-      <c r="B44" t="s">
-        <v>283</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -5190,7 +5187,7 @@
         <v>27</v>
       </c>
       <c r="F44" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G44" t="s">
         <v>172</v>
@@ -5208,13 +5205,13 @@
         <v>79</v>
       </c>
       <c r="L44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M44" t="s">
         <v>102</v>
       </c>
       <c r="N44" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O44" t="s">
         <v>113</v>
@@ -5241,18 +5238,18 @@
         <v>31</v>
       </c>
       <c r="W44" t="s">
+        <v>286</v>
+      </c>
+      <c r="X44" t="s">
         <v>287</v>
-      </c>
-      <c r="X44" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>288</v>
+      </c>
+      <c r="B45" t="s">
         <v>289</v>
-      </c>
-      <c r="B45" t="s">
-        <v>290</v>
       </c>
       <c r="C45" t="s">
         <v>96</v>
@@ -5288,13 +5285,13 @@
         <v>57</v>
       </c>
       <c r="N45" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="O45" t="s">
         <v>67</v>
       </c>
       <c r="P45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q45" t="s">
         <v>29</v>
@@ -5312,21 +5309,21 @@
         <v>30</v>
       </c>
       <c r="V45" t="s">
+        <v>290</v>
+      </c>
+      <c r="W45" t="s">
         <v>291</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>292</v>
-      </c>
-      <c r="X45" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" t="s">
         <v>294</v>
-      </c>
-      <c r="B46" t="s">
-        <v>295</v>
       </c>
       <c r="C46" t="s">
         <v>96</v>
@@ -5397,10 +5394,10 @@
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" t="s">
         <v>296</v>
-      </c>
-      <c r="B47" t="s">
-        <v>297</v>
       </c>
       <c r="C47" t="s">
         <v>108</v>
@@ -5471,10 +5468,10 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" t="s">
         <v>298</v>
-      </c>
-      <c r="B48" t="s">
-        <v>299</v>
       </c>
       <c r="C48" t="s">
         <v>120</v>
@@ -5545,10 +5542,10 @@
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" t="s">
         <v>300</v>
-      </c>
-      <c r="B49" t="s">
-        <v>301</v>
       </c>
       <c r="C49" t="s">
         <v>131</v>
@@ -5605,7 +5602,7 @@
         <v>29</v>
       </c>
       <c r="U49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V49" t="s">
         <v>31</v>
@@ -5619,10 +5616,10 @@
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" t="s">
         <v>303</v>
-      </c>
-      <c r="B50" t="s">
-        <v>304</v>
       </c>
       <c r="C50" t="s">
         <v>171</v>
@@ -5679,7 +5676,7 @@
         <v>29</v>
       </c>
       <c r="U50" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="V50" t="s">
         <v>31</v>
@@ -5693,10 +5690,10 @@
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>305</v>
+      </c>
+      <c r="B51" t="s">
         <v>306</v>
-      </c>
-      <c r="B51" t="s">
-        <v>307</v>
       </c>
       <c r="C51" t="s">
         <v>44</v>
@@ -5720,7 +5717,7 @@
         <v>27</v>
       </c>
       <c r="J51" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K51" t="s">
         <v>47</v>
@@ -5759,18 +5756,18 @@
         <v>31</v>
       </c>
       <c r="W51" t="s">
+        <v>308</v>
+      </c>
+      <c r="X51" t="s">
         <v>309</v>
-      </c>
-      <c r="X51" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>310</v>
+      </c>
+      <c r="B52" t="s">
         <v>311</v>
-      </c>
-      <c r="B52" t="s">
-        <v>312</v>
       </c>
       <c r="C52" t="s">
         <v>54</v>
@@ -5788,13 +5785,13 @@
         <v>27</v>
       </c>
       <c r="H52" t="s">
+        <v>312</v>
+      </c>
+      <c r="I52" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" t="s">
         <v>313</v>
-      </c>
-      <c r="I52" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" t="s">
-        <v>314</v>
       </c>
       <c r="K52" t="s">
         <v>57</v>
@@ -5833,18 +5830,18 @@
         <v>31</v>
       </c>
       <c r="W52" t="s">
+        <v>314</v>
+      </c>
+      <c r="X52" t="s">
         <v>315</v>
-      </c>
-      <c r="X52" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>316</v>
+      </c>
+      <c r="B53" t="s">
         <v>317</v>
-      </c>
-      <c r="B53" t="s">
-        <v>318</v>
       </c>
       <c r="C53" t="s">
         <v>63</v>
@@ -5868,7 +5865,7 @@
         <v>27</v>
       </c>
       <c r="J53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K53" t="s">
         <v>57</v>
@@ -5907,18 +5904,18 @@
         <v>31</v>
       </c>
       <c r="W53" t="s">
+        <v>319</v>
+      </c>
+      <c r="X53" t="s">
         <v>320</v>
-      </c>
-      <c r="X53" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>321</v>
+      </c>
+      <c r="B54" t="s">
         <v>322</v>
-      </c>
-      <c r="B54" t="s">
-        <v>323</v>
       </c>
       <c r="C54" t="s">
         <v>76</v>
@@ -5936,13 +5933,13 @@
         <v>27</v>
       </c>
       <c r="H54" t="s">
+        <v>323</v>
+      </c>
+      <c r="I54" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" t="s">
         <v>324</v>
-      </c>
-      <c r="I54" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" t="s">
-        <v>325</v>
       </c>
       <c r="K54" t="s">
         <v>67</v>
@@ -5981,18 +5978,18 @@
         <v>31</v>
       </c>
       <c r="W54" t="s">
+        <v>325</v>
+      </c>
+      <c r="X54" t="s">
         <v>326</v>
-      </c>
-      <c r="X54" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" t="s">
         <v>328</v>
-      </c>
-      <c r="B55" t="s">
-        <v>329</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -6007,7 +6004,7 @@
         <v>180</v>
       </c>
       <c r="G55" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H55" t="s">
         <v>27</v>
@@ -6055,18 +6052,18 @@
         <v>31</v>
       </c>
       <c r="W55" t="s">
+        <v>330</v>
+      </c>
+      <c r="X55" t="s">
         <v>331</v>
-      </c>
-      <c r="X55" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>332</v>
+      </c>
+      <c r="B56" t="s">
         <v>333</v>
-      </c>
-      <c r="B56" t="s">
-        <v>334</v>
       </c>
       <c r="C56" t="s">
         <v>109</v>
@@ -6129,18 +6126,18 @@
         <v>31</v>
       </c>
       <c r="W56" t="s">
+        <v>334</v>
+      </c>
+      <c r="X56" t="s">
         <v>335</v>
-      </c>
-      <c r="X56" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B57" t="s">
         <v>337</v>
-      </c>
-      <c r="B57" t="s">
-        <v>338</v>
       </c>
       <c r="C57" t="s">
         <v>76</v>
@@ -6203,18 +6200,18 @@
         <v>31</v>
       </c>
       <c r="W57" t="s">
+        <v>338</v>
+      </c>
+      <c r="X57" t="s">
         <v>339</v>
-      </c>
-      <c r="X57" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>340</v>
+      </c>
+      <c r="B58" t="s">
         <v>341</v>
-      </c>
-      <c r="B58" t="s">
-        <v>342</v>
       </c>
       <c r="C58" t="s">
         <v>96</v>
@@ -6229,7 +6226,7 @@
         <v>180</v>
       </c>
       <c r="G58" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H58" t="s">
         <v>27</v>
@@ -6277,18 +6274,18 @@
         <v>31</v>
       </c>
       <c r="W58" t="s">
+        <v>343</v>
+      </c>
+      <c r="X58" t="s">
         <v>344</v>
-      </c>
-      <c r="X58" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" t="s">
         <v>346</v>
-      </c>
-      <c r="B59" t="s">
-        <v>347</v>
       </c>
       <c r="C59" t="s">
         <v>108</v>
@@ -6359,10 +6356,10 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>347</v>
+      </c>
+      <c r="B60" t="s">
         <v>348</v>
-      </c>
-      <c r="B60" t="s">
-        <v>349</v>
       </c>
       <c r="C60" t="s">
         <v>120</v>
@@ -6433,10 +6430,10 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" t="s">
         <v>350</v>
-      </c>
-      <c r="B61" t="s">
-        <v>351</v>
       </c>
       <c r="C61" t="s">
         <v>131</v>
@@ -6507,10 +6504,10 @@
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>351</v>
+      </c>
+      <c r="B62" t="s">
         <v>352</v>
-      </c>
-      <c r="B62" t="s">
-        <v>353</v>
       </c>
       <c r="C62" t="s">
         <v>171</v>
@@ -6525,7 +6522,7 @@
         <v>180</v>
       </c>
       <c r="G62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H62" t="s">
         <v>27</v>
@@ -6567,7 +6564,7 @@
         <v>29</v>
       </c>
       <c r="U62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V62" t="s">
         <v>31</v>
@@ -6581,13 +6578,13 @@
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" t="s">
         <v>356</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>357</v>
-      </c>
-      <c r="C63" t="s">
-        <v>358</v>
       </c>
       <c r="D63" t="s">
         <v>131</v>
@@ -6599,7 +6596,7 @@
         <v>180</v>
       </c>
       <c r="G63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H63" t="s">
         <v>27</v>
@@ -6641,7 +6638,7 @@
         <v>29</v>
       </c>
       <c r="U63" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V63" t="s">
         <v>31</v>
@@ -6655,10 +6652,10 @@
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>360</v>
+      </c>
+      <c r="B64" t="s">
         <v>361</v>
-      </c>
-      <c r="B64" t="s">
-        <v>362</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -6670,7 +6667,7 @@
         <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G64" t="s">
         <v>173</v>
@@ -6688,7 +6685,7 @@
         <v>67</v>
       </c>
       <c r="L64" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M64" t="s">
         <v>29</v>
@@ -6721,18 +6718,18 @@
         <v>31</v>
       </c>
       <c r="W64" t="s">
+        <v>362</v>
+      </c>
+      <c r="X64" t="s">
         <v>363</v>
-      </c>
-      <c r="X64" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>364</v>
+      </c>
+      <c r="B65" t="s">
         <v>365</v>
-      </c>
-      <c r="B65" t="s">
-        <v>366</v>
       </c>
       <c r="C65" t="s">
         <v>63</v>
@@ -6747,7 +6744,7 @@
         <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H65" t="s">
         <v>27</v>
@@ -6803,10 +6800,10 @@
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>367</v>
+      </c>
+      <c r="B66" t="s">
         <v>368</v>
-      </c>
-      <c r="B66" t="s">
-        <v>369</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -6818,7 +6815,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G66" t="s">
         <v>110</v>
@@ -6836,13 +6833,13 @@
         <v>90</v>
       </c>
       <c r="L66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M66" t="s">
         <v>102</v>
       </c>
       <c r="N66" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O66" t="s">
         <v>113</v>
@@ -6869,18 +6866,18 @@
         <v>31</v>
       </c>
       <c r="W66" t="s">
+        <v>370</v>
+      </c>
+      <c r="X66" t="s">
         <v>371</v>
-      </c>
-      <c r="X66" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>372</v>
+      </c>
+      <c r="B67" t="s">
         <v>373</v>
-      </c>
-      <c r="B67" t="s">
-        <v>374</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6895,7 +6892,7 @@
         <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H67" t="s">
         <v>27</v>
@@ -6910,19 +6907,19 @@
         <v>47</v>
       </c>
       <c r="L67" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="M67" t="s">
         <v>57</v>
       </c>
       <c r="N67" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="O67" t="s">
         <v>67</v>
       </c>
       <c r="P67" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="Q67" t="s">
         <v>29</v>
@@ -6943,18 +6940,18 @@
         <v>31</v>
       </c>
       <c r="W67" t="s">
+        <v>375</v>
+      </c>
+      <c r="X67" t="s">
         <v>376</v>
-      </c>
-      <c r="X67" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>377</v>
+      </c>
+      <c r="B68" t="s">
         <v>378</v>
-      </c>
-      <c r="B68" t="s">
-        <v>379</v>
       </c>
       <c r="C68" t="s">
         <v>120</v>
@@ -6969,13 +6966,13 @@
         <v>134</v>
       </c>
       <c r="G68" t="s">
+        <v>379</v>
+      </c>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" t="s">
         <v>380</v>
-      </c>
-      <c r="H68" t="s">
-        <v>27</v>
-      </c>
-      <c r="I68" t="s">
-        <v>381</v>
       </c>
       <c r="J68" t="s">
         <v>114</v>
@@ -7017,18 +7014,18 @@
         <v>31</v>
       </c>
       <c r="W68" t="s">
+        <v>381</v>
+      </c>
+      <c r="X68" t="s">
         <v>382</v>
-      </c>
-      <c r="X68" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>383</v>
+      </c>
+      <c r="B69" t="s">
         <v>384</v>
-      </c>
-      <c r="B69" t="s">
-        <v>385</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -7058,13 +7055,13 @@
         <v>79</v>
       </c>
       <c r="L69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M69" t="s">
         <v>90</v>
       </c>
       <c r="N69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O69" t="s">
         <v>102</v>
@@ -7091,18 +7088,18 @@
         <v>31</v>
       </c>
       <c r="W69" t="s">
+        <v>387</v>
+      </c>
+      <c r="X69" t="s">
         <v>388</v>
-      </c>
-      <c r="X69" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>389</v>
+      </c>
+      <c r="B70" t="s">
         <v>390</v>
-      </c>
-      <c r="B70" t="s">
-        <v>391</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
@@ -7138,7 +7135,7 @@
         <v>79</v>
       </c>
       <c r="N70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O70" t="s">
         <v>102</v>
@@ -7165,18 +7162,18 @@
         <v>31</v>
       </c>
       <c r="W70" t="s">
+        <v>391</v>
+      </c>
+      <c r="X70" t="s">
         <v>392</v>
-      </c>
-      <c r="X70" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>393</v>
+      </c>
+      <c r="B71" t="s">
         <v>394</v>
-      </c>
-      <c r="B71" t="s">
-        <v>395</v>
       </c>
       <c r="C71" t="s">
         <v>26</v>
@@ -7247,10 +7244,10 @@
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>395</v>
+      </c>
+      <c r="B72" t="s">
         <v>396</v>
-      </c>
-      <c r="B72" t="s">
-        <v>397</v>
       </c>
       <c r="C72" t="s">
         <v>121</v>
@@ -7274,7 +7271,7 @@
         <v>27</v>
       </c>
       <c r="J72" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K72" t="s">
         <v>79</v>
@@ -7321,10 +7318,10 @@
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>398</v>
+      </c>
+      <c r="B73" t="s">
         <v>399</v>
-      </c>
-      <c r="B73" t="s">
-        <v>400</v>
       </c>
       <c r="C73" t="s">
         <v>44</v>
@@ -7348,7 +7345,7 @@
         <v>27</v>
       </c>
       <c r="J73" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K73" t="s">
         <v>90</v>
@@ -7395,10 +7392,10 @@
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>401</v>
+      </c>
+      <c r="B74" t="s">
         <v>402</v>
-      </c>
-      <c r="B74" t="s">
-        <v>403</v>
       </c>
       <c r="C74" t="s">
         <v>54</v>
@@ -7455,7 +7452,7 @@
         <v>29</v>
       </c>
       <c r="U74" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V74" t="s">
         <v>31</v>
@@ -7469,10 +7466,10 @@
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>404</v>
+      </c>
+      <c r="B75" t="s">
         <v>405</v>
-      </c>
-      <c r="B75" t="s">
-        <v>406</v>
       </c>
       <c r="C75" t="s">
         <v>76</v>
@@ -7529,7 +7526,7 @@
         <v>29</v>
       </c>
       <c r="U75" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="V75" t="s">
         <v>31</v>
@@ -7543,10 +7540,10 @@
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>407</v>
+      </c>
+      <c r="B76" t="s">
         <v>408</v>
-      </c>
-      <c r="B76" t="s">
-        <v>409</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -7576,7 +7573,7 @@
         <v>69</v>
       </c>
       <c r="L76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M76" t="s">
         <v>79</v>
@@ -7609,18 +7606,18 @@
         <v>31</v>
       </c>
       <c r="W76" t="s">
+        <v>409</v>
+      </c>
+      <c r="X76" t="s">
         <v>410</v>
-      </c>
-      <c r="X76" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>411</v>
+      </c>
+      <c r="B77" t="s">
         <v>412</v>
-      </c>
-      <c r="B77" t="s">
-        <v>413</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7691,10 +7688,10 @@
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>413</v>
+      </c>
+      <c r="B78" t="s">
         <v>414</v>
-      </c>
-      <c r="B78" t="s">
-        <v>415</v>
       </c>
       <c r="C78" t="s">
         <v>120</v>
@@ -7757,18 +7754,18 @@
         <v>31</v>
       </c>
       <c r="W78" t="s">
+        <v>415</v>
+      </c>
+      <c r="X78" t="s">
         <v>416</v>
-      </c>
-      <c r="X78" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>417</v>
+      </c>
+      <c r="B79" t="s">
         <v>418</v>
-      </c>
-      <c r="B79" t="s">
-        <v>419</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7839,10 +7836,10 @@
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>419</v>
+      </c>
+      <c r="B80" t="s">
         <v>420</v>
-      </c>
-      <c r="B80" t="s">
-        <v>421</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7872,25 +7869,25 @@
         <v>37</v>
       </c>
       <c r="L80" t="s">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="M80" t="s">
         <v>47</v>
       </c>
       <c r="N80" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="O80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P80" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="Q80" t="s">
         <v>67</v>
       </c>
       <c r="R80" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="S80" t="s">
         <v>29</v>
@@ -7905,18 +7902,18 @@
         <v>31</v>
       </c>
       <c r="W80" t="s">
+        <v>421</v>
+      </c>
+      <c r="X80" t="s">
         <v>422</v>
-      </c>
-      <c r="X80" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>423</v>
+      </c>
+      <c r="B81" t="s">
         <v>424</v>
-      </c>
-      <c r="B81" t="s">
-        <v>425</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7931,7 +7928,7 @@
         <v>28</v>
       </c>
       <c r="G81" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H81" t="s">
         <v>27</v>
@@ -7987,10 +7984,10 @@
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>426</v>
+      </c>
+      <c r="B82" t="s">
         <v>427</v>
-      </c>
-      <c r="B82" t="s">
-        <v>428</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -8020,13 +8017,13 @@
         <v>57</v>
       </c>
       <c r="L82" t="s">
-        <v>244</v>
+        <v>66</v>
       </c>
       <c r="M82" t="s">
         <v>67</v>
       </c>
       <c r="N82" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="O82" t="s">
         <v>29</v>
@@ -8053,18 +8050,18 @@
         <v>31</v>
       </c>
       <c r="W82" t="s">
+        <v>428</v>
+      </c>
+      <c r="X82" t="s">
         <v>429</v>
-      </c>
-      <c r="X82" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>430</v>
+      </c>
+      <c r="B83" t="s">
         <v>431</v>
-      </c>
-      <c r="B83" t="s">
-        <v>432</v>
       </c>
       <c r="C83" t="s">
         <v>63</v>
@@ -8076,7 +8073,7 @@
         <v>27</v>
       </c>
       <c r="F83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G83" t="s">
         <v>172</v>
@@ -8135,10 +8132,10 @@
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>432</v>
+      </c>
+      <c r="B84" t="s">
         <v>433</v>
-      </c>
-      <c r="B84" t="s">
-        <v>434</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -8168,7 +8165,7 @@
         <v>67</v>
       </c>
       <c r="L84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M84" t="s">
         <v>69</v>
@@ -8201,18 +8198,18 @@
         <v>31</v>
       </c>
       <c r="W84" t="s">
+        <v>434</v>
+      </c>
+      <c r="X84" t="s">
         <v>435</v>
-      </c>
-      <c r="X84" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>436</v>
+      </c>
+      <c r="B85" t="s">
         <v>437</v>
-      </c>
-      <c r="B85" t="s">
-        <v>438</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -8283,10 +8280,10 @@
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>438</v>
+      </c>
+      <c r="B86" t="s">
         <v>439</v>
-      </c>
-      <c r="B86" t="s">
-        <v>440</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -8346,7 +8343,7 @@
         <v>30</v>
       </c>
       <c r="V86" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="W86" t="s">
         <v>32</v>
@@ -8357,10 +8354,10 @@
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>441</v>
+      </c>
+      <c r="B87" t="s">
         <v>442</v>
-      </c>
-      <c r="B87" t="s">
-        <v>443</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
@@ -8420,7 +8417,7 @@
         <v>30</v>
       </c>
       <c r="V87" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W87" t="s">
         <v>32</v>
@@ -8431,10 +8428,10 @@
     </row>
     <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>444</v>
+      </c>
+      <c r="B88" t="s">
         <v>445</v>
-      </c>
-      <c r="B88" t="s">
-        <v>446</v>
       </c>
       <c r="C88" t="s">
         <v>27</v>
@@ -8494,7 +8491,7 @@
         <v>30</v>
       </c>
       <c r="V88" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="W88" t="s">
         <v>32</v>
@@ -8505,10 +8502,10 @@
     </row>
     <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>447</v>
+      </c>
+      <c r="B89" t="s">
         <v>448</v>
-      </c>
-      <c r="B89" t="s">
-        <v>449</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8568,7 +8565,7 @@
         <v>30</v>
       </c>
       <c r="V89" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="W89" t="s">
         <v>32</v>
@@ -8579,10 +8576,10 @@
     </row>
     <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>450</v>
+      </c>
+      <c r="B90" t="s">
         <v>451</v>
-      </c>
-      <c r="B90" t="s">
-        <v>452</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8642,7 +8639,7 @@
         <v>30</v>
       </c>
       <c r="V90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W90" t="s">
         <v>32</v>
@@ -8653,10 +8650,10 @@
     </row>
     <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>453</v>
+      </c>
+      <c r="B91" t="s">
         <v>454</v>
-      </c>
-      <c r="B91" t="s">
-        <v>455</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8716,7 +8713,7 @@
         <v>30</v>
       </c>
       <c r="V91" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="W91" t="s">
         <v>32</v>
@@ -8727,10 +8724,10 @@
     </row>
     <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>456</v>
+      </c>
+      <c r="B92" t="s">
         <v>457</v>
-      </c>
-      <c r="B92" t="s">
-        <v>458</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8790,7 +8787,7 @@
         <v>30</v>
       </c>
       <c r="V92" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W92" t="s">
         <v>32</v>
@@ -8801,10 +8798,10 @@
     </row>
     <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>459</v>
+      </c>
+      <c r="B93" t="s">
         <v>460</v>
-      </c>
-      <c r="B93" t="s">
-        <v>461</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8864,7 +8861,7 @@
         <v>30</v>
       </c>
       <c r="V93" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="W93" t="s">
         <v>32</v>
@@ -8875,10 +8872,10 @@
     </row>
     <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>462</v>
+      </c>
+      <c r="B94" t="s">
         <v>463</v>
-      </c>
-      <c r="B94" t="s">
-        <v>464</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
@@ -8938,7 +8935,7 @@
         <v>30</v>
       </c>
       <c r="V94" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="W94" t="s">
         <v>32</v>
@@ -8949,10 +8946,10 @@
     </row>
     <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>465</v>
+      </c>
+      <c r="B95" t="s">
         <v>466</v>
-      </c>
-      <c r="B95" t="s">
-        <v>467</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
@@ -9012,7 +9009,7 @@
         <v>30</v>
       </c>
       <c r="V95" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="W95" t="s">
         <v>32</v>
@@ -9023,10 +9020,10 @@
     </row>
     <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>468</v>
+      </c>
+      <c r="B96" t="s">
         <v>469</v>
-      </c>
-      <c r="B96" t="s">
-        <v>470</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
@@ -9086,7 +9083,7 @@
         <v>30</v>
       </c>
       <c r="V96" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W96" t="s">
         <v>32</v>
@@ -9097,10 +9094,10 @@
     </row>
     <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>471</v>
+      </c>
+      <c r="B97" t="s">
         <v>472</v>
-      </c>
-      <c r="B97" t="s">
-        <v>473</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -9160,7 +9157,7 @@
         <v>30</v>
       </c>
       <c r="V97" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="W97" t="s">
         <v>32</v>
@@ -9171,10 +9168,10 @@
     </row>
     <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>474</v>
+      </c>
+      <c r="B98" t="s">
         <v>475</v>
-      </c>
-      <c r="B98" t="s">
-        <v>476</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -9234,7 +9231,7 @@
         <v>30</v>
       </c>
       <c r="V98" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W98" t="s">
         <v>32</v>
@@ -9245,10 +9242,10 @@
     </row>
     <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>477</v>
+      </c>
+      <c r="B99" t="s">
         <v>478</v>
-      </c>
-      <c r="B99" t="s">
-        <v>479</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -9308,7 +9305,7 @@
         <v>30</v>
       </c>
       <c r="V99" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="W99" t="s">
         <v>32</v>
@@ -9319,10 +9316,10 @@
     </row>
     <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>480</v>
+      </c>
+      <c r="B100" t="s">
         <v>481</v>
-      </c>
-      <c r="B100" t="s">
-        <v>482</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9382,7 +9379,7 @@
         <v>30</v>
       </c>
       <c r="V100" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W100" t="s">
         <v>32</v>
@@ -9393,10 +9390,10 @@
     </row>
     <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>483</v>
+      </c>
+      <c r="B101" t="s">
         <v>484</v>
-      </c>
-      <c r="B101" t="s">
-        <v>485</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -9456,7 +9453,7 @@
         <v>30</v>
       </c>
       <c r="V101" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W101" t="s">
         <v>32</v>
@@ -9467,10 +9464,10 @@
     </row>
     <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>486</v>
+      </c>
+      <c r="B102" t="s">
         <v>487</v>
-      </c>
-      <c r="B102" t="s">
-        <v>488</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
@@ -9530,7 +9527,7 @@
         <v>30</v>
       </c>
       <c r="V102" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W102" t="s">
         <v>32</v>
@@ -9541,10 +9538,10 @@
     </row>
     <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>489</v>
+      </c>
+      <c r="B103" t="s">
         <v>490</v>
-      </c>
-      <c r="B103" t="s">
-        <v>491</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -9604,7 +9601,7 @@
         <v>30</v>
       </c>
       <c r="V103" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W103" t="s">
         <v>32</v>
@@ -9615,10 +9612,10 @@
     </row>
     <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>492</v>
+      </c>
+      <c r="B104" t="s">
         <v>493</v>
-      </c>
-      <c r="B104" t="s">
-        <v>494</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -9678,7 +9675,7 @@
         <v>30</v>
       </c>
       <c r="V104" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W104" t="s">
         <v>32</v>
@@ -9689,10 +9686,10 @@
     </row>
     <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>495</v>
+      </c>
+      <c r="B105" t="s">
         <v>496</v>
-      </c>
-      <c r="B105" t="s">
-        <v>497</v>
       </c>
       <c r="C105" t="s">
         <v>27</v>
@@ -9752,7 +9749,7 @@
         <v>30</v>
       </c>
       <c r="V105" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W105" t="s">
         <v>32</v>
@@ -9763,10 +9760,10 @@
     </row>
     <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>498</v>
+      </c>
+      <c r="B106" t="s">
         <v>499</v>
-      </c>
-      <c r="B106" t="s">
-        <v>500</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
@@ -9826,7 +9823,7 @@
         <v>30</v>
       </c>
       <c r="V106" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W106" t="s">
         <v>32</v>
@@ -9837,10 +9834,10 @@
     </row>
     <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>501</v>
+      </c>
+      <c r="B107" t="s">
         <v>502</v>
-      </c>
-      <c r="B107" t="s">
-        <v>503</v>
       </c>
       <c r="C107" t="s">
         <v>27</v>
@@ -9900,7 +9897,7 @@
         <v>30</v>
       </c>
       <c r="V107" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W107" t="s">
         <v>32</v>
@@ -9911,10 +9908,10 @@
     </row>
     <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>504</v>
+      </c>
+      <c r="B108" t="s">
         <v>505</v>
-      </c>
-      <c r="B108" t="s">
-        <v>506</v>
       </c>
       <c r="C108" t="s">
         <v>27</v>
@@ -9974,7 +9971,7 @@
         <v>30</v>
       </c>
       <c r="V108" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="W108" t="s">
         <v>32</v>
@@ -9985,10 +9982,10 @@
     </row>
     <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>507</v>
+      </c>
+      <c r="B109" t="s">
         <v>508</v>
-      </c>
-      <c r="B109" t="s">
-        <v>509</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -10048,7 +10045,7 @@
         <v>30</v>
       </c>
       <c r="V109" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W109" t="s">
         <v>32</v>
@@ -10059,10 +10056,10 @@
     </row>
     <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>510</v>
+      </c>
+      <c r="B110" t="s">
         <v>511</v>
-      </c>
-      <c r="B110" t="s">
-        <v>512</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -10122,7 +10119,7 @@
         <v>30</v>
       </c>
       <c r="V110" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="W110" t="s">
         <v>32</v>
@@ -10133,10 +10130,10 @@
     </row>
     <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>513</v>
+      </c>
+      <c r="B111" t="s">
         <v>514</v>
-      </c>
-      <c r="B111" t="s">
-        <v>515</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
@@ -10207,10 +10204,10 @@
     </row>
     <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>515</v>
+      </c>
+      <c r="B112" t="s">
         <v>516</v>
-      </c>
-      <c r="B112" t="s">
-        <v>517</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10281,10 +10278,10 @@
     </row>
     <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>517</v>
+      </c>
+      <c r="B113" t="s">
         <v>518</v>
-      </c>
-      <c r="B113" t="s">
-        <v>519</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10355,10 +10352,10 @@
     </row>
     <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>519</v>
+      </c>
+      <c r="B114" t="s">
         <v>520</v>
-      </c>
-      <c r="B114" t="s">
-        <v>521</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10429,10 +10426,10 @@
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>521</v>
+      </c>
+      <c r="B115" t="s">
         <v>522</v>
-      </c>
-      <c r="B115" t="s">
-        <v>523</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10503,10 +10500,10 @@
     </row>
     <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>523</v>
+      </c>
+      <c r="B116" t="s">
         <v>524</v>
-      </c>
-      <c r="B116" t="s">
-        <v>525</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
@@ -10577,10 +10574,10 @@
     </row>
     <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>525</v>
+      </c>
+      <c r="B117" t="s">
         <v>526</v>
-      </c>
-      <c r="B117" t="s">
-        <v>527</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
@@ -10651,10 +10648,10 @@
     </row>
     <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>527</v>
+      </c>
+      <c r="B118" t="s">
         <v>528</v>
-      </c>
-      <c r="B118" t="s">
-        <v>529</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10725,10 +10722,10 @@
     </row>
     <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>529</v>
+      </c>
+      <c r="B119" t="s">
         <v>530</v>
-      </c>
-      <c r="B119" t="s">
-        <v>531</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10799,10 +10796,10 @@
     </row>
     <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>531</v>
+      </c>
+      <c r="B120" t="s">
         <v>532</v>
-      </c>
-      <c r="B120" t="s">
-        <v>533</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10873,10 +10870,10 @@
     </row>
     <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>533</v>
+      </c>
+      <c r="B121" t="s">
         <v>534</v>
-      </c>
-      <c r="B121" t="s">
-        <v>535</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -10947,10 +10944,10 @@
     </row>
     <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>535</v>
+      </c>
+      <c r="B122" t="s">
         <v>536</v>
-      </c>
-      <c r="B122" t="s">
-        <v>537</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -11021,10 +11018,10 @@
     </row>
     <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>537</v>
+      </c>
+      <c r="B123" t="s">
         <v>538</v>
-      </c>
-      <c r="B123" t="s">
-        <v>539</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
@@ -11095,10 +11092,10 @@
     </row>
     <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>539</v>
+      </c>
+      <c r="B124" t="s">
         <v>540</v>
-      </c>
-      <c r="B124" t="s">
-        <v>541</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11169,10 +11166,10 @@
     </row>
     <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>541</v>
+      </c>
+      <c r="B125" t="s">
         <v>542</v>
-      </c>
-      <c r="B125" t="s">
-        <v>543</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11243,10 +11240,10 @@
     </row>
     <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>543</v>
+      </c>
+      <c r="B126" t="s">
         <v>544</v>
-      </c>
-      <c r="B126" t="s">
-        <v>545</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
@@ -11317,10 +11314,10 @@
     </row>
     <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>545</v>
+      </c>
+      <c r="B127" t="s">
         <v>546</v>
-      </c>
-      <c r="B127" t="s">
-        <v>547</v>
       </c>
       <c r="C127" t="s">
         <v>27</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="559">
   <si>
     <t>1兵器id</t>
   </si>
@@ -155,859 +155,880 @@
     <t>60</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Wood</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>00:20:00</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>100003</t>
+  </si>
+  <si>
+    <t>勇武缠手</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>00:50:00</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>100004</t>
+  </si>
+  <si>
+    <t>杨威缠手</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>590</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Tungsten</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>03:44:20</t>
+  </si>
+  <si>
+    <t>13460</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>无畏缠手</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Jade</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>15:45:20</t>
+  </si>
+  <si>
+    <t>56720</t>
+  </si>
+  <si>
+    <t>100101</t>
+  </si>
+  <si>
+    <t>飞鱼缠手</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>RefinedSteel</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>23:06:40</t>
+  </si>
+  <si>
+    <t>83200</t>
+  </si>
+  <si>
+    <t>100102</t>
+  </si>
+  <si>
+    <t>惊龙</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>670</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>RedSteel</t>
+  </si>
+  <si>
+    <t>6002</t>
+  </si>
+  <si>
+    <t>1天19:00:40</t>
+  </si>
+  <si>
+    <t>154840</t>
+  </si>
+  <si>
+    <t>100103</t>
+  </si>
+  <si>
+    <t>怒龙</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>770</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>DarksteelIngot</t>
+  </si>
+  <si>
+    <t>8001</t>
+  </si>
+  <si>
+    <t>4天15:28:00</t>
+  </si>
+  <si>
+    <t>401280</t>
+  </si>
+  <si>
+    <t>100104</t>
+  </si>
+  <si>
+    <t>瑶光</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>870</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>TungstenSteel</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>22天12:49:00</t>
+  </si>
+  <si>
+    <t>1946940</t>
+  </si>
+  <si>
+    <t>100105</t>
+  </si>
+  <si>
+    <t>天神</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>970</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Zingana</t>
+  </si>
+  <si>
+    <t>11002</t>
+  </si>
+  <si>
+    <t>58天02:53:00</t>
+  </si>
+  <si>
+    <t>5021580</t>
+  </si>
+  <si>
+    <t>100201</t>
+  </si>
+  <si>
+    <t>錾银缠手</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>100202</t>
+  </si>
+  <si>
+    <t>魔障缠手</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>100203</t>
+  </si>
+  <si>
+    <t>舞凤</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>100204</t>
+  </si>
+  <si>
+    <t>白虎</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>25002</t>
+  </si>
+  <si>
+    <t>100205</t>
+  </si>
+  <si>
+    <t>天机</t>
+  </si>
+  <si>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>26002</t>
+  </si>
+  <si>
+    <t>100301</t>
+  </si>
+  <si>
+    <t>铜尸缠手</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14:24:40</t>
+  </si>
+  <si>
+    <t>51880</t>
+  </si>
+  <si>
+    <t>100302</t>
+  </si>
+  <si>
+    <t>铁尸缠手</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>14:46:40</t>
+  </si>
+  <si>
+    <t>53200</t>
+  </si>
+  <si>
+    <t>100303</t>
+  </si>
+  <si>
+    <t>寒玉缠手</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>01:00:00</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>勇武缠手</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>02:30:00</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>100004</t>
-  </si>
-  <si>
-    <t>杨威缠手</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Tungsten</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3002</t>
-  </si>
-  <si>
-    <t>12:20:00</t>
-  </si>
-  <si>
-    <t>44400</t>
-  </si>
-  <si>
-    <t>100005</t>
-  </si>
-  <si>
-    <t>无畏缠手</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>Jade</t>
-  </si>
-  <si>
-    <t>4002</t>
-  </si>
-  <si>
-    <t>2天01:03:20</t>
-  </si>
-  <si>
-    <t>176600</t>
-  </si>
-  <si>
-    <t>100101</t>
-  </si>
-  <si>
-    <t>飞鱼缠手</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>RefinedSteel</t>
-  </si>
-  <si>
-    <t>5002</t>
-  </si>
-  <si>
-    <t>2天23:40:00</t>
-  </si>
-  <si>
-    <t>258000</t>
-  </si>
-  <si>
-    <t>100102</t>
-  </si>
-  <si>
-    <t>惊龙</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>0.04</t>
+    <t>36</t>
+  </si>
+  <si>
+    <t>58天20:41:00</t>
+  </si>
+  <si>
+    <t>5085660</t>
+  </si>
+  <si>
+    <t>100304</t>
+  </si>
+  <si>
+    <t>降龙缠手</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>57天19:14:20</t>
+  </si>
+  <si>
+    <t>4994060</t>
+  </si>
+  <si>
+    <t>100305</t>
+  </si>
+  <si>
+    <t>霹雳缠手</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>100306</t>
+  </si>
+  <si>
+    <t>竹叶缠手</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>12:38:20</t>
+  </si>
+  <si>
+    <t>45500</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>狼牙枪</t>
+  </si>
+  <si>
+    <t>00001002</t>
+  </si>
+  <si>
+    <t>00:15:00</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>铁头枪</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>00:32:00</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>101003</t>
+  </si>
+  <si>
+    <t>红缨钢枪</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>03:09:40</t>
+  </si>
+  <si>
+    <t>11380</t>
+  </si>
+  <si>
+    <t>101004</t>
+  </si>
+  <si>
+    <t>英雄枪</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10:32:20</t>
+  </si>
+  <si>
+    <t>37940</t>
+  </si>
+  <si>
+    <t>101005</t>
+  </si>
+  <si>
+    <t>千钧搠枪</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>19:58:00</t>
+  </si>
+  <si>
+    <t>71880</t>
+  </si>
+  <si>
+    <t>101101</t>
+  </si>
+  <si>
+    <t>六棱枪</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>101102</t>
+  </si>
+  <si>
+    <t>钩镰枪</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>101103</t>
+  </si>
+  <si>
+    <t>追魂枪</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>101104</t>
+  </si>
+  <si>
+    <t>透骨枪</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>13002</t>
+  </si>
+  <si>
+    <t>101105</t>
+  </si>
+  <si>
+    <t>赤月枪</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>14002</t>
+  </si>
+  <si>
+    <t>101201</t>
+  </si>
+  <si>
+    <t>大杆秤</t>
+  </si>
+  <si>
+    <t>00:54:00</t>
+  </si>
+  <si>
+    <t>3240</t>
+  </si>
+  <si>
+    <t>102001</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>SilverOre</t>
+  </si>
+  <si>
+    <t>01:15:00</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>文士剑</t>
+  </si>
+  <si>
+    <t>04:11:40</t>
+  </si>
+  <si>
+    <t>15100</t>
+  </si>
+  <si>
+    <t>102003</t>
+  </si>
+  <si>
+    <t>安定剑</t>
+  </si>
+  <si>
+    <t>17:25:00</t>
+  </si>
+  <si>
+    <t>62700</t>
+  </si>
+  <si>
+    <t>102004</t>
+  </si>
+  <si>
+    <t>火精剑</t>
+  </si>
+  <si>
+    <t>1天07:14:00</t>
+  </si>
+  <si>
+    <t>112440</t>
+  </si>
+  <si>
+    <t>102101</t>
+  </si>
+  <si>
+    <t>青钢剑</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>0002001</t>
+  </si>
+  <si>
+    <t>00:17:20</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>102102</t>
+  </si>
+  <si>
+    <t>金刚剑</t>
+  </si>
+  <si>
+    <t>102103</t>
+  </si>
+  <si>
+    <t>龙泉宝剑</t>
+  </si>
+  <si>
+    <t>102104</t>
+  </si>
+  <si>
+    <t>全真七子剑</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>102105</t>
+  </si>
+  <si>
+    <t>玄铁重剑</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>58天21:53:40</t>
+  </si>
+  <si>
+    <t>5090020</t>
+  </si>
+  <si>
+    <t>102106</t>
+  </si>
+  <si>
+    <t>淑女剑</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>RedSteel</t>
-  </si>
-  <si>
-    <t>6002</t>
-  </si>
-  <si>
-    <t>5天14:03:20</t>
-  </si>
-  <si>
-    <t>482600</t>
-  </si>
-  <si>
-    <t>100103</t>
-  </si>
-  <si>
-    <t>怒龙</t>
-  </si>
-  <si>
-    <t>0.55</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>DarksteelIngot</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8001</t>
-  </si>
-  <si>
-    <t>18天17:00:00</t>
-  </si>
-  <si>
-    <t>1616400</t>
-  </si>
-  <si>
-    <t>100104</t>
-  </si>
-  <si>
-    <t>瑶光</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>TungstenSteel</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>70天16:18:20</t>
-  </si>
-  <si>
-    <t>6106700</t>
-  </si>
-  <si>
-    <t>100105</t>
-  </si>
-  <si>
-    <t>天神</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>1400</t>
-  </si>
-  <si>
-    <t>970</t>
+    <t>60天08:58:40</t>
+  </si>
+  <si>
+    <t>5216320</t>
+  </si>
+  <si>
+    <t>102107</t>
+  </si>
+  <si>
+    <t>越女剑</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>01001006</t>
+  </si>
+  <si>
+    <t>02:08:20</t>
+  </si>
+  <si>
+    <t>7700</t>
+  </si>
+  <si>
+    <t>102201</t>
+  </si>
+  <si>
+    <t>侠少剑</t>
+  </si>
+  <si>
+    <t>102202</t>
+  </si>
+  <si>
+    <t>含光剑</t>
+  </si>
+  <si>
+    <t>102203</t>
+  </si>
+  <si>
+    <t>茂陵剑</t>
+  </si>
+  <si>
+    <t>102204</t>
+  </si>
+  <si>
+    <t>玄电剑</t>
+  </si>
+  <si>
+    <t>18002</t>
+  </si>
+  <si>
+    <t>102205</t>
+  </si>
+  <si>
+    <t>青冥剑</t>
+  </si>
+  <si>
+    <t>19002</t>
+  </si>
+  <si>
+    <t>103001</t>
+  </si>
+  <si>
+    <t>马刀</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Zingana</t>
-  </si>
-  <si>
-    <t>11002</t>
-  </si>
-  <si>
-    <t>144天10:16:40</t>
-  </si>
-  <si>
-    <t>12478600</t>
-  </si>
-  <si>
-    <t>100201</t>
-  </si>
-  <si>
-    <t>錾银缠手</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>100202</t>
-  </si>
-  <si>
-    <t>魔障缠手</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>100203</t>
-  </si>
-  <si>
-    <t>舞凤</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>100204</t>
-  </si>
-  <si>
-    <t>白虎</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>25002</t>
-  </si>
-  <si>
-    <t>100205</t>
-  </si>
-  <si>
-    <t>天机</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>26002</t>
-  </si>
-  <si>
-    <t>100301</t>
-  </si>
-  <si>
-    <t>铜尸缠手</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>3天00:03:20</t>
-  </si>
-  <si>
-    <t>259400</t>
-  </si>
-  <si>
-    <t>100302</t>
-  </si>
-  <si>
-    <t>铁尸缠手</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>2天23:56:40</t>
-  </si>
-  <si>
-    <t>259000</t>
-  </si>
-  <si>
-    <t>100303</t>
-  </si>
-  <si>
-    <t>寒玉缠手</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>150</t>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>00:47:20</t>
+  </si>
+  <si>
+    <t>2840</t>
+  </si>
+  <si>
+    <t>103002</t>
+  </si>
+  <si>
+    <t>鬼头刀</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>02:52:20</t>
+  </si>
+  <si>
+    <t>10340</t>
+  </si>
+  <si>
+    <t>103003</t>
+  </si>
+  <si>
+    <t>大横刀</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>10:54:00</t>
+  </si>
+  <si>
+    <t>39240</t>
+  </si>
+  <si>
+    <t>103004</t>
+  </si>
+  <si>
+    <t>警恶刀</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>17:40:20</t>
+  </si>
+  <si>
+    <t>63620</t>
+  </si>
+  <si>
+    <t>104001</t>
+  </si>
+  <si>
+    <t>桃木棍</t>
   </si>
   <si>
     <t>110</t>
   </si>
   <si>
-    <t>185天20:53:20</t>
-  </si>
-  <si>
-    <t>16059200</t>
-  </si>
-  <si>
-    <t>100304</t>
-  </si>
-  <si>
-    <t>降龙缠手</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>173天13:20:00</t>
-  </si>
-  <si>
-    <t>14995200</t>
-  </si>
-  <si>
-    <t>100305</t>
-  </si>
-  <si>
-    <t>霹雳缠手</t>
-  </si>
-  <si>
-    <t>100306</t>
-  </si>
-  <si>
-    <t>竹叶缠手</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>2天15:00:00</t>
-  </si>
-  <si>
-    <t>226800</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>狼牙枪</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>00001002</t>
-  </si>
-  <si>
-    <t>00:15:00</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>铁头枪</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>01:38:20</t>
-  </si>
-  <si>
-    <t>5900</t>
-  </si>
-  <si>
-    <t>101003</t>
-  </si>
-  <si>
-    <t>红缨钢枪</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>09:48:20</t>
-  </si>
-  <si>
-    <t>35300</t>
-  </si>
-  <si>
-    <t>101004</t>
-  </si>
-  <si>
-    <t>英雄枪</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>1天08:20:00</t>
-  </si>
-  <si>
-    <t>116400</t>
-  </si>
-  <si>
-    <t>101005</t>
-  </si>
-  <si>
-    <t>千钧搠枪</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>2天13:20:00</t>
-  </si>
-  <si>
-    <t>220800</t>
-  </si>
-  <si>
-    <t>101101</t>
-  </si>
-  <si>
-    <t>六棱枪</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>101102</t>
-  </si>
-  <si>
-    <t>钩镰枪</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>101103</t>
-  </si>
-  <si>
-    <t>追魂枪</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>101104</t>
-  </si>
-  <si>
-    <t>透骨枪</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>13002</t>
-  </si>
-  <si>
-    <t>101105</t>
-  </si>
-  <si>
-    <t>赤月枪</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>14002</t>
-  </si>
-  <si>
-    <t>101201</t>
-  </si>
-  <si>
-    <t>大杆秤</t>
-  </si>
-  <si>
-    <t>03:55:00</t>
-  </si>
-  <si>
-    <t>14100</t>
-  </si>
-  <si>
-    <t>102001</t>
-  </si>
-  <si>
-    <t>铁剑</t>
-  </si>
-  <si>
-    <t>SilverOre</t>
-  </si>
-  <si>
-    <t>03:45:00</t>
-  </si>
-  <si>
-    <t>13500</t>
-  </si>
-  <si>
-    <t>102002</t>
-  </si>
-  <si>
-    <t>文士剑</t>
-  </si>
-  <si>
-    <t>12:35:00</t>
-  </si>
-  <si>
-    <t>45300</t>
-  </si>
-  <si>
-    <t>102003</t>
-  </si>
-  <si>
-    <t>安定剑</t>
-  </si>
-  <si>
-    <t>1天06:45:00</t>
-  </si>
-  <si>
-    <t>110700</t>
-  </si>
-  <si>
-    <t>102004</t>
-  </si>
-  <si>
-    <t>火精剑</t>
-  </si>
-  <si>
-    <t>2天10:38:20</t>
-  </si>
-  <si>
-    <t>211100</t>
-  </si>
-  <si>
-    <t>102101</t>
-  </si>
-  <si>
-    <t>青钢剑</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>0002001</t>
-  </si>
-  <si>
-    <t>00:33:40</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>102102</t>
-  </si>
-  <si>
-    <t>金刚剑</t>
-  </si>
-  <si>
-    <t>102103</t>
-  </si>
-  <si>
-    <t>龙泉宝剑</t>
-  </si>
-  <si>
-    <t>102104</t>
-  </si>
-  <si>
-    <t>全真七子剑</t>
-  </si>
-  <si>
-    <t>102105</t>
-  </si>
-  <si>
-    <t>玄铁重剑</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>185天23:03:20</t>
-  </si>
-  <si>
-    <t>16067000</t>
-  </si>
-  <si>
-    <t>102106</t>
-  </si>
-  <si>
-    <t>淑女剑</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>189天14:38:20</t>
-  </si>
-  <si>
-    <t>16382300</t>
-  </si>
-  <si>
-    <t>102107</t>
-  </si>
-  <si>
-    <t>越女剑</t>
-  </si>
-  <si>
-    <t>01001006</t>
-  </si>
-  <si>
-    <t>04:31:40</t>
-  </si>
-  <si>
-    <t>16300</t>
-  </si>
-  <si>
-    <t>102201</t>
-  </si>
-  <si>
-    <t>侠少剑</t>
-  </si>
-  <si>
-    <t>102202</t>
-  </si>
-  <si>
-    <t>含光剑</t>
-  </si>
-  <si>
-    <t>102203</t>
-  </si>
-  <si>
-    <t>茂陵剑</t>
-  </si>
-  <si>
-    <t>102204</t>
-  </si>
-  <si>
-    <t>玄电剑</t>
-  </si>
-  <si>
-    <t>18002</t>
-  </si>
-  <si>
-    <t>102205</t>
-  </si>
-  <si>
-    <t>青冥剑</t>
-  </si>
-  <si>
-    <t>19002</t>
-  </si>
-  <si>
-    <t>103001</t>
-  </si>
-  <si>
-    <t>马刀</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>02:26:40</t>
-  </si>
-  <si>
-    <t>8800</t>
-  </si>
-  <si>
-    <t>103002</t>
-  </si>
-  <si>
-    <t>鬼头刀</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>08:46:40</t>
-  </si>
-  <si>
-    <t>31600</t>
-  </si>
-  <si>
-    <t>103003</t>
-  </si>
-  <si>
-    <t>大横刀</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>1天09:25:00</t>
-  </si>
-  <si>
-    <t>120300</t>
-  </si>
-  <si>
-    <t>103004</t>
-  </si>
-  <si>
-    <t>警恶刀</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>2天06:36:40</t>
-  </si>
-  <si>
-    <t>196600</t>
-  </si>
-  <si>
-    <t>104001</t>
-  </si>
-  <si>
-    <t>桃木棍</t>
-  </si>
-  <si>
     <t>480</t>
   </si>
   <si>
-    <t>02:13:20</t>
-  </si>
-  <si>
-    <t>8000</t>
+    <t>00:44:00</t>
+  </si>
+  <si>
+    <t>2640</t>
   </si>
   <si>
     <t>104002</t>
@@ -1016,10 +1037,10 @@
     <t>楠木棍</t>
   </si>
   <si>
-    <t>07:01:40</t>
-  </si>
-  <si>
-    <t>25300</t>
+    <t>02:15:40</t>
+  </si>
+  <si>
+    <t>8140</t>
   </si>
   <si>
     <t>104003</t>
@@ -1028,10 +1049,10 @@
     <t>熟铜棍</t>
   </si>
   <si>
-    <t>1天05:15:00</t>
-  </si>
-  <si>
-    <t>105300</t>
+    <t>09:45:00</t>
+  </si>
+  <si>
+    <t>35100</t>
   </si>
   <si>
     <t>104004</t>
@@ -1043,10 +1064,10 @@
     <t>810</t>
   </si>
   <si>
-    <t>2天06:26:40</t>
-  </si>
-  <si>
-    <t>196000</t>
+    <t>17:22:20</t>
+  </si>
+  <si>
+    <t>62540</t>
   </si>
   <si>
     <t>104101</t>
@@ -1100,10 +1121,10 @@
     <t>纯钢扁担</t>
   </si>
   <si>
-    <t>04:50:00</t>
-  </si>
-  <si>
-    <t>17400</t>
+    <t>02:25:00</t>
+  </si>
+  <si>
+    <t>8700</t>
   </si>
   <si>
     <t>104202</t>
@@ -1121,205 +1142,220 @@
     <t>伏魔金刚铲</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>69天23:41:00</t>
+  </si>
+  <si>
+    <t>6046860</t>
+  </si>
+  <si>
+    <t>104204</t>
+  </si>
+  <si>
+    <t>骷髅拐杖</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>02:10:00</t>
+  </si>
+  <si>
+    <t>7800</t>
+  </si>
+  <si>
+    <t>104205</t>
+  </si>
+  <si>
+    <t>打狗棒</t>
+  </si>
+  <si>
+    <t>1067</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>49天18:51:40</t>
+  </si>
+  <si>
+    <t>4301500</t>
+  </si>
+  <si>
+    <t>104206</t>
+  </si>
+  <si>
+    <t>红玉仗</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>62天02:25:40</t>
+  </si>
+  <si>
+    <t>5365540</t>
+  </si>
+  <si>
+    <t>104207</t>
+  </si>
+  <si>
+    <t>万毒拐杖</t>
+  </si>
+  <si>
+    <t>62天16:53:20</t>
+  </si>
+  <si>
+    <t>5417600</t>
+  </si>
+  <si>
+    <t>105101</t>
+  </si>
+  <si>
+    <t>短笛</t>
+  </si>
+  <si>
+    <t>105102</t>
+  </si>
+  <si>
+    <t>木笛</t>
+  </si>
+  <si>
+    <t>105103</t>
+  </si>
+  <si>
+    <t>漆笛</t>
+  </si>
+  <si>
+    <t>105104</t>
+  </si>
+  <si>
+    <t>赤灵</t>
+  </si>
+  <si>
+    <t>22002</t>
+  </si>
+  <si>
+    <t>105105</t>
+  </si>
+  <si>
+    <t>银炎</t>
+  </si>
+  <si>
+    <t>24002</t>
+  </si>
+  <si>
+    <t>46天15:50:00</t>
+  </si>
+  <si>
+    <t>4031400</t>
+  </si>
+  <si>
+    <t>105201</t>
+  </si>
+  <si>
+    <t>碧海潮声笛</t>
+  </si>
+  <si>
+    <t>14天03:24:00</t>
+  </si>
+  <si>
+    <t>1221840</t>
+  </si>
+  <si>
+    <t>106001</t>
+  </si>
+  <si>
+    <t>金刚毒扇</t>
+  </si>
+  <si>
+    <t>106002</t>
+  </si>
+  <si>
+    <t>金刚佛珠</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>64天03:03:20</t>
+  </si>
+  <si>
+    <t>5540600</t>
+  </si>
+  <si>
+    <t>106003</t>
+  </si>
+  <si>
+    <t>金刚五轮</t>
+  </si>
+  <si>
+    <t>106004</t>
+  </si>
+  <si>
+    <t>金龙软鞭</t>
+  </si>
+  <si>
+    <t>02:01:20</t>
+  </si>
+  <si>
+    <t>7280</t>
+  </si>
+  <si>
+    <t>106005</t>
+  </si>
+  <si>
+    <t>金丝拂尘</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>106006</t>
+  </si>
+  <si>
+    <t>铁骨扇</t>
+  </si>
+  <si>
+    <t>01:37:00</t>
+  </si>
+  <si>
+    <t>5820</t>
+  </si>
+  <si>
+    <t>106007</t>
+  </si>
+  <si>
+    <t>折冲铁笔</t>
+  </si>
+  <si>
     <t>140</t>
   </si>
   <si>
-    <t>185天06:45:00</t>
-  </si>
-  <si>
-    <t>16008300</t>
-  </si>
-  <si>
-    <t>104204</t>
-  </si>
-  <si>
-    <t>骷髅拐杖</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>05:15:00</t>
-  </si>
-  <si>
-    <t>18900</t>
-  </si>
-  <si>
-    <t>104205</t>
-  </si>
-  <si>
-    <t>打狗棒</t>
-  </si>
-  <si>
-    <t>1067</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>152天08:58:20</t>
-  </si>
-  <si>
-    <t>13165100</t>
-  </si>
-  <si>
-    <t>104206</t>
-  </si>
-  <si>
-    <t>红玉仗</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>187天05:48:20</t>
-  </si>
-  <si>
-    <t>16177700</t>
-  </si>
-  <si>
-    <t>104207</t>
-  </si>
-  <si>
-    <t>万毒拐杖</t>
-  </si>
-  <si>
-    <t>186天19:21:40</t>
-  </si>
-  <si>
-    <t>16140100</t>
-  </si>
-  <si>
-    <t>105101</t>
-  </si>
-  <si>
-    <t>短笛</t>
-  </si>
-  <si>
-    <t>105102</t>
-  </si>
-  <si>
-    <t>木笛</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>105103</t>
-  </si>
-  <si>
-    <t>漆笛</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>105104</t>
-  </si>
-  <si>
-    <t>赤灵</t>
-  </si>
-  <si>
-    <t>22002</t>
-  </si>
-  <si>
-    <t>105105</t>
-  </si>
-  <si>
-    <t>银炎</t>
-  </si>
-  <si>
-    <t>24002</t>
-  </si>
-  <si>
-    <t>105201</t>
-  </si>
-  <si>
-    <t>碧海潮声笛</t>
-  </si>
-  <si>
-    <t>44天22:43:20</t>
-  </si>
-  <si>
-    <t>3883400</t>
-  </si>
-  <si>
-    <t>106001</t>
-  </si>
-  <si>
-    <t>金刚毒扇</t>
-  </si>
-  <si>
-    <t>106002</t>
-  </si>
-  <si>
-    <t>金刚佛珠</t>
-  </si>
-  <si>
-    <t>189天10:23:20</t>
-  </si>
-  <si>
-    <t>16367000</t>
-  </si>
-  <si>
-    <t>106003</t>
-  </si>
-  <si>
-    <t>金刚五轮</t>
-  </si>
-  <si>
-    <t>106004</t>
-  </si>
-  <si>
-    <t>金龙软鞭</t>
-  </si>
-  <si>
-    <t>04:18:20</t>
-  </si>
-  <si>
-    <t>15500</t>
-  </si>
-  <si>
-    <t>106005</t>
-  </si>
-  <si>
-    <t>金丝拂尘</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>106006</t>
-  </si>
-  <si>
-    <t>铁骨扇</t>
-  </si>
-  <si>
-    <t>04:21:40</t>
-  </si>
-  <si>
-    <t>15700</t>
-  </si>
-  <si>
-    <t>106007</t>
-  </si>
-  <si>
-    <t>折冲铁笔</t>
-  </si>
-  <si>
     <t>106008</t>
   </si>
   <si>
     <t>竹筹</t>
   </si>
   <si>
-    <t>5天12:56:40</t>
-  </si>
-  <si>
-    <t>478600</t>
+    <t>1天19:46:40</t>
+  </si>
+  <si>
+    <t>157600</t>
   </si>
   <si>
     <t>200001</t>
@@ -1961,13 +1997,13 @@
         <v>37</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>29</v>
@@ -1988,27 +2024,27 @@
         <v>29</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W4" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X4" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>27</v>
@@ -2020,10 +2056,10 @@
         <v>28</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>27</v>
@@ -2032,17 +2068,17 @@
         <v>27</v>
       </c>
       <c r="K5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="O5" s="0" t="s">
         <v>29</v>
       </c>
@@ -2062,27 +2098,27 @@
         <v>29</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V5" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W5" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X5" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>26</v>
@@ -2094,10 +2130,10 @@
         <v>28</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>27</v>
@@ -2106,22 +2142,22 @@
         <v>27</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>29</v>
@@ -2136,27 +2172,27 @@
         <v>29</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V6" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -2168,10 +2204,10 @@
         <v>28</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>27</v>
@@ -2180,22 +2216,22 @@
         <v>27</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>29</v>
@@ -2210,30 +2246,30 @@
         <v>29</v>
       </c>
       <c r="U7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V7" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W7" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="X7" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>27</v>
@@ -2242,34 +2278,34 @@
         <v>28</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="0" t="s">
         <v>29</v>
@@ -2284,66 +2320,66 @@
         <v>29</v>
       </c>
       <c r="U8" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V8" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W8" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X8" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="0" t="s">
         <v>29</v>
@@ -2358,30 +2394,30 @@
         <v>29</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V9" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>26</v>
@@ -2390,34 +2426,34 @@
         <v>28</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="0" t="s">
         <v>29</v>
@@ -2432,66 +2468,66 @@
         <v>29</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V10" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X10" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>123</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L11" s="0" t="s">
         <v>124</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O11" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="0" t="s">
         <v>29</v>
@@ -2529,10 +2565,10 @@
         <v>131</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>28</v>
@@ -2544,66 +2580,66 @@
         <v>133</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="O12" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="0" t="s">
         <v>136</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U12" s="0" t="s">
-        <v>137</v>
       </c>
       <c r="V12" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W12" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="X12" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>141</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>26</v>
@@ -2612,34 +2648,34 @@
         <v>28</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>38</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="0" t="s">
         <v>29</v>
@@ -2654,66 +2690,66 @@
         <v>29</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>144</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>146</v>
-      </c>
       <c r="K14" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>29</v>
@@ -2728,30 +2764,30 @@
         <v>29</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>148</v>
-      </c>
       <c r="C15" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>44</v>
@@ -2760,34 +2796,34 @@
         <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="J15" s="0" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>29</v>
@@ -2802,66 +2838,66 @@
         <v>29</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>124</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>29</v>
@@ -2876,7 +2912,7 @@
         <v>29</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V16" s="0" t="s">
         <v>31</v>
@@ -2890,58 +2926,58 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>131</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L17" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="M17" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="N17" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>29</v>
@@ -2950,66 +2986,66 @@
         <v>29</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="V17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W17" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="X17" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="J18" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="M18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="0" t="s">
+      <c r="O18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>46</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>29</v>
@@ -3030,60 +3066,60 @@
         <v>31</v>
       </c>
       <c r="W18" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="X18" s="0" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="H19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>173</v>
-      </c>
       <c r="O19" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="Q19" s="0" t="s">
         <v>29</v>
@@ -3104,72 +3140,72 @@
         <v>31</v>
       </c>
       <c r="W19" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="X19" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="X19" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="H20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="K20" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L20" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="M20" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="N20" s="0" t="s">
-        <v>180</v>
-      </c>
       <c r="O20" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R20" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="S20" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="S20" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="T20" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U20" s="0" t="s">
         <v>30</v>
@@ -3178,24 +3214,24 @@
         <v>31</v>
       </c>
       <c r="W20" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="X20" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="X20" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>185</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>44</v>
@@ -3204,10 +3240,10 @@
         <v>28</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>26</v>
@@ -3216,28 +3252,28 @@
         <v>27</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>29</v>
@@ -3252,24 +3288,24 @@
         <v>31</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>27</v>
@@ -3278,10 +3314,10 @@
         <v>28</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>27</v>
@@ -3334,16 +3370,16 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>27</v>
@@ -3352,34 +3388,34 @@
         <v>28</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="0" t="s">
         <v>29</v>
@@ -3400,18 +3436,18 @@
         <v>31</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>44</v>
@@ -3423,10 +3459,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>27</v>
@@ -3438,16 +3474,16 @@
         <v>27</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>29</v>
@@ -3471,21 +3507,21 @@
         <v>30</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>44</v>
@@ -3500,28 +3536,28 @@
         <v>35</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L25" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="M25" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>29</v>
@@ -3542,27 +3578,27 @@
         <v>29</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V25" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>26</v>
@@ -3574,28 +3610,28 @@
         <v>35</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O26" s="0" t="s">
         <v>29</v>
@@ -3616,27 +3652,27 @@
         <v>29</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V26" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>26</v>
@@ -3648,34 +3684,34 @@
         <v>35</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>29</v>
@@ -3690,27 +3726,27 @@
         <v>29</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>44</v>
@@ -3722,34 +3758,34 @@
         <v>35</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N28" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>29</v>
@@ -3764,30 +3800,30 @@
         <v>29</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V28" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>27</v>
@@ -3796,7 +3832,7 @@
         <v>35</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>27</v>
@@ -3808,22 +3844,22 @@
         <v>27</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O29" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>29</v>
@@ -3838,66 +3874,66 @@
         <v>29</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N30" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q30" s="0" t="s">
         <v>29</v>
@@ -3912,30 +3948,30 @@
         <v>29</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>26</v>
@@ -3944,7 +3980,7 @@
         <v>35</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>27</v>
@@ -3956,22 +3992,22 @@
         <v>27</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N31" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>29</v>
@@ -3986,66 +4022,66 @@
         <v>29</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>38</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L32" s="0" t="s">
         <v>124</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O32" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>29</v>
@@ -4060,7 +4096,7 @@
         <v>29</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="V32" s="0" t="s">
         <v>31</v>
@@ -4074,58 +4110,58 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>131</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>35</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N33" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="M33" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="N33" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>29</v>
@@ -4134,24 +4170,24 @@
         <v>29</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="V33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W33" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="X33" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="X33" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>27</v>
@@ -4163,13 +4199,13 @@
         <v>26</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>27</v>
@@ -4178,22 +4214,22 @@
         <v>27</v>
       </c>
       <c r="K34" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L34" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="M34" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N34" s="0" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q34" s="0" t="s">
         <v>29</v>
@@ -4214,21 +4250,21 @@
         <v>31</v>
       </c>
       <c r="W34" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>44</v>
@@ -4237,10 +4273,10 @@
         <v>27</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>27</v>
@@ -4252,16 +4288,16 @@
         <v>27</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>29</v>
@@ -4288,54 +4324,54 @@
         <v>31</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>248</v>
-      </c>
       <c r="L36" s="0" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O36" s="0" t="s">
         <v>29</v>
@@ -4362,33 +4398,33 @@
         <v>31</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="X36" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>27</v>
@@ -4400,22 +4436,22 @@
         <v>27</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N37" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>29</v>
@@ -4436,33 +4472,33 @@
         <v>31</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>27</v>
@@ -4474,22 +4510,22 @@
         <v>27</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>29</v>
@@ -4504,36 +4540,36 @@
         <v>29</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="X38" s="0" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>27</v>
@@ -4548,13 +4584,13 @@
         <v>27</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>24</v>
@@ -4581,33 +4617,33 @@
         <v>30</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="W39" s="0" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="X39" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>27</v>
@@ -4666,10 +4702,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>27</v>
@@ -4681,7 +4717,7 @@
         <v>27</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>27</v>
@@ -4740,10 +4776,10 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>27</v>
@@ -4755,7 +4791,7 @@
         <v>27</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>27</v>
@@ -4814,10 +4850,10 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>27</v>
@@ -4832,46 +4868,46 @@
         <v>46</v>
       </c>
       <c r="G43" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>150</v>
-      </c>
       <c r="J43" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R43" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="S43" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="S43" s="0" t="s">
-        <v>136</v>
-      </c>
       <c r="T43" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U43" s="0" t="s">
         <v>30</v>
@@ -4880,18 +4916,18 @@
         <v>31</v>
       </c>
       <c r="W43" s="0" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="X43" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>27</v>
@@ -4903,49 +4939,49 @@
         <v>27</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U44" s="0" t="s">
         <v>30</v>
@@ -4954,21 +4990,21 @@
         <v>31</v>
       </c>
       <c r="W44" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="X44" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>27</v>
@@ -4980,7 +5016,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>27</v>
@@ -4992,22 +5028,22 @@
         <v>27</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>29</v>
@@ -5025,33 +5061,33 @@
         <v>30</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="X45" s="0" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>27</v>
@@ -5066,22 +5102,22 @@
         <v>27</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q46" s="0" t="s">
         <v>29</v>
@@ -5096,36 +5132,36 @@
         <v>29</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V46" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W46" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X46" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>27</v>
@@ -5134,28 +5170,28 @@
         <v>27</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>29</v>
@@ -5170,36 +5206,36 @@
         <v>29</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V47" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W47" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X47" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>27</v>
@@ -5214,22 +5250,22 @@
         <v>27</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N48" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>29</v>
@@ -5244,36 +5280,36 @@
         <v>29</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V48" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X48" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>131</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>27</v>
@@ -5282,28 +5318,28 @@
         <v>27</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L49" s="0" t="s">
         <v>124</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O49" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q49" s="0" t="s">
         <v>29</v>
@@ -5318,7 +5354,7 @@
         <v>29</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="V49" s="0" t="s">
         <v>31</v>
@@ -5332,22 +5368,22 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>27</v>
@@ -5356,34 +5392,34 @@
         <v>27</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L50" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N50" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="O50" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="S50" s="0" t="s">
         <v>29</v>
@@ -5392,24 +5428,24 @@
         <v>29</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="V50" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W50" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="X50" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="X50" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>44</v>
@@ -5421,7 +5457,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>27</v>
@@ -5433,19 +5469,19 @@
         <v>27</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O51" s="0" t="s">
         <v>29</v>
@@ -5466,60 +5502,60 @@
         <v>29</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V51" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W51" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N52" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O52" s="0" t="s">
         <v>29</v>
@@ -5540,27 +5576,27 @@
         <v>29</v>
       </c>
       <c r="U52" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V52" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W52" s="0" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="X52" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>44</v>
@@ -5569,38 +5605,38 @@
         <v>26</v>
       </c>
       <c r="F53" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N53" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="O53" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="G53" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L53" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="M53" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="N53" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="P53" s="0" t="s">
-        <v>135</v>
-      </c>
       <c r="Q53" s="0" t="s">
         <v>29</v>
       </c>
@@ -5614,66 +5650,66 @@
         <v>29</v>
       </c>
       <c r="U53" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V53" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W53" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="X53" s="0" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E54" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q54" s="0" t="s">
         <v>29</v>
@@ -5694,21 +5730,21 @@
         <v>31</v>
       </c>
       <c r="W54" s="0" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="X54" s="0" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>44</v>
@@ -5717,10 +5753,10 @@
         <v>26</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>27</v>
@@ -5732,10 +5768,10 @@
         <v>27</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="M55" s="0" t="s">
         <v>29</v>
@@ -5768,33 +5804,33 @@
         <v>31</v>
       </c>
       <c r="W55" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="X55" s="0" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>27</v>
@@ -5806,22 +5842,22 @@
         <v>27</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>29</v>
@@ -5842,33 +5878,33 @@
         <v>31</v>
       </c>
       <c r="W56" s="0" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="X56" s="0" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E57" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>27</v>
@@ -5880,22 +5916,22 @@
         <v>27</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q57" s="0" t="s">
         <v>29</v>
@@ -5910,39 +5946,39 @@
         <v>29</v>
       </c>
       <c r="U57" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="V57" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W57" s="0" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="X57" s="0" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>27</v>
@@ -5954,22 +5990,22 @@
         <v>27</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O58" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>29</v>
@@ -5984,39 +6020,39 @@
         <v>29</v>
       </c>
       <c r="U58" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="V58" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W58" s="0" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="X58" s="0" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>27</v>
@@ -6028,22 +6064,22 @@
         <v>27</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>29</v>
@@ -6058,39 +6094,39 @@
         <v>29</v>
       </c>
       <c r="U59" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V59" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W59" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X59" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>27</v>
@@ -6102,22 +6138,22 @@
         <v>27</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q60" s="0" t="s">
         <v>29</v>
@@ -6132,39 +6168,39 @@
         <v>29</v>
       </c>
       <c r="U60" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V60" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W60" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X60" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>131</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>27</v>
@@ -6176,22 +6212,22 @@
         <v>27</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>29</v>
@@ -6206,39 +6242,39 @@
         <v>29</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V61" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W61" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X61" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>27</v>
@@ -6250,22 +6286,22 @@
         <v>27</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L62" s="0" t="s">
         <v>124</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O62" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q62" s="0" t="s">
         <v>29</v>
@@ -6280,7 +6316,7 @@
         <v>29</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="V62" s="0" t="s">
         <v>31</v>
@@ -6294,25 +6330,25 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>131</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>180</v>
+        <v>335</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>27</v>
@@ -6324,28 +6360,28 @@
         <v>27</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L63" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N63" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="M63" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="N63" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="O63" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="S63" s="0" t="s">
         <v>29</v>
@@ -6354,24 +6390,24 @@
         <v>29</v>
       </c>
       <c r="U63" s="0" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="V63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W63" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="X63" s="0" t="s">
         <v>138</v>
-      </c>
-      <c r="X63" s="0" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>27</v>
@@ -6383,10 +6419,10 @@
         <v>27</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>27</v>
@@ -6398,10 +6434,10 @@
         <v>27</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>29</v>
@@ -6434,21 +6470,21 @@
         <v>31</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="X64" s="0" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>27</v>
@@ -6460,7 +6496,7 @@
         <v>28</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>27</v>
@@ -6516,25 +6552,25 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E66" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>27</v>
@@ -6546,22 +6582,22 @@
         <v>27</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="O66" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>124</v>
+        <v>378</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>29</v>
@@ -6582,18 +6618,18 @@
         <v>31</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="X66" s="0" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>27</v>
@@ -6608,7 +6644,7 @@
         <v>28</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>27</v>
@@ -6620,22 +6656,22 @@
         <v>27</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q67" s="0" t="s">
         <v>29</v>
@@ -6656,66 +6692,66 @@
         <v>31</v>
       </c>
       <c r="W67" s="0" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="X67" s="0" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>41</v>
+        <v>390</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q68" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S68" s="0" t="s">
         <v>29</v>
@@ -6730,24 +6766,24 @@
         <v>31</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="X68" s="0" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>26</v>
@@ -6756,7 +6792,7 @@
         <v>28</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>27</v>
@@ -6768,34 +6804,34 @@
         <v>27</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>68</v>
+        <v>396</v>
       </c>
       <c r="U69" s="0" t="s">
         <v>30</v>
@@ -6804,18 +6840,18 @@
         <v>31</v>
       </c>
       <c r="W69" s="0" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="X69" s="0" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>27</v>
@@ -6827,49 +6863,49 @@
         <v>27</v>
       </c>
       <c r="F70" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N70" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="O70" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="P70" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="G70" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I70" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L70" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="M70" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="N70" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="O70" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="P70" s="0" t="s">
-        <v>180</v>
-      </c>
       <c r="Q70" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>68</v>
+        <v>396</v>
       </c>
       <c r="U70" s="0" t="s">
         <v>30</v>
@@ -6878,18 +6914,18 @@
         <v>31</v>
       </c>
       <c r="W70" s="0" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>26</v>
@@ -6901,37 +6937,37 @@
         <v>27</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>29</v>
@@ -6946,66 +6982,66 @@
         <v>29</v>
       </c>
       <c r="U71" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V71" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W71" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X71" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>397</v>
-      </c>
       <c r="K72" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q72" s="0" t="s">
         <v>29</v>
@@ -7020,24 +7056,24 @@
         <v>29</v>
       </c>
       <c r="U72" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V72" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W72" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="X72" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>44</v>
@@ -7049,37 +7085,37 @@
         <v>27</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>400</v>
+        <v>103</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N73" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O73" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="Q73" s="0" t="s">
         <v>29</v>
@@ -7094,27 +7130,27 @@
         <v>29</v>
       </c>
       <c r="U73" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V73" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W73" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X73" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>26</v>
@@ -7123,37 +7159,37 @@
         <v>27</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I74" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L74" s="0" t="s">
         <v>124</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O74" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q74" s="0" t="s">
         <v>29</v>
@@ -7168,7 +7204,7 @@
         <v>29</v>
       </c>
       <c r="U74" s="0" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="V74" s="0" t="s">
         <v>31</v>
@@ -7182,13 +7218,13 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>44</v>
@@ -7197,43 +7233,43 @@
         <v>27</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L75" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N75" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="M75" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="N75" s="0" t="s">
-        <v>135</v>
       </c>
       <c r="O75" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="S75" s="0" t="s">
         <v>29</v>
@@ -7242,24 +7278,24 @@
         <v>29</v>
       </c>
       <c r="U75" s="0" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="V75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>138</v>
+        <v>415</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>139</v>
+        <v>416</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>27</v>
@@ -7277,43 +7313,43 @@
         <v>27</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>44</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S76" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T76" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="U76" s="0" t="s">
         <v>30</v>
@@ -7322,18 +7358,18 @@
         <v>31</v>
       </c>
       <c r="W76" s="0" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="X76" s="0" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>27</v>
@@ -7345,10 +7381,10 @@
         <v>27</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>179</v>
+        <v>294</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>27</v>
@@ -7404,64 +7440,64 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E78" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>66</v>
+        <v>163</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>166</v>
+        <v>425</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="Q78" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="S78" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T78" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U78" s="0" t="s">
         <v>30</v>
@@ -7470,18 +7506,18 @@
         <v>31</v>
       </c>
       <c r="W78" s="0" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="X78" s="0" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>27</v>
@@ -7490,13 +7526,13 @@
         <v>27</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>27</v>
@@ -7552,10 +7588,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>27</v>
@@ -7570,7 +7606,7 @@
         <v>41</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>27</v>
@@ -7579,31 +7615,31 @@
         <v>27</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>37</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>36</v>
+        <v>178</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="S80" s="0" t="s">
         <v>29</v>
@@ -7618,18 +7654,18 @@
         <v>31</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="X80" s="0" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>27</v>
@@ -7644,7 +7680,7 @@
         <v>28</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>27</v>
@@ -7700,10 +7736,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>27</v>
@@ -7718,7 +7754,7 @@
         <v>35</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>27</v>
@@ -7730,16 +7766,16 @@
         <v>27</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="O82" s="0" t="s">
         <v>29</v>
@@ -7766,21 +7802,21 @@
         <v>31</v>
       </c>
       <c r="W82" s="0" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="X82" s="0" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>27</v>
@@ -7789,10 +7825,10 @@
         <v>27</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>369</v>
+        <v>443</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>27</v>
@@ -7848,10 +7884,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>27</v>
@@ -7866,7 +7902,7 @@
         <v>28</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>27</v>
@@ -7875,25 +7911,25 @@
         <v>27</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>277</v>
+        <v>376</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="Q84" s="0" t="s">
         <v>29</v>
@@ -7914,18 +7950,18 @@
         <v>31</v>
       </c>
       <c r="W84" s="0" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="X84" s="0" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>27</v>
@@ -7937,7 +7973,7 @@
         <v>27</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>27</v>
@@ -7996,10 +8032,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>27</v>
@@ -8011,7 +8047,7 @@
         <v>27</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>27</v>
@@ -8059,7 +8095,7 @@
         <v>30</v>
       </c>
       <c r="V86" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="W86" s="0" t="s">
         <v>32</v>
@@ -8070,10 +8106,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>27</v>
@@ -8085,7 +8121,7 @@
         <v>27</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>27</v>
@@ -8133,7 +8169,7 @@
         <v>30</v>
       </c>
       <c r="V87" s="0" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="W87" s="0" t="s">
         <v>32</v>
@@ -8144,10 +8180,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>27</v>
@@ -8159,7 +8195,7 @@
         <v>27</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>27</v>
@@ -8207,7 +8243,7 @@
         <v>30</v>
       </c>
       <c r="V88" s="0" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="W88" s="0" t="s">
         <v>32</v>
@@ -8218,10 +8254,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>27</v>
@@ -8233,7 +8269,7 @@
         <v>27</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>27</v>
@@ -8281,7 +8317,7 @@
         <v>30</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="W89" s="0" t="s">
         <v>32</v>
@@ -8292,10 +8328,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>27</v>
@@ -8307,7 +8343,7 @@
         <v>27</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>27</v>
@@ -8355,7 +8391,7 @@
         <v>30</v>
       </c>
       <c r="V90" s="0" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="W90" s="0" t="s">
         <v>32</v>
@@ -8366,10 +8402,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>27</v>
@@ -8381,7 +8417,7 @@
         <v>27</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>27</v>
@@ -8429,7 +8465,7 @@
         <v>30</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="W91" s="0" t="s">
         <v>32</v>
@@ -8440,10 +8476,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>27</v>
@@ -8455,7 +8491,7 @@
         <v>27</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>27</v>
@@ -8503,7 +8539,7 @@
         <v>30</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="W92" s="0" t="s">
         <v>32</v>
@@ -8514,10 +8550,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>27</v>
@@ -8529,7 +8565,7 @@
         <v>27</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>27</v>
@@ -8577,7 +8613,7 @@
         <v>30</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>32</v>
@@ -8588,10 +8624,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>27</v>
@@ -8603,7 +8639,7 @@
         <v>27</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>27</v>
@@ -8651,7 +8687,7 @@
         <v>30</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="W94" s="0" t="s">
         <v>32</v>
@@ -8662,10 +8698,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>27</v>
@@ -8677,7 +8713,7 @@
         <v>27</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>27</v>
@@ -8725,7 +8761,7 @@
         <v>30</v>
       </c>
       <c r="V95" s="0" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="W95" s="0" t="s">
         <v>32</v>
@@ -8736,10 +8772,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>27</v>
@@ -8751,7 +8787,7 @@
         <v>27</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>27</v>
@@ -8799,7 +8835,7 @@
         <v>30</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>32</v>
@@ -8810,10 +8846,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>27</v>
@@ -8825,7 +8861,7 @@
         <v>27</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>27</v>
@@ -8873,7 +8909,7 @@
         <v>30</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>32</v>
@@ -8884,10 +8920,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>27</v>
@@ -8899,7 +8935,7 @@
         <v>27</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>27</v>
@@ -8947,7 +8983,7 @@
         <v>30</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>32</v>
@@ -8958,10 +8994,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>27</v>
@@ -8973,7 +9009,7 @@
         <v>27</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>27</v>
@@ -9021,7 +9057,7 @@
         <v>30</v>
       </c>
       <c r="V99" s="0" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>32</v>
@@ -9032,10 +9068,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>27</v>
@@ -9047,7 +9083,7 @@
         <v>27</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>27</v>
@@ -9095,7 +9131,7 @@
         <v>30</v>
       </c>
       <c r="V100" s="0" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>32</v>
@@ -9106,10 +9142,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>27</v>
@@ -9121,7 +9157,7 @@
         <v>27</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>27</v>
@@ -9169,7 +9205,7 @@
         <v>30</v>
       </c>
       <c r="V101" s="0" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="W101" s="0" t="s">
         <v>32</v>
@@ -9180,10 +9216,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>27</v>
@@ -9195,7 +9231,7 @@
         <v>27</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>27</v>
@@ -9243,7 +9279,7 @@
         <v>30</v>
       </c>
       <c r="V102" s="0" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="W102" s="0" t="s">
         <v>32</v>
@@ -9254,10 +9290,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>27</v>
@@ -9269,7 +9305,7 @@
         <v>27</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>27</v>
@@ -9317,7 +9353,7 @@
         <v>30</v>
       </c>
       <c r="V103" s="0" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="W103" s="0" t="s">
         <v>32</v>
@@ -9328,10 +9364,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>27</v>
@@ -9343,7 +9379,7 @@
         <v>27</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>27</v>
@@ -9391,7 +9427,7 @@
         <v>30</v>
       </c>
       <c r="V104" s="0" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="W104" s="0" t="s">
         <v>32</v>
@@ -9402,10 +9438,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>27</v>
@@ -9417,7 +9453,7 @@
         <v>27</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>27</v>
@@ -9465,7 +9501,7 @@
         <v>30</v>
       </c>
       <c r="V105" s="0" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>32</v>
@@ -9476,10 +9512,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>27</v>
@@ -9491,7 +9527,7 @@
         <v>27</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>27</v>
@@ -9539,7 +9575,7 @@
         <v>30</v>
       </c>
       <c r="V106" s="0" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="W106" s="0" t="s">
         <v>32</v>
@@ -9550,10 +9586,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>27</v>
@@ -9565,7 +9601,7 @@
         <v>27</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>27</v>
@@ -9613,7 +9649,7 @@
         <v>30</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>32</v>
@@ -9624,10 +9660,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>27</v>
@@ -9639,7 +9675,7 @@
         <v>27</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>27</v>
@@ -9687,7 +9723,7 @@
         <v>30</v>
       </c>
       <c r="V108" s="0" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="W108" s="0" t="s">
         <v>32</v>
@@ -9698,10 +9734,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>27</v>
@@ -9713,7 +9749,7 @@
         <v>27</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>27</v>
@@ -9761,7 +9797,7 @@
         <v>30</v>
       </c>
       <c r="V109" s="0" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="W109" s="0" t="s">
         <v>32</v>
@@ -9772,10 +9808,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>27</v>
@@ -9787,7 +9823,7 @@
         <v>27</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>27</v>
@@ -9835,7 +9871,7 @@
         <v>30</v>
       </c>
       <c r="V110" s="0" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="W110" s="0" t="s">
         <v>32</v>
@@ -9846,10 +9882,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>27</v>
@@ -9861,7 +9897,7 @@
         <v>27</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>27</v>
@@ -9920,10 +9956,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>27</v>
@@ -9935,7 +9971,7 @@
         <v>27</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>27</v>
@@ -9994,10 +10030,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>27</v>
@@ -10009,7 +10045,7 @@
         <v>27</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>27</v>
@@ -10068,10 +10104,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>27</v>
@@ -10083,7 +10119,7 @@
         <v>27</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>27</v>
@@ -10142,10 +10178,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>27</v>
@@ -10157,7 +10193,7 @@
         <v>27</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>27</v>
@@ -10216,10 +10252,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>27</v>
@@ -10231,7 +10267,7 @@
         <v>27</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>27</v>
@@ -10290,10 +10326,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>27</v>
@@ -10305,7 +10341,7 @@
         <v>27</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>27</v>
@@ -10364,10 +10400,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>27</v>
@@ -10379,7 +10415,7 @@
         <v>27</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>27</v>
@@ -10438,10 +10474,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>27</v>
@@ -10453,7 +10489,7 @@
         <v>27</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>27</v>
@@ -10512,10 +10548,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>27</v>
@@ -10527,7 +10563,7 @@
         <v>27</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>27</v>
@@ -10586,10 +10622,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>27</v>
@@ -10601,7 +10637,7 @@
         <v>27</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>27</v>
@@ -10660,10 +10696,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>27</v>
@@ -10675,7 +10711,7 @@
         <v>27</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>27</v>
@@ -10734,10 +10770,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>27</v>
@@ -10749,7 +10785,7 @@
         <v>27</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>27</v>
@@ -10808,10 +10844,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>27</v>
@@ -10823,7 +10859,7 @@
         <v>27</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>27</v>
@@ -10882,10 +10918,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>27</v>
@@ -10897,7 +10933,7 @@
         <v>27</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>27</v>
@@ -10956,10 +10992,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>27</v>
@@ -10971,7 +11007,7 @@
         <v>27</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>27</v>
@@ -11030,10 +11066,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>27</v>
@@ -11045,7 +11081,7 @@
         <v>27</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>27</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="562">
   <si>
     <t>1兵器id</t>
   </si>
@@ -551,13 +551,13 @@
     <t>15</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>58天20:41:00</t>
-  </si>
-  <si>
-    <t>5085660</t>
+    <t>72</t>
+  </si>
+  <si>
+    <t>106天06:19:00</t>
+  </si>
+  <si>
+    <t>9181140</t>
   </si>
   <si>
     <t>100304</t>
@@ -572,600 +572,600 @@
     <t>850</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>66</t>
   </si>
   <si>
+    <t>115天14:28:40</t>
+  </si>
+  <si>
+    <t>9988120</t>
+  </si>
+  <si>
+    <t>100305</t>
+  </si>
+  <si>
+    <t>霹雳缠手</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>100306</t>
+  </si>
+  <si>
+    <t>竹叶缠手</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>12:38:20</t>
+  </si>
+  <si>
+    <t>45500</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>狼牙枪</t>
+  </si>
+  <si>
+    <t>00001002</t>
+  </si>
+  <si>
+    <t>00:15:00</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>铁头枪</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>00:32:00</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>101003</t>
+  </si>
+  <si>
+    <t>红缨钢枪</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>03:09:40</t>
+  </si>
+  <si>
+    <t>11380</t>
+  </si>
+  <si>
+    <t>101004</t>
+  </si>
+  <si>
+    <t>英雄枪</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10:32:20</t>
+  </si>
+  <si>
+    <t>37940</t>
+  </si>
+  <si>
+    <t>101005</t>
+  </si>
+  <si>
+    <t>千钧搠枪</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>19:58:00</t>
+  </si>
+  <si>
+    <t>71880</t>
+  </si>
+  <si>
+    <t>101101</t>
+  </si>
+  <si>
+    <t>六棱枪</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>101102</t>
+  </si>
+  <si>
+    <t>钩镰枪</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>101103</t>
+  </si>
+  <si>
+    <t>追魂枪</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>101104</t>
+  </si>
+  <si>
+    <t>透骨枪</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>13002</t>
+  </si>
+  <si>
+    <t>101105</t>
+  </si>
+  <si>
+    <t>赤月枪</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>14002</t>
+  </si>
+  <si>
+    <t>101201</t>
+  </si>
+  <si>
+    <t>大杆秤</t>
+  </si>
+  <si>
+    <t>00:54:00</t>
+  </si>
+  <si>
+    <t>3240</t>
+  </si>
+  <si>
+    <t>102001</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>SilverOre</t>
+  </si>
+  <si>
+    <t>01:15:00</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>文士剑</t>
+  </si>
+  <si>
+    <t>04:11:40</t>
+  </si>
+  <si>
+    <t>15100</t>
+  </si>
+  <si>
+    <t>102003</t>
+  </si>
+  <si>
+    <t>安定剑</t>
+  </si>
+  <si>
+    <t>17:25:00</t>
+  </si>
+  <si>
+    <t>62700</t>
+  </si>
+  <si>
+    <t>102004</t>
+  </si>
+  <si>
+    <t>火精剑</t>
+  </si>
+  <si>
+    <t>1天07:14:00</t>
+  </si>
+  <si>
+    <t>112440</t>
+  </si>
+  <si>
+    <t>102101</t>
+  </si>
+  <si>
+    <t>青钢剑</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>0002001</t>
+  </si>
+  <si>
+    <t>00:17:20</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>102102</t>
+  </si>
+  <si>
+    <t>金刚剑</t>
+  </si>
+  <si>
+    <t>102103</t>
+  </si>
+  <si>
+    <t>龙泉宝剑</t>
+  </si>
+  <si>
+    <t>102104</t>
+  </si>
+  <si>
+    <t>全真七子剑</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>102105</t>
+  </si>
+  <si>
+    <t>玄铁重剑</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>117天19:47:20</t>
+  </si>
+  <si>
+    <t>10180040</t>
+  </si>
+  <si>
+    <t>102106</t>
+  </si>
+  <si>
+    <t>淑女剑</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>120天17:57:20</t>
+  </si>
+  <si>
+    <t>10432640</t>
+  </si>
+  <si>
+    <t>102107</t>
+  </si>
+  <si>
+    <t>越女剑</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>01001006</t>
+  </si>
+  <si>
+    <t>02:08:20</t>
+  </si>
+  <si>
+    <t>7700</t>
+  </si>
+  <si>
+    <t>102201</t>
+  </si>
+  <si>
+    <t>侠少剑</t>
+  </si>
+  <si>
+    <t>102202</t>
+  </si>
+  <si>
+    <t>含光剑</t>
+  </si>
+  <si>
+    <t>102203</t>
+  </si>
+  <si>
+    <t>茂陵剑</t>
+  </si>
+  <si>
+    <t>102204</t>
+  </si>
+  <si>
+    <t>玄电剑</t>
+  </si>
+  <si>
+    <t>18002</t>
+  </si>
+  <si>
+    <t>102205</t>
+  </si>
+  <si>
+    <t>青冥剑</t>
+  </si>
+  <si>
+    <t>19002</t>
+  </si>
+  <si>
+    <t>103001</t>
+  </si>
+  <si>
+    <t>马刀</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>00:47:20</t>
+  </si>
+  <si>
+    <t>2840</t>
+  </si>
+  <si>
+    <t>103002</t>
+  </si>
+  <si>
+    <t>鬼头刀</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>02:52:20</t>
+  </si>
+  <si>
+    <t>10340</t>
+  </si>
+  <si>
+    <t>103003</t>
+  </si>
+  <si>
+    <t>大横刀</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>10:54:00</t>
+  </si>
+  <si>
+    <t>39240</t>
+  </si>
+  <si>
+    <t>103004</t>
+  </si>
+  <si>
+    <t>警恶刀</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
-    <t>57天19:14:20</t>
-  </si>
-  <si>
-    <t>4994060</t>
-  </si>
-  <si>
-    <t>100305</t>
-  </si>
-  <si>
-    <t>霹雳缠手</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>100306</t>
-  </si>
-  <si>
-    <t>竹叶缠手</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>12:38:20</t>
-  </si>
-  <si>
-    <t>45500</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>狼牙枪</t>
-  </si>
-  <si>
-    <t>00001002</t>
-  </si>
-  <si>
-    <t>00:15:00</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>铁头枪</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>00:32:00</t>
-  </si>
-  <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>101003</t>
-  </si>
-  <si>
-    <t>红缨钢枪</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>03:09:40</t>
-  </si>
-  <si>
-    <t>11380</t>
-  </si>
-  <si>
-    <t>101004</t>
-  </si>
-  <si>
-    <t>英雄枪</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>10:32:20</t>
-  </si>
-  <si>
-    <t>37940</t>
-  </si>
-  <si>
-    <t>101005</t>
-  </si>
-  <si>
-    <t>千钧搠枪</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>19:58:00</t>
-  </si>
-  <si>
-    <t>71880</t>
-  </si>
-  <si>
-    <t>101101</t>
-  </si>
-  <si>
-    <t>六棱枪</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>101102</t>
-  </si>
-  <si>
-    <t>钩镰枪</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>101103</t>
-  </si>
-  <si>
-    <t>追魂枪</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>101104</t>
-  </si>
-  <si>
-    <t>透骨枪</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>13002</t>
-  </si>
-  <si>
-    <t>101105</t>
-  </si>
-  <si>
-    <t>赤月枪</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>14002</t>
-  </si>
-  <si>
-    <t>101201</t>
-  </si>
-  <si>
-    <t>大杆秤</t>
-  </si>
-  <si>
-    <t>00:54:00</t>
-  </si>
-  <si>
-    <t>3240</t>
-  </si>
-  <si>
-    <t>102001</t>
-  </si>
-  <si>
-    <t>铁剑</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>SilverOre</t>
-  </si>
-  <si>
-    <t>01:15:00</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>102002</t>
-  </si>
-  <si>
-    <t>文士剑</t>
-  </si>
-  <si>
-    <t>04:11:40</t>
-  </si>
-  <si>
-    <t>15100</t>
-  </si>
-  <si>
-    <t>102003</t>
-  </si>
-  <si>
-    <t>安定剑</t>
-  </si>
-  <si>
-    <t>17:25:00</t>
-  </si>
-  <si>
-    <t>62700</t>
-  </si>
-  <si>
-    <t>102004</t>
-  </si>
-  <si>
-    <t>火精剑</t>
-  </si>
-  <si>
-    <t>1天07:14:00</t>
-  </si>
-  <si>
-    <t>112440</t>
-  </si>
-  <si>
-    <t>102101</t>
-  </si>
-  <si>
-    <t>青钢剑</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>0002001</t>
-  </si>
-  <si>
-    <t>00:17:20</t>
-  </si>
-  <si>
-    <t>1040</t>
-  </si>
-  <si>
-    <t>102102</t>
-  </si>
-  <si>
-    <t>金刚剑</t>
-  </si>
-  <si>
-    <t>102103</t>
-  </si>
-  <si>
-    <t>龙泉宝剑</t>
-  </si>
-  <si>
-    <t>102104</t>
-  </si>
-  <si>
-    <t>全真七子剑</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>102105</t>
-  </si>
-  <si>
-    <t>玄铁重剑</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>58天21:53:40</t>
-  </si>
-  <si>
-    <t>5090020</t>
-  </si>
-  <si>
-    <t>102106</t>
-  </si>
-  <si>
-    <t>淑女剑</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>56</t>
+    <t>17:40:20</t>
+  </si>
+  <si>
+    <t>63620</t>
+  </si>
+  <si>
+    <t>104001</t>
+  </si>
+  <si>
+    <t>桃木棍</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>00:44:00</t>
+  </si>
+  <si>
+    <t>2640</t>
+  </si>
+  <si>
+    <t>104002</t>
+  </si>
+  <si>
+    <t>楠木棍</t>
+  </si>
+  <si>
+    <t>02:15:40</t>
+  </si>
+  <si>
+    <t>8140</t>
+  </si>
+  <si>
+    <t>104003</t>
+  </si>
+  <si>
+    <t>熟铜棍</t>
+  </si>
+  <si>
+    <t>09:45:00</t>
+  </si>
+  <si>
+    <t>35100</t>
+  </si>
+  <si>
+    <t>104004</t>
+  </si>
+  <si>
+    <t>精钢棍</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>17:22:20</t>
+  </si>
+  <si>
+    <t>62540</t>
+  </si>
+  <si>
+    <t>104101</t>
+  </si>
+  <si>
+    <t>齐眉棍</t>
+  </si>
+  <si>
+    <t>104102</t>
+  </si>
+  <si>
+    <t>普渡棍</t>
+  </si>
+  <si>
+    <t>104103</t>
+  </si>
+  <si>
+    <t>鹤舞棍</t>
+  </si>
+  <si>
+    <t>104104</t>
+  </si>
+  <si>
+    <t>紫金梁</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>104105</t>
+  </si>
+  <si>
+    <t>紧那罗棒</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>21002</t>
+  </si>
+  <si>
+    <t>104201</t>
+  </si>
+  <si>
+    <t>纯钢扁担</t>
+  </si>
+  <si>
+    <t>02:25:00</t>
+  </si>
+  <si>
+    <t>8700</t>
+  </si>
+  <si>
+    <t>104202</t>
+  </si>
+  <si>
+    <t>慈恩禅杖</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>104203</t>
+  </si>
+  <si>
+    <t>伏魔金刚铲</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>139天23:22:00</t>
+  </si>
+  <si>
+    <t>12093720</t>
+  </si>
+  <si>
+    <t>104204</t>
+  </si>
+  <si>
+    <t>骷髅拐杖</t>
+  </si>
+  <si>
+    <t>350</t>
   </si>
   <si>
     <t>35</t>
   </si>
   <si>
-    <t>60天08:58:40</t>
-  </si>
-  <si>
-    <t>5216320</t>
-  </si>
-  <si>
-    <t>102107</t>
-  </si>
-  <si>
-    <t>越女剑</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>01001006</t>
-  </si>
-  <si>
-    <t>02:08:20</t>
-  </si>
-  <si>
-    <t>7700</t>
-  </si>
-  <si>
-    <t>102201</t>
-  </si>
-  <si>
-    <t>侠少剑</t>
-  </si>
-  <si>
-    <t>102202</t>
-  </si>
-  <si>
-    <t>含光剑</t>
-  </si>
-  <si>
-    <t>102203</t>
-  </si>
-  <si>
-    <t>茂陵剑</t>
-  </si>
-  <si>
-    <t>102204</t>
-  </si>
-  <si>
-    <t>玄电剑</t>
-  </si>
-  <si>
-    <t>18002</t>
-  </si>
-  <si>
-    <t>102205</t>
-  </si>
-  <si>
-    <t>青冥剑</t>
-  </si>
-  <si>
-    <t>19002</t>
-  </si>
-  <si>
-    <t>103001</t>
-  </si>
-  <si>
-    <t>马刀</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>00:47:20</t>
-  </si>
-  <si>
-    <t>2840</t>
-  </si>
-  <si>
-    <t>103002</t>
-  </si>
-  <si>
-    <t>鬼头刀</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>02:52:20</t>
-  </si>
-  <si>
-    <t>10340</t>
-  </si>
-  <si>
-    <t>103003</t>
-  </si>
-  <si>
-    <t>大横刀</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>10:54:00</t>
-  </si>
-  <si>
-    <t>39240</t>
-  </si>
-  <si>
-    <t>103004</t>
-  </si>
-  <si>
-    <t>警恶刀</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>17:40:20</t>
-  </si>
-  <si>
-    <t>63620</t>
-  </si>
-  <si>
-    <t>104001</t>
-  </si>
-  <si>
-    <t>桃木棍</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>00:44:00</t>
-  </si>
-  <si>
-    <t>2640</t>
-  </si>
-  <si>
-    <t>104002</t>
-  </si>
-  <si>
-    <t>楠木棍</t>
-  </si>
-  <si>
-    <t>02:15:40</t>
-  </si>
-  <si>
-    <t>8140</t>
-  </si>
-  <si>
-    <t>104003</t>
-  </si>
-  <si>
-    <t>熟铜棍</t>
-  </si>
-  <si>
-    <t>09:45:00</t>
-  </si>
-  <si>
-    <t>35100</t>
-  </si>
-  <si>
-    <t>104004</t>
-  </si>
-  <si>
-    <t>精钢棍</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>17:22:20</t>
-  </si>
-  <si>
-    <t>62540</t>
-  </si>
-  <si>
-    <t>104101</t>
-  </si>
-  <si>
-    <t>齐眉棍</t>
-  </si>
-  <si>
-    <t>104102</t>
-  </si>
-  <si>
-    <t>普渡棍</t>
-  </si>
-  <si>
-    <t>104103</t>
-  </si>
-  <si>
-    <t>鹤舞棍</t>
-  </si>
-  <si>
-    <t>104104</t>
-  </si>
-  <si>
-    <t>紫金梁</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>104105</t>
-  </si>
-  <si>
-    <t>紧那罗棒</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>21002</t>
-  </si>
-  <si>
-    <t>104201</t>
-  </si>
-  <si>
-    <t>纯钢扁担</t>
-  </si>
-  <si>
-    <t>02:25:00</t>
-  </si>
-  <si>
-    <t>8700</t>
-  </si>
-  <si>
-    <t>104202</t>
-  </si>
-  <si>
-    <t>慈恩禅杖</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>104203</t>
-  </si>
-  <si>
-    <t>伏魔金刚铲</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>69天23:41:00</t>
-  </si>
-  <si>
-    <t>6046860</t>
-  </si>
-  <si>
-    <t>104204</t>
-  </si>
-  <si>
-    <t>骷髅拐杖</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
     <t>02:10:00</t>
   </si>
   <si>
@@ -1184,13 +1184,13 @@
     <t>0.18</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>49天18:51:40</t>
-  </si>
-  <si>
-    <t>4301500</t>
+    <t>106</t>
+  </si>
+  <si>
+    <t>99天13:43:20</t>
+  </si>
+  <si>
+    <t>8603000</t>
   </si>
   <si>
     <t>104206</t>
@@ -1199,42 +1199,51 @@
     <t>红玉仗</t>
   </si>
   <si>
-    <t>91</t>
+    <t>182</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>124天04:51:20</t>
+  </si>
+  <si>
+    <t>10731080</t>
+  </si>
+  <si>
+    <t>104207</t>
+  </si>
+  <si>
+    <t>万毒拐杖</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>125天09:46:40</t>
+  </si>
+  <si>
+    <t>10835200</t>
+  </si>
+  <si>
+    <t>105101</t>
+  </si>
+  <si>
+    <t>短笛</t>
+  </si>
+  <si>
+    <t>105102</t>
+  </si>
+  <si>
+    <t>木笛</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>62天02:25:40</t>
-  </si>
-  <si>
-    <t>5365540</t>
-  </si>
-  <si>
-    <t>104207</t>
-  </si>
-  <si>
-    <t>万毒拐杖</t>
-  </si>
-  <si>
-    <t>62天16:53:20</t>
-  </si>
-  <si>
-    <t>5417600</t>
-  </si>
-  <si>
-    <t>105101</t>
-  </si>
-  <si>
-    <t>短笛</t>
-  </si>
-  <si>
-    <t>105102</t>
-  </si>
-  <si>
-    <t>木笛</t>
-  </si>
-  <si>
     <t>105103</t>
   </si>
   <si>
@@ -1271,10 +1280,10 @@
     <t>碧海潮声笛</t>
   </si>
   <si>
-    <t>14天03:24:00</t>
-  </si>
-  <si>
-    <t>1221840</t>
+    <t>28天06:48:00</t>
+  </si>
+  <si>
+    <t>2443680</t>
   </si>
   <si>
     <t>106001</t>
@@ -1289,13 +1298,13 @@
     <t>金刚佛珠</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>64天03:03:20</t>
-  </si>
-  <si>
-    <t>5540600</t>
+    <t>166</t>
+  </si>
+  <si>
+    <t>128天06:06:40</t>
+  </si>
+  <si>
+    <t>11081200</t>
   </si>
   <si>
     <t>106003</t>
@@ -1352,10 +1361,10 @@
     <t>竹筹</t>
   </si>
   <si>
-    <t>1天19:46:40</t>
-  </si>
-  <si>
-    <t>157600</t>
+    <t>3天15:33:20</t>
+  </si>
+  <si>
+    <t>315200</t>
   </si>
   <si>
     <t>200001</t>
@@ -3181,7 +3190,7 @@
         <v>81</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>104</v>
@@ -3193,13 +3202,13 @@
         <v>115</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="S20" s="0" t="s">
         <v>135</v>
@@ -3267,13 +3276,13 @@
         <v>115</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>29</v>
@@ -4895,19 +4904,19 @@
         <v>115</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="Q43" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="S43" s="0" t="s">
         <v>135</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U43" s="0" t="s">
         <v>30</v>
@@ -4963,25 +4972,25 @@
         <v>104</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>115</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="S44" s="0" t="s">
         <v>135</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U44" s="0" t="s">
         <v>30</v>
@@ -4990,18 +4999,18 @@
         <v>31</v>
       </c>
       <c r="W44" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="X44" s="0" t="s">
         <v>290</v>
-      </c>
-      <c r="X44" s="0" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="0" t="s">
         <v>292</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>293</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>98</v>
@@ -5016,7 +5025,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>27</v>
@@ -5061,21 +5070,21 @@
         <v>30</v>
       </c>
       <c r="V45" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="W45" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="W45" s="0" t="s">
+      <c r="X45" s="0" t="s">
         <v>296</v>
-      </c>
-      <c r="X45" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>298</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>299</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>98</v>
@@ -5146,10 +5155,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>300</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>301</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>110</v>
@@ -5220,10 +5229,10 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>302</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>303</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>121</v>
@@ -5294,10 +5303,10 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B49" s="0" t="s">
         <v>304</v>
-      </c>
-      <c r="B49" s="0" t="s">
-        <v>305</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>131</v>
@@ -5354,7 +5363,7 @@
         <v>29</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V49" s="0" t="s">
         <v>31</v>
@@ -5368,10 +5377,10 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" s="0" t="s">
         <v>307</v>
-      </c>
-      <c r="B50" s="0" t="s">
-        <v>308</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>170</v>
@@ -5428,7 +5437,7 @@
         <v>29</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="V50" s="0" t="s">
         <v>31</v>
@@ -5442,10 +5451,10 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>310</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>311</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>44</v>
@@ -5457,7 +5466,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>27</v>
@@ -5469,7 +5478,7 @@
         <v>27</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>48</v>
@@ -5508,18 +5517,18 @@
         <v>31</v>
       </c>
       <c r="W51" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="X51" s="0" t="s">
         <v>314</v>
-      </c>
-      <c r="X51" s="0" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>316</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>317</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>55</v>
@@ -5531,19 +5540,19 @@
         <v>99</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H52" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="0" t="s">
         <v>318</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>319</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>59</v>
@@ -5582,18 +5591,18 @@
         <v>31</v>
       </c>
       <c r="W52" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="X52" s="0" t="s">
         <v>320</v>
-      </c>
-      <c r="X52" s="0" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>323</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>65</v>
@@ -5605,7 +5614,7 @@
         <v>26</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>27</v>
@@ -5617,7 +5626,7 @@
         <v>27</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>59</v>
@@ -5656,18 +5665,18 @@
         <v>31</v>
       </c>
       <c r="W53" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="X53" s="0" t="s">
         <v>325</v>
-      </c>
-      <c r="X53" s="0" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>327</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>328</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>78</v>
@@ -5679,25 +5688,25 @@
         <v>44</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H54" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="0" t="s">
         <v>329</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>330</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>69</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="M54" s="0" t="s">
         <v>71</v>
@@ -5771,7 +5780,7 @@
         <v>48</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="M55" s="0" t="s">
         <v>29</v>
@@ -5845,7 +5854,7 @@
         <v>48</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>59</v>
@@ -6585,19 +6594,19 @@
         <v>92</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="M66" s="0" t="s">
         <v>104</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="O66" s="0" t="s">
         <v>115</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>29</v>
@@ -6618,18 +6627,18 @@
         <v>31</v>
       </c>
       <c r="W66" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="X66" s="0" t="s">
         <v>379</v>
-      </c>
-      <c r="X66" s="0" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>381</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>382</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>27</v>
@@ -6644,7 +6653,7 @@
         <v>28</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>27</v>
@@ -6659,7 +6668,7 @@
         <v>48</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>289</v>
+        <v>383</v>
       </c>
       <c r="M67" s="0" t="s">
         <v>59</v>
@@ -6715,7 +6724,7 @@
         <v>27</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G68" s="0" t="s">
         <v>388</v>
@@ -6739,19 +6748,19 @@
         <v>92</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="O68" s="0" t="s">
         <v>115</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q68" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="S68" s="0" t="s">
         <v>29</v>
@@ -6813,7 +6822,7 @@
         <v>92</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="O69" s="0" t="s">
         <v>104</v>
@@ -6825,13 +6834,13 @@
         <v>115</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>103</v>
+        <v>396</v>
       </c>
       <c r="S69" s="0" t="s">
         <v>135</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U69" s="0" t="s">
         <v>30</v>
@@ -6840,18 +6849,18 @@
         <v>31</v>
       </c>
       <c r="W69" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="X69" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>27</v>
@@ -6863,7 +6872,7 @@
         <v>27</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>27</v>
@@ -6881,7 +6890,7 @@
         <v>69</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="M70" s="0" t="s">
         <v>81</v>
@@ -6899,13 +6908,13 @@
         <v>115</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>91</v>
+        <v>402</v>
       </c>
       <c r="S70" s="0" t="s">
         <v>135</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="U70" s="0" t="s">
         <v>30</v>
@@ -6914,18 +6923,18 @@
         <v>31</v>
       </c>
       <c r="W70" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>26</v>
@@ -6996,10 +7005,10 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>122</v>
@@ -7023,7 +7032,7 @@
         <v>27</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>81</v>
@@ -7070,10 +7079,10 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>44</v>
@@ -7144,10 +7153,10 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>55</v>
@@ -7204,7 +7213,7 @@
         <v>29</v>
       </c>
       <c r="U74" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="V74" s="0" t="s">
         <v>31</v>
@@ -7218,10 +7227,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>78</v>
@@ -7278,24 +7287,24 @@
         <v>29</v>
       </c>
       <c r="U75" s="0" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="V75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>27</v>
@@ -7337,19 +7346,19 @@
         <v>92</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="Q76" s="0" t="s">
         <v>104</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="S76" s="0" t="s">
         <v>115</v>
       </c>
       <c r="T76" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U76" s="0" t="s">
         <v>30</v>
@@ -7358,18 +7367,18 @@
         <v>31</v>
       </c>
       <c r="W76" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="X76" s="0" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>27</v>
@@ -7381,7 +7390,7 @@
         <v>27</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>88</v>
@@ -7440,10 +7449,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>121</v>
@@ -7473,31 +7482,31 @@
         <v>81</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M78" s="0" t="s">
         <v>92</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="O78" s="0" t="s">
         <v>104</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q78" s="0" t="s">
         <v>125</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S78" s="0" t="s">
         <v>135</v>
       </c>
       <c r="T78" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="U78" s="0" t="s">
         <v>30</v>
@@ -7506,18 +7515,18 @@
         <v>31</v>
       </c>
       <c r="W78" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="X78" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>27</v>
@@ -7588,10 +7597,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>27</v>
@@ -7654,18 +7663,18 @@
         <v>31</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="X80" s="0" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>27</v>
@@ -7680,7 +7689,7 @@
         <v>28</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>27</v>
@@ -7736,10 +7745,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>27</v>
@@ -7802,18 +7811,18 @@
         <v>31</v>
       </c>
       <c r="W82" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="X82" s="0" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>65</v>
@@ -7825,7 +7834,7 @@
         <v>27</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>171</v>
@@ -7884,10 +7893,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>27</v>
@@ -7917,19 +7926,19 @@
         <v>69</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>71</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="O84" s="0" t="s">
         <v>81</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="Q84" s="0" t="s">
         <v>29</v>
@@ -7950,18 +7959,18 @@
         <v>31</v>
       </c>
       <c r="W84" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="X84" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>27</v>
@@ -8032,10 +8041,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>27</v>
@@ -8095,7 +8104,7 @@
         <v>30</v>
       </c>
       <c r="V86" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="W86" s="0" t="s">
         <v>32</v>
@@ -8106,10 +8115,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>27</v>
@@ -8169,7 +8178,7 @@
         <v>30</v>
       </c>
       <c r="V87" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="W87" s="0" t="s">
         <v>32</v>
@@ -8180,10 +8189,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>27</v>
@@ -8243,7 +8252,7 @@
         <v>30</v>
       </c>
       <c r="V88" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="W88" s="0" t="s">
         <v>32</v>
@@ -8254,10 +8263,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>27</v>
@@ -8317,7 +8326,7 @@
         <v>30</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="W89" s="0" t="s">
         <v>32</v>
@@ -8328,10 +8337,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>27</v>
@@ -8391,7 +8400,7 @@
         <v>30</v>
       </c>
       <c r="V90" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="W90" s="0" t="s">
         <v>32</v>
@@ -8402,10 +8411,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>27</v>
@@ -8465,7 +8474,7 @@
         <v>30</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="W91" s="0" t="s">
         <v>32</v>
@@ -8476,10 +8485,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>27</v>
@@ -8539,7 +8548,7 @@
         <v>30</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="W92" s="0" t="s">
         <v>32</v>
@@ -8550,10 +8559,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>27</v>
@@ -8613,7 +8622,7 @@
         <v>30</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>32</v>
@@ -8624,10 +8633,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>27</v>
@@ -8687,7 +8696,7 @@
         <v>30</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="W94" s="0" t="s">
         <v>32</v>
@@ -8698,10 +8707,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>27</v>
@@ -8761,7 +8770,7 @@
         <v>30</v>
       </c>
       <c r="V95" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="W95" s="0" t="s">
         <v>32</v>
@@ -8772,10 +8781,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>27</v>
@@ -8835,7 +8844,7 @@
         <v>30</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>32</v>
@@ -8846,10 +8855,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>27</v>
@@ -8909,7 +8918,7 @@
         <v>30</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>32</v>
@@ -8920,10 +8929,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>27</v>
@@ -8983,7 +8992,7 @@
         <v>30</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>32</v>
@@ -8994,10 +9003,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>27</v>
@@ -9057,7 +9066,7 @@
         <v>30</v>
       </c>
       <c r="V99" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>32</v>
@@ -9068,10 +9077,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>27</v>
@@ -9131,7 +9140,7 @@
         <v>30</v>
       </c>
       <c r="V100" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>32</v>
@@ -9142,10 +9151,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>27</v>
@@ -9205,7 +9214,7 @@
         <v>30</v>
       </c>
       <c r="V101" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="W101" s="0" t="s">
         <v>32</v>
@@ -9216,10 +9225,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>27</v>
@@ -9279,7 +9288,7 @@
         <v>30</v>
       </c>
       <c r="V102" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="W102" s="0" t="s">
         <v>32</v>
@@ -9290,10 +9299,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>27</v>
@@ -9353,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="V103" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="W103" s="0" t="s">
         <v>32</v>
@@ -9364,10 +9373,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>27</v>
@@ -9427,7 +9436,7 @@
         <v>30</v>
       </c>
       <c r="V104" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="W104" s="0" t="s">
         <v>32</v>
@@ -9438,10 +9447,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>27</v>
@@ -9501,7 +9510,7 @@
         <v>30</v>
       </c>
       <c r="V105" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>32</v>
@@ -9512,10 +9521,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>27</v>
@@ -9575,7 +9584,7 @@
         <v>30</v>
       </c>
       <c r="V106" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="W106" s="0" t="s">
         <v>32</v>
@@ -9586,10 +9595,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>27</v>
@@ -9649,7 +9658,7 @@
         <v>30</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>32</v>
@@ -9660,10 +9669,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>27</v>
@@ -9723,7 +9732,7 @@
         <v>30</v>
       </c>
       <c r="V108" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="W108" s="0" t="s">
         <v>32</v>
@@ -9734,10 +9743,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>27</v>
@@ -9797,7 +9806,7 @@
         <v>30</v>
       </c>
       <c r="V109" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="W109" s="0" t="s">
         <v>32</v>
@@ -9808,10 +9817,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>27</v>
@@ -9871,7 +9880,7 @@
         <v>30</v>
       </c>
       <c r="V110" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="W110" s="0" t="s">
         <v>32</v>
@@ -9882,10 +9891,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>27</v>
@@ -9956,10 +9965,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>27</v>
@@ -10030,10 +10039,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>27</v>
@@ -10104,10 +10113,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>27</v>
@@ -10178,10 +10187,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>27</v>
@@ -10252,10 +10261,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>27</v>
@@ -10326,10 +10335,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>27</v>
@@ -10400,10 +10409,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>27</v>
@@ -10474,10 +10483,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>27</v>
@@ -10548,10 +10557,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>27</v>
@@ -10622,10 +10631,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>27</v>
@@ -10696,10 +10705,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>27</v>
@@ -10770,10 +10779,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>27</v>
@@ -10844,10 +10853,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>27</v>
@@ -10918,10 +10927,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>27</v>
@@ -10992,10 +11001,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>27</v>
@@ -11066,10 +11075,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>27</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -362,7 +362,7 @@
     <t>DarksteelIngot</t>
   </si>
   <si>
-    <t>8001</t>
+    <t>7002</t>
   </si>
   <si>
     <t>4天15:28:00</t>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -5253,7 +5253,7 @@
         <v>27</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>27</v>
@@ -5327,7 +5327,7 @@
         <v>27</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>27</v>
@@ -5401,7 +5401,7 @@
         <v>27</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>27</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -488,7 +488,7 @@
     <t>1700</t>
   </si>
   <si>
-    <t>26002</t>
+    <t>27002</t>
   </si>
   <si>
     <t>100301</t>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
   <si>
     <t>1兵器id</t>
   </si>
@@ -437,616 +437,610 @@
     <t>錾银缠手</t>
   </si>
   <si>
+    <t>100202</t>
+  </si>
+  <si>
+    <t>魔障缠手</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>100203</t>
+  </si>
+  <si>
+    <t>舞凤</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>100204</t>
+  </si>
+  <si>
+    <t>白虎</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>25002</t>
+  </si>
+  <si>
+    <t>100205</t>
+  </si>
+  <si>
+    <t>天机</t>
+  </si>
+  <si>
+    <t>27002</t>
+  </si>
+  <si>
+    <t>100301</t>
+  </si>
+  <si>
+    <t>铜尸缠手</t>
+  </si>
+  <si>
     <t>500</t>
   </si>
   <si>
-    <t>100202</t>
-  </si>
-  <si>
-    <t>魔障缠手</t>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14:24:40</t>
+  </si>
+  <si>
+    <t>51880</t>
+  </si>
+  <si>
+    <t>100302</t>
+  </si>
+  <si>
+    <t>铁尸缠手</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>14:46:40</t>
+  </si>
+  <si>
+    <t>53200</t>
+  </si>
+  <si>
+    <t>100303</t>
+  </si>
+  <si>
+    <t>寒玉缠手</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>106天06:19:00</t>
+  </si>
+  <si>
+    <t>9181140</t>
+  </si>
+  <si>
+    <t>100304</t>
+  </si>
+  <si>
+    <t>降龙缠手</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>115天14:28:40</t>
+  </si>
+  <si>
+    <t>9988120</t>
+  </si>
+  <si>
+    <t>100305</t>
+  </si>
+  <si>
+    <t>霹雳缠手</t>
+  </si>
+  <si>
+    <t>100306</t>
+  </si>
+  <si>
+    <t>竹叶缠手</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>12:38:20</t>
+  </si>
+  <si>
+    <t>45500</t>
+  </si>
+  <si>
+    <t>101001</t>
+  </si>
+  <si>
+    <t>狼牙枪</t>
+  </si>
+  <si>
+    <t>00001002</t>
+  </si>
+  <si>
+    <t>00:15:00</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>101002</t>
+  </si>
+  <si>
+    <t>铁头枪</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>00:32:00</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>101003</t>
+  </si>
+  <si>
+    <t>红缨钢枪</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>03:09:40</t>
+  </si>
+  <si>
+    <t>11380</t>
+  </si>
+  <si>
+    <t>101004</t>
+  </si>
+  <si>
+    <t>英雄枪</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10:32:20</t>
+  </si>
+  <si>
+    <t>37940</t>
+  </si>
+  <si>
+    <t>101005</t>
+  </si>
+  <si>
+    <t>千钧搠枪</t>
+  </si>
+  <si>
+    <t>580</t>
+  </si>
+  <si>
+    <t>19:58:00</t>
+  </si>
+  <si>
+    <t>71880</t>
+  </si>
+  <si>
+    <t>101101</t>
+  </si>
+  <si>
+    <t>六棱枪</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>101102</t>
+  </si>
+  <si>
+    <t>钩镰枪</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>101103</t>
+  </si>
+  <si>
+    <t>追魂枪</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>101104</t>
+  </si>
+  <si>
+    <t>透骨枪</t>
+  </si>
+  <si>
+    <t>1080</t>
+  </si>
+  <si>
+    <t>13002</t>
+  </si>
+  <si>
+    <t>101105</t>
+  </si>
+  <si>
+    <t>赤月枪</t>
+  </si>
+  <si>
+    <t>1240</t>
+  </si>
+  <si>
+    <t>14002</t>
+  </si>
+  <si>
+    <t>101201</t>
+  </si>
+  <si>
+    <t>大杆秤</t>
+  </si>
+  <si>
+    <t>00:54:00</t>
+  </si>
+  <si>
+    <t>3240</t>
+  </si>
+  <si>
+    <t>102001</t>
+  </si>
+  <si>
+    <t>铁剑</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>SilverOre</t>
+  </si>
+  <si>
+    <t>01:15:00</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>文士剑</t>
+  </si>
+  <si>
+    <t>04:11:40</t>
+  </si>
+  <si>
+    <t>15100</t>
+  </si>
+  <si>
+    <t>102003</t>
+  </si>
+  <si>
+    <t>安定剑</t>
+  </si>
+  <si>
+    <t>17:25:00</t>
+  </si>
+  <si>
+    <t>62700</t>
+  </si>
+  <si>
+    <t>102004</t>
+  </si>
+  <si>
+    <t>火精剑</t>
+  </si>
+  <si>
+    <t>1天07:14:00</t>
+  </si>
+  <si>
+    <t>112440</t>
+  </si>
+  <si>
+    <t>102101</t>
+  </si>
+  <si>
+    <t>青钢剑</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>0002001</t>
+  </si>
+  <si>
+    <t>00:17:20</t>
+  </si>
+  <si>
+    <t>1040</t>
+  </si>
+  <si>
+    <t>102102</t>
+  </si>
+  <si>
+    <t>金刚剑</t>
+  </si>
+  <si>
+    <t>102103</t>
+  </si>
+  <si>
+    <t>龙泉宝剑</t>
+  </si>
+  <si>
+    <t>102104</t>
+  </si>
+  <si>
+    <t>全真七子剑</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>102105</t>
+  </si>
+  <si>
+    <t>玄铁重剑</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>117天19:47:20</t>
+  </si>
+  <si>
+    <t>10180040</t>
+  </si>
+  <si>
+    <t>102106</t>
+  </si>
+  <si>
+    <t>淑女剑</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>120天17:57:20</t>
+  </si>
+  <si>
+    <t>10432640</t>
+  </si>
+  <si>
+    <t>102107</t>
+  </si>
+  <si>
+    <t>越女剑</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>01001006</t>
+  </si>
+  <si>
+    <t>02:08:20</t>
+  </si>
+  <si>
+    <t>7700</t>
+  </si>
+  <si>
+    <t>102201</t>
+  </si>
+  <si>
+    <t>侠少剑</t>
+  </si>
+  <si>
+    <t>102202</t>
+  </si>
+  <si>
+    <t>含光剑</t>
+  </si>
+  <si>
+    <t>102203</t>
+  </si>
+  <si>
+    <t>茂陵剑</t>
+  </si>
+  <si>
+    <t>102204</t>
+  </si>
+  <si>
+    <t>玄电剑</t>
+  </si>
+  <si>
+    <t>18002</t>
+  </si>
+  <si>
+    <t>102205</t>
+  </si>
+  <si>
+    <t>青冥剑</t>
+  </si>
+  <si>
+    <t>19002</t>
+  </si>
+  <si>
+    <t>103001</t>
+  </si>
+  <si>
+    <t>马刀</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>00:47:20</t>
+  </si>
+  <si>
+    <t>2840</t>
+  </si>
+  <si>
+    <t>103002</t>
+  </si>
+  <si>
+    <t>鬼头刀</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>-8</t>
+  </si>
+  <si>
+    <t>02:52:20</t>
+  </si>
+  <si>
+    <t>10340</t>
+  </si>
+  <si>
+    <t>103003</t>
+  </si>
+  <si>
+    <t>大横刀</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>10:54:00</t>
+  </si>
+  <si>
+    <t>39240</t>
+  </si>
+  <si>
+    <t>103004</t>
+  </si>
+  <si>
+    <t>警恶刀</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>17:40:20</t>
+  </si>
+  <si>
+    <t>63620</t>
+  </si>
+  <si>
+    <t>104001</t>
+  </si>
+  <si>
+    <t>桃木棍</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>00:44:00</t>
+  </si>
+  <si>
+    <t>2640</t>
+  </si>
+  <si>
+    <t>104002</t>
+  </si>
+  <si>
+    <t>楠木棍</t>
+  </si>
+  <si>
+    <t>02:15:40</t>
+  </si>
+  <si>
+    <t>8140</t>
+  </si>
+  <si>
+    <t>104003</t>
+  </si>
+  <si>
+    <t>熟铜棍</t>
   </si>
   <si>
     <t>700</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>100203</t>
-  </si>
-  <si>
-    <t>舞凤</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>100204</t>
-  </si>
-  <si>
-    <t>白虎</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>25002</t>
-  </si>
-  <si>
-    <t>100205</t>
-  </si>
-  <si>
-    <t>天机</t>
-  </si>
-  <si>
-    <t>1700</t>
-  </si>
-  <si>
-    <t>27002</t>
-  </si>
-  <si>
-    <t>100301</t>
-  </si>
-  <si>
-    <t>铜尸缠手</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14:24:40</t>
-  </si>
-  <si>
-    <t>51880</t>
-  </si>
-  <si>
-    <t>100302</t>
-  </si>
-  <si>
-    <t>铁尸缠手</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>14:46:40</t>
-  </si>
-  <si>
-    <t>53200</t>
-  </si>
-  <si>
-    <t>100303</t>
-  </si>
-  <si>
-    <t>寒玉缠手</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>106天06:19:00</t>
-  </si>
-  <si>
-    <t>9181140</t>
-  </si>
-  <si>
-    <t>100304</t>
-  </si>
-  <si>
-    <t>降龙缠手</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>115天14:28:40</t>
-  </si>
-  <si>
-    <t>9988120</t>
-  </si>
-  <si>
-    <t>100305</t>
-  </si>
-  <si>
-    <t>霹雳缠手</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>100306</t>
-  </si>
-  <si>
-    <t>竹叶缠手</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>12:38:20</t>
-  </si>
-  <si>
-    <t>45500</t>
-  </si>
-  <si>
-    <t>101001</t>
-  </si>
-  <si>
-    <t>狼牙枪</t>
-  </si>
-  <si>
-    <t>00001002</t>
-  </si>
-  <si>
-    <t>00:15:00</t>
-  </si>
-  <si>
-    <t>101002</t>
-  </si>
-  <si>
-    <t>铁头枪</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>00:32:00</t>
-  </si>
-  <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>101003</t>
-  </si>
-  <si>
-    <t>红缨钢枪</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>03:09:40</t>
-  </si>
-  <si>
-    <t>11380</t>
-  </si>
-  <si>
-    <t>101004</t>
-  </si>
-  <si>
-    <t>英雄枪</t>
-  </si>
-  <si>
-    <t>460</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>10:32:20</t>
-  </si>
-  <si>
-    <t>37940</t>
-  </si>
-  <si>
-    <t>101005</t>
-  </si>
-  <si>
-    <t>千钧搠枪</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>19:58:00</t>
-  </si>
-  <si>
-    <t>71880</t>
-  </si>
-  <si>
-    <t>101101</t>
-  </si>
-  <si>
-    <t>六棱枪</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>101102</t>
-  </si>
-  <si>
-    <t>钩镰枪</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>101103</t>
-  </si>
-  <si>
-    <t>追魂枪</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>101104</t>
-  </si>
-  <si>
-    <t>透骨枪</t>
-  </si>
-  <si>
-    <t>1080</t>
-  </si>
-  <si>
-    <t>13002</t>
-  </si>
-  <si>
-    <t>101105</t>
-  </si>
-  <si>
-    <t>赤月枪</t>
-  </si>
-  <si>
-    <t>1240</t>
-  </si>
-  <si>
-    <t>14002</t>
-  </si>
-  <si>
-    <t>101201</t>
-  </si>
-  <si>
-    <t>大杆秤</t>
-  </si>
-  <si>
-    <t>00:54:00</t>
-  </si>
-  <si>
-    <t>3240</t>
-  </si>
-  <si>
-    <t>102001</t>
-  </si>
-  <si>
-    <t>铁剑</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>SilverOre</t>
-  </si>
-  <si>
-    <t>01:15:00</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>102002</t>
-  </si>
-  <si>
-    <t>文士剑</t>
-  </si>
-  <si>
-    <t>04:11:40</t>
-  </si>
-  <si>
-    <t>15100</t>
-  </si>
-  <si>
-    <t>102003</t>
-  </si>
-  <si>
-    <t>安定剑</t>
-  </si>
-  <si>
-    <t>17:25:00</t>
-  </si>
-  <si>
-    <t>62700</t>
-  </si>
-  <si>
-    <t>102004</t>
-  </si>
-  <si>
-    <t>火精剑</t>
-  </si>
-  <si>
-    <t>1天07:14:00</t>
-  </si>
-  <si>
-    <t>112440</t>
-  </si>
-  <si>
-    <t>102101</t>
-  </si>
-  <si>
-    <t>青钢剑</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>0002001</t>
-  </si>
-  <si>
-    <t>00:17:20</t>
-  </si>
-  <si>
-    <t>1040</t>
-  </si>
-  <si>
-    <t>102102</t>
-  </si>
-  <si>
-    <t>金刚剑</t>
-  </si>
-  <si>
-    <t>102103</t>
-  </si>
-  <si>
-    <t>龙泉宝剑</t>
-  </si>
-  <si>
-    <t>102104</t>
-  </si>
-  <si>
-    <t>全真七子剑</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>102105</t>
-  </si>
-  <si>
-    <t>玄铁重剑</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>117天19:47:20</t>
-  </si>
-  <si>
-    <t>10180040</t>
-  </si>
-  <si>
-    <t>102106</t>
-  </si>
-  <si>
-    <t>淑女剑</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>120天17:57:20</t>
-  </si>
-  <si>
-    <t>10432640</t>
-  </si>
-  <si>
-    <t>102107</t>
-  </si>
-  <si>
-    <t>越女剑</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>01001006</t>
-  </si>
-  <si>
-    <t>02:08:20</t>
-  </si>
-  <si>
-    <t>7700</t>
-  </si>
-  <si>
-    <t>102201</t>
-  </si>
-  <si>
-    <t>侠少剑</t>
-  </si>
-  <si>
-    <t>102202</t>
-  </si>
-  <si>
-    <t>含光剑</t>
-  </si>
-  <si>
-    <t>102203</t>
-  </si>
-  <si>
-    <t>茂陵剑</t>
-  </si>
-  <si>
-    <t>102204</t>
-  </si>
-  <si>
-    <t>玄电剑</t>
-  </si>
-  <si>
-    <t>18002</t>
-  </si>
-  <si>
-    <t>102205</t>
-  </si>
-  <si>
-    <t>青冥剑</t>
-  </si>
-  <si>
-    <t>19002</t>
-  </si>
-  <si>
-    <t>103001</t>
-  </si>
-  <si>
-    <t>马刀</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>-10</t>
-  </si>
-  <si>
-    <t>00:47:20</t>
-  </si>
-  <si>
-    <t>2840</t>
-  </si>
-  <si>
-    <t>103002</t>
-  </si>
-  <si>
-    <t>鬼头刀</t>
-  </si>
-  <si>
-    <t>420</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>02:52:20</t>
-  </si>
-  <si>
-    <t>10340</t>
-  </si>
-  <si>
-    <t>103003</t>
-  </si>
-  <si>
-    <t>大横刀</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>10:54:00</t>
-  </si>
-  <si>
-    <t>39240</t>
-  </si>
-  <si>
-    <t>103004</t>
-  </si>
-  <si>
-    <t>警恶刀</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>17:40:20</t>
-  </si>
-  <si>
-    <t>63620</t>
-  </si>
-  <si>
-    <t>104001</t>
-  </si>
-  <si>
-    <t>桃木棍</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>00:44:00</t>
-  </si>
-  <si>
-    <t>2640</t>
-  </si>
-  <si>
-    <t>104002</t>
-  </si>
-  <si>
-    <t>楠木棍</t>
-  </si>
-  <si>
-    <t>02:15:40</t>
-  </si>
-  <si>
-    <t>8140</t>
-  </si>
-  <si>
-    <t>104003</t>
-  </si>
-  <si>
-    <t>熟铜棍</t>
   </si>
   <si>
     <t>09:45:00</t>
@@ -2657,10 +2651,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>99</v>
@@ -2713,10 +2707,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>143</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>98</v>
@@ -2731,16 +2725,16 @@
         <v>28</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>114</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>81</v>
@@ -2787,10 +2781,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>146</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>147</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>110</v>
@@ -2805,13 +2799,13 @@
         <v>28</v>
       </c>
       <c r="G15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="J15" s="0" t="s">
         <v>70</v>
@@ -2861,10 +2855,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>121</v>
@@ -2879,13 +2873,13 @@
         <v>28</v>
       </c>
       <c r="G16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="0" t="s">
         <v>152</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>153</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>134</v>
@@ -2921,7 +2915,7 @@
         <v>29</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V16" s="0" t="s">
         <v>31</v>
@@ -2935,10 +2929,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>156</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>131</v>
@@ -2953,10 +2947,10 @@
         <v>28</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>65</v>
@@ -2995,7 +2989,7 @@
         <v>29</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="V17" s="0" t="s">
         <v>31</v>
@@ -3009,10 +3003,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>121</v>
@@ -3024,16 +3018,16 @@
         <v>78</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>49</v>
@@ -3042,19 +3036,19 @@
         <v>59</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M18" s="0" t="s">
         <v>69</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O18" s="0" t="s">
         <v>71</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q18" s="0" t="s">
         <v>29</v>
@@ -3075,21 +3069,21 @@
         <v>31</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>121</v>
@@ -3098,10 +3092,10 @@
         <v>65</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>27</v>
@@ -3122,7 +3116,7 @@
         <v>69</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O19" s="0" t="s">
         <v>71</v>
@@ -3149,18 +3143,18 @@
         <v>31</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>27</v>
@@ -3175,7 +3169,7 @@
         <v>57</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>27</v>
@@ -3184,7 +3178,7 @@
         <v>27</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>81</v>
@@ -3196,7 +3190,7 @@
         <v>104</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>115</v>
@@ -3223,21 +3217,21 @@
         <v>31</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>184</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>78</v>
@@ -3252,7 +3246,7 @@
         <v>52</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I21" s="0" t="s">
         <v>26</v>
@@ -3264,13 +3258,13 @@
         <v>71</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>104</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O21" s="0" t="s">
         <v>115</v>
@@ -3297,18 +3291,18 @@
         <v>31</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>98</v>
@@ -3323,10 +3317,10 @@
         <v>28</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="I22" s="0" t="s">
         <v>27</v>
@@ -3379,10 +3373,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>98</v>
@@ -3397,7 +3391,7 @@
         <v>28</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>28</v>
@@ -3412,13 +3406,13 @@
         <v>59</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>69</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>71</v>
@@ -3445,18 +3439,18 @@
         <v>31</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>44</v>
@@ -3468,10 +3462,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>27</v>
@@ -3516,21 +3510,21 @@
         <v>30</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>44</v>
@@ -3545,7 +3539,7 @@
         <v>35</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>27</v>
@@ -3587,24 +3581,24 @@
         <v>29</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="V25" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>55</v>
@@ -3619,7 +3613,7 @@
         <v>35</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>27</v>
@@ -3634,7 +3628,7 @@
         <v>59</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M26" s="0" t="s">
         <v>69</v>
@@ -3667,18 +3661,18 @@
         <v>31</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>65</v>
@@ -3693,13 +3687,13 @@
         <v>35</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>27</v>
@@ -3714,7 +3708,7 @@
         <v>69</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O27" s="0" t="s">
         <v>71</v>
@@ -3741,18 +3735,18 @@
         <v>31</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>78</v>
@@ -3767,7 +3761,7 @@
         <v>35</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>27</v>
@@ -3782,7 +3776,7 @@
         <v>69</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>71</v>
@@ -3815,18 +3809,18 @@
         <v>31</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>87</v>
@@ -3841,7 +3835,7 @@
         <v>35</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>27</v>
@@ -3897,10 +3891,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>98</v>
@@ -3915,7 +3909,7 @@
         <v>35</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>27</v>
@@ -3971,10 +3965,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>110</v>
@@ -3989,7 +3983,7 @@
         <v>35</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>27</v>
@@ -4045,10 +4039,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>121</v>
@@ -4063,7 +4057,7 @@
         <v>35</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>27</v>
@@ -4105,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="V32" s="0" t="s">
         <v>31</v>
@@ -4119,10 +4113,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>131</v>
@@ -4137,7 +4131,7 @@
         <v>35</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>27</v>
@@ -4179,7 +4173,7 @@
         <v>29</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="V33" s="0" t="s">
         <v>31</v>
@@ -4193,10 +4187,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>27</v>
@@ -4211,10 +4205,10 @@
         <v>57</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>27</v>
@@ -4259,18 +4253,18 @@
         <v>31</v>
       </c>
       <c r="W34" s="0" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>65</v>
@@ -4282,10 +4276,10 @@
         <v>27</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>27</v>
@@ -4303,7 +4297,7 @@
         <v>47</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>49</v>
@@ -4333,18 +4327,18 @@
         <v>31</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>111</v>
@@ -4356,10 +4350,10 @@
         <v>27</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>27</v>
@@ -4371,10 +4365,10 @@
         <v>27</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M36" s="0" t="s">
         <v>69</v>
@@ -4407,18 +4401,18 @@
         <v>31</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="X36" s="0" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>78</v>
@@ -4430,7 +4424,7 @@
         <v>26</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>80</v>
@@ -4445,7 +4439,7 @@
         <v>27</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L37" s="0" t="s">
         <v>58</v>
@@ -4460,7 +4454,7 @@
         <v>71</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>29</v>
@@ -4481,18 +4475,18 @@
         <v>31</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>87</v>
@@ -4504,10 +4498,10 @@
         <v>122</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>27</v>
@@ -4522,7 +4516,7 @@
         <v>69</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>71</v>
@@ -4555,18 +4549,18 @@
         <v>31</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="X38" s="0" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>98</v>
@@ -4578,7 +4572,7 @@
         <v>44</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>27</v>
@@ -4599,7 +4593,7 @@
         <v>72</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>24</v>
@@ -4626,21 +4620,21 @@
         <v>30</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="W39" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="X39" s="0" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>110</v>
@@ -4652,7 +4646,7 @@
         <v>55</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>27</v>
@@ -4711,10 +4705,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>27</v>
@@ -4726,7 +4720,7 @@
         <v>27</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>27</v>
@@ -4785,10 +4779,10 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>27</v>
@@ -4800,7 +4794,7 @@
         <v>27</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>27</v>
@@ -4859,10 +4853,10 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>27</v>
@@ -4877,13 +4871,13 @@
         <v>46</v>
       </c>
       <c r="G43" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="0" t="s">
         <v>148</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>149</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>27</v>
@@ -4892,13 +4886,13 @@
         <v>71</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M43" s="0" t="s">
         <v>104</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O43" s="0" t="s">
         <v>115</v>
@@ -4925,18 +4919,18 @@
         <v>31</v>
       </c>
       <c r="W43" s="0" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="X43" s="0" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>27</v>
@@ -4948,10 +4942,10 @@
         <v>27</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>27</v>
@@ -4966,19 +4960,19 @@
         <v>81</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M44" s="0" t="s">
         <v>104</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O44" s="0" t="s">
         <v>115</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q44" s="0" t="s">
         <v>125</v>
@@ -4999,18 +4993,18 @@
         <v>31</v>
       </c>
       <c r="W44" s="0" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="X44" s="0" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>98</v>
@@ -5025,7 +5019,7 @@
         <v>28</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>27</v>
@@ -5040,7 +5034,7 @@
         <v>48</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M45" s="0" t="s">
         <v>59</v>
@@ -5070,21 +5064,21 @@
         <v>30</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="X45" s="0" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>98</v>
@@ -5096,7 +5090,7 @@
         <v>44</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>27</v>
@@ -5155,10 +5149,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>110</v>
@@ -5170,7 +5164,7 @@
         <v>55</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>27</v>
@@ -5229,10 +5223,10 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>121</v>
@@ -5244,7 +5238,7 @@
         <v>65</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>27</v>
@@ -5303,10 +5297,10 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>131</v>
@@ -5318,7 +5312,7 @@
         <v>111</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>27</v>
@@ -5363,7 +5357,7 @@
         <v>29</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V49" s="0" t="s">
         <v>31</v>
@@ -5377,13 +5371,13 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>121</v>
@@ -5392,7 +5386,7 @@
         <v>78</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>27</v>
@@ -5401,7 +5395,7 @@
         <v>27</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>27</v>
@@ -5437,7 +5431,7 @@
         <v>29</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="V50" s="0" t="s">
         <v>31</v>
@@ -5451,10 +5445,10 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>44</v>
@@ -5466,7 +5460,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>27</v>
@@ -5478,13 +5472,13 @@
         <v>27</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>48</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M51" s="0" t="s">
         <v>59</v>
@@ -5517,18 +5511,18 @@
         <v>31</v>
       </c>
       <c r="W51" s="0" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>55</v>
@@ -5540,19 +5534,19 @@
         <v>99</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="I52" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>59</v>
@@ -5591,18 +5585,18 @@
         <v>31</v>
       </c>
       <c r="W52" s="0" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="X52" s="0" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>65</v>
@@ -5614,7 +5608,7 @@
         <v>26</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>27</v>
@@ -5626,13 +5620,13 @@
         <v>27</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>59</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M53" s="0" t="s">
         <v>69</v>
@@ -5665,18 +5659,18 @@
         <v>31</v>
       </c>
       <c r="W53" s="0" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="X53" s="0" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>78</v>
@@ -5688,25 +5682,25 @@
         <v>44</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>69</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M54" s="0" t="s">
         <v>71</v>
@@ -5739,18 +5733,18 @@
         <v>31</v>
       </c>
       <c r="W54" s="0" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="X54" s="0" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>65</v>
@@ -5762,10 +5756,10 @@
         <v>26</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>27</v>
@@ -5780,7 +5774,7 @@
         <v>48</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M55" s="0" t="s">
         <v>29</v>
@@ -5813,18 +5807,18 @@
         <v>31</v>
       </c>
       <c r="W55" s="0" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="X55" s="0" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>111</v>
@@ -5836,7 +5830,7 @@
         <v>122</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>66</v>
@@ -5854,7 +5848,7 @@
         <v>48</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>59</v>
@@ -5887,18 +5881,18 @@
         <v>31</v>
       </c>
       <c r="W56" s="0" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="X56" s="0" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>78</v>
@@ -5910,10 +5904,10 @@
         <v>44</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>27</v>
@@ -5928,7 +5922,7 @@
         <v>59</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>69</v>
@@ -5961,18 +5955,18 @@
         <v>31</v>
       </c>
       <c r="W57" s="0" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="X57" s="0" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>98</v>
@@ -5984,10 +5978,10 @@
         <v>65</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>27</v>
@@ -6035,18 +6029,18 @@
         <v>31</v>
       </c>
       <c r="W58" s="0" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="X58" s="0" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>110</v>
@@ -6058,10 +6052,10 @@
         <v>111</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>27</v>
@@ -6117,10 +6111,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>121</v>
@@ -6132,7 +6126,7 @@
         <v>78</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>52</v>
@@ -6191,10 +6185,10 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>131</v>
@@ -6206,10 +6200,10 @@
         <v>87</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>27</v>
@@ -6265,13 +6259,13 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>121</v>
@@ -6280,10 +6274,10 @@
         <v>98</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>27</v>
@@ -6325,7 +6319,7 @@
         <v>29</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="V62" s="0" t="s">
         <v>31</v>
@@ -6339,13 +6333,13 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="C63" s="0" t="s">
         <v>362</v>
-      </c>
-      <c r="B63" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="C63" s="0" t="s">
-        <v>364</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>131</v>
@@ -6354,10 +6348,10 @@
         <v>110</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>27</v>
@@ -6399,7 +6393,7 @@
         <v>29</v>
       </c>
       <c r="U63" s="0" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="V63" s="0" t="s">
         <v>31</v>
@@ -6413,10 +6407,10 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>27</v>
@@ -6428,10 +6422,10 @@
         <v>27</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>27</v>
@@ -6446,7 +6440,7 @@
         <v>69</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M64" s="0" t="s">
         <v>29</v>
@@ -6479,18 +6473,18 @@
         <v>31</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="X64" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>65</v>
@@ -6505,7 +6499,7 @@
         <v>28</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>27</v>
@@ -6561,10 +6555,10 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>27</v>
@@ -6576,7 +6570,7 @@
         <v>44</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>112</v>
@@ -6594,19 +6588,19 @@
         <v>92</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M66" s="0" t="s">
         <v>104</v>
       </c>
       <c r="N66" s="0" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O66" s="0" t="s">
         <v>115</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>29</v>
@@ -6627,18 +6621,18 @@
         <v>31</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="X66" s="0" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>27</v>
@@ -6653,7 +6647,7 @@
         <v>28</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>27</v>
@@ -6668,13 +6662,13 @@
         <v>48</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M67" s="0" t="s">
         <v>59</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O67" s="0" t="s">
         <v>69</v>
@@ -6701,18 +6695,18 @@
         <v>31</v>
       </c>
       <c r="W67" s="0" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="X67" s="0" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>121</v>
@@ -6724,16 +6718,16 @@
         <v>27</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="J68" s="0" t="s">
         <v>49</v>
@@ -6742,13 +6736,13 @@
         <v>71</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M68" s="0" t="s">
         <v>92</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O68" s="0" t="s">
         <v>115</v>
@@ -6775,18 +6769,18 @@
         <v>31</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="X68" s="0" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>27</v>
@@ -6816,31 +6810,31 @@
         <v>81</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>92</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O69" s="0" t="s">
         <v>104</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q69" s="0" t="s">
         <v>115</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="S69" s="0" t="s">
         <v>135</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U69" s="0" t="s">
         <v>30</v>
@@ -6849,18 +6843,18 @@
         <v>31</v>
       </c>
       <c r="W69" s="0" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="X69" s="0" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>27</v>
@@ -6872,7 +6866,7 @@
         <v>27</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>27</v>
@@ -6890,31 +6884,31 @@
         <v>69</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="M70" s="0" t="s">
         <v>81</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O70" s="0" t="s">
         <v>104</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q70" s="0" t="s">
         <v>115</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="S70" s="0" t="s">
         <v>135</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U70" s="0" t="s">
         <v>30</v>
@@ -6923,18 +6917,18 @@
         <v>31</v>
       </c>
       <c r="W70" s="0" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>26</v>
@@ -6946,13 +6940,13 @@
         <v>27</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>27</v>
@@ -7005,10 +6999,10 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>122</v>
@@ -7020,7 +7014,7 @@
         <v>27</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>27</v>
@@ -7032,7 +7026,7 @@
         <v>27</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>81</v>
@@ -7079,10 +7073,10 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>44</v>
@@ -7094,13 +7088,13 @@
         <v>27</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I73" s="0" t="s">
         <v>27</v>
@@ -7153,10 +7147,10 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>55</v>
@@ -7168,7 +7162,7 @@
         <v>27</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G74" s="0" t="s">
         <v>27</v>
@@ -7180,7 +7174,7 @@
         <v>27</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K74" s="0" t="s">
         <v>104</v>
@@ -7213,7 +7207,7 @@
         <v>29</v>
       </c>
       <c r="U74" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="V74" s="0" t="s">
         <v>31</v>
@@ -7227,10 +7221,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>78</v>
@@ -7242,7 +7236,7 @@
         <v>27</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>27</v>
@@ -7287,24 +7281,24 @@
         <v>29</v>
       </c>
       <c r="U75" s="0" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="V75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>27</v>
@@ -7322,31 +7316,31 @@
         <v>27</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>44</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K76" s="0" t="s">
         <v>71</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M76" s="0" t="s">
         <v>81</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O76" s="0" t="s">
         <v>92</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Q76" s="0" t="s">
         <v>104</v>
@@ -7367,18 +7361,18 @@
         <v>31</v>
       </c>
       <c r="W76" s="0" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="X76" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>27</v>
@@ -7390,7 +7384,7 @@
         <v>27</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G77" s="0" t="s">
         <v>88</v>
@@ -7449,10 +7443,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>121</v>
@@ -7464,13 +7458,13 @@
         <v>44</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>99</v>
@@ -7482,7 +7476,7 @@
         <v>81</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M78" s="0" t="s">
         <v>92</v>
@@ -7500,7 +7494,7 @@
         <v>125</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S78" s="0" t="s">
         <v>135</v>
@@ -7515,18 +7509,18 @@
         <v>31</v>
       </c>
       <c r="W78" s="0" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="X78" s="0" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>27</v>
@@ -7538,10 +7532,10 @@
         <v>98</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>192</v>
+        <v>143</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>27</v>
@@ -7597,10 +7591,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>27</v>
@@ -7624,7 +7618,7 @@
         <v>27</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>37</v>
@@ -7636,10 +7630,10 @@
         <v>48</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P80" s="0" t="s">
         <v>49</v>
@@ -7663,18 +7657,18 @@
         <v>31</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="X80" s="0" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>27</v>
@@ -7689,7 +7683,7 @@
         <v>28</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>27</v>
@@ -7745,10 +7739,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>27</v>
@@ -7763,7 +7757,7 @@
         <v>35</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>27</v>
@@ -7778,13 +7772,13 @@
         <v>59</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>69</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O82" s="0" t="s">
         <v>29</v>
@@ -7811,18 +7805,18 @@
         <v>31</v>
       </c>
       <c r="W82" s="0" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="X82" s="0" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>65</v>
@@ -7834,10 +7828,10 @@
         <v>27</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>27</v>
@@ -7893,10 +7887,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>27</v>
@@ -7911,7 +7905,7 @@
         <v>28</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>27</v>
@@ -7926,7 +7920,7 @@
         <v>69</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>71</v>
@@ -7959,18 +7953,18 @@
         <v>31</v>
       </c>
       <c r="W84" s="0" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="X84" s="0" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>27</v>
@@ -7982,7 +7976,7 @@
         <v>27</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G85" s="0" t="s">
         <v>27</v>
@@ -8041,10 +8035,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>27</v>
@@ -8056,7 +8050,7 @@
         <v>27</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G86" s="0" t="s">
         <v>27</v>
@@ -8104,7 +8098,7 @@
         <v>30</v>
       </c>
       <c r="V86" s="0" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="W86" s="0" t="s">
         <v>32</v>
@@ -8115,10 +8109,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>27</v>
@@ -8130,7 +8124,7 @@
         <v>27</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>27</v>
@@ -8178,7 +8172,7 @@
         <v>30</v>
       </c>
       <c r="V87" s="0" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="W87" s="0" t="s">
         <v>32</v>
@@ -8189,10 +8183,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>27</v>
@@ -8204,7 +8198,7 @@
         <v>27</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G88" s="0" t="s">
         <v>27</v>
@@ -8252,7 +8246,7 @@
         <v>30</v>
       </c>
       <c r="V88" s="0" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="W88" s="0" t="s">
         <v>32</v>
@@ -8263,10 +8257,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>27</v>
@@ -8278,7 +8272,7 @@
         <v>27</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>27</v>
@@ -8326,7 +8320,7 @@
         <v>30</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="W89" s="0" t="s">
         <v>32</v>
@@ -8337,10 +8331,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>27</v>
@@ -8352,7 +8346,7 @@
         <v>27</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G90" s="0" t="s">
         <v>27</v>
@@ -8400,7 +8394,7 @@
         <v>30</v>
       </c>
       <c r="V90" s="0" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="W90" s="0" t="s">
         <v>32</v>
@@ -8411,10 +8405,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>27</v>
@@ -8426,7 +8420,7 @@
         <v>27</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>27</v>
@@ -8474,7 +8468,7 @@
         <v>30</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="W91" s="0" t="s">
         <v>32</v>
@@ -8485,10 +8479,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>27</v>
@@ -8500,7 +8494,7 @@
         <v>27</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>27</v>
@@ -8548,7 +8542,7 @@
         <v>30</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="W92" s="0" t="s">
         <v>32</v>
@@ -8559,10 +8553,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>27</v>
@@ -8574,7 +8568,7 @@
         <v>27</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>27</v>
@@ -8622,7 +8616,7 @@
         <v>30</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>32</v>
@@ -8633,10 +8627,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>27</v>
@@ -8648,7 +8642,7 @@
         <v>27</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>27</v>
@@ -8696,7 +8690,7 @@
         <v>30</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="W94" s="0" t="s">
         <v>32</v>
@@ -8707,10 +8701,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>27</v>
@@ -8722,7 +8716,7 @@
         <v>27</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>27</v>
@@ -8770,7 +8764,7 @@
         <v>30</v>
       </c>
       <c r="V95" s="0" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="W95" s="0" t="s">
         <v>32</v>
@@ -8781,10 +8775,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>27</v>
@@ -8796,7 +8790,7 @@
         <v>27</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>27</v>
@@ -8844,7 +8838,7 @@
         <v>30</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>32</v>
@@ -8855,10 +8849,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>27</v>
@@ -8870,7 +8864,7 @@
         <v>27</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>27</v>
@@ -8918,7 +8912,7 @@
         <v>30</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>32</v>
@@ -8929,10 +8923,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>27</v>
@@ -8944,7 +8938,7 @@
         <v>27</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>27</v>
@@ -8992,7 +8986,7 @@
         <v>30</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>32</v>
@@ -9003,10 +8997,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>27</v>
@@ -9018,7 +9012,7 @@
         <v>27</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>27</v>
@@ -9066,7 +9060,7 @@
         <v>30</v>
       </c>
       <c r="V99" s="0" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>32</v>
@@ -9077,10 +9071,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>27</v>
@@ -9092,7 +9086,7 @@
         <v>27</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>27</v>
@@ -9140,7 +9134,7 @@
         <v>30</v>
       </c>
       <c r="V100" s="0" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>32</v>
@@ -9151,10 +9145,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>27</v>
@@ -9166,7 +9160,7 @@
         <v>27</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>27</v>
@@ -9214,7 +9208,7 @@
         <v>30</v>
       </c>
       <c r="V101" s="0" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="W101" s="0" t="s">
         <v>32</v>
@@ -9225,10 +9219,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>27</v>
@@ -9240,7 +9234,7 @@
         <v>27</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>27</v>
@@ -9288,7 +9282,7 @@
         <v>30</v>
       </c>
       <c r="V102" s="0" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="W102" s="0" t="s">
         <v>32</v>
@@ -9299,10 +9293,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>27</v>
@@ -9314,7 +9308,7 @@
         <v>27</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>27</v>
@@ -9362,7 +9356,7 @@
         <v>30</v>
       </c>
       <c r="V103" s="0" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="W103" s="0" t="s">
         <v>32</v>
@@ -9373,10 +9367,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>27</v>
@@ -9388,7 +9382,7 @@
         <v>27</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>27</v>
@@ -9436,7 +9430,7 @@
         <v>30</v>
       </c>
       <c r="V104" s="0" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="W104" s="0" t="s">
         <v>32</v>
@@ -9447,10 +9441,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>27</v>
@@ -9462,7 +9456,7 @@
         <v>27</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>27</v>
@@ -9510,7 +9504,7 @@
         <v>30</v>
       </c>
       <c r="V105" s="0" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>32</v>
@@ -9521,10 +9515,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>27</v>
@@ -9536,7 +9530,7 @@
         <v>27</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>27</v>
@@ -9584,7 +9578,7 @@
         <v>30</v>
       </c>
       <c r="V106" s="0" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="W106" s="0" t="s">
         <v>32</v>
@@ -9595,10 +9589,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>27</v>
@@ -9610,7 +9604,7 @@
         <v>27</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>27</v>
@@ -9658,7 +9652,7 @@
         <v>30</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>32</v>
@@ -9669,10 +9663,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>27</v>
@@ -9684,7 +9678,7 @@
         <v>27</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>27</v>
@@ -9732,7 +9726,7 @@
         <v>30</v>
       </c>
       <c r="V108" s="0" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="W108" s="0" t="s">
         <v>32</v>
@@ -9743,10 +9737,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>27</v>
@@ -9758,7 +9752,7 @@
         <v>27</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>27</v>
@@ -9806,7 +9800,7 @@
         <v>30</v>
       </c>
       <c r="V109" s="0" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W109" s="0" t="s">
         <v>32</v>
@@ -9817,10 +9811,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>27</v>
@@ -9832,7 +9826,7 @@
         <v>27</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>27</v>
@@ -9880,7 +9874,7 @@
         <v>30</v>
       </c>
       <c r="V110" s="0" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="W110" s="0" t="s">
         <v>32</v>
@@ -9891,10 +9885,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>27</v>
@@ -9906,7 +9900,7 @@
         <v>27</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>27</v>
@@ -9965,10 +9959,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>27</v>
@@ -9980,7 +9974,7 @@
         <v>27</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>27</v>
@@ -10039,10 +10033,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>27</v>
@@ -10054,7 +10048,7 @@
         <v>27</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>27</v>
@@ -10113,10 +10107,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>27</v>
@@ -10128,7 +10122,7 @@
         <v>27</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>27</v>
@@ -10187,10 +10181,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>27</v>
@@ -10202,7 +10196,7 @@
         <v>27</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>27</v>
@@ -10261,10 +10255,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>27</v>
@@ -10276,7 +10270,7 @@
         <v>27</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>27</v>
@@ -10335,10 +10329,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>27</v>
@@ -10350,7 +10344,7 @@
         <v>27</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>27</v>
@@ -10409,10 +10403,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>27</v>
@@ -10424,7 +10418,7 @@
         <v>27</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>27</v>
@@ -10483,10 +10477,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>27</v>
@@ -10498,7 +10492,7 @@
         <v>27</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>27</v>
@@ -10557,10 +10551,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>27</v>
@@ -10572,7 +10566,7 @@
         <v>27</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>27</v>
@@ -10631,10 +10625,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>27</v>
@@ -10646,7 +10640,7 @@
         <v>27</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>27</v>
@@ -10705,10 +10699,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>27</v>
@@ -10720,7 +10714,7 @@
         <v>27</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>27</v>
@@ -10779,10 +10773,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>27</v>
@@ -10794,7 +10788,7 @@
         <v>27</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>27</v>
@@ -10853,10 +10847,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>27</v>
@@ -10868,7 +10862,7 @@
         <v>27</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>27</v>
@@ -10927,10 +10921,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>27</v>
@@ -10942,7 +10936,7 @@
         <v>27</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>27</v>
@@ -11001,10 +10995,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>27</v>
@@ -11016,7 +11010,7 @@
         <v>27</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>27</v>
@@ -11075,10 +11069,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>27</v>
@@ -11090,7 +11084,7 @@
         <v>27</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>27</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
   <si>
     <t>1兵器id</t>
   </si>
@@ -431,6 +431,30 @@
     <t>5021580</t>
   </si>
   <si>
+    <t>100106</t>
+  </si>
+  <si>
+    <t>啸天狂龙</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>283天08:33:20</t>
+  </si>
+  <si>
+    <t>24482000</t>
+  </si>
+  <si>
     <t>100201</t>
   </si>
   <si>
@@ -485,6 +509,12 @@
     <t>27002</t>
   </si>
   <si>
+    <t>100206</t>
+  </si>
+  <si>
+    <t>天谴</t>
+  </si>
+  <si>
     <t>100301</t>
   </si>
   <si>
@@ -497,9 +527,6 @@
     <t>0.03</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
@@ -524,9 +551,6 @@
     <t>550</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>14:46:40</t>
   </si>
   <si>
@@ -539,9 +563,6 @@
     <t>寒玉缠手</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -737,6 +758,15 @@
     <t>14002</t>
   </si>
   <si>
+    <t>101106</t>
+  </si>
+  <si>
+    <t>神威</t>
+  </si>
+  <si>
+    <t>2850</t>
+  </si>
+  <si>
     <t>101201</t>
   </si>
   <si>
@@ -932,6 +962,15 @@
     <t>19002</t>
   </si>
   <si>
+    <t>102206</t>
+  </si>
+  <si>
+    <t>承影</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
     <t>103001</t>
   </si>
   <si>
@@ -1109,6 +1148,15 @@
     <t>21002</t>
   </si>
   <si>
+    <t>104106</t>
+  </si>
+  <si>
+    <t>伏虎</t>
+  </si>
+  <si>
+    <t>4100</t>
+  </si>
+  <si>
     <t>104201</t>
   </si>
   <si>
@@ -1266,6 +1314,15 @@
   </si>
   <si>
     <t>4031400</t>
+  </si>
+  <si>
+    <t>105106</t>
+  </si>
+  <si>
+    <t>清音</t>
+  </si>
+  <si>
+    <t>2100</t>
   </si>
   <si>
     <t>105201</t>
@@ -1737,7 +1794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X127"/>
+  <dimension ref="A1:X133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2639,52 +2696,52 @@
         <v>140</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="S13" s="0" t="s">
         <v>29</v>
@@ -2693,33 +2750,33 @@
         <v>29</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="V13" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W13" s="0" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="X13" s="0" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
@@ -2728,31 +2785,31 @@
         <v>27</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="K14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M14" s="0" t="s">
+      <c r="N14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="N14" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="P14" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="0" t="s">
         <v>29</v>
@@ -2767,33 +2824,33 @@
         <v>29</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="V14" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W14" s="0" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="X14" s="0" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>28</v>
@@ -2802,31 +2859,31 @@
         <v>27</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="K15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="L15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>103</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="0" t="s">
         <v>29</v>
@@ -2841,33 +2898,33 @@
         <v>29</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="V15" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="X15" s="0" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>28</v>
@@ -2876,31 +2933,31 @@
         <v>27</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="K16" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="M16" s="0" t="s">
+      <c r="N16" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="N16" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="P16" s="0" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="0" t="s">
         <v>29</v>
@@ -2915,33 +2972,33 @@
         <v>29</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="V16" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="X16" s="0" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>28</v>
@@ -2950,37 +3007,37 @@
         <v>27</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>104</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="M17" s="0" t="s">
         <v>115</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="O17" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="R17" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>29</v>
@@ -2989,73 +3046,73 @@
         <v>29</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="V17" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="X17" s="0" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="J18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N18" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="O18" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R18" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L18" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="M18" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="S18" s="0" t="s">
         <v>29</v>
       </c>
@@ -3063,72 +3120,72 @@
         <v>29</v>
       </c>
       <c r="U18" s="0" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="V18" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W18" s="0" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="X18" s="0" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>167</v>
-      </c>
       <c r="C19" s="0" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="L19" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="Q19" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="R19" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="S19" s="0" t="s">
         <v>29</v>
@@ -3143,72 +3200,72 @@
         <v>31</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="X19" s="0" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>57</v>
+        <v>155</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="R20" s="0" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="S20" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="T20" s="0" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="U20" s="0" t="s">
         <v>30</v>
@@ -3217,66 +3274,66 @@
         <v>31</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K21" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="O21" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="L21" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="M21" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="N21" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="P21" s="0" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="R21" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>29</v>
@@ -3291,72 +3348,72 @@
         <v>31</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="M22" s="0" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="R22" s="0" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="S22" s="0" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="T22" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="U22" s="0" t="s">
         <v>30</v>
@@ -3365,66 +3422,66 @@
         <v>31</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>28</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L23" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="M23" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N23" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="O23" s="0" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="R23" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="S23" s="0" t="s">
         <v>29</v>
@@ -3439,36 +3496,36 @@
         <v>31</v>
       </c>
       <c r="W23" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="X23" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="X23" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>197</v>
-      </c>
       <c r="C24" s="0" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="I24" s="0" t="s">
         <v>27</v>
@@ -3477,16 +3534,16 @@
         <v>27</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="O24" s="0" t="s">
         <v>29</v>
@@ -3510,64 +3567,64 @@
         <v>30</v>
       </c>
       <c r="V24" s="0" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="X24" s="0" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="N25" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="O25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="Q25" s="0" t="s">
         <v>29</v>
       </c>
@@ -3581,101 +3638,101 @@
         <v>29</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="V25" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V26" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="X26" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>209</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="M26" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N26" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U26" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W26" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="X26" s="0" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>26</v>
@@ -3687,34 +3744,34 @@
         <v>35</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K27" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M27" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="N27" s="0" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="Q27" s="0" t="s">
         <v>29</v>
@@ -3729,30 +3786,30 @@
         <v>29</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="V27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>27</v>
@@ -3761,34 +3818,34 @@
         <v>35</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J28" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="M28" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>68</v>
       </c>
       <c r="O28" s="0" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="0" t="s">
         <v>29</v>
@@ -3803,30 +3860,30 @@
         <v>29</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="V28" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>27</v>
@@ -3835,34 +3892,34 @@
         <v>35</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M29" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="N29" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>92</v>
-      </c>
       <c r="P29" s="0" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="Q29" s="0" t="s">
         <v>29</v>
@@ -3877,63 +3934,63 @@
         <v>29</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="V29" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>94</v>
+        <v>224</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>228</v>
-      </c>
       <c r="C30" s="0" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>35</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N30" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M30" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="N30" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="P30" s="0" t="s">
         <v>49</v>
@@ -3951,66 +4008,66 @@
         <v>29</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="V30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>106</v>
+        <v>229</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>35</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K31" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="L31" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="N31" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="P31" s="0" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="Q31" s="0" t="s">
         <v>29</v>
@@ -4025,67 +4082,67 @@
         <v>29</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="V31" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W31" s="0" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="X31" s="0" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>35</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K32" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="O32" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="L32" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="N32" s="0" t="s">
+      <c r="P32" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="P32" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="Q32" s="0" t="s">
         <v>29</v>
       </c>
@@ -4099,16 +4156,16 @@
         <v>29</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="V32" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="X32" s="0" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -4119,13 +4176,13 @@
         <v>238</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>35</v>
@@ -4137,34 +4194,34 @@
         <v>27</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="K33" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M33" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="L33" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M33" s="0" t="s">
+      <c r="N33" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="O33" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="N33" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="P33" s="0" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="S33" s="0" t="s">
         <v>29</v>
@@ -4173,63 +4230,63 @@
         <v>29</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="V33" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W33" s="0" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="X33" s="0" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>143</v>
-      </c>
       <c r="H34" s="0" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>49</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="P34" s="0" t="s">
         <v>72</v>
@@ -4247,146 +4304,146 @@
         <v>29</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="V34" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W34" s="0" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="X34" s="0" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="0" t="s">
+      <c r="H35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R35" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U35" s="0" t="s">
         <v>247</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L35" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="N35" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U35" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="V35" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W35" s="0" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="X35" s="0" t="s">
-        <v>250</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>247</v>
+        <v>28</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J36" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>248</v>
+        <v>92</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="N36" s="0" t="s">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="O36" s="0" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="S36" s="0" t="s">
         <v>29</v>
@@ -4401,36 +4458,36 @@
         <v>31</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="X36" s="0" t="s">
-        <v>254</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>27</v>
@@ -4439,22 +4496,22 @@
         <v>27</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M37" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N37" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O37" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N37" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="P37" s="0" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="Q37" s="0" t="s">
         <v>29</v>
@@ -4475,33 +4532,33 @@
         <v>31</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>27</v>
@@ -4513,22 +4570,22 @@
         <v>27</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>71</v>
+        <v>258</v>
       </c>
       <c r="N38" s="0" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="Q38" s="0" t="s">
         <v>29</v>
@@ -4543,39 +4600,39 @@
         <v>29</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="V38" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="X38" s="0" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>27</v>
@@ -4587,16 +4644,16 @@
         <v>27</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>59</v>
+        <v>258</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>248</v>
+        <v>69</v>
       </c>
       <c r="N39" s="0" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="O39" s="0" t="s">
         <v>29</v>
@@ -4620,36 +4677,36 @@
         <v>30</v>
       </c>
       <c r="V39" s="0" t="s">
-        <v>266</v>
+        <v>31</v>
       </c>
       <c r="W39" s="0" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="X39" s="0" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>27</v>
@@ -4661,22 +4718,22 @@
         <v>27</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N40" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>29</v>
@@ -4697,33 +4754,33 @@
         <v>31</v>
       </c>
       <c r="W40" s="0" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="X40" s="0" t="s">
-        <v>27</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>27</v>
@@ -4735,22 +4792,22 @@
         <v>27</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N41" s="0" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="Q41" s="0" t="s">
         <v>29</v>
@@ -4765,16 +4822,16 @@
         <v>29</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="V41" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W41" s="0" t="s">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="X41" s="0" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42">
@@ -4785,13 +4842,13 @@
         <v>274</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>275</v>
@@ -4809,16 +4866,16 @@
         <v>27</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="N42" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O42" s="0" t="s">
         <v>29</v>
@@ -4842,75 +4899,75 @@
         <v>30</v>
       </c>
       <c r="V42" s="0" t="s">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="W42" s="0" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="X42" s="0" t="s">
-        <v>27</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>278</v>
+        <v>29</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="S43" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="T43" s="0" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="U43" s="0" t="s">
         <v>30</v>
@@ -4919,72 +4976,72 @@
         <v>31</v>
       </c>
       <c r="W43" s="0" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="X43" s="0" t="s">
-        <v>281</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>283</v>
-      </c>
       <c r="C44" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E44" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>284</v>
+        <v>151</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>169</v>
+        <v>27</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>285</v>
+        <v>29</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="N44" s="0" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="P44" s="0" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="Q44" s="0" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="R44" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="S44" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="T44" s="0" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="U44" s="0" t="s">
         <v>30</v>
@@ -4993,21 +5050,21 @@
         <v>31</v>
       </c>
       <c r="W44" s="0" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
       <c r="X44" s="0" t="s">
-        <v>287</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>27</v>
@@ -5016,10 +5073,10 @@
         <v>27</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>28</v>
+        <v>285</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>290</v>
+        <v>27</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>27</v>
@@ -5031,22 +5088,22 @@
         <v>27</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N45" s="0" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="Q45" s="0" t="s">
         <v>29</v>
@@ -5064,42 +5121,42 @@
         <v>30</v>
       </c>
       <c r="V45" s="0" t="s">
-        <v>291</v>
+        <v>31</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="X45" s="0" t="s">
-        <v>293</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>27</v>
@@ -5108,117 +5165,117 @@
         <v>71</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="S46" s="0" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="T46" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="V46" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W46" s="0" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="X46" s="0" t="s">
-        <v>95</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>81</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="S47" s="0" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="T47" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="V47" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W47" s="0" t="s">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="X47" s="0" t="s">
-        <v>107</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
@@ -5229,46 +5286,46 @@
         <v>299</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>247</v>
+        <v>28</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="L48" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N48" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="M48" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="N48" s="0" t="s">
-        <v>103</v>
-      </c>
       <c r="O48" s="0" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>29</v>
@@ -5283,36 +5340,36 @@
         <v>29</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="V48" s="0" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>117</v>
+        <v>302</v>
       </c>
       <c r="X48" s="0" t="s">
-        <v>118</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>27</v>
@@ -5321,25 +5378,25 @@
         <v>27</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="N49" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="P49" s="0" t="s">
         <v>72</v>
@@ -5357,36 +5414,36 @@
         <v>29</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>302</v>
+        <v>93</v>
       </c>
       <c r="V49" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W49" s="0" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="X49" s="0" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>27</v>
@@ -5395,34 +5452,34 @@
         <v>27</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K50" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N50" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="O50" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="L50" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="N50" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="O50" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="P50" s="0" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="S50" s="0" t="s">
         <v>29</v>
@@ -5431,66 +5488,66 @@
         <v>29</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="V50" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W50" s="0" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="X50" s="0" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>309</v>
+        <v>27</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="N51" s="0" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="O51" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q51" s="0" t="s">
         <v>29</v>
@@ -5505,146 +5562,146 @@
         <v>29</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="V51" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W51" s="0" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>311</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N52" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O52" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P52" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T52" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U52" s="0" t="s">
         <v>312</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L52" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M52" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="N52" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T52" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U52" s="0" t="s">
-        <v>73</v>
       </c>
       <c r="V52" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W52" s="0" t="s">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c r="X52" s="0" t="s">
-        <v>317</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>308</v>
+        <v>257</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="N53" s="0" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="Q53" s="0" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="S53" s="0" t="s">
         <v>29</v>
@@ -5653,72 +5710,72 @@
         <v>29</v>
       </c>
       <c r="U53" s="0" t="s">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="V53" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W53" s="0" t="s">
-        <v>321</v>
+        <v>137</v>
       </c>
       <c r="X53" s="0" t="s">
-        <v>322</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>325</v>
+        <v>27</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>326</v>
+        <v>27</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="N54" s="0" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="S54" s="0" t="s">
         <v>29</v>
@@ -5733,54 +5790,54 @@
         <v>31</v>
       </c>
       <c r="W54" s="0" t="s">
-        <v>328</v>
+        <v>145</v>
       </c>
       <c r="X54" s="0" t="s">
-        <v>329</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>333</v>
+        <v>27</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I55" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>27</v>
+        <v>322</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>48</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>327</v>
+        <v>223</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="N55" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="O55" s="0" t="s">
         <v>29</v>
@@ -5801,66 +5858,66 @@
         <v>29</v>
       </c>
       <c r="U55" s="0" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="V55" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W55" s="0" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="X55" s="0" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>27</v>
+        <v>327</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>27</v>
+        <v>328</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="N56" s="0" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="Q56" s="0" t="s">
         <v>29</v>
@@ -5875,66 +5932,66 @@
         <v>29</v>
       </c>
       <c r="U56" s="0" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="V56" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W56" s="0" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="X56" s="0" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>342</v>
+        <v>27</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>27</v>
+        <v>333</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>59</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>216</v>
+        <v>143</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>69</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="O57" s="0" t="s">
         <v>71</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="Q57" s="0" t="s">
         <v>29</v>
@@ -5949,66 +6006,66 @@
         <v>29</v>
       </c>
       <c r="U57" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="V57" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W57" s="0" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="X57" s="0" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>347</v>
+        <v>27</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>27</v>
+        <v>339</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>69</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="M58" s="0" t="s">
         <v>71</v>
       </c>
       <c r="N58" s="0" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="O58" s="0" t="s">
         <v>81</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>29</v>
@@ -6023,39 +6080,39 @@
         <v>29</v>
       </c>
       <c r="U58" s="0" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="V58" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W58" s="0" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="X58" s="0" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>200</v>
+        <v>346</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>27</v>
@@ -6067,22 +6124,22 @@
         <v>27</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>91</v>
+        <v>340</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>29</v>
@@ -6097,39 +6154,39 @@
         <v>29</v>
       </c>
       <c r="U59" s="0" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="V59" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W59" s="0" t="s">
-        <v>94</v>
+        <v>347</v>
       </c>
       <c r="X59" s="0" t="s">
-        <v>95</v>
+        <v>348</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>27</v>
@@ -6141,22 +6198,22 @@
         <v>27</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="Q60" s="0" t="s">
         <v>29</v>
@@ -6171,40 +6228,40 @@
         <v>29</v>
       </c>
       <c r="U60" s="0" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="V60" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W60" s="0" t="s">
-        <v>106</v>
+        <v>351</v>
       </c>
       <c r="X60" s="0" t="s">
-        <v>107</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="C61" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="G61" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F61" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>175</v>
-      </c>
       <c r="H61" s="0" t="s">
         <v>27</v>
       </c>
@@ -6215,22 +6272,22 @@
         <v>27</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>29</v>
@@ -6245,39 +6302,39 @@
         <v>29</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="V61" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W61" s="0" t="s">
-        <v>117</v>
+        <v>356</v>
       </c>
       <c r="X61" s="0" t="s">
-        <v>118</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>27</v>
@@ -6289,19 +6346,19 @@
         <v>27</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="N62" s="0" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="P62" s="0" t="s">
         <v>72</v>
@@ -6319,39 +6376,39 @@
         <v>29</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="V62" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W62" s="0" t="s">
-        <v>127</v>
+        <v>361</v>
       </c>
       <c r="X62" s="0" t="s">
-        <v>128</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>362</v>
+        <v>110</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>363</v>
+        <v>207</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>27</v>
@@ -6363,28 +6420,28 @@
         <v>27</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="N63" s="0" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="S63" s="0" t="s">
         <v>29</v>
@@ -6393,16 +6450,16 @@
         <v>29</v>
       </c>
       <c r="U63" s="0" t="s">
-        <v>364</v>
+        <v>93</v>
       </c>
       <c r="V63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W63" s="0" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="X63" s="0" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
@@ -6413,19 +6470,19 @@
         <v>366</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>284</v>
+        <v>345</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>27</v>
@@ -6437,22 +6494,22 @@
         <v>27</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="N64" s="0" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="Q64" s="0" t="s">
         <v>29</v>
@@ -6467,39 +6524,39 @@
         <v>29</v>
       </c>
       <c r="U64" s="0" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="V64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>367</v>
+        <v>106</v>
       </c>
       <c r="X64" s="0" t="s">
-        <v>368</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>28</v>
+        <v>345</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>371</v>
+        <v>142</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>27</v>
@@ -6511,22 +6568,22 @@
         <v>27</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N65" s="0" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>29</v>
@@ -6541,113 +6598,113 @@
         <v>29</v>
       </c>
       <c r="U65" s="0" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="V65" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W65" s="0" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="X65" s="0" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N66" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="O66" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P66" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q66" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R66" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S66" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T66" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U66" s="0" t="s">
         <v>372</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I66" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="L66" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="M66" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="N66" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="P66" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q66" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R66" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S66" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T66" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U66" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="V66" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>376</v>
+        <v>127</v>
       </c>
       <c r="X66" s="0" t="s">
-        <v>377</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>27</v>
+        <v>375</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>28</v>
+        <v>345</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>27</v>
@@ -6659,29 +6716,29 @@
         <v>27</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>381</v>
+        <v>36</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="O67" s="0" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="P67" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q67" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R67" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="Q67" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R67" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="S67" s="0" t="s">
         <v>29</v>
       </c>
@@ -6689,72 +6746,72 @@
         <v>29</v>
       </c>
       <c r="U67" s="0" t="s">
-        <v>30</v>
+        <v>377</v>
       </c>
       <c r="V67" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W67" s="0" t="s">
-        <v>382</v>
+        <v>137</v>
       </c>
       <c r="X67" s="0" t="s">
-        <v>383</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="E68" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>308</v>
+        <v>28</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>387</v>
+        <v>27</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>388</v>
+        <v>143</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="N68" s="0" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="O68" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="P68" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q68" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="P68" s="0" t="s">
+      <c r="R68" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="Q68" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="R68" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="S68" s="0" t="s">
         <v>29</v>
@@ -6769,33 +6826,33 @@
         <v>31</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>389</v>
+        <v>145</v>
       </c>
       <c r="X68" s="0" t="s">
-        <v>390</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>28</v>
+        <v>294</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>27</v>
@@ -6807,34 +6864,34 @@
         <v>27</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>393</v>
+        <v>183</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>332</v>
+        <v>29</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>394</v>
+        <v>29</v>
       </c>
       <c r="S69" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="T69" s="0" t="s">
-        <v>395</v>
+        <v>29</v>
       </c>
       <c r="U69" s="0" t="s">
         <v>30</v>
@@ -6843,33 +6900,33 @@
         <v>31</v>
       </c>
       <c r="W69" s="0" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="X69" s="0" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>27</v>
+        <v>387</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>27</v>
@@ -6881,34 +6938,34 @@
         <v>27</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="N70" s="0" t="s">
-        <v>278</v>
+        <v>29</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="Q70" s="0" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>400</v>
+        <v>29</v>
       </c>
       <c r="S70" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="T70" s="0" t="s">
-        <v>395</v>
+        <v>29</v>
       </c>
       <c r="U70" s="0" t="s">
         <v>30</v>
@@ -6917,60 +6974,60 @@
         <v>31</v>
       </c>
       <c r="W70" s="0" t="s">
-        <v>401</v>
+        <v>32</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>402</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>47</v>
+        <v>390</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>72</v>
+        <v>391</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>29</v>
@@ -6985,27 +7042,27 @@
         <v>29</v>
       </c>
       <c r="U71" s="0" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="V71" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W71" s="0" t="s">
-        <v>94</v>
+        <v>392</v>
       </c>
       <c r="X71" s="0" t="s">
-        <v>95</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>27</v>
@@ -7014,34 +7071,34 @@
         <v>27</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>27</v>
+        <v>396</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="I72" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>407</v>
+        <v>27</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>68</v>
+        <v>397</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="O72" s="0" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="P72" s="0" t="s">
         <v>49</v>
@@ -7059,72 +7116,72 @@
         <v>29</v>
       </c>
       <c r="U72" s="0" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="V72" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W72" s="0" t="s">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="X72" s="0" t="s">
-        <v>107</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>27</v>
+        <v>402</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>27</v>
+        <v>403</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="K73" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="M73" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="L73" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M73" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="N73" s="0" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="O73" s="0" t="s">
         <v>115</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="Q73" s="0" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="S73" s="0" t="s">
         <v>29</v>
@@ -7133,175 +7190,175 @@
         <v>29</v>
       </c>
       <c r="U73" s="0" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="V73" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W73" s="0" t="s">
-        <v>117</v>
+        <v>405</v>
       </c>
       <c r="X73" s="0" t="s">
-        <v>118</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N74" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="O74" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="P74" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q74" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="R74" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="S74" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="T74" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="M74" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="N74" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O74" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="P74" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q74" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R74" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S74" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T74" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="U74" s="0" t="s">
-        <v>412</v>
+        <v>30</v>
       </c>
       <c r="V74" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W74" s="0" t="s">
-        <v>127</v>
+        <v>412</v>
       </c>
       <c r="X74" s="0" t="s">
-        <v>128</v>
+        <v>413</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>161</v>
+        <v>300</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I75" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="K75" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="N75" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="O75" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="L75" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="M75" s="0" t="s">
+      <c r="P75" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q75" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="N75" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="O75" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="P75" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q75" s="0" t="s">
+      <c r="R75" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="S75" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="R75" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="S75" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="T75" s="0" t="s">
-        <v>29</v>
+        <v>411</v>
       </c>
       <c r="U75" s="0" t="s">
-        <v>415</v>
+        <v>30</v>
       </c>
       <c r="V75" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>27</v>
@@ -7310,111 +7367,111 @@
         <v>27</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="K76" s="0" t="s">
         <v>71</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>393</v>
+        <v>91</v>
       </c>
       <c r="M76" s="0" t="s">
         <v>81</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>184</v>
+        <v>47</v>
       </c>
       <c r="O76" s="0" t="s">
         <v>92</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="S76" s="0" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="T76" s="0" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="U76" s="0" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="V76" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W76" s="0" t="s">
-        <v>420</v>
+        <v>94</v>
       </c>
       <c r="X76" s="0" t="s">
-        <v>421</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="C77" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J77" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="C77" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="K77" s="0" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="N77" s="0" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="Q77" s="0" t="s">
         <v>29</v>
@@ -7429,16 +7486,16 @@
         <v>29</v>
       </c>
       <c r="U77" s="0" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="V77" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W77" s="0" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="X77" s="0" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78">
@@ -7449,120 +7506,120 @@
         <v>425</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>426</v>
+        <v>58</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="N78" s="0" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="S78" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="T78" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="U78" s="0" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="V78" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W78" s="0" t="s">
-        <v>427</v>
+        <v>117</v>
       </c>
       <c r="X78" s="0" t="s">
-        <v>428</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>143</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>175</v>
+        <v>27</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="N79" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="Q79" s="0" t="s">
         <v>29</v>
@@ -7577,72 +7634,72 @@
         <v>29</v>
       </c>
       <c r="U79" s="0" t="s">
-        <v>30</v>
+        <v>428</v>
       </c>
       <c r="V79" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W79" s="0" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="X79" s="0" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="L80" s="0" t="s">
         <v>36</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="S80" s="0" t="s">
         <v>29</v>
@@ -7651,30 +7708,30 @@
         <v>29</v>
       </c>
       <c r="U80" s="0" t="s">
-        <v>30</v>
+        <v>431</v>
       </c>
       <c r="V80" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W80" s="0" t="s">
+        <v>432</v>
+      </c>
+      <c r="X80" s="0" t="s">
         <v>433</v>
-      </c>
-      <c r="X80" s="0" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B81" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>436</v>
-      </c>
       <c r="C81" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>27</v>
@@ -7683,40 +7740,40 @@
         <v>28</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>437</v>
+        <v>27</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>27</v>
+        <v>436</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J81" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="N81" s="0" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q81" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="S81" s="0" t="s">
         <v>29</v>
@@ -7731,19 +7788,19 @@
         <v>31</v>
       </c>
       <c r="W81" s="0" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="X81" s="0" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B82" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B82" s="0" t="s">
-        <v>439</v>
-      </c>
       <c r="C82" s="0" t="s">
         <v>27</v>
       </c>
@@ -7754,49 +7811,49 @@
         <v>27</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>203</v>
+        <v>27</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>216</v>
+        <v>409</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="N82" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="O82" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="O82" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P82" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="Q82" s="0" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="S82" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="T82" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="U82" s="0" t="s">
         <v>30</v>
@@ -7805,21 +7862,21 @@
         <v>31</v>
       </c>
       <c r="W82" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="X82" s="0" t="s">
         <v>440</v>
-      </c>
-      <c r="X82" s="0" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="B83" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B83" s="0" t="s">
-        <v>443</v>
-      </c>
       <c r="C83" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>27</v>
@@ -7828,10 +7885,10 @@
         <v>27</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>444</v>
+        <v>300</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>169</v>
+        <v>88</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>27</v>
@@ -7887,64 +7944,64 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>444</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G84" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="H84" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L84" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B84" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="0" t="s">
+      <c r="M84" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N84" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G84" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="H84" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L84" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="M84" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="N84" s="0" t="s">
+      <c r="O84" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="P84" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O84" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="P84" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="Q84" s="0" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="S84" s="0" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="T84" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="U84" s="0" t="s">
         <v>30</v>
@@ -7953,19 +8010,19 @@
         <v>31</v>
       </c>
       <c r="W84" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="X84" s="0" t="s">
         <v>447</v>
-      </c>
-      <c r="X84" s="0" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
+        <v>448</v>
+      </c>
+      <c r="B85" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>450</v>
-      </c>
       <c r="C85" s="0" t="s">
         <v>27</v>
       </c>
@@ -7973,13 +8030,13 @@
         <v>27</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>27</v>
@@ -8035,11 +8092,11 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B86" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>452</v>
-      </c>
       <c r="C86" s="0" t="s">
         <v>27</v>
       </c>
@@ -8047,13 +8104,13 @@
         <v>27</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>27</v>
@@ -8062,31 +8119,31 @@
         <v>27</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S86" s="0" t="s">
         <v>29</v>
@@ -8098,13 +8155,13 @@
         <v>30</v>
       </c>
       <c r="V86" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W86" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="X86" s="0" t="s">
         <v>453</v>
-      </c>
-      <c r="W86" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="X86" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="87">
@@ -8118,22 +8175,22 @@
         <v>27</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E87" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>27</v>
+        <v>456</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J87" s="0" t="s">
         <v>27</v>
@@ -8172,7 +8229,7 @@
         <v>30</v>
       </c>
       <c r="V87" s="0" t="s">
-        <v>456</v>
+        <v>31</v>
       </c>
       <c r="W87" s="0" t="s">
         <v>32</v>
@@ -8198,10 +8255,10 @@
         <v>27</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>27</v>
@@ -8213,16 +8270,16 @@
         <v>27</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="O88" s="0" t="s">
         <v>29</v>
@@ -8246,24 +8303,24 @@
         <v>30</v>
       </c>
       <c r="V88" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W88" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="W88" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="X88" s="0" t="s">
-        <v>27</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>27</v>
@@ -8272,10 +8329,10 @@
         <v>27</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>147</v>
+        <v>463</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>27</v>
@@ -8320,7 +8377,7 @@
         <v>30</v>
       </c>
       <c r="V89" s="0" t="s">
-        <v>462</v>
+        <v>31</v>
       </c>
       <c r="W89" s="0" t="s">
         <v>32</v>
@@ -8331,10 +8388,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>27</v>
@@ -8346,10 +8403,10 @@
         <v>27</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>27</v>
@@ -8358,25 +8415,25 @@
         <v>27</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>29</v>
+        <v>345</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q90" s="0" t="s">
         <v>29</v>
@@ -8394,21 +8451,21 @@
         <v>30</v>
       </c>
       <c r="V90" s="0" t="s">
-        <v>465</v>
+        <v>31</v>
       </c>
       <c r="W90" s="0" t="s">
-        <v>32</v>
+        <v>466</v>
       </c>
       <c r="X90" s="0" t="s">
-        <v>27</v>
+        <v>467</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>27</v>
@@ -8420,7 +8477,7 @@
         <v>27</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>27</v>
@@ -8468,7 +8525,7 @@
         <v>30</v>
       </c>
       <c r="V91" s="0" t="s">
-        <v>468</v>
+        <v>31</v>
       </c>
       <c r="W91" s="0" t="s">
         <v>32</v>
@@ -8479,10 +8536,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>27</v>
@@ -8494,7 +8551,7 @@
         <v>27</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G92" s="0" t="s">
         <v>27</v>
@@ -8542,7 +8599,7 @@
         <v>30</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="W92" s="0" t="s">
         <v>32</v>
@@ -8553,10 +8610,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>27</v>
@@ -8568,7 +8625,7 @@
         <v>27</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G93" s="0" t="s">
         <v>27</v>
@@ -8616,7 +8673,7 @@
         <v>30</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>32</v>
@@ -8627,10 +8684,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>27</v>
@@ -8642,7 +8699,7 @@
         <v>27</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G94" s="0" t="s">
         <v>27</v>
@@ -8690,7 +8747,7 @@
         <v>30</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W94" s="0" t="s">
         <v>32</v>
@@ -8701,10 +8758,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>27</v>
@@ -8716,7 +8773,7 @@
         <v>27</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>27</v>
@@ -8764,7 +8821,7 @@
         <v>30</v>
       </c>
       <c r="V95" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="W95" s="0" t="s">
         <v>32</v>
@@ -8775,10 +8832,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>27</v>
@@ -8790,7 +8847,7 @@
         <v>27</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>27</v>
@@ -8838,7 +8895,7 @@
         <v>30</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>32</v>
@@ -8849,10 +8906,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>27</v>
@@ -8864,7 +8921,7 @@
         <v>27</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>27</v>
@@ -8912,7 +8969,7 @@
         <v>30</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>32</v>
@@ -8923,10 +8980,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>27</v>
@@ -8938,7 +8995,7 @@
         <v>27</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G98" s="0" t="s">
         <v>27</v>
@@ -8986,7 +9043,7 @@
         <v>30</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>32</v>
@@ -8997,10 +9054,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>27</v>
@@ -9012,7 +9069,7 @@
         <v>27</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>27</v>
@@ -9060,7 +9117,7 @@
         <v>30</v>
       </c>
       <c r="V99" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>32</v>
@@ -9071,10 +9128,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>27</v>
@@ -9086,7 +9143,7 @@
         <v>27</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G100" s="0" t="s">
         <v>27</v>
@@ -9134,7 +9191,7 @@
         <v>30</v>
       </c>
       <c r="V100" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>32</v>
@@ -9145,10 +9202,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>27</v>
@@ -9160,7 +9217,7 @@
         <v>27</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G101" s="0" t="s">
         <v>27</v>
@@ -9208,7 +9265,7 @@
         <v>30</v>
       </c>
       <c r="V101" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="W101" s="0" t="s">
         <v>32</v>
@@ -9219,10 +9276,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>27</v>
@@ -9234,7 +9291,7 @@
         <v>27</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G102" s="0" t="s">
         <v>27</v>
@@ -9282,7 +9339,7 @@
         <v>30</v>
       </c>
       <c r="V102" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="W102" s="0" t="s">
         <v>32</v>
@@ -9293,10 +9350,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>27</v>
@@ -9308,7 +9365,7 @@
         <v>27</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G103" s="0" t="s">
         <v>27</v>
@@ -9356,7 +9413,7 @@
         <v>30</v>
       </c>
       <c r="V103" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="W103" s="0" t="s">
         <v>32</v>
@@ -9367,10 +9424,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>27</v>
@@ -9382,7 +9439,7 @@
         <v>27</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G104" s="0" t="s">
         <v>27</v>
@@ -9430,7 +9487,7 @@
         <v>30</v>
       </c>
       <c r="V104" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="W104" s="0" t="s">
         <v>32</v>
@@ -9441,10 +9498,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>27</v>
@@ -9456,7 +9513,7 @@
         <v>27</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>27</v>
@@ -9504,7 +9561,7 @@
         <v>30</v>
       </c>
       <c r="V105" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>32</v>
@@ -9515,10 +9572,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>27</v>
@@ -9530,7 +9587,7 @@
         <v>27</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>27</v>
@@ -9578,7 +9635,7 @@
         <v>30</v>
       </c>
       <c r="V106" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="W106" s="0" t="s">
         <v>32</v>
@@ -9589,10 +9646,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>27</v>
@@ -9604,7 +9661,7 @@
         <v>27</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G107" s="0" t="s">
         <v>27</v>
@@ -9652,7 +9709,7 @@
         <v>30</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>32</v>
@@ -9663,10 +9720,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>27</v>
@@ -9678,7 +9735,7 @@
         <v>27</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G108" s="0" t="s">
         <v>27</v>
@@ -9726,7 +9783,7 @@
         <v>30</v>
       </c>
       <c r="V108" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="W108" s="0" t="s">
         <v>32</v>
@@ -9737,10 +9794,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>27</v>
@@ -9752,7 +9809,7 @@
         <v>27</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G109" s="0" t="s">
         <v>27</v>
@@ -9800,7 +9857,7 @@
         <v>30</v>
       </c>
       <c r="V109" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="W109" s="0" t="s">
         <v>32</v>
@@ -9811,10 +9868,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>27</v>
@@ -9826,7 +9883,7 @@
         <v>27</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G110" s="0" t="s">
         <v>27</v>
@@ -9874,7 +9931,7 @@
         <v>30</v>
       </c>
       <c r="V110" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="W110" s="0" t="s">
         <v>32</v>
@@ -9885,10 +9942,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>27</v>
@@ -9900,7 +9957,7 @@
         <v>27</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>27</v>
@@ -9948,7 +10005,7 @@
         <v>30</v>
       </c>
       <c r="V111" s="0" t="s">
-        <v>31</v>
+        <v>529</v>
       </c>
       <c r="W111" s="0" t="s">
         <v>32</v>
@@ -9959,10 +10016,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>27</v>
@@ -9974,7 +10031,7 @@
         <v>27</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G112" s="0" t="s">
         <v>27</v>
@@ -10022,7 +10079,7 @@
         <v>30</v>
       </c>
       <c r="V112" s="0" t="s">
-        <v>31</v>
+        <v>532</v>
       </c>
       <c r="W112" s="0" t="s">
         <v>32</v>
@@ -10033,10 +10090,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>27</v>
@@ -10048,7 +10105,7 @@
         <v>27</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>27</v>
@@ -10096,7 +10153,7 @@
         <v>30</v>
       </c>
       <c r="V113" s="0" t="s">
-        <v>31</v>
+        <v>535</v>
       </c>
       <c r="W113" s="0" t="s">
         <v>32</v>
@@ -10107,10 +10164,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>27</v>
@@ -10122,7 +10179,7 @@
         <v>27</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G114" s="0" t="s">
         <v>27</v>
@@ -10170,7 +10227,7 @@
         <v>30</v>
       </c>
       <c r="V114" s="0" t="s">
-        <v>31</v>
+        <v>538</v>
       </c>
       <c r="W114" s="0" t="s">
         <v>32</v>
@@ -10181,10 +10238,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>27</v>
@@ -10196,7 +10253,7 @@
         <v>27</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>27</v>
@@ -10244,7 +10301,7 @@
         <v>30</v>
       </c>
       <c r="V115" s="0" t="s">
-        <v>31</v>
+        <v>541</v>
       </c>
       <c r="W115" s="0" t="s">
         <v>32</v>
@@ -10255,10 +10312,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>27</v>
@@ -10270,7 +10327,7 @@
         <v>27</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>27</v>
@@ -10318,7 +10375,7 @@
         <v>30</v>
       </c>
       <c r="V116" s="0" t="s">
-        <v>31</v>
+        <v>544</v>
       </c>
       <c r="W116" s="0" t="s">
         <v>32</v>
@@ -10329,10 +10386,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>27</v>
@@ -10344,7 +10401,7 @@
         <v>27</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G117" s="0" t="s">
         <v>27</v>
@@ -10403,10 +10460,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>27</v>
@@ -10418,7 +10475,7 @@
         <v>27</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G118" s="0" t="s">
         <v>27</v>
@@ -10477,10 +10534,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>27</v>
@@ -10492,7 +10549,7 @@
         <v>27</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G119" s="0" t="s">
         <v>27</v>
@@ -10551,10 +10608,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>27</v>
@@ -10566,7 +10623,7 @@
         <v>27</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G120" s="0" t="s">
         <v>27</v>
@@ -10625,10 +10682,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>27</v>
@@ -10640,7 +10697,7 @@
         <v>27</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G121" s="0" t="s">
         <v>27</v>
@@ -10699,10 +10756,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>27</v>
@@ -10714,7 +10771,7 @@
         <v>27</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G122" s="0" t="s">
         <v>27</v>
@@ -10773,10 +10830,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>27</v>
@@ -10788,7 +10845,7 @@
         <v>27</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>27</v>
@@ -10847,10 +10904,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>27</v>
@@ -10862,7 +10919,7 @@
         <v>27</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G124" s="0" t="s">
         <v>27</v>
@@ -10921,10 +10978,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>27</v>
@@ -10936,7 +10993,7 @@
         <v>27</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G125" s="0" t="s">
         <v>27</v>
@@ -10995,10 +11052,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>27</v>
@@ -11010,7 +11067,7 @@
         <v>27</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G126" s="0" t="s">
         <v>27</v>
@@ -11069,10 +11126,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>27</v>
@@ -11084,7 +11141,7 @@
         <v>27</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G127" s="0" t="s">
         <v>27</v>
@@ -11138,6 +11195,450 @@
         <v>32</v>
       </c>
       <c r="X127" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T128" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U128" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V128" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W128" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="X128" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G129" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T129" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U129" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V129" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W129" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="X129" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G130" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I130" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J130" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T130" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U130" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V130" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W130" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="X130" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G131" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I131" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J131" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T131" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U131" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V131" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W131" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="X131" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>576</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G132" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I132" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J132" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T132" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U132" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V132" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W132" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="X132" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G133" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I133" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J133" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T133" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U133" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V133" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W133" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="X133" s="0" t="s">
         <v>27</v>
       </c>
     </row>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="580">
   <si>
     <t>1兵器id</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>天谴</t>
+  </si>
+  <si>
+    <t>1800</t>
   </si>
   <si>
     <t>100301</t>
@@ -3155,7 +3158,7 @@
         <v>27</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I19" s="0" t="s">
         <v>78</v>
@@ -3208,10 +3211,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>121</v>
@@ -3226,13 +3229,13 @@
         <v>155</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>49</v>
@@ -3247,13 +3250,13 @@
         <v>69</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O20" s="0" t="s">
         <v>71</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q20" s="0" t="s">
         <v>29</v>
@@ -3274,21 +3277,21 @@
         <v>31</v>
       </c>
       <c r="W20" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="X20" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>121</v>
@@ -3300,7 +3303,7 @@
         <v>155</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>27</v>
@@ -3348,18 +3351,18 @@
         <v>31</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X21" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>27</v>
@@ -3383,7 +3386,7 @@
         <v>27</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>81</v>
@@ -3395,7 +3398,7 @@
         <v>104</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O22" s="0" t="s">
         <v>115</v>
@@ -3422,21 +3425,21 @@
         <v>31</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X22" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>78</v>
@@ -3451,7 +3454,7 @@
         <v>52</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I23" s="0" t="s">
         <v>26</v>
@@ -3463,13 +3466,13 @@
         <v>71</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>104</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O23" s="0" t="s">
         <v>115</v>
@@ -3496,18 +3499,18 @@
         <v>31</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X23" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>98</v>
@@ -3522,7 +3525,7 @@
         <v>28</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>151</v>
@@ -3578,10 +3581,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>98</v>
@@ -3611,13 +3614,13 @@
         <v>59</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>69</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O25" s="0" t="s">
         <v>71</v>
@@ -3644,18 +3647,18 @@
         <v>31</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X25" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>44</v>
@@ -3715,21 +3718,21 @@
         <v>30</v>
       </c>
       <c r="V26" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="X26" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>44</v>
@@ -3744,7 +3747,7 @@
         <v>35</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>27</v>
@@ -3786,24 +3789,24 @@
         <v>29</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="V27" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X27" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>55</v>
@@ -3818,7 +3821,7 @@
         <v>35</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>27</v>
@@ -3833,7 +3836,7 @@
         <v>59</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>69</v>
@@ -3866,18 +3869,18 @@
         <v>31</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="X28" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>65</v>
@@ -3892,13 +3895,13 @@
         <v>35</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J29" s="0" t="s">
         <v>27</v>
@@ -3913,7 +3916,7 @@
         <v>69</v>
       </c>
       <c r="N29" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O29" s="0" t="s">
         <v>71</v>
@@ -3940,18 +3943,18 @@
         <v>31</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="X29" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>78</v>
@@ -3966,7 +3969,7 @@
         <v>35</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>27</v>
@@ -3981,7 +3984,7 @@
         <v>69</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>71</v>
@@ -4014,18 +4017,18 @@
         <v>31</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="X30" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>87</v>
@@ -4040,7 +4043,7 @@
         <v>35</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>27</v>
@@ -4096,10 +4099,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>98</v>
@@ -4114,7 +4117,7 @@
         <v>35</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>27</v>
@@ -4170,10 +4173,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>110</v>
@@ -4188,7 +4191,7 @@
         <v>35</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>27</v>
@@ -4244,10 +4247,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>121</v>
@@ -4262,7 +4265,7 @@
         <v>35</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>27</v>
@@ -4304,7 +4307,7 @@
         <v>29</v>
       </c>
       <c r="U34" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="V34" s="0" t="s">
         <v>31</v>
@@ -4318,10 +4321,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>131</v>
@@ -4336,7 +4339,7 @@
         <v>35</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>27</v>
@@ -4378,7 +4381,7 @@
         <v>29</v>
       </c>
       <c r="U35" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="V35" s="0" t="s">
         <v>31</v>
@@ -4392,10 +4395,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>27</v>
@@ -4410,7 +4413,7 @@
         <v>28</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>27</v>
@@ -4466,10 +4469,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>27</v>
@@ -4532,18 +4535,18 @@
         <v>31</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X37" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>65</v>
@@ -4555,7 +4558,7 @@
         <v>27</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>151</v>
@@ -4576,7 +4579,7 @@
         <v>47</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>49</v>
@@ -4606,18 +4609,18 @@
         <v>31</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="X38" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>111</v>
@@ -4629,7 +4632,7 @@
         <v>27</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>155</v>
@@ -4644,10 +4647,10 @@
         <v>27</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>69</v>
@@ -4680,18 +4683,18 @@
         <v>31</v>
       </c>
       <c r="W39" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X39" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>78</v>
@@ -4703,7 +4706,7 @@
         <v>26</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>80</v>
@@ -4718,7 +4721,7 @@
         <v>27</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L40" s="0" t="s">
         <v>58</v>
@@ -4733,7 +4736,7 @@
         <v>71</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q40" s="0" t="s">
         <v>29</v>
@@ -4754,18 +4757,18 @@
         <v>31</v>
       </c>
       <c r="W40" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X40" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>87</v>
@@ -4777,10 +4780,10 @@
         <v>122</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>27</v>
@@ -4795,7 +4798,7 @@
         <v>69</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M41" s="0" t="s">
         <v>71</v>
@@ -4828,18 +4831,18 @@
         <v>31</v>
       </c>
       <c r="W41" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="X41" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>98</v>
@@ -4851,7 +4854,7 @@
         <v>44</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>27</v>
@@ -4872,7 +4875,7 @@
         <v>72</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>24</v>
@@ -4899,21 +4902,21 @@
         <v>30</v>
       </c>
       <c r="V42" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="W42" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="X42" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>110</v>
@@ -4984,10 +4987,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>27</v>
@@ -5058,10 +5061,10 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>27</v>
@@ -5073,7 +5076,7 @@
         <v>27</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>27</v>
@@ -5132,10 +5135,10 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>27</v>
@@ -5150,7 +5153,7 @@
         <v>46</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>27</v>
@@ -5165,13 +5168,13 @@
         <v>71</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M46" s="0" t="s">
         <v>104</v>
       </c>
       <c r="N46" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O46" s="0" t="s">
         <v>115</v>
@@ -5198,18 +5201,18 @@
         <v>31</v>
       </c>
       <c r="W46" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X46" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>27</v>
@@ -5221,10 +5224,10 @@
         <v>27</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>27</v>
@@ -5239,19 +5242,19 @@
         <v>81</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M47" s="0" t="s">
         <v>104</v>
       </c>
       <c r="N47" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O47" s="0" t="s">
         <v>115</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q47" s="0" t="s">
         <v>125</v>
@@ -5272,18 +5275,18 @@
         <v>31</v>
       </c>
       <c r="W47" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="X47" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>98</v>
@@ -5298,7 +5301,7 @@
         <v>28</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>27</v>
@@ -5313,7 +5316,7 @@
         <v>48</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M48" s="0" t="s">
         <v>59</v>
@@ -5343,21 +5346,21 @@
         <v>30</v>
       </c>
       <c r="V48" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="X48" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>98</v>
@@ -5369,7 +5372,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>27</v>
@@ -5428,10 +5431,10 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>110</v>
@@ -5443,7 +5446,7 @@
         <v>55</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>27</v>
@@ -5502,10 +5505,10 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>121</v>
@@ -5517,7 +5520,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>27</v>
@@ -5576,10 +5579,10 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>131</v>
@@ -5591,7 +5594,7 @@
         <v>111</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>27</v>
@@ -5636,7 +5639,7 @@
         <v>29</v>
       </c>
       <c r="U52" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V52" s="0" t="s">
         <v>31</v>
@@ -5650,13 +5653,13 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>121</v>
@@ -5665,7 +5668,7 @@
         <v>78</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>27</v>
@@ -5674,7 +5677,7 @@
         <v>27</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J53" s="0" t="s">
         <v>27</v>
@@ -5710,7 +5713,7 @@
         <v>29</v>
       </c>
       <c r="U53" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V53" s="0" t="s">
         <v>31</v>
@@ -5724,10 +5727,10 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>27</v>
@@ -5748,7 +5751,7 @@
         <v>27</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>27</v>
@@ -5798,10 +5801,10 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>44</v>
@@ -5813,7 +5816,7 @@
         <v>27</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>27</v>
@@ -5825,13 +5828,13 @@
         <v>27</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>48</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M55" s="0" t="s">
         <v>59</v>
@@ -5864,18 +5867,18 @@
         <v>31</v>
       </c>
       <c r="W55" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="X55" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>55</v>
@@ -5887,19 +5890,19 @@
         <v>99</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I56" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>59</v>
@@ -5938,18 +5941,18 @@
         <v>31</v>
       </c>
       <c r="W56" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="X56" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>65</v>
@@ -5961,7 +5964,7 @@
         <v>26</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G57" s="0" t="s">
         <v>27</v>
@@ -5973,7 +5976,7 @@
         <v>27</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>59</v>
@@ -6012,18 +6015,18 @@
         <v>31</v>
       </c>
       <c r="W57" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="X57" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>78</v>
@@ -6035,25 +6038,25 @@
         <v>44</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I58" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>69</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M58" s="0" t="s">
         <v>71</v>
@@ -6086,18 +6089,18 @@
         <v>31</v>
       </c>
       <c r="W58" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="X58" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>65</v>
@@ -6109,10 +6112,10 @@
         <v>26</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>27</v>
@@ -6127,7 +6130,7 @@
         <v>48</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M59" s="0" t="s">
         <v>29</v>
@@ -6160,18 +6163,18 @@
         <v>31</v>
       </c>
       <c r="W59" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="X59" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>111</v>
@@ -6183,7 +6186,7 @@
         <v>122</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>66</v>
@@ -6201,7 +6204,7 @@
         <v>48</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M60" s="0" t="s">
         <v>59</v>
@@ -6234,18 +6237,18 @@
         <v>31</v>
       </c>
       <c r="W60" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="X60" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>78</v>
@@ -6257,10 +6260,10 @@
         <v>44</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>27</v>
@@ -6275,7 +6278,7 @@
         <v>59</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M61" s="0" t="s">
         <v>69</v>
@@ -6308,18 +6311,18 @@
         <v>31</v>
       </c>
       <c r="W61" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="X61" s="0" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>98</v>
@@ -6331,10 +6334,10 @@
         <v>65</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>27</v>
@@ -6382,18 +6385,18 @@
         <v>31</v>
       </c>
       <c r="W62" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="X62" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>110</v>
@@ -6405,10 +6408,10 @@
         <v>111</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>27</v>
@@ -6464,10 +6467,10 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>121</v>
@@ -6479,7 +6482,7 @@
         <v>78</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G64" s="0" t="s">
         <v>52</v>
@@ -6538,10 +6541,10 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>131</v>
@@ -6553,7 +6556,7 @@
         <v>87</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>142</v>
@@ -6612,13 +6615,13 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>121</v>
@@ -6627,10 +6630,10 @@
         <v>98</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>27</v>
@@ -6672,7 +6675,7 @@
         <v>29</v>
       </c>
       <c r="U66" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V66" s="0" t="s">
         <v>31</v>
@@ -6686,13 +6689,13 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>131</v>
@@ -6701,10 +6704,10 @@
         <v>110</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>27</v>
@@ -6746,7 +6749,7 @@
         <v>29</v>
       </c>
       <c r="U67" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="V67" s="0" t="s">
         <v>31</v>
@@ -6760,10 +6763,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>27</v>
@@ -6778,7 +6781,7 @@
         <v>28</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>27</v>
@@ -6834,10 +6837,10 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>27</v>
@@ -6849,7 +6852,7 @@
         <v>27</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>151</v>
@@ -6867,7 +6870,7 @@
         <v>69</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>29</v>
@@ -6900,18 +6903,18 @@
         <v>31</v>
       </c>
       <c r="W69" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="X69" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>65</v>
@@ -6926,7 +6929,7 @@
         <v>28</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>27</v>
@@ -6982,10 +6985,10 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>27</v>
@@ -6997,7 +7000,7 @@
         <v>44</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>112</v>
@@ -7015,19 +7018,19 @@
         <v>92</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M71" s="0" t="s">
         <v>104</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O71" s="0" t="s">
         <v>115</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>29</v>
@@ -7048,18 +7051,18 @@
         <v>31</v>
       </c>
       <c r="W71" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="X71" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>27</v>
@@ -7074,7 +7077,7 @@
         <v>28</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>27</v>
@@ -7089,13 +7092,13 @@
         <v>48</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M72" s="0" t="s">
         <v>59</v>
       </c>
       <c r="N72" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O72" s="0" t="s">
         <v>69</v>
@@ -7122,18 +7125,18 @@
         <v>31</v>
       </c>
       <c r="W72" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="X72" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>121</v>
@@ -7145,16 +7148,16 @@
         <v>27</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>49</v>
@@ -7163,7 +7166,7 @@
         <v>71</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M73" s="0" t="s">
         <v>92</v>
@@ -7196,18 +7199,18 @@
         <v>31</v>
       </c>
       <c r="W73" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="X73" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>27</v>
@@ -7237,31 +7240,31 @@
         <v>81</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M74" s="0" t="s">
         <v>92</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O74" s="0" t="s">
         <v>104</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74" s="0" t="s">
         <v>115</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="S74" s="0" t="s">
         <v>135</v>
       </c>
       <c r="T74" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="U74" s="0" t="s">
         <v>30</v>
@@ -7270,18 +7273,18 @@
         <v>31</v>
       </c>
       <c r="W74" s="0" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="X74" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>27</v>
@@ -7293,7 +7296,7 @@
         <v>27</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>27</v>
@@ -7317,25 +7320,25 @@
         <v>81</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O75" s="0" t="s">
         <v>104</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q75" s="0" t="s">
         <v>115</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="S75" s="0" t="s">
         <v>135</v>
       </c>
       <c r="T75" s="0" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="U75" s="0" t="s">
         <v>30</v>
@@ -7344,18 +7347,18 @@
         <v>31</v>
       </c>
       <c r="W75" s="0" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="X75" s="0" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>26</v>
@@ -7426,10 +7429,10 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>122</v>
@@ -7453,7 +7456,7 @@
         <v>27</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K77" s="0" t="s">
         <v>81</v>
@@ -7500,10 +7503,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>44</v>
@@ -7521,7 +7524,7 @@
         <v>27</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>27</v>
@@ -7574,10 +7577,10 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>55</v>
@@ -7601,7 +7604,7 @@
         <v>27</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>104</v>
@@ -7634,7 +7637,7 @@
         <v>29</v>
       </c>
       <c r="U79" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="V79" s="0" t="s">
         <v>31</v>
@@ -7648,10 +7651,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>78</v>
@@ -7708,24 +7711,24 @@
         <v>29</v>
       </c>
       <c r="U80" s="0" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="V80" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="X80" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>27</v>
@@ -7743,7 +7746,7 @@
         <v>27</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I81" s="0" t="s">
         <v>27</v>
@@ -7796,10 +7799,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>27</v>
@@ -7817,25 +7820,25 @@
         <v>27</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I82" s="0" t="s">
         <v>44</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K82" s="0" t="s">
         <v>71</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M82" s="0" t="s">
         <v>81</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O82" s="0" t="s">
         <v>92</v>
@@ -7862,18 +7865,18 @@
         <v>31</v>
       </c>
       <c r="W82" s="0" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="X82" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>27</v>
@@ -7885,7 +7888,7 @@
         <v>27</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>88</v>
@@ -7944,10 +7947,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>121</v>
@@ -7962,10 +7965,10 @@
         <v>143</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I84" s="0" t="s">
         <v>99</v>
@@ -7977,7 +7980,7 @@
         <v>81</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>92</v>
@@ -7995,7 +7998,7 @@
         <v>125</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="S84" s="0" t="s">
         <v>135</v>
@@ -8010,18 +8013,18 @@
         <v>31</v>
       </c>
       <c r="W84" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="X84" s="0" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>27</v>
@@ -8092,10 +8095,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>27</v>
@@ -8131,10 +8134,10 @@
         <v>48</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P86" s="0" t="s">
         <v>49</v>
@@ -8158,18 +8161,18 @@
         <v>31</v>
       </c>
       <c r="W86" s="0" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="X86" s="0" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>27</v>
@@ -8184,7 +8187,7 @@
         <v>28</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>27</v>
@@ -8240,10 +8243,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>27</v>
@@ -8258,7 +8261,7 @@
         <v>35</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>27</v>
@@ -8273,7 +8276,7 @@
         <v>59</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M88" s="0" t="s">
         <v>69</v>
@@ -8306,18 +8309,18 @@
         <v>31</v>
       </c>
       <c r="W88" s="0" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="X88" s="0" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>65</v>
@@ -8329,10 +8332,10 @@
         <v>27</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>27</v>
@@ -8388,10 +8391,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>27</v>
@@ -8406,7 +8409,7 @@
         <v>28</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>27</v>
@@ -8421,7 +8424,7 @@
         <v>69</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M90" s="0" t="s">
         <v>71</v>
@@ -8454,18 +8457,18 @@
         <v>31</v>
       </c>
       <c r="W90" s="0" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="X90" s="0" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>27</v>
@@ -8536,10 +8539,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>27</v>
@@ -8599,7 +8602,7 @@
         <v>30</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="W92" s="0" t="s">
         <v>32</v>
@@ -8610,10 +8613,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>27</v>
@@ -8673,7 +8676,7 @@
         <v>30</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>32</v>
@@ -8684,10 +8687,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>27</v>
@@ -8747,7 +8750,7 @@
         <v>30</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="W94" s="0" t="s">
         <v>32</v>
@@ -8758,10 +8761,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>27</v>
@@ -8821,7 +8824,7 @@
         <v>30</v>
       </c>
       <c r="V95" s="0" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="W95" s="0" t="s">
         <v>32</v>
@@ -8832,10 +8835,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>27</v>
@@ -8895,7 +8898,7 @@
         <v>30</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>32</v>
@@ -8906,10 +8909,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>27</v>
@@ -8969,7 +8972,7 @@
         <v>30</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>32</v>
@@ -8980,10 +8983,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>27</v>
@@ -9043,7 +9046,7 @@
         <v>30</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>32</v>
@@ -9054,10 +9057,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>27</v>
@@ -9117,7 +9120,7 @@
         <v>30</v>
       </c>
       <c r="V99" s="0" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>32</v>
@@ -9128,10 +9131,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>27</v>
@@ -9191,7 +9194,7 @@
         <v>30</v>
       </c>
       <c r="V100" s="0" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>32</v>
@@ -9202,10 +9205,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>27</v>
@@ -9265,7 +9268,7 @@
         <v>30</v>
       </c>
       <c r="V101" s="0" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="W101" s="0" t="s">
         <v>32</v>
@@ -9276,10 +9279,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>27</v>
@@ -9339,7 +9342,7 @@
         <v>30</v>
       </c>
       <c r="V102" s="0" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="W102" s="0" t="s">
         <v>32</v>
@@ -9350,10 +9353,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>27</v>
@@ -9413,7 +9416,7 @@
         <v>30</v>
       </c>
       <c r="V103" s="0" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="W103" s="0" t="s">
         <v>32</v>
@@ -9424,10 +9427,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>27</v>
@@ -9487,7 +9490,7 @@
         <v>30</v>
       </c>
       <c r="V104" s="0" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="W104" s="0" t="s">
         <v>32</v>
@@ -9498,10 +9501,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>27</v>
@@ -9561,7 +9564,7 @@
         <v>30</v>
       </c>
       <c r="V105" s="0" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>32</v>
@@ -9572,10 +9575,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>27</v>
@@ -9635,7 +9638,7 @@
         <v>30</v>
       </c>
       <c r="V106" s="0" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="W106" s="0" t="s">
         <v>32</v>
@@ -9646,10 +9649,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>27</v>
@@ -9709,7 +9712,7 @@
         <v>30</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>32</v>
@@ -9720,10 +9723,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>27</v>
@@ -9783,7 +9786,7 @@
         <v>30</v>
       </c>
       <c r="V108" s="0" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="W108" s="0" t="s">
         <v>32</v>
@@ -9794,10 +9797,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>27</v>
@@ -9857,7 +9860,7 @@
         <v>30</v>
       </c>
       <c r="V109" s="0" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="W109" s="0" t="s">
         <v>32</v>
@@ -9868,10 +9871,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>27</v>
@@ -9931,7 +9934,7 @@
         <v>30</v>
       </c>
       <c r="V110" s="0" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="W110" s="0" t="s">
         <v>32</v>
@@ -9942,10 +9945,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>27</v>
@@ -10005,7 +10008,7 @@
         <v>30</v>
       </c>
       <c r="V111" s="0" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="W111" s="0" t="s">
         <v>32</v>
@@ -10016,10 +10019,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>27</v>
@@ -10079,7 +10082,7 @@
         <v>30</v>
       </c>
       <c r="V112" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="W112" s="0" t="s">
         <v>32</v>
@@ -10090,10 +10093,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>27</v>
@@ -10153,7 +10156,7 @@
         <v>30</v>
       </c>
       <c r="V113" s="0" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="W113" s="0" t="s">
         <v>32</v>
@@ -10164,10 +10167,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>27</v>
@@ -10227,7 +10230,7 @@
         <v>30</v>
       </c>
       <c r="V114" s="0" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="W114" s="0" t="s">
         <v>32</v>
@@ -10238,10 +10241,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>27</v>
@@ -10301,7 +10304,7 @@
         <v>30</v>
       </c>
       <c r="V115" s="0" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="W115" s="0" t="s">
         <v>32</v>
@@ -10312,10 +10315,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>27</v>
@@ -10375,7 +10378,7 @@
         <v>30</v>
       </c>
       <c r="V116" s="0" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="W116" s="0" t="s">
         <v>32</v>
@@ -10386,10 +10389,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>27</v>
@@ -10460,10 +10463,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>27</v>
@@ -10534,10 +10537,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>27</v>
@@ -10608,10 +10611,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>27</v>
@@ -10682,10 +10685,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>27</v>
@@ -10756,10 +10759,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>27</v>
@@ -10830,10 +10833,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>27</v>
@@ -10904,10 +10907,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>27</v>
@@ -10978,10 +10981,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>27</v>
@@ -11052,10 +11055,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>27</v>
@@ -11126,10 +11129,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>27</v>
@@ -11200,10 +11203,10 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>27</v>
@@ -11274,10 +11277,10 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>27</v>
@@ -11348,10 +11351,10 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>27</v>
@@ -11422,10 +11425,10 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>27</v>
@@ -11496,10 +11499,10 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>27</v>
@@ -11570,10 +11573,10 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>27</v>

--- a/docs/兵器数值.xlsx
+++ b/docs/兵器数值.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="588">
   <si>
     <t>1兵器id</t>
   </si>
@@ -974,6 +974,21 @@
     <t>0.9</t>
   </si>
   <si>
+    <t>102301</t>
+  </si>
+  <si>
+    <t>无名剑</t>
+  </si>
+  <si>
+    <t>33002013</t>
+  </si>
+  <si>
+    <t>354天04:50:00</t>
+  </si>
+  <si>
+    <t>30603000</t>
+  </si>
+  <si>
     <t>103001</t>
   </si>
   <si>
@@ -1680,6 +1695,15 @@
   </si>
   <si>
     <t>寒玉缠手(周伯通)</t>
+  </si>
+  <si>
+    <t>200032</t>
+  </si>
+  <si>
+    <t>大燕缠手</t>
+  </si>
+  <si>
+    <t>34002001</t>
   </si>
   <si>
     <t>201001</t>
@@ -1797,7 +1821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X133"/>
+  <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4783,13 +4807,13 @@
         <v>258</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>27</v>
@@ -5807,114 +5831,114 @@
         <v>321</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E55" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="N55" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="O55" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q55" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R55" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="T55" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="U55" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V55" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="G55" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J55" s="0" t="s">
+      <c r="W55" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="K55" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L55" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="M55" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N55" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="O55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="R55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="S55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T55" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U55" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="V55" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="W55" s="0" t="s">
+      <c r="X55" s="0" t="s">
         <v>324</v>
-      </c>
-      <c r="X55" s="0" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>322</v>
-      </c>
       <c r="G56" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H56" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="I56" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>329</v>
-      </c>
       <c r="K56" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="M56" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="L56" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M56" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="N56" s="0" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="O56" s="0" t="s">
         <v>29</v>
@@ -5935,42 +5959,42 @@
         <v>29</v>
       </c>
       <c r="U56" s="0" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="V56" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W56" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="X56" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="X56" s="0" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="0" t="s">
         <v>333</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>88</v>
       </c>
       <c r="I57" s="0" t="s">
         <v>27</v>
@@ -5982,19 +6006,19 @@
         <v>59</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c r="M57" s="0" t="s">
         <v>69</v>
       </c>
       <c r="N57" s="0" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="Q57" s="0" t="s">
         <v>29</v>
@@ -6009,7 +6033,7 @@
         <v>29</v>
       </c>
       <c r="U57" s="0" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="V57" s="0" t="s">
         <v>31</v>
@@ -6029,46 +6053,46 @@
         <v>338</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H58" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="I58" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>340</v>
-      </c>
       <c r="K58" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="M58" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="L58" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="M58" s="0" t="s">
+      <c r="N58" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="O58" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="N58" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="O58" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="P58" s="0" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="Q58" s="0" t="s">
         <v>29</v>
@@ -6083,66 +6107,66 @@
         <v>29</v>
       </c>
       <c r="U58" s="0" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="V58" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W58" s="0" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="X58" s="0" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="I59" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="0" t="s">
+      <c r="K59" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L59" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="G59" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L59" s="0" t="s">
-        <v>341</v>
-      </c>
       <c r="M59" s="0" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N59" s="0" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="Q59" s="0" t="s">
         <v>29</v>
@@ -6163,33 +6187,33 @@
         <v>31</v>
       </c>
       <c r="W59" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="X59" s="0" t="s">
         <v>348</v>
-      </c>
-      <c r="X59" s="0" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="C60" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60" s="0" t="s">
-        <v>346</v>
-      </c>
       <c r="G60" s="0" t="s">
-        <v>66</v>
+        <v>352</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>27</v>
@@ -6204,19 +6228,19 @@
         <v>48</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>193</v>
+        <v>346</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N60" s="0" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="Q60" s="0" t="s">
         <v>29</v>
@@ -6237,33 +6261,33 @@
         <v>31</v>
       </c>
       <c r="W60" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="X60" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>356</v>
+        <v>66</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>27</v>
@@ -6275,22 +6299,22 @@
         <v>27</v>
       </c>
       <c r="K61" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="M61" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="L61" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="M61" s="0" t="s">
+      <c r="N61" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="O61" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N61" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="P61" s="0" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="Q61" s="0" t="s">
         <v>29</v>
@@ -6305,7 +6329,7 @@
         <v>29</v>
       </c>
       <c r="U61" s="0" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="V61" s="0" t="s">
         <v>31</v>
@@ -6325,16 +6349,16 @@
         <v>360</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>361</v>
@@ -6349,22 +6373,22 @@
         <v>27</v>
       </c>
       <c r="K62" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="M62" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="L62" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M62" s="0" t="s">
+      <c r="N62" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O62" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="N62" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="O62" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="P62" s="0" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="Q62" s="0" t="s">
         <v>29</v>
@@ -6379,7 +6403,7 @@
         <v>29</v>
       </c>
       <c r="U62" s="0" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="V62" s="0" t="s">
         <v>31</v>
@@ -6399,19 +6423,19 @@
         <v>365</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>208</v>
+        <v>366</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>27</v>
@@ -6423,19 +6447,19 @@
         <v>27</v>
       </c>
       <c r="K63" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M63" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="L63" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="M63" s="0" t="s">
+      <c r="N63" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="O63" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="N63" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O63" s="0" t="s">
-        <v>92</v>
       </c>
       <c r="P63" s="0" t="s">
         <v>72</v>
@@ -6453,39 +6477,39 @@
         <v>29</v>
       </c>
       <c r="U63" s="0" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="V63" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W63" s="0" t="s">
-        <v>94</v>
+        <v>367</v>
       </c>
       <c r="X63" s="0" t="s">
-        <v>95</v>
+        <v>368</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>27</v>
@@ -6497,22 +6521,22 @@
         <v>27</v>
       </c>
       <c r="K64" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M64" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L64" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M64" s="0" t="s">
+      <c r="N64" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O64" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="N64" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="P64" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="Q64" s="0" t="s">
         <v>29</v>
@@ -6527,39 +6551,39 @@
         <v>29</v>
       </c>
       <c r="U64" s="0" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="V64" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W64" s="0" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="X64" s="0" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>27</v>
@@ -6571,22 +6595,22 @@
         <v>27</v>
       </c>
       <c r="K65" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M65" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="L65" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M65" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="N65" s="0" t="s">
         <v>103</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="Q65" s="0" t="s">
         <v>29</v>
@@ -6601,39 +6625,39 @@
         <v>29</v>
       </c>
       <c r="U65" s="0" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="V65" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W65" s="0" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="X65" s="0" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>372</v>
+        <v>142</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>27</v>
@@ -6645,22 +6669,22 @@
         <v>27</v>
       </c>
       <c r="K66" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M66" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="L66" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="M66" s="0" t="s">
+      <c r="N66" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="O66" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="N66" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O66" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="P66" s="0" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="Q66" s="0" t="s">
         <v>29</v>
@@ -6675,36 +6699,36 @@
         <v>29</v>
       </c>
       <c r="U66" s="0" t="s">
-        <v>373</v>
+        <v>116</v>
       </c>
       <c r="V66" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W66" s="0" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="X66" s="0" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>376</v>
+        <v>178</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>377</v>
@@ -6722,25 +6746,25 @@
         <v>104</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="M67" s="0" t="s">
         <v>115</v>
       </c>
       <c r="N67" s="0" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="O67" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="S67" s="0" t="s">
         <v>29</v>
@@ -6755,10 +6779,10 @@
         <v>31</v>
       </c>
       <c r="W67" s="0" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="X67" s="0" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68">
@@ -6769,19 +6793,19 @@
         <v>380</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>27</v>
+        <v>381</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>28</v>
+        <v>351</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>27</v>
@@ -6793,28 +6817,28 @@
         <v>27</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="M68" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N68" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="O68" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="N68" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="O68" s="0" t="s">
+      <c r="P68" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q68" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="P68" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q68" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="R68" s="0" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="S68" s="0" t="s">
         <v>29</v>
@@ -6823,39 +6847,39 @@
         <v>29</v>
       </c>
       <c r="U68" s="0" t="s">
-        <v>30</v>
+        <v>383</v>
       </c>
       <c r="V68" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W68" s="0" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="X68" s="0" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E69" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>151</v>
+        <v>386</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>27</v>
@@ -6867,28 +6891,28 @@
         <v>27</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="N69" s="0" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="O69" s="0" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="S69" s="0" t="s">
         <v>29</v>
@@ -6903,33 +6927,33 @@
         <v>31</v>
       </c>
       <c r="W69" s="0" t="s">
-        <v>384</v>
+        <v>145</v>
       </c>
       <c r="X69" s="0" t="s">
-        <v>385</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>388</v>
+        <v>151</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>27</v>
@@ -6941,10 +6965,10 @@
         <v>27</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="M70" s="0" t="s">
         <v>29</v>
@@ -6977,33 +7001,33 @@
         <v>31</v>
       </c>
       <c r="W70" s="0" t="s">
-        <v>32</v>
+        <v>389</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>27</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>112</v>
+        <v>393</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>27</v>
@@ -7015,22 +7039,22 @@
         <v>27</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>346</v>
+        <v>29</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="N71" s="0" t="s">
-        <v>391</v>
+        <v>29</v>
       </c>
       <c r="O71" s="0" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>392</v>
+        <v>29</v>
       </c>
       <c r="Q71" s="0" t="s">
         <v>29</v>
@@ -7051,60 +7075,60 @@
         <v>31</v>
       </c>
       <c r="W71" s="0" t="s">
-        <v>393</v>
+        <v>32</v>
       </c>
       <c r="X71" s="0" t="s">
-        <v>394</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="B72" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="N72" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" s="0" t="s">
+      <c r="O72" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="P72" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L72" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="M72" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="N72" s="0" t="s">
-        <v>184</v>
-      </c>
-      <c r="O72" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="P72" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="Q72" s="0" t="s">
         <v>29</v>
@@ -7125,66 +7149,66 @@
         <v>31</v>
       </c>
       <c r="W72" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="X72" s="0" t="s">
         <v>399</v>
-      </c>
-      <c r="X72" s="0" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="B73" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="G73" s="0" t="s">
+      <c r="H73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L73" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I73" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="J73" s="0" t="s">
+      <c r="M73" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="N73" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="O73" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="P73" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="K73" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="M73" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="N73" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="O73" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="P73" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="Q73" s="0" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="S73" s="0" t="s">
         <v>29</v>
@@ -7199,45 +7223,45 @@
         <v>31</v>
       </c>
       <c r="W73" s="0" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="X73" s="0" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="G74" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="H74" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="C74" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I74" s="0" t="s">
-        <v>27</v>
-      </c>
       <c r="J74" s="0" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="L74" s="0" t="s">
         <v>410</v>
@@ -7246,25 +7270,25 @@
         <v>92</v>
       </c>
       <c r="N74" s="0" t="s">
-        <v>346</v>
+        <v>144</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="Q74" s="0" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>411</v>
+        <v>68</v>
       </c>
       <c r="S74" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="T74" s="0" t="s">
-        <v>412</v>
+        <v>29</v>
       </c>
       <c r="U74" s="0" t="s">
         <v>30</v>
@@ -7273,72 +7297,72 @@
         <v>31</v>
       </c>
       <c r="W74" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="X74" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L75" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="B75" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>151</v>
-      </c>
       <c r="M75" s="0" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="N75" s="0" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="O75" s="0" t="s">
         <v>104</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="Q75" s="0" t="s">
         <v>115</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="S75" s="0" t="s">
         <v>135</v>
       </c>
       <c r="T75" s="0" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="U75" s="0" t="s">
         <v>30</v>
@@ -7361,7 +7385,7 @@
         <v>421</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>27</v>
@@ -7370,72 +7394,72 @@
         <v>27</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="G76" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="I76" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L76" s="0" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="M76" s="0" t="s">
         <v>81</v>
       </c>
       <c r="N76" s="0" t="s">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="Q76" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>29</v>
+        <v>422</v>
       </c>
       <c r="S76" s="0" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="T76" s="0" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
       <c r="U76" s="0" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="V76" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W76" s="0" t="s">
-        <v>94</v>
+        <v>423</v>
       </c>
       <c r="X76" s="0" t="s">
-        <v>95</v>
+        <v>424</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>27</v>
@@ -7450,31 +7474,31 @@
         <v>27</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="I77" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>424</v>
+        <v>72</v>
       </c>
       <c r="K77" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="M77" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L77" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="M77" s="0" t="s">
+      <c r="N77" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O77" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="N77" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="O77" s="0" t="s">
-        <v>104</v>
-      </c>
       <c r="P77" s="0" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="Q77" s="0" t="s">
         <v>29</v>
@@ -7489,27 +7513,27 @@
         <v>29</v>
       </c>
       <c r="U77" s="0" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="V77" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W77" s="0" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="X77" s="0" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>27</v>
@@ -7524,31 +7548,31 @@
         <v>27</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="I78" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>103</v>
+        <v>429</v>
       </c>
       <c r="K78" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="M78" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="L78" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="M78" s="0" t="s">
-        <v>104</v>
       </c>
       <c r="N78" s="0" t="s">
         <v>103</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="Q78" s="0" t="s">
         <v>29</v>
@@ -7563,30 +7587,30 @@
         <v>29</v>
       </c>
       <c r="U78" s="0" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="V78" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W78" s="0" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="X78" s="0" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E79" s="0" t="s">
         <v>27</v>
@@ -7598,31 +7622,31 @@
         <v>27</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="I79" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="K79" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M79" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="L79" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="M79" s="0" t="s">
+      <c r="N79" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="O79" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="N79" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="O79" s="0" t="s">
-        <v>125</v>
-      </c>
       <c r="P79" s="0" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="Q79" s="0" t="s">
         <v>29</v>
@@ -7637,30 +7661,30 @@
         <v>29</v>
       </c>
       <c r="U79" s="0" t="s">
-        <v>429</v>
+        <v>116</v>
       </c>
       <c r="V79" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W79" s="0" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="X79" s="0" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E80" s="0" t="s">
         <v>27</v>
@@ -7672,37 +7696,37 @@
         <v>27</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I80" s="0" t="s">
         <v>27</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>104</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="M80" s="0" t="s">
         <v>115</v>
       </c>
       <c r="N80" s="0" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="O80" s="0" t="s">
         <v>125</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="S80" s="0" t="s">
         <v>29</v>
@@ -7711,16 +7735,16 @@
         <v>29</v>
       </c>
       <c r="U80" s="0" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="V80" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W80" s="0" t="s">
-        <v>433</v>
+        <v>127</v>
       </c>
       <c r="X80" s="0" t="s">
-        <v>434</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81">
@@ -7731,78 +7755,78 @@
         <v>436</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E81" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H81" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="N81" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="O81" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="P81" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q81" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="R81" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="S81" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T81" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U81" s="0" t="s">
         <v>437</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="M81" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="N81" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="O81" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="P81" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q81" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="R81" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="S81" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="T81" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="U81" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="V81" s="0" t="s">
         <v>31</v>
       </c>
       <c r="W81" s="0" t="s">
-        <v>145</v>
+        <v>438</v>
       </c>
       <c r="X81" s="0" t="s">
-        <v>146</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>27</v>
@@ -7814,49 +7838,49 @@
         <v>27</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>27</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>170</v>
+        <v>442</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>410</v>
+        <v>143</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="N82" s="0" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="O82" s="0" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="Q82" s="0" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="S82" s="0" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="T82" s="0" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="U82" s="0" t="s">
         <v>30</v>
@@ -7865,18 +7889,18 @@
         <v>31</v>
       </c>
       <c r="W82" s="0" t="s">
-        <v>440</v>
+        <v>145</v>
       </c>
       <c r="X82" s="0" t="s">
-        <v>441</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>27</v>
@@ -7888,49 +7912,49 @@
         <v>27</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>301</v>
+        <v>46</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>29</v>
+        <v>415</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="N83" s="0" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="R83" s="0" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="S83" s="0" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="T83" s="0" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="U83" s="0" t="s">
         <v>30</v>
@@ -7939,72 +7963,72 @@
         <v>31</v>
       </c>
       <c r="W83" s="0" t="s">
-        <v>32</v>
+        <v>445</v>
       </c>
       <c r="X83" s="0" t="s">
-        <v>27</v>
+        <v>446</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="J84" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>446</v>
+        <v>29</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="N84" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O84" s="0" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="S84" s="0" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="T84" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="U84" s="0" t="s">
         <v>30</v>
@@ -8013,10 +8037,10 @@
         <v>31</v>
       </c>
       <c r="W84" s="0" t="s">
-        <v>447</v>
+        <v>32</v>
       </c>
       <c r="X84" s="0" t="s">
-        <v>448</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85">
@@ -8027,58 +8051,58 @@
         <v>450</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="J85" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="N85" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="Q85" s="0" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="R85" s="0" t="s">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="S85" s="0" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="T85" s="0" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="U85" s="0" t="s">
         <v>30</v>
@@ -8087,18 +8111,18 @@
         <v>31</v>
       </c>
       <c r="W85" s="0" t="s">
-        <v>32</v>
+        <v>452</v>
       </c>
       <c r="X85" s="0" t="s">
-        <v>27</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>27</v>
@@ -8107,13 +8131,13 @@
         <v>27</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>27</v>
@@ -8122,31 +8146,31 @@
         <v>27</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="N86" s="0" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="Q86" s="0" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S86" s="0" t="s">
         <v>29</v>
@@ -8161,66 +8185,66 @@
         <v>31</v>
       </c>
       <c r="W86" s="0" t="s">
-        <v>453</v>
+        <v>32</v>
       </c>
       <c r="X86" s="0" t="s">
-        <v>454</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>457</v>
+        <v>57</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N87" s="0" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="R87" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S87" s="0" t="s">
         <v>29</v>
@@ -8235,54 +8259,54 @@
         <v>31</v>
       </c>
       <c r="W87" s="0" t="s">
-        <v>32</v>
+        <v>458</v>
       </c>
       <c r="X87" s="0" t="s">
-        <v>27</v>
+        <v>459</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E88" s="0" t="s">
         <v>27</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>211</v>
+        <v>462</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J88" s="0" t="s">
         <v>27</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>224</v>
+        <v>29</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N88" s="0" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="O88" s="0" t="s">
         <v>29</v>
@@ -8309,21 +8333,21 @@
         <v>31</v>
       </c>
       <c r="W88" s="0" t="s">
-        <v>460</v>
+        <v>32</v>
       </c>
       <c r="X88" s="0" t="s">
-        <v>461</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>27</v>
@@ -8332,10 +8356,10 @@
         <v>27</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>464</v>
+        <v>35</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>27</v>
@@ -8347,16 +8371,16 @@
         <v>27</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N89" s="0" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="O89" s="0" t="s">
         <v>29</v>
@@ -8383,21 +8407,21 @@
         <v>31</v>
       </c>
       <c r="W89" s="0" t="s">
-        <v>32</v>
+        <v>465</v>
       </c>
       <c r="X89" s="0" t="s">
-        <v>27</v>
+        <v>466</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>27</v>
@@ -8406,10 +8430,10 @@
         <v>27</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>28</v>
+        <v>469</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>27</v>
@@ -8418,25 +8442,25 @@
         <v>27</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>346</v>
+        <v>29</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="N90" s="0" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="O90" s="0" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Q90" s="0" t="s">
         <v>29</v>
@@ -8457,18 +8481,18 @@
         <v>31</v>
       </c>
       <c r="W90" s="0" t="s">
-        <v>467</v>
+        <v>32</v>
       </c>
       <c r="X90" s="0" t="s">
-        <v>468</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>27</v>
@@ -8480,10 +8504,10 @@
         <v>27</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>27</v>
@@ -8492,25 +8516,25 @@
         <v>27</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>29</v>
+        <v>351</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N91" s="0" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="O91" s="0" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Q91" s="0" t="s">
         <v>29</v>
@@ -8531,18 +8555,18 @@
         <v>31</v>
       </c>
       <c r="W91" s="0" t="s">
-        <v>32</v>
+        <v>472</v>
       </c>
       <c r="X91" s="0" t="s">
-        <v>27</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>27</v>
@@ -8602,7 +8626,7 @@
         <v>30</v>
       </c>
       <c r="V92" s="0" t="s">
-        <v>473</v>
+        <v>31</v>
       </c>
       <c r="W92" s="0" t="s">
         <v>32</v>
@@ -8613,10 +8637,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>27</v>
@@ -8676,7 +8700,7 @@
         <v>30</v>
       </c>
       <c r="V93" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="W93" s="0" t="s">
         <v>32</v>
@@ -8687,10 +8711,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>27</v>
@@ -8750,7 +8774,7 @@
         <v>30</v>
       </c>
       <c r="V94" s="0" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="W94" s="0" t="s">
         <v>32</v>
@@ -8761,10 +8785,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>27</v>
@@ -8824,7 +8848,7 @@
         <v>30</v>
       </c>
       <c r="V95" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="W95" s="0" t="s">
         <v>32</v>
@@ -8835,10 +8859,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>27</v>
@@ -8898,7 +8922,7 @@
         <v>30</v>
       </c>
       <c r="V96" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="W96" s="0" t="s">
         <v>32</v>
@@ -8909,10 +8933,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>27</v>
@@ -8972,7 +8996,7 @@
         <v>30</v>
       </c>
       <c r="V97" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="W97" s="0" t="s">
         <v>32</v>
@@ -8983,10 +9007,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>27</v>
@@ -9046,7 +9070,7 @@
         <v>30</v>
       </c>
       <c r="V98" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="W98" s="0" t="s">
         <v>32</v>
@@ -9057,10 +9081,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>27</v>
@@ -9120,7 +9144,7 @@
         <v>30</v>
       </c>
       <c r="V99" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="W99" s="0" t="s">
         <v>32</v>
@@ -9131,10 +9155,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>27</v>
@@ -9194,7 +9218,7 @@
         <v>30</v>
       </c>
       <c r="V100" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="W100" s="0" t="s">
         <v>32</v>
@@ -9205,10 +9229,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>27</v>
@@ -9268,7 +9292,7 @@
         <v>30</v>
       </c>
       <c r="V101" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="W101" s="0" t="s">
         <v>32</v>
@@ -9279,10 +9303,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>27</v>
@@ -9342,7 +9366,7 @@
         <v>30</v>
       </c>
       <c r="V102" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="W102" s="0" t="s">
         <v>32</v>
@@ -9353,10 +9377,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>27</v>
@@ -9416,7 +9440,7 @@
         <v>30</v>
       </c>
       <c r="V103" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="W103" s="0" t="s">
         <v>32</v>
@@ -9427,10 +9451,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>27</v>
@@ -9490,7 +9514,7 @@
         <v>30</v>
       </c>
       <c r="V104" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="W104" s="0" t="s">
         <v>32</v>
@@ -9501,10 +9525,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>27</v>
@@ -9564,7 +9588,7 @@
         <v>30</v>
       </c>
       <c r="V105" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="W105" s="0" t="s">
         <v>32</v>
@@ -9575,10 +9599,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>27</v>
@@ -9638,7 +9662,7 @@
         <v>30</v>
       </c>
       <c r="V106" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="W106" s="0" t="s">
         <v>32</v>
@@ -9649,10 +9673,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>27</v>
@@ -9712,7 +9736,7 @@
         <v>30</v>
       </c>
       <c r="V107" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="W107" s="0" t="s">
         <v>32</v>
@@ -9723,10 +9747,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>27</v>
@@ -9786,7 +9810,7 @@
         <v>30</v>
       </c>
       <c r="V108" s="0" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="W108" s="0" t="s">
         <v>32</v>
@@ -9797,10 +9821,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>27</v>
@@ -9860,7 +9884,7 @@
         <v>30</v>
       </c>
       <c r="V109" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="W109" s="0" t="s">
         <v>32</v>
@@ -9871,10 +9895,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>27</v>
@@ -9934,7 +9958,7 @@
         <v>30</v>
       </c>
       <c r="V110" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="W110" s="0" t="s">
         <v>32</v>
@@ -9945,10 +9969,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>27</v>
@@ -10008,7 +10032,7 @@
         <v>30</v>
       </c>
       <c r="V111" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="W111" s="0" t="s">
         <v>32</v>
@@ -10019,10 +10043,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C112" s="0" t="s">
         <v>27</v>
@@ -10082,7 +10106,7 @@
         <v>30</v>
       </c>
       <c r="V112" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="W112" s="0" t="s">
         <v>32</v>
@@ -10093,10 +10117,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C113" s="0" t="s">
         <v>27</v>
@@ -10156,7 +10180,7 @@
         <v>30</v>
       </c>
       <c r="V113" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="W113" s="0" t="s">
         <v>32</v>
@@ -10167,10 +10191,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C114" s="0" t="s">
         <v>27</v>
@@ -10230,7 +10254,7 @@
         <v>30</v>
       </c>
       <c r="V114" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="W114" s="0" t="s">
         <v>32</v>
@@ -10241,10 +10265,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C115" s="0" t="s">
         <v>27</v>
@@ -10304,7 +10328,7 @@
         <v>30</v>
       </c>
       <c r="V115" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="W115" s="0" t="s">
         <v>32</v>
@@ -10315,10 +10339,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C116" s="0" t="s">
         <v>27</v>
@@ -10378,7 +10402,7 @@
         <v>30</v>
       </c>
       <c r="V116" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="W116" s="0" t="s">
         <v>32</v>
@@ -10389,10 +10413,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C117" s="0" t="s">
         <v>27</v>
@@ -10452,7 +10476,7 @@
         <v>30</v>
       </c>
       <c r="V117" s="0" t="s">
-        <v>31</v>
+        <v>550</v>
       </c>
       <c r="W117" s="0" t="s">
         <v>32</v>
@@ -10463,10 +10487,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C118" s="0" t="s">
         <v>27</v>
@@ -10537,10 +10561,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C119" s="0" t="s">
         <v>27</v>
@@ -10611,10 +10635,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C120" s="0" t="s">
         <v>27</v>
@@ -10685,10 +10709,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C121" s="0" t="s">
         <v>27</v>
@@ -10759,10 +10783,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C122" s="0" t="s">
         <v>27</v>
@@ -10833,10 +10857,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C123" s="0" t="s">
         <v>27</v>
@@ -10848,7 +10872,7 @@
         <v>27</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="G123" s="0" t="s">
         <v>27</v>
@@ -10896,7 +10920,7 @@
         <v>30</v>
       </c>
       <c r="V123" s="0" t="s">
-        <v>31</v>
+        <v>563</v>
       </c>
       <c r="W123" s="0" t="s">
         <v>32</v>
@@ -10907,10 +10931,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C124" s="0" t="s">
         <v>27</v>
@@ -10981,10 +11005,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C125" s="0" t="s">
         <v>27</v>
@@ -11055,10 +11079,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C126" s="0" t="s">
         <v>27</v>
@@ -11129,10 +11153,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C127" s="0" t="s">
         <v>27</v>
@@ -11203,10 +11227,10 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C128" s="0" t="s">
         <v>27</v>
@@ -11277,10 +11301,10 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C129" s="0" t="s">
         <v>27</v>
@@ -11351,10 +11375,10 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C130" s="0" t="s">
         <v>27</v>
@@ -11425,10 +11449,10 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>27</v>
@@ -11499,10 +11523,10 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>27</v>
@@ -11573,10 +11597,10 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C133" s="0" t="s">
         <v>27</v>
@@ -11642,6 +11666,154 @@
         <v>32</v>
       </c>
       <c r="X133" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G134" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I134" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J134" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T134" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U134" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V134" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W134" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="X134" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="G135" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="H135" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I135" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J135" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="M135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="N135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="P135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="R135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="S135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="T135" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="U135" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="V135" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="W135" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="X135" s="0" t="s">
         <v>27</v>
       </c>
     </row>
